--- a/plan/招式.xlsx
+++ b/plan/招式.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\pealpool.github.io\plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D2A1949-FF0B-42BB-99AD-C765CB4DD32B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0566903A-DFD4-4443-9D65-E3CBD4517EA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" xr2:uid="{07694949-CE91-4AC6-84BF-EA7187E3619C}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="131">
   <si>
     <t>派别</t>
   </si>
@@ -326,7 +326,237 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>全体部位伤害</t>
+    <t>大力金刚腿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>耐力伤害 +10%，5s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>五毒教</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛛网缠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>特效</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>流血</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒积累</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不同部位不同效果：5s
+①脚-10%闪避-10%格挡率；
+②手攻击慢0.2s速度，手格挡率-10%；
+③头：命中率-10%，闪避率-10%，格挡率-10%；</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>本招式特效加倍，5s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机五毒之一：
+【青蛇】命中-10%，攻击增浮动率-10%，破绽发现率 -10%
+【蜈蚣】格挡率-10%，防御-10%
+【蝎子】伤害-10%，削耐-10%，破绽伤害-10%
+【蜘蛛】闪避几率-10%，攻击慢0.2s
+【蟾蜍】最大耐力-10%，耐力恢复-10%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒伤害+10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>命中率+10%，5s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>青蛇刁手</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>五毒掌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛤蟆功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内伤防御 +15%，被直接命中时，反击内功伤害50</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>五毒衣</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>被直接命中时，反击毒伤害10；毒防御5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>外伤防御 +30%，内伤防御 +15%，</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹰爪门</t>
+  </si>
+  <si>
+    <t>鹰爪功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有部位均受伤害，反伤/反击无效</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成流血 9/s，5s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞鹰踢</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪避+10%，5s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>沾衣十八跌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>反击外伤伤害30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙爪手</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>外伤伤害+10%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>外伤伤害+10%，5s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://taiwu.huijiwiki.com/wiki/%E6%A8%A1%E6%9D%BF:Navbox%E5%8A%9F%E6%B3%95</t>
+  </si>
+  <si>
+    <t>般若掌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗汉拳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大力金刚指</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>伏魔腿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通臂拳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>命中+10%，5s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-10%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>达摩手</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>格挡率+10%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一苇渡江</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一指禅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>千手法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>格挡+10%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金身法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>太玄功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>外伤伤害+10%，外伤防御 +10%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内伤伤害+10%，内伤防御 +10%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一元指</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内伤伤害+10%，5s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>缠丝手</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>四象掌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金顶绵掌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>飘雪穿云掌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>截手九式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛光普照</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>全身同时受伤</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -420,7 +650,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -433,18 +663,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -460,8 +681,29 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -469,32 +711,47 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -812,111 +1069,133 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{897EE391-4514-4BBB-B5AB-BFD81F1FD685}">
-  <dimension ref="A1:U19"/>
+  <dimension ref="A1:X37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L19" sqref="L19"/>
+      <selection pane="bottomRight" activeCell="W12" sqref="W12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="1" customWidth="1"/>
     <col min="4" max="6" width="4.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="3.5" style="4" customWidth="1"/>
+    <col min="7" max="7" width="3.5" style="3" customWidth="1"/>
     <col min="8" max="10" width="3.5" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="26.375" style="8" customWidth="1"/>
-    <col min="21" max="21" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.125" style="1"/>
+    <col min="11" max="11" width="6.25" style="3" customWidth="1"/>
+    <col min="12" max="12" width="6.25" style="1" customWidth="1"/>
+    <col min="13" max="14" width="6.25" style="4" customWidth="1"/>
+    <col min="15" max="19" width="6.25" style="1" customWidth="1"/>
+    <col min="20" max="21" width="6.25" style="2" customWidth="1"/>
+    <col min="22" max="22" width="50.25" style="26" customWidth="1"/>
+    <col min="23" max="23" width="26.375" style="5" customWidth="1"/>
+    <col min="24" max="24" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:24" s="21" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="B1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="3" t="s">
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="4" t="s">
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="22" t="s">
+      <c r="N1" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="U1" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="V1" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="W1" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="X1" s="22" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="D2" s="1" t="s">
+    <row r="2" spans="1:24" s="21" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="D2" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="22"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="K2" s="23"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="22"/>
+      <c r="X2" s="22"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>35</v>
       </c>
@@ -926,7 +1205,7 @@
       <c r="E3" s="1">
         <v>1</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <v>1</v>
       </c>
       <c r="H3" s="1">
@@ -936,7 +1215,7 @@
         <v>1</v>
       </c>
       <c r="L3" s="1">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="O3" s="1">
         <v>0.5</v>
@@ -950,138 +1229,938 @@
       <c r="S3" s="1">
         <v>3</v>
       </c>
-      <c r="T3" s="8" t="s">
+      <c r="W3" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
+    <row r="4" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="V4" s="26"/>
+      <c r="W4" s="5"/>
+    </row>
+    <row r="5" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="V5" s="26"/>
+      <c r="W5" s="5"/>
+    </row>
+    <row r="6" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1</v>
+      </c>
+      <c r="K6" s="3">
+        <v>60</v>
+      </c>
+      <c r="L6" s="2">
+        <v>60</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="N6" s="4"/>
+      <c r="O6" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="P6" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="S6" s="2">
+        <v>4</v>
+      </c>
+      <c r="V6" s="26"/>
+      <c r="W6" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1</v>
+      </c>
+      <c r="K7" s="3">
+        <v>100</v>
+      </c>
+      <c r="L7" s="1">
+        <v>20</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="P7" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="S7" s="1">
+        <v>3</v>
+      </c>
+      <c r="W7" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1</v>
+      </c>
+      <c r="K8" s="3">
+        <v>60</v>
+      </c>
+      <c r="L8" s="2">
+        <v>80</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="N8" s="4"/>
+      <c r="O8" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="P8" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="S8" s="2">
+        <v>3</v>
+      </c>
+      <c r="V8" s="26"/>
+      <c r="W8" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1</v>
+      </c>
+      <c r="K9" s="3">
+        <v>80</v>
+      </c>
+      <c r="L9" s="2">
+        <v>80</v>
+      </c>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="P9" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="S9" s="2">
+        <v>4</v>
+      </c>
+      <c r="V9" s="26"/>
+      <c r="W9" s="5"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+      <c r="K10" s="3">
+        <v>60</v>
+      </c>
+      <c r="L10" s="1">
+        <v>100</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="P10" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="S10" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1</v>
+      </c>
+      <c r="K11" s="3">
+        <v>80</v>
+      </c>
+      <c r="L11" s="2">
+        <v>80</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="N11" s="4"/>
+      <c r="O11" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="P11" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="S11" s="2">
+        <v>10</v>
+      </c>
+      <c r="V11" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="W11" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1</v>
+      </c>
+      <c r="K13" s="3">
+        <v>60</v>
+      </c>
+      <c r="L13" s="1">
+        <v>60</v>
+      </c>
+      <c r="R13" s="1">
+        <v>50</v>
+      </c>
+      <c r="S13" s="1">
+        <v>6</v>
+      </c>
+      <c r="W13" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="6"/>
+      <c r="B14" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1</v>
+      </c>
+      <c r="K14" s="3">
+        <v>20</v>
+      </c>
+      <c r="L14" s="2">
+        <v>30</v>
+      </c>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="R14" s="2">
+        <v>30</v>
+      </c>
+      <c r="S14" s="2">
+        <v>3</v>
+      </c>
+      <c r="V14" s="26"/>
+      <c r="W14" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="6"/>
+      <c r="G15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="V15" s="26"/>
+      <c r="W15" s="5"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1</v>
+      </c>
+      <c r="K17" s="3">
+        <v>140</v>
+      </c>
+      <c r="O17" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="P17" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="S17" s="1">
+        <v>3</v>
+      </c>
+      <c r="W17" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1</v>
+      </c>
+      <c r="G18" s="3">
+        <v>1</v>
+      </c>
+      <c r="H18" s="2">
+        <v>1</v>
+      </c>
+      <c r="I18" s="2">
+        <v>1</v>
+      </c>
+      <c r="J18" s="2">
+        <v>1</v>
+      </c>
+      <c r="K18" s="3">
+        <v>100</v>
+      </c>
+      <c r="L18" s="2">
+        <v>30</v>
+      </c>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="P18" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="S18" s="2">
+        <v>3</v>
+      </c>
+      <c r="V18" s="26"/>
+      <c r="W18" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1</v>
+      </c>
+      <c r="G19" s="3">
+        <v>1</v>
+      </c>
+      <c r="H19" s="2">
+        <v>1</v>
+      </c>
+      <c r="I19" s="2">
+        <v>1</v>
+      </c>
+      <c r="J19" s="2">
+        <v>1</v>
+      </c>
+      <c r="K19" s="3">
+        <v>180</v>
+      </c>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="P19" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="S19" s="2">
+        <v>4</v>
+      </c>
+      <c r="V19" s="26"/>
+      <c r="W19" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1</v>
+      </c>
+      <c r="G20" s="3">
+        <v>1</v>
+      </c>
+      <c r="H20" s="2">
+        <v>1</v>
+      </c>
+      <c r="I20" s="2">
+        <v>1</v>
+      </c>
+      <c r="J20" s="2">
+        <v>1</v>
+      </c>
+      <c r="K20" s="3">
+        <v>90</v>
+      </c>
+      <c r="L20" s="2">
+        <v>10</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="N20" s="4"/>
+      <c r="O20" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="P20" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="S20" s="2">
+        <v>3</v>
+      </c>
+      <c r="V20" s="26"/>
+      <c r="W20" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="3">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1">
+        <v>1</v>
+      </c>
+      <c r="I21" s="1">
+        <v>1</v>
+      </c>
+      <c r="J21" s="1">
+        <v>1</v>
+      </c>
+      <c r="K21" s="3">
+        <v>210</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="O21" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="P21" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="S21" s="1">
+        <v>6</v>
+      </c>
+      <c r="W21" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="1">
-        <v>1</v>
-      </c>
-      <c r="G12" s="4">
-        <v>1</v>
-      </c>
-      <c r="H12" s="1">
-        <v>1</v>
-      </c>
-      <c r="I12" s="1">
-        <v>1</v>
-      </c>
-      <c r="J12" s="1">
-        <v>1</v>
-      </c>
-      <c r="L12" s="1">
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="G23" s="3">
+        <v>1</v>
+      </c>
+      <c r="H23" s="1">
+        <v>1</v>
+      </c>
+      <c r="I23" s="1">
+        <v>1</v>
+      </c>
+      <c r="J23" s="1">
+        <v>1</v>
+      </c>
+      <c r="L23" s="1">
         <v>60</v>
       </c>
-      <c r="M12" s="5" t="s">
+      <c r="M23" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="N12" s="5" t="s">
+      <c r="N23" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="O12" s="1">
+      <c r="O23" s="1">
         <v>0.2</v>
       </c>
-      <c r="P12" s="1">
+      <c r="P23" s="1">
         <v>0.5</v>
       </c>
-      <c r="Q12" s="1">
+      <c r="Q23" s="1">
         <v>0.2</v>
       </c>
-      <c r="R12" s="1">
+      <c r="R23" s="1">
         <v>10</v>
       </c>
-      <c r="S12" s="1">
+      <c r="S23" s="1">
         <v>3</v>
       </c>
-      <c r="T12" s="8" t="s">
+      <c r="W23" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A18" s="9" t="s">
+    <row r="26" spans="1:23" ht="57" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="G26" s="3">
+        <v>1</v>
+      </c>
+      <c r="I26" s="1">
+        <v>1</v>
+      </c>
+      <c r="J26" s="1">
+        <v>1</v>
+      </c>
+      <c r="S26" s="1">
+        <v>3</v>
+      </c>
+      <c r="V26" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="W26" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="G27" s="3">
+        <v>1</v>
+      </c>
+      <c r="H27" s="1">
+        <v>1</v>
+      </c>
+      <c r="I27" s="1">
+        <v>1</v>
+      </c>
+      <c r="K27" s="3">
+        <v>10</v>
+      </c>
+      <c r="L27" s="1">
+        <v>20</v>
+      </c>
+      <c r="O27" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="P27" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="S27" s="1">
+        <v>3</v>
+      </c>
+      <c r="U27" s="2">
         <v>30</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="V27" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="W27" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E28" s="2">
+        <v>1</v>
+      </c>
+      <c r="G28" s="3">
+        <v>1</v>
+      </c>
+      <c r="H28" s="2">
+        <v>1</v>
+      </c>
+      <c r="I28" s="2">
+        <v>1</v>
+      </c>
+      <c r="J28" s="2">
+        <v>1</v>
+      </c>
+      <c r="K28" s="3"/>
+      <c r="L28" s="2">
+        <v>50</v>
+      </c>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="P28" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="S28" s="2">
+        <v>3</v>
+      </c>
+      <c r="V28" s="26"/>
+      <c r="W28" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="V30" s="26"/>
+      <c r="W30" s="5"/>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A31" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="G18" s="4">
-        <v>1</v>
-      </c>
-      <c r="H18" s="1">
-        <v>1</v>
-      </c>
-      <c r="I18" s="1">
-        <v>1</v>
-      </c>
-      <c r="J18" s="1">
-        <v>1</v>
-      </c>
-      <c r="L18" s="1">
-        <v>80</v>
-      </c>
-      <c r="N18" s="5" t="s">
+      <c r="G31" s="3">
+        <v>1</v>
+      </c>
+      <c r="H31" s="1">
+        <v>1</v>
+      </c>
+      <c r="I31" s="1">
+        <v>1</v>
+      </c>
+      <c r="J31" s="1">
+        <v>1</v>
+      </c>
+      <c r="L31" s="1">
+        <v>30</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="N31" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="O18" s="1">
+      <c r="O31" s="1">
         <v>0.9</v>
       </c>
-      <c r="P18" s="1">
+      <c r="P31" s="1">
         <v>2</v>
       </c>
-      <c r="Q18" s="1">
+      <c r="Q31" s="1">
         <v>0.5</v>
       </c>
-      <c r="S18" s="1">
+      <c r="S31" s="1">
         <v>3</v>
       </c>
-      <c r="T18" s="8" t="s">
+      <c r="V31" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="W31" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="U18" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B19" s="1" t="s">
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D19" s="1">
-        <v>1</v>
-      </c>
-      <c r="G19" s="4">
-        <v>1</v>
-      </c>
-      <c r="H19" s="1">
-        <v>1</v>
-      </c>
-      <c r="M19" s="5" t="s">
+      <c r="D32" s="1">
+        <v>1</v>
+      </c>
+      <c r="G32" s="3">
+        <v>1</v>
+      </c>
+      <c r="H32" s="1">
+        <v>1</v>
+      </c>
+      <c r="K32" s="3">
+        <v>50</v>
+      </c>
+      <c r="M32" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="O19" s="1">
+      <c r="O32" s="1">
         <v>0.3</v>
       </c>
-      <c r="P19" s="1">
+      <c r="P32" s="1">
         <v>0.8</v>
       </c>
-      <c r="Q19" s="1">
+      <c r="Q32" s="1">
         <v>0.2</v>
       </c>
-      <c r="S19" s="1">
+      <c r="S32" s="1">
         <v>3</v>
       </c>
     </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E36" s="1">
+        <v>1</v>
+      </c>
+      <c r="G36" s="3">
+        <v>1</v>
+      </c>
+      <c r="H36" s="1">
+        <v>1</v>
+      </c>
+      <c r="I36" s="1">
+        <v>1</v>
+      </c>
+      <c r="J36" s="1">
+        <v>1</v>
+      </c>
+      <c r="K36" s="3">
+        <v>90</v>
+      </c>
+      <c r="O36" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="P36" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="S36" s="1">
+        <v>3</v>
+      </c>
+      <c r="W36" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B37" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F37" s="1">
+        <v>1</v>
+      </c>
+      <c r="G37" s="3">
+        <v>1</v>
+      </c>
+      <c r="H37" s="1">
+        <v>1</v>
+      </c>
+      <c r="I37" s="1">
+        <v>1</v>
+      </c>
+      <c r="J37" s="1">
+        <v>1</v>
+      </c>
+      <c r="K37" s="3">
+        <v>120</v>
+      </c>
+      <c r="O37" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="P37" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="S37" s="1">
+        <v>5</v>
+      </c>
+      <c r="W37" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="16">
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="S1:S2"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="N1:N2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:M2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1091,89 +2170,152 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01B6F42B-4BB2-402E-8EF0-FC889EE96737}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="5.125" style="11" customWidth="1"/>
-    <col min="5" max="5" width="5.125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="5.75" style="11" customWidth="1"/>
-    <col min="7" max="7" width="5.75" style="20" customWidth="1"/>
-    <col min="8" max="8" width="11" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.375" customWidth="1"/>
+    <col min="1" max="1" width="9" style="6"/>
+    <col min="2" max="2" width="11" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="6"/>
+    <col min="4" max="4" width="5.125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="5.125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="5.75" style="8" customWidth="1"/>
+    <col min="7" max="7" width="5.75" style="13" customWidth="1"/>
+    <col min="8" max="8" width="11" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5" style="29" customWidth="1"/>
+    <col min="10" max="10" width="30.375" customWidth="1"/>
+    <col min="11" max="11" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="14" t="s">
+      <c r="E1" s="19"/>
+      <c r="F1" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="18"/>
-      <c r="H1" s="10" t="s">
+      <c r="G1" s="20"/>
+      <c r="H1" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="10" t="s">
+      <c r="K1" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="10"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="I2" s="10"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="11">
-        <v>1</v>
-      </c>
-      <c r="F3" s="11">
-        <v>1</v>
-      </c>
-      <c r="H3" s="12" t="s">
+      <c r="C3" s="2"/>
+      <c r="D3" s="8">
+        <v>1</v>
+      </c>
+      <c r="F3" s="8">
+        <v>1</v>
+      </c>
+      <c r="H3" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="28"/>
+      <c r="J3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" s="8">
+        <v>1</v>
+      </c>
+      <c r="F5" s="8">
+        <v>1</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D7" s="8">
+        <v>1</v>
+      </c>
+      <c r="F7" s="8">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B8" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D8" s="8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="8">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>102</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1187,19 +2329,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54D9C67E-4237-478B-81E0-48BC15B60241}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="11" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.375" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" style="32" customWidth="1"/>
+    <col min="6" max="6" width="30.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1209,20 +2353,23 @@
       <c r="C1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="10"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E2" s="30"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>35</v>
       </c>
@@ -1230,16 +2377,42 @@
         <v>53</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="31"/>
+      <c r="F3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="F6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" t="s">
+        <v>56</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1249,20 +2422,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60A858D4-5BEF-44D4-8A9F-866174BC0619}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" style="9"/>
-    <col min="2" max="2" width="11" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="9"/>
-    <col min="4" max="4" width="56.125" style="21" customWidth="1"/>
-    <col min="5" max="5" width="30.375" style="9" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="9"/>
+    <col min="1" max="1" width="9" style="6"/>
+    <col min="2" max="2" width="11" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="6"/>
+    <col min="4" max="4" width="56.125" style="14" customWidth="1"/>
+    <col min="5" max="5" width="30.375" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -1275,16 +2448,16 @@
       <c r="C1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="16"/>
+      <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="10"/>
+      <c r="D2" s="7"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -1294,7 +2467,7 @@
         <v>60</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="15" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1302,34 +2475,86 @@
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
     </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="14" t="s">
+        <v>117</v>
+      </c>
+    </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
+      <c r="B6" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B9" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D9" s="14" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B11" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D11" s="15" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B13" s="6" t="s">
         <v>70</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1343,7 +2568,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1539,8 +2764,13 @@
         <v>2</v>
       </c>
     </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="16" t="s">
+        <v>104</v>
+      </c>
+    </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="16" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1548,6 +2778,7 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A16" r:id="rId1" xr:uid="{ECACB06B-CC8D-4857-BAC6-0ECB1F299483}"/>
+    <hyperlink ref="A15" r:id="rId2" xr:uid="{80C90FB2-346D-4978-A601-98A2C36DF31C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/plan/招式.xlsx
+++ b/plan/招式.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\pealpool.github.io\plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0566903A-DFD4-4443-9D65-E3CBD4517EA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB802FD-67F1-4F68-853C-4E1D12268C78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" xr2:uid="{07694949-CE91-4AC6-84BF-EA7187E3619C}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="215">
   <si>
     <t>派别</t>
   </si>
@@ -207,10 +207,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>踏八卦步，闪避率+5%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -239,10 +235,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>内伤伤害+10%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>八卦步</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -327,10 +319,6 @@
   </si>
   <si>
     <t>大力金刚腿</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>耐力伤害 +10%，5s</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -437,18 +425,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>反击外伤伤害30</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>龙爪手</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>外伤伤害+10%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>外伤伤害+10%，5s</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -460,10 +440,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>罗汉拳</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>大力金刚指</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -480,18 +456,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>-10%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>达摩手</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>格挡率+10%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>一苇渡江</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -556,7 +520,380 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>全身同时受伤</t>
+    <t>闪避+10%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金鼎飞仙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>千潭映月步</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>命中+5%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>移花接木</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>移形换影</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>灭腿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝腿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅花步</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>莲花步</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用树木山石替代自身受到攻击，照常弹反伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按命中弹反伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高高跃起，准备下落攻击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>命中+5%，5s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪避+5%，5s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下次的攻击前摇-0.2s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>外伤伤害+5%，5s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内伤伤害+5%，5s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>外伤伤害+10%，5s
+内伤伤害+10%，5s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>四象莲华</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>跌打十八式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>反击外伤伤害25，内伤伤害25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分花拂柳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>如同闪避，不受格挡，不弹反伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>壁虎游墙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>达摩十八手</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>六十八罗汉拳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>千手观音</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+20%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大力金刚拳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铜人护体</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>格挡率+5%，5s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>外伤防御+5%，5s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>如来千手式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>去烦恼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内伤防御+5%，5s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大韦陀蹬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-5%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>因陀罗抓</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大智无定步</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下次攻击前摇+0.2s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使出轻身发，奋力后跃，远离敌人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>耐力消耗</t>
+  </si>
+  <si>
+    <t>+50%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿罗汉附体</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>易筋经</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>菩提心法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>外伤伤害+15%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫阳正气拳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>格挡+5%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>北斗步</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>格挡+5%，5s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>八封掌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无极劲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>太极拳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天蚕诀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>四两拨千斤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>反击外伤伤害50</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>反击内伤伤害50</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱水柔易</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三花聚顶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>外伤防御+10%，内伤防御+10%，毒防御5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内伤伤害+10%，内伤防御+10%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无上罡气</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内伤伤害+15%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>梯云纵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>乃是「武当七绝」之一，堪称轻功中的轻功，其注重身法的轻灵，不以步法多变来迷惑对手，要旨是身形轻巧，高低进退自如。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>千里不留痕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>破金鎚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>霹雳腿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>游身手</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不受内伤伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>两仪掌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>隔山打牛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙象般若功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>耐力伤害+15%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>五轮大法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>瑜伽密乘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>外伤伤害 +10%，内伤伤害+10%，</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无上大力蹬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>外伤伤害 +5%，5s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内伤伤害 +5%，5s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>摩诃迦罗附体</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>耐力伤害+5%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>外伤内伤防御+5%，5s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>波罗密掌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>耐力伤害 +5%，5s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>缩骨功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>神足通</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>外伤防御+5%，5s
+内伤防御+5%，5s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>明王拙火定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大日如来掌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金刚诛灭手</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -650,7 +987,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -702,25 +1039,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -738,20 +1057,47 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1069,19 +1415,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{897EE391-4514-4BBB-B5AB-BFD81F1FD685}">
-  <dimension ref="A1:X37"/>
+  <dimension ref="A1:X53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="W12" sqref="W12"/>
+      <selection pane="bottomRight" activeCell="V19" sqref="V19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="1" customWidth="1"/>
     <col min="4" max="6" width="4.25" style="1" customWidth="1"/>
     <col min="7" max="7" width="3.5" style="3" customWidth="1"/>
@@ -1091,109 +1437,109 @@
     <col min="13" max="14" width="6.25" style="4" customWidth="1"/>
     <col min="15" max="19" width="6.25" style="1" customWidth="1"/>
     <col min="20" max="21" width="6.25" style="2" customWidth="1"/>
-    <col min="22" max="22" width="50.25" style="26" customWidth="1"/>
+    <col min="22" max="22" width="50.25" style="20" customWidth="1"/>
     <col min="23" max="23" width="26.375" style="5" customWidth="1"/>
     <col min="24" max="24" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="25" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="21" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:24" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="22" t="s">
+      <c r="B1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="23" t="s">
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="23" t="s">
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="L1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="O1" s="22" t="s">
+      <c r="N1" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="O1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="22" t="s">
+      <c r="P1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="22" t="s">
+      <c r="Q1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="22" t="s">
+      <c r="R1" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="S1" s="22" t="s">
+      <c r="S1" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="T1" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="U1" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="V1" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="W1" s="22" t="s">
+      <c r="T1" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="U1" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="V1" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="W1" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="X1" s="22" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" s="21" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="D2" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="E2" s="24" t="s">
+      <c r="X1" s="23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" s="17" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="D2" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="I2" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="21" t="s">
+      <c r="J2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="23"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="22"/>
-      <c r="X2" s="22"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="24"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -1214,47 +1560,119 @@
       <c r="I3" s="1">
         <v>1</v>
       </c>
+      <c r="J3" s="1">
+        <v>1</v>
+      </c>
       <c r="L3" s="1">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="O3" s="1">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="P3" s="1">
         <v>1</v>
       </c>
       <c r="Q3" s="1">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="S3" s="1">
         <v>3</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>44</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G4" s="3"/>
-      <c r="K4" s="3"/>
+      <c r="B4" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1</v>
+      </c>
+      <c r="K4" s="3">
+        <v>70</v>
+      </c>
+      <c r="L4" s="2">
+        <v>70</v>
+      </c>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
-      <c r="V4" s="26"/>
-      <c r="W4" s="5"/>
+      <c r="O4" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="S4" s="2">
+        <v>3</v>
+      </c>
+      <c r="V4" s="20"/>
+      <c r="W4" s="5" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="5" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G5" s="3"/>
-      <c r="K5" s="3"/>
+      <c r="B5" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1</v>
+      </c>
+      <c r="K5" s="3">
+        <v>60</v>
+      </c>
+      <c r="L5" s="2">
+        <v>90</v>
+      </c>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
-      <c r="V5" s="26"/>
-      <c r="W5" s="5"/>
+      <c r="O5" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="P5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="S5" s="2">
+        <v>3</v>
+      </c>
+      <c r="V5" s="20"/>
+      <c r="W5" s="5" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="6" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="B6" s="2" t="s">
-        <v>109</v>
+        <v>174</v>
       </c>
       <c r="E6" s="2">
         <v>1</v>
@@ -1271,125 +1689,117 @@
       <c r="J6" s="2">
         <v>1</v>
       </c>
-      <c r="K6" s="3">
-        <v>60</v>
-      </c>
+      <c r="K6" s="3"/>
       <c r="L6" s="2">
-        <v>60</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>48</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="P6" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="2">
         <v>0.4</v>
       </c>
-      <c r="P6" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>0.3</v>
-      </c>
       <c r="S6" s="2">
-        <v>4</v>
-      </c>
-      <c r="V6" s="26"/>
+        <v>5</v>
+      </c>
+      <c r="V6" s="20"/>
       <c r="W6" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B7" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E7" s="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E7" s="2">
         <v>1</v>
       </c>
       <c r="G7" s="3">
         <v>1</v>
       </c>
-      <c r="H7" s="1">
-        <v>1</v>
-      </c>
-      <c r="I7" s="1">
-        <v>1</v>
-      </c>
-      <c r="J7" s="1">
+      <c r="H7" s="2">
+        <v>1</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1</v>
+      </c>
+      <c r="J7" s="2">
         <v>1</v>
       </c>
       <c r="K7" s="3">
+        <v>50</v>
+      </c>
+      <c r="L7" s="2">
         <v>100</v>
       </c>
-      <c r="L7" s="1">
-        <v>20</v>
-      </c>
-      <c r="O7" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="P7" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="S7" s="1">
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="P7" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="S7" s="2">
         <v>3</v>
       </c>
+      <c r="V7" s="20"/>
       <c r="W7" s="5" t="s">
-        <v>103</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>122</v>
+        <v>189</v>
       </c>
       <c r="E8" s="2">
         <v>1</v>
       </c>
-      <c r="G8" s="3">
-        <v>1</v>
-      </c>
+      <c r="G8" s="3"/>
       <c r="H8" s="2">
         <v>1</v>
       </c>
       <c r="I8" s="2">
         <v>1</v>
       </c>
-      <c r="J8" s="2">
-        <v>1</v>
-      </c>
       <c r="K8" s="3">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="L8" s="2">
-        <v>80</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>48</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="2">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="P8" s="2">
         <v>1</v>
       </c>
       <c r="Q8" s="2">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="S8" s="2">
-        <v>3</v>
-      </c>
-      <c r="V8" s="26"/>
+        <v>6</v>
+      </c>
+      <c r="V8" s="20"/>
       <c r="W8" s="5" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E9" s="2">
+        <v>190</v>
+      </c>
+      <c r="F9" s="2">
         <v>1</v>
       </c>
       <c r="G9" s="3">
@@ -1405,246 +1815,352 @@
         <v>1</v>
       </c>
       <c r="K9" s="3">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="L9" s="2">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="P9" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="S9" s="2">
+        <v>6</v>
+      </c>
+      <c r="V9" s="20"/>
+      <c r="W9" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1</v>
+      </c>
+      <c r="K10" s="3"/>
+      <c r="L10" s="2">
+        <v>180</v>
+      </c>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="P10" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="S10" s="2">
+        <v>6</v>
+      </c>
+      <c r="V10" s="20"/>
+      <c r="W10" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="V11" s="20"/>
+      <c r="W11" s="5"/>
+    </row>
+    <row r="12" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1</v>
+      </c>
+      <c r="K12" s="3">
+        <v>60</v>
+      </c>
+      <c r="L12" s="2">
+        <v>60</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="N12" s="4"/>
+      <c r="O12" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="P12" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="2">
         <v>0.3</v>
       </c>
-      <c r="P9" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="2">
+      <c r="S12" s="2">
+        <v>4</v>
+      </c>
+      <c r="V12" s="20"/>
+      <c r="W12" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1</v>
+      </c>
+      <c r="K13" s="3">
+        <v>100</v>
+      </c>
+      <c r="L13" s="1">
+        <v>20</v>
+      </c>
+      <c r="O13" s="1">
         <v>0.3</v>
       </c>
-      <c r="S9" s="2">
-        <v>4</v>
-      </c>
-      <c r="V9" s="26"/>
-      <c r="W9" s="5"/>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B10" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-      <c r="G10" s="3">
-        <v>1</v>
-      </c>
-      <c r="H10" s="1">
-        <v>1</v>
-      </c>
-      <c r="I10" s="1">
-        <v>1</v>
-      </c>
-      <c r="J10" s="1">
-        <v>1</v>
-      </c>
-      <c r="K10" s="3">
+      <c r="P13" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="S13" s="1">
+        <v>3</v>
+      </c>
+      <c r="W13" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1</v>
+      </c>
+      <c r="K14" s="3">
         <v>60</v>
       </c>
-      <c r="L10" s="1">
-        <v>100</v>
-      </c>
-      <c r="O10" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="P10" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="S10" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E11" s="2">
-        <v>1</v>
-      </c>
-      <c r="G11" s="3">
-        <v>1</v>
-      </c>
-      <c r="H11" s="2">
-        <v>1</v>
-      </c>
-      <c r="I11" s="2">
-        <v>1</v>
-      </c>
-      <c r="J11" s="2">
-        <v>1</v>
-      </c>
-      <c r="K11" s="3">
+      <c r="L14" s="2">
         <v>80</v>
       </c>
-      <c r="L11" s="2">
-        <v>80</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="N11" s="4"/>
-      <c r="O11" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="P11" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="S11" s="2">
-        <v>10</v>
-      </c>
-      <c r="V11" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="W11" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F13" s="1">
-        <v>1</v>
-      </c>
-      <c r="G13" s="3">
-        <v>1</v>
-      </c>
-      <c r="H13" s="1">
-        <v>1</v>
-      </c>
-      <c r="I13" s="1">
-        <v>1</v>
-      </c>
-      <c r="J13" s="1">
-        <v>1</v>
-      </c>
-      <c r="K13" s="3">
-        <v>60</v>
-      </c>
-      <c r="L13" s="1">
-        <v>60</v>
-      </c>
-      <c r="R13" s="1">
-        <v>50</v>
-      </c>
-      <c r="S13" s="1">
-        <v>6</v>
-      </c>
-      <c r="W13" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="6"/>
-      <c r="B14" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E14" s="2">
-        <v>1</v>
-      </c>
-      <c r="G14" s="3">
-        <v>1</v>
-      </c>
-      <c r="H14" s="2">
-        <v>1</v>
-      </c>
-      <c r="I14" s="2">
-        <v>1</v>
-      </c>
-      <c r="J14" s="2">
-        <v>1</v>
-      </c>
-      <c r="K14" s="3">
-        <v>20</v>
-      </c>
-      <c r="L14" s="2">
-        <v>30</v>
-      </c>
-      <c r="M14" s="4"/>
+      <c r="M14" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="N14" s="4"/>
-      <c r="R14" s="2">
-        <v>30</v>
+      <c r="O14" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="P14" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>0.3</v>
       </c>
       <c r="S14" s="2">
         <v>3</v>
       </c>
-      <c r="V14" s="26"/>
+      <c r="V14" s="20"/>
       <c r="W14" s="5" t="s">
-        <v>75</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="6"/>
-      <c r="G15" s="3"/>
-      <c r="K15" s="3"/>
+      <c r="B15" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1</v>
+      </c>
+      <c r="G15" s="3">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1</v>
+      </c>
+      <c r="I15" s="2">
+        <v>1</v>
+      </c>
+      <c r="J15" s="2">
+        <v>1</v>
+      </c>
+      <c r="K15" s="3">
+        <v>80</v>
+      </c>
+      <c r="L15" s="2">
+        <v>80</v>
+      </c>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
-      <c r="V15" s="26"/>
-      <c r="W15" s="5"/>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E17" s="1">
+      <c r="O15" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="P15" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="S15" s="2">
+        <v>4</v>
+      </c>
+      <c r="V15" s="20"/>
+      <c r="W15" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1</v>
+      </c>
+      <c r="K16" s="3">
+        <v>60</v>
+      </c>
+      <c r="L16" s="1">
+        <v>100</v>
+      </c>
+      <c r="O16" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="P16" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="S16" s="1">
+        <v>3</v>
+      </c>
+      <c r="W16" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E17" s="2">
         <v>1</v>
       </c>
       <c r="G17" s="3">
         <v>1</v>
       </c>
-      <c r="H17" s="1">
-        <v>1</v>
-      </c>
-      <c r="I17" s="1">
-        <v>1</v>
-      </c>
-      <c r="J17" s="1">
+      <c r="H17" s="2">
+        <v>1</v>
+      </c>
+      <c r="I17" s="2">
+        <v>1</v>
+      </c>
+      <c r="J17" s="2">
         <v>1</v>
       </c>
       <c r="K17" s="3">
-        <v>140</v>
-      </c>
-      <c r="O17" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="P17" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="S17" s="1">
-        <v>3</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="L17" s="2">
+        <v>80</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="N17" s="4"/>
+      <c r="O17" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="P17" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="S17" s="2">
+        <v>5</v>
+      </c>
+      <c r="V17" s="20"/>
       <c r="W17" s="5" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E18" s="2">
+        <v>127</v>
+      </c>
+      <c r="F18" s="2">
         <v>1</v>
       </c>
       <c r="G18" s="3">
@@ -1660,35 +2176,35 @@
         <v>1</v>
       </c>
       <c r="K18" s="3">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="L18" s="2">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
       <c r="O18" s="2">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="P18" s="2">
         <v>1</v>
       </c>
       <c r="Q18" s="2">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="S18" s="2">
-        <v>3</v>
-      </c>
-      <c r="V18" s="26"/>
+        <v>6</v>
+      </c>
+      <c r="V18" s="20"/>
       <c r="W18" s="5" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E19" s="2">
+        <v>128</v>
+      </c>
+      <c r="F19" s="2">
         <v>1</v>
       </c>
       <c r="G19" s="3">
@@ -1704,489 +2220,1156 @@
         <v>1</v>
       </c>
       <c r="K19" s="3">
-        <v>180</v>
+        <v>80</v>
+      </c>
+      <c r="L19" s="2">
+        <v>130</v>
       </c>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
       <c r="O19" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="P19" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="S19" s="2">
+        <v>6</v>
+      </c>
+      <c r="V19" s="20"/>
+      <c r="W19" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1</v>
+      </c>
+      <c r="G21" s="3">
+        <v>1</v>
+      </c>
+      <c r="H21" s="2">
+        <v>1</v>
+      </c>
+      <c r="I21" s="2">
+        <v>1</v>
+      </c>
+      <c r="J21" s="2">
+        <v>1</v>
+      </c>
+      <c r="K21" s="3">
+        <v>20</v>
+      </c>
+      <c r="L21" s="2">
+        <v>30</v>
+      </c>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="P21" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="R21" s="2">
+        <v>25</v>
+      </c>
+      <c r="S21" s="2">
+        <v>3</v>
+      </c>
+      <c r="V21" s="20"/>
+      <c r="W21" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="6"/>
+      <c r="B22" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E22" s="2">
+        <v>1</v>
+      </c>
+      <c r="G22" s="3">
+        <v>1</v>
+      </c>
+      <c r="H22" s="2">
+        <v>1</v>
+      </c>
+      <c r="I22" s="2">
+        <v>1</v>
+      </c>
+      <c r="J22" s="2">
+        <v>1</v>
+      </c>
+      <c r="K22" s="3">
+        <v>60</v>
+      </c>
+      <c r="L22" s="2">
+        <v>60</v>
+      </c>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="2">
         <v>0.4</v>
       </c>
-      <c r="P19" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="2">
+      <c r="P22" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="2">
         <v>0.3</v>
       </c>
-      <c r="S19" s="2">
+      <c r="R22" s="2">
+        <v>40</v>
+      </c>
+      <c r="S22" s="2">
         <v>4</v>
       </c>
-      <c r="V19" s="26"/>
-      <c r="W19" s="5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E20" s="2">
-        <v>1</v>
-      </c>
-      <c r="G20" s="3">
-        <v>1</v>
-      </c>
-      <c r="H20" s="2">
-        <v>1</v>
-      </c>
-      <c r="I20" s="2">
-        <v>1</v>
-      </c>
-      <c r="J20" s="2">
-        <v>1</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="V22" s="20"/>
+      <c r="W22" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="6"/>
+      <c r="B23" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F23" s="2">
+        <v>1</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="2">
+        <v>1</v>
+      </c>
+      <c r="I23" s="2">
+        <v>1</v>
+      </c>
+      <c r="J23" s="2">
+        <v>1</v>
+      </c>
+      <c r="K23" s="3">
+        <v>30</v>
+      </c>
+      <c r="L23" s="2">
         <v>90</v>
       </c>
-      <c r="L20" s="2">
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="P23" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="R23" s="2">
+        <v>70</v>
+      </c>
+      <c r="S23" s="2">
+        <v>6</v>
+      </c>
+      <c r="V23" s="20"/>
+      <c r="W23" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+      <c r="G24" s="3">
+        <v>1</v>
+      </c>
+      <c r="H24" s="1">
+        <v>1</v>
+      </c>
+      <c r="I24" s="1">
+        <v>1</v>
+      </c>
+      <c r="J24" s="1">
+        <v>1</v>
+      </c>
+      <c r="K24" s="3">
+        <v>100</v>
+      </c>
+      <c r="L24" s="1">
+        <v>50</v>
+      </c>
+      <c r="O24" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="P24" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="R24" s="1">
+        <v>60</v>
+      </c>
+      <c r="S24" s="1">
+        <v>6</v>
+      </c>
+      <c r="W24" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="6"/>
+      <c r="B25" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E25" s="2">
+        <v>1</v>
+      </c>
+      <c r="G25" s="3">
+        <v>1</v>
+      </c>
+      <c r="H25" s="2">
+        <v>1</v>
+      </c>
+      <c r="I25" s="2">
+        <v>1</v>
+      </c>
+      <c r="J25" s="2">
+        <v>1</v>
+      </c>
+      <c r="K25" s="3">
+        <v>30</v>
+      </c>
+      <c r="L25" s="2">
+        <v>50</v>
+      </c>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="P25" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="R25" s="2">
         <v>10</v>
       </c>
-      <c r="M20" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="N20" s="4"/>
-      <c r="O20" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="P20" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="2">
+      <c r="S25" s="2">
+        <v>3</v>
+      </c>
+      <c r="V25" s="20"/>
+      <c r="W25" s="5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="6"/>
+      <c r="B26" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E26" s="2">
+        <v>1</v>
+      </c>
+      <c r="G26" s="3">
+        <v>1</v>
+      </c>
+      <c r="H26" s="2">
+        <v>1</v>
+      </c>
+      <c r="I26" s="2">
+        <v>1</v>
+      </c>
+      <c r="J26" s="2">
+        <v>1</v>
+      </c>
+      <c r="K26" s="3">
+        <v>40</v>
+      </c>
+      <c r="L26" s="2">
+        <v>70</v>
+      </c>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="P26" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="R26" s="2">
+        <v>40</v>
+      </c>
+      <c r="S26" s="2">
+        <v>3</v>
+      </c>
+      <c r="V26" s="20"/>
+      <c r="W26" s="5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="6"/>
+      <c r="B27" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E27" s="2">
+        <v>1</v>
+      </c>
+      <c r="G27" s="3">
+        <v>1</v>
+      </c>
+      <c r="H27" s="2">
+        <v>1</v>
+      </c>
+      <c r="I27" s="2">
+        <v>1</v>
+      </c>
+      <c r="J27" s="2">
+        <v>1</v>
+      </c>
+      <c r="K27" s="3">
+        <v>90</v>
+      </c>
+      <c r="L27" s="2">
+        <v>20</v>
+      </c>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="P27" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="2">
         <v>0.3</v>
       </c>
-      <c r="S20" s="2">
+      <c r="R27" s="2">
+        <v>30</v>
+      </c>
+      <c r="S27" s="2">
         <v>3</v>
       </c>
-      <c r="V20" s="26"/>
-      <c r="W20" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B21" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F21" s="1">
-        <v>1</v>
-      </c>
-      <c r="G21" s="3">
-        <v>1</v>
-      </c>
-      <c r="H21" s="1">
-        <v>1</v>
-      </c>
-      <c r="I21" s="1">
-        <v>1</v>
-      </c>
-      <c r="J21" s="1">
-        <v>1</v>
-      </c>
-      <c r="K21" s="3">
-        <v>210</v>
-      </c>
-      <c r="M21" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="O21" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="P21" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="S21" s="1">
-        <v>6</v>
-      </c>
-      <c r="W21" s="5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E23" s="1">
-        <v>1</v>
-      </c>
-      <c r="G23" s="3">
-        <v>1</v>
-      </c>
-      <c r="H23" s="1">
-        <v>1</v>
-      </c>
-      <c r="I23" s="1">
-        <v>1</v>
-      </c>
-      <c r="J23" s="1">
-        <v>1</v>
-      </c>
-      <c r="L23" s="1">
+      <c r="V27" s="20"/>
+      <c r="W27" s="5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="6"/>
+      <c r="B28" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E28" s="2">
+        <v>1</v>
+      </c>
+      <c r="G28" s="3">
+        <v>1</v>
+      </c>
+      <c r="H28" s="2">
+        <v>1</v>
+      </c>
+      <c r="I28" s="2">
+        <v>1</v>
+      </c>
+      <c r="J28" s="2">
+        <v>1</v>
+      </c>
+      <c r="K28" s="3">
+        <v>80</v>
+      </c>
+      <c r="L28" s="2">
         <v>60</v>
-      </c>
-      <c r="M23" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="N23" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="O23" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="P23" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="Q23" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="R23" s="1">
-        <v>10</v>
-      </c>
-      <c r="S23" s="1">
-        <v>3</v>
-      </c>
-      <c r="W23" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" ht="57" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E26" s="1">
-        <v>1</v>
-      </c>
-      <c r="G26" s="3">
-        <v>1</v>
-      </c>
-      <c r="I26" s="1">
-        <v>1</v>
-      </c>
-      <c r="J26" s="1">
-        <v>1</v>
-      </c>
-      <c r="S26" s="1">
-        <v>3</v>
-      </c>
-      <c r="V26" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="W26" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E27" s="1">
-        <v>1</v>
-      </c>
-      <c r="G27" s="3">
-        <v>1</v>
-      </c>
-      <c r="H27" s="1">
-        <v>1</v>
-      </c>
-      <c r="I27" s="1">
-        <v>1</v>
-      </c>
-      <c r="K27" s="3">
-        <v>10</v>
-      </c>
-      <c r="L27" s="1">
-        <v>20</v>
-      </c>
-      <c r="O27" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="P27" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q27" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="S27" s="1">
-        <v>3</v>
-      </c>
-      <c r="U27" s="2">
-        <v>30</v>
-      </c>
-      <c r="V27" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="W27" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E28" s="2">
-        <v>1</v>
-      </c>
-      <c r="G28" s="3">
-        <v>1</v>
-      </c>
-      <c r="H28" s="2">
-        <v>1</v>
-      </c>
-      <c r="I28" s="2">
-        <v>1</v>
-      </c>
-      <c r="J28" s="2">
-        <v>1</v>
-      </c>
-      <c r="K28" s="3"/>
-      <c r="L28" s="2">
-        <v>50</v>
       </c>
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
       <c r="O28" s="2">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="P28" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="2">
         <v>0.5</v>
       </c>
-      <c r="Q28" s="2">
-        <v>0.2</v>
+      <c r="R28" s="2">
+        <v>50</v>
       </c>
       <c r="S28" s="2">
         <v>3</v>
       </c>
-      <c r="V28" s="26"/>
-      <c r="W28" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="V30" s="26"/>
-      <c r="W30" s="5"/>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A31" s="6" t="s">
+      <c r="V28" s="20"/>
+      <c r="W28" s="5"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1</v>
+      </c>
+      <c r="G30" s="3">
+        <v>1</v>
+      </c>
+      <c r="H30" s="1">
+        <v>1</v>
+      </c>
+      <c r="I30" s="1">
+        <v>1</v>
+      </c>
+      <c r="J30" s="1">
+        <v>1</v>
+      </c>
+      <c r="K30" s="3">
+        <v>140</v>
+      </c>
+      <c r="O30" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="P30" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="S30" s="1">
+        <v>4</v>
+      </c>
+      <c r="W30" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E31" s="2">
+        <v>1</v>
+      </c>
+      <c r="G31" s="3">
+        <v>1</v>
+      </c>
+      <c r="H31" s="2">
+        <v>1</v>
+      </c>
+      <c r="I31" s="2">
+        <v>1</v>
+      </c>
+      <c r="J31" s="2">
+        <v>1</v>
+      </c>
+      <c r="K31" s="3">
+        <v>100</v>
+      </c>
+      <c r="L31" s="2">
         <v>30</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="P31" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="S31" s="2">
+        <v>3</v>
+      </c>
+      <c r="V31" s="20"/>
+      <c r="W31" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E32" s="2">
+        <v>1</v>
+      </c>
+      <c r="G32" s="3">
+        <v>1</v>
+      </c>
+      <c r="H32" s="2">
+        <v>1</v>
+      </c>
+      <c r="I32" s="2">
+        <v>1</v>
+      </c>
+      <c r="J32" s="2">
+        <v>1</v>
+      </c>
+      <c r="K32" s="3">
+        <v>180</v>
+      </c>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="P32" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="S32" s="2">
+        <v>4</v>
+      </c>
+      <c r="V32" s="20"/>
+      <c r="W32" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E33" s="2">
+        <v>1</v>
+      </c>
+      <c r="G33" s="3">
+        <v>1</v>
+      </c>
+      <c r="H33" s="2">
+        <v>1</v>
+      </c>
+      <c r="I33" s="2">
+        <v>1</v>
+      </c>
+      <c r="J33" s="2">
+        <v>1</v>
+      </c>
+      <c r="K33" s="3">
+        <v>90</v>
+      </c>
+      <c r="L33" s="2">
+        <v>10</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="N33" s="4"/>
+      <c r="O33" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="P33" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="S33" s="2">
+        <v>3</v>
+      </c>
+      <c r="V33" s="20"/>
+      <c r="W33" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E34" s="2">
+        <v>1</v>
+      </c>
+      <c r="G34" s="3">
+        <v>1</v>
+      </c>
+      <c r="H34" s="2">
+        <v>1</v>
+      </c>
+      <c r="I34" s="2">
+        <v>1</v>
+      </c>
+      <c r="J34" s="2">
+        <v>1</v>
+      </c>
+      <c r="K34" s="3">
+        <v>120</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="N34" s="4"/>
+      <c r="O34" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="P34" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="S34" s="2">
+        <v>4</v>
+      </c>
+      <c r="V34" s="20"/>
+      <c r="W34" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B35" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F35" s="1">
+        <v>1</v>
+      </c>
+      <c r="G35" s="3">
+        <v>1</v>
+      </c>
+      <c r="H35" s="1">
+        <v>1</v>
+      </c>
+      <c r="I35" s="1">
+        <v>1</v>
+      </c>
+      <c r="J35" s="1">
+        <v>1</v>
+      </c>
+      <c r="K35" s="3">
+        <v>210</v>
+      </c>
+      <c r="M35" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="O35" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="P35" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="S35" s="1">
+        <v>6</v>
+      </c>
+      <c r="W35" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F36" s="2">
+        <v>1</v>
+      </c>
+      <c r="G36" s="3"/>
+      <c r="H36" s="2">
+        <v>1</v>
+      </c>
+      <c r="I36" s="2">
+        <v>1</v>
+      </c>
+      <c r="J36" s="2">
+        <v>1</v>
+      </c>
+      <c r="K36" s="3">
+        <v>190</v>
+      </c>
+      <c r="L36" s="2">
+        <v>20</v>
+      </c>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="P36" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="S36" s="2">
+        <v>6</v>
+      </c>
+      <c r="V36" s="20"/>
+      <c r="W36" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E37" s="2">
+        <v>1</v>
+      </c>
+      <c r="G37" s="3"/>
+      <c r="H37" s="2">
+        <v>1</v>
+      </c>
+      <c r="I37" s="2">
+        <v>1</v>
+      </c>
+      <c r="J37" s="2">
+        <v>1</v>
+      </c>
+      <c r="K37" s="3">
+        <v>100</v>
+      </c>
+      <c r="M37" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="N37" s="4"/>
+      <c r="O37" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="P37" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="S37" s="2">
+        <v>3</v>
+      </c>
+      <c r="V37" s="20"/>
+      <c r="W37" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A39" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E39" s="1">
+        <v>1</v>
+      </c>
+      <c r="G39" s="3">
+        <v>1</v>
+      </c>
+      <c r="H39" s="1">
+        <v>1</v>
+      </c>
+      <c r="I39" s="1">
+        <v>1</v>
+      </c>
+      <c r="J39" s="1">
+        <v>1</v>
+      </c>
+      <c r="L39" s="1">
+        <v>60</v>
+      </c>
+      <c r="M39" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="N39" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="O39" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="P39" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R39" s="1">
+        <v>10</v>
+      </c>
+      <c r="S39" s="1">
+        <v>3</v>
+      </c>
+      <c r="W39" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" ht="57" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E42" s="1">
+        <v>1</v>
+      </c>
+      <c r="G42" s="3">
+        <v>1</v>
+      </c>
+      <c r="I42" s="1">
+        <v>1</v>
+      </c>
+      <c r="J42" s="1">
+        <v>1</v>
+      </c>
+      <c r="S42" s="1">
+        <v>3</v>
+      </c>
+      <c r="V42" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="W42" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E43" s="1">
+        <v>1</v>
+      </c>
+      <c r="G43" s="3">
+        <v>1</v>
+      </c>
+      <c r="H43" s="1">
+        <v>1</v>
+      </c>
+      <c r="I43" s="1">
+        <v>1</v>
+      </c>
+      <c r="J43" s="1">
+        <v>1</v>
+      </c>
+      <c r="K43" s="3">
+        <v>10</v>
+      </c>
+      <c r="L43" s="1">
+        <v>20</v>
+      </c>
+      <c r="O43" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="P43" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="S43" s="1">
+        <v>3</v>
+      </c>
+      <c r="U43" s="2">
+        <v>30</v>
+      </c>
+      <c r="V43" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="W43" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E44" s="2">
+        <v>1</v>
+      </c>
+      <c r="G44" s="3">
+        <v>1</v>
+      </c>
+      <c r="H44" s="2">
+        <v>1</v>
+      </c>
+      <c r="I44" s="2">
+        <v>1</v>
+      </c>
+      <c r="J44" s="2">
+        <v>1</v>
+      </c>
+      <c r="K44" s="3"/>
+      <c r="L44" s="2">
+        <v>50</v>
+      </c>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="P44" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q44" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="S44" s="2">
+        <v>3</v>
+      </c>
+      <c r="V44" s="20"/>
+      <c r="W44" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="4"/>
+      <c r="V46" s="20"/>
+      <c r="W46" s="5"/>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A47" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G47" s="3">
+        <v>1</v>
+      </c>
+      <c r="H47" s="1">
+        <v>1</v>
+      </c>
+      <c r="I47" s="1">
+        <v>1</v>
+      </c>
+      <c r="J47" s="1">
+        <v>1</v>
+      </c>
+      <c r="L47" s="1">
+        <v>30</v>
+      </c>
+      <c r="M47" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="N47" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="O47" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="P47" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q47" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="S47" s="1">
+        <v>3</v>
+      </c>
+      <c r="V47" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="W47" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="G31" s="3">
-        <v>1</v>
-      </c>
-      <c r="H31" s="1">
-        <v>1</v>
-      </c>
-      <c r="I31" s="1">
-        <v>1</v>
-      </c>
-      <c r="J31" s="1">
-        <v>1</v>
-      </c>
-      <c r="L31" s="1">
-        <v>30</v>
-      </c>
-      <c r="M31" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="N31" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="O31" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="P31" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q31" s="1">
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B48" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D48" s="1">
+        <v>1</v>
+      </c>
+      <c r="G48" s="3">
+        <v>1</v>
+      </c>
+      <c r="H48" s="1">
+        <v>1</v>
+      </c>
+      <c r="K48" s="3">
+        <v>50</v>
+      </c>
+      <c r="M48" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="O48" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="P48" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="Q48" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="S48" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E52" s="1">
+        <v>1</v>
+      </c>
+      <c r="G52" s="3">
+        <v>1</v>
+      </c>
+      <c r="H52" s="1">
+        <v>1</v>
+      </c>
+      <c r="I52" s="1">
+        <v>1</v>
+      </c>
+      <c r="J52" s="1">
+        <v>1</v>
+      </c>
+      <c r="K52" s="3">
+        <v>90</v>
+      </c>
+      <c r="O52" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="P52" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q52" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="S52" s="1">
+        <v>3</v>
+      </c>
+      <c r="W52" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B53" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F53" s="1">
+        <v>1</v>
+      </c>
+      <c r="G53" s="3">
+        <v>1</v>
+      </c>
+      <c r="H53" s="1">
+        <v>1</v>
+      </c>
+      <c r="I53" s="1">
+        <v>1</v>
+      </c>
+      <c r="J53" s="1">
+        <v>1</v>
+      </c>
+      <c r="K53" s="3">
+        <v>120</v>
+      </c>
+      <c r="O53" s="1">
         <v>0.5</v>
       </c>
-      <c r="S31" s="1">
-        <v>3</v>
-      </c>
-      <c r="V31" s="26" t="s">
+      <c r="P53" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q53" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="S53" s="1">
+        <v>5</v>
+      </c>
+      <c r="W53" s="5" t="s">
         <v>95</v>
-      </c>
-      <c r="W31" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B32" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D32" s="1">
-        <v>1</v>
-      </c>
-      <c r="G32" s="3">
-        <v>1</v>
-      </c>
-      <c r="H32" s="1">
-        <v>1</v>
-      </c>
-      <c r="K32" s="3">
-        <v>50</v>
-      </c>
-      <c r="M32" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="O32" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="P32" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="Q32" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="S32" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E36" s="1">
-        <v>1</v>
-      </c>
-      <c r="G36" s="3">
-        <v>1</v>
-      </c>
-      <c r="H36" s="1">
-        <v>1</v>
-      </c>
-      <c r="I36" s="1">
-        <v>1</v>
-      </c>
-      <c r="J36" s="1">
-        <v>1</v>
-      </c>
-      <c r="K36" s="3">
-        <v>90</v>
-      </c>
-      <c r="O36" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="P36" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q36" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="S36" s="1">
-        <v>3</v>
-      </c>
-      <c r="W36" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B37" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F37" s="1">
-        <v>1</v>
-      </c>
-      <c r="G37" s="3">
-        <v>1</v>
-      </c>
-      <c r="H37" s="1">
-        <v>1</v>
-      </c>
-      <c r="I37" s="1">
-        <v>1</v>
-      </c>
-      <c r="J37" s="1">
-        <v>1</v>
-      </c>
-      <c r="K37" s="3">
-        <v>120</v>
-      </c>
-      <c r="O37" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="P37" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q37" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="S37" s="1">
-        <v>5</v>
-      </c>
-      <c r="W37" s="5" t="s">
-        <v>98</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="W1:W2"/>
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="S1:S2"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="M1:M2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="X1:X2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="K1:L1048576">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7FE3E37C-0B7D-402E-AB20-D4B618AE074C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{7FE3E37C-0B7D-402E-AB20-D4B618AE074C}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>K1:L1048576</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01B6F42B-4BB2-402E-8EF0-FC889EE96737}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="6"/>
-    <col min="2" max="2" width="11" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="6"/>
     <col min="4" max="4" width="5.125" style="8" customWidth="1"/>
     <col min="5" max="5" width="5.125" style="11" customWidth="1"/>
     <col min="6" max="6" width="5.75" style="8" customWidth="1"/>
     <col min="7" max="7" width="5.75" style="13" customWidth="1"/>
     <col min="8" max="8" width="11" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.5" style="29" customWidth="1"/>
+    <col min="9" max="9" width="31.5" style="33" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="30.375" customWidth="1"/>
     <col min="11" max="11" width="29" customWidth="1"/>
   </cols>
@@ -2199,27 +3382,27 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="19"/>
-      <c r="F1" s="18" t="s">
+      <c r="E1" s="27"/>
+      <c r="F1" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="28"/>
+      <c r="H1" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="20"/>
-      <c r="H1" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>78</v>
+      <c r="I1" s="29" t="s">
+        <v>75</v>
       </c>
       <c r="J1" s="10" t="s">
         <v>16</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -2238,14 +3421,14 @@
       <c r="G2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="10"/>
+      <c r="I2" s="31"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="8">
@@ -2254,67 +3437,366 @@
       <c r="F3" s="8">
         <v>1</v>
       </c>
-      <c r="H3" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" s="28"/>
+      <c r="G3" s="13">
+        <v>1</v>
+      </c>
+      <c r="I3" s="32"/>
       <c r="J3" t="s">
-        <v>52</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B4" s="2"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>173</v>
+      </c>
       <c r="C4" s="2"/>
+      <c r="D4" s="8">
+        <v>1</v>
+      </c>
+      <c r="F4" s="8">
+        <v>1</v>
+      </c>
+      <c r="G4" s="13">
+        <v>1</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" t="s">
+        <v>170</v>
+      </c>
+      <c r="J4" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="2"/>
+      <c r="B5" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="8">
+        <v>1</v>
+      </c>
+      <c r="E5" s="11">
+        <v>1</v>
+      </c>
+      <c r="F5" s="8">
+        <v>1</v>
+      </c>
+      <c r="G5" s="13">
+        <v>1</v>
+      </c>
+      <c r="I5" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="J5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="8">
+        <v>1</v>
+      </c>
+      <c r="E6" s="11">
+        <v>1</v>
+      </c>
+      <c r="F6" s="8">
+        <v>1</v>
+      </c>
+      <c r="G6" s="13">
+        <v>1</v>
+      </c>
+      <c r="I6" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="J6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="8">
+        <v>1</v>
+      </c>
+      <c r="E7" s="11">
+        <v>1</v>
+      </c>
+      <c r="F7" s="8">
+        <v>1</v>
+      </c>
+      <c r="G7" s="13">
+        <v>1</v>
+      </c>
+      <c r="I7" s="33" t="s">
+        <v>192</v>
+      </c>
+      <c r="J7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="13">
+        <v>1</v>
+      </c>
+      <c r="I8" s="32"/>
+      <c r="J8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="I9" s="32"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="D5" s="8">
-        <v>1</v>
-      </c>
-      <c r="F5" s="8">
-        <v>1</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="J5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+      <c r="B11" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D11" s="8">
+        <v>1</v>
+      </c>
+      <c r="F11" s="8">
+        <v>1</v>
+      </c>
+      <c r="G11" s="13">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B12" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D12" s="8">
+        <v>1</v>
+      </c>
+      <c r="E12" s="11">
+        <v>1</v>
+      </c>
+      <c r="F12" s="8">
+        <v>1</v>
+      </c>
+      <c r="G12" s="13">
+        <v>1</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="J12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B13" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D13" s="8">
+        <v>1</v>
+      </c>
+      <c r="E13" s="11">
+        <v>1</v>
+      </c>
+      <c r="F13" s="8">
+        <v>1</v>
+      </c>
+      <c r="G13" s="13">
+        <v>1</v>
+      </c>
+      <c r="I13" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="J13" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B14" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D14" s="8">
+        <v>1</v>
+      </c>
+      <c r="E14" s="11">
+        <v>1</v>
+      </c>
+      <c r="F14" s="8">
+        <v>1</v>
+      </c>
+      <c r="G14" s="13">
+        <v>1</v>
+      </c>
+      <c r="I14" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="J14" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B15" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D15" s="8">
+        <v>1</v>
+      </c>
+      <c r="E15" s="36">
+        <v>1</v>
+      </c>
+      <c r="F15" s="8">
+        <v>1</v>
+      </c>
+      <c r="G15" s="13">
+        <v>1</v>
+      </c>
+      <c r="I15" t="s">
+        <v>137</v>
+      </c>
+      <c r="J15" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I16" s="35"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="D7" s="8">
-        <v>1</v>
-      </c>
-      <c r="F7" s="8">
-        <v>1</v>
-      </c>
-      <c r="J7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B8" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="D8" s="8">
-        <v>1</v>
-      </c>
-      <c r="F8" s="8">
-        <v>1</v>
-      </c>
-      <c r="J8" t="s">
-        <v>102</v>
+      <c r="B18" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D18" s="8">
+        <v>1</v>
+      </c>
+      <c r="F18" s="8">
+        <v>1</v>
+      </c>
+      <c r="G18" s="13">
+        <v>1</v>
+      </c>
+      <c r="J18" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B19" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D19" s="8">
+        <v>1</v>
+      </c>
+      <c r="E19" s="11">
+        <v>1</v>
+      </c>
+      <c r="F19" s="8">
+        <v>1</v>
+      </c>
+      <c r="G19" s="13">
+        <v>1</v>
+      </c>
+      <c r="J19" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B20" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D20" s="8">
+        <v>1</v>
+      </c>
+      <c r="E20" s="11">
+        <v>1</v>
+      </c>
+      <c r="F20" s="8">
+        <v>1</v>
+      </c>
+      <c r="G20" s="13">
+        <v>1</v>
+      </c>
+      <c r="J20" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B21" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D21" s="8">
+        <v>1</v>
+      </c>
+      <c r="E21" s="11">
+        <v>1</v>
+      </c>
+      <c r="F21" s="8">
+        <v>1</v>
+      </c>
+      <c r="G21" s="13">
+        <v>1</v>
+      </c>
+      <c r="I21" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="J21" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D24" s="8">
+        <v>1</v>
+      </c>
+      <c r="E24" s="11">
+        <v>1</v>
+      </c>
+      <c r="F24" s="8">
+        <v>1</v>
+      </c>
+      <c r="G24" s="13">
+        <v>1</v>
+      </c>
+      <c r="I24" s="33" t="s">
+        <v>206</v>
+      </c>
+      <c r="J24" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -2329,21 +3811,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54D9C67E-4237-478B-81E0-48BC15B60241}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19" style="32" customWidth="1"/>
-    <col min="6" max="6" width="30.375" customWidth="1"/>
+    <col min="4" max="4" width="9" style="14"/>
+    <col min="5" max="5" width="11" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29" style="33" customWidth="1"/>
+    <col min="7" max="7" width="30.375" customWidth="1"/>
+    <col min="8" max="8" width="34" style="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2351,67 +3835,285 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="F1" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1" s="29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="E2" s="30"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D2" s="3"/>
+      <c r="F2" s="31"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="3">
+        <v>10</v>
+      </c>
+      <c r="E3" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E3" s="31"/>
-      <c r="F3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+      <c r="F3" s="32"/>
+      <c r="G3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="3">
+        <v>10</v>
+      </c>
+      <c r="F4" s="32"/>
+      <c r="G4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="3">
+        <v>20</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="32"/>
+      <c r="G5" t="s">
+        <v>134</v>
+      </c>
+      <c r="H5" s="30" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="3">
+        <v>30</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="F6" s="32"/>
+      <c r="G6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="3"/>
+      <c r="F7" s="32"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="3"/>
+      <c r="F8" s="32"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B6" t="s">
-        <v>99</v>
-      </c>
-      <c r="E6" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="F6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
+      <c r="B11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11" s="14">
+        <v>30</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="F11" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="G11" t="s">
+        <v>135</v>
+      </c>
+      <c r="H11" s="30" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D12" s="14">
+        <v>10</v>
+      </c>
+      <c r="G12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>160</v>
+      </c>
+      <c r="D13" s="14">
+        <v>10</v>
+      </c>
+      <c r="G13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D16" s="14">
+        <v>15</v>
+      </c>
+      <c r="F16" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="G16" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="H16" s="30" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>123</v>
+      </c>
+      <c r="D17" s="14">
+        <v>10</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>125</v>
+      </c>
+      <c r="D18" s="14">
+        <v>10</v>
+      </c>
+      <c r="F18" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="G18" t="s">
+        <v>135</v>
+      </c>
+      <c r="H18" s="30" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>129</v>
+      </c>
+      <c r="D19" s="14">
+        <v>10</v>
+      </c>
+      <c r="G19" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>130</v>
+      </c>
+      <c r="D20" s="14">
+        <v>10</v>
+      </c>
+      <c r="G20" t="s">
         <v>114</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F7" t="s">
-        <v>56</v>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>141</v>
+      </c>
+      <c r="D21" s="14">
+        <v>10</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="G21" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>209</v>
+      </c>
+      <c r="D27" s="14">
+        <v>10</v>
+      </c>
+      <c r="F27" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="G27" s="30" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>210</v>
+      </c>
+      <c r="D28" s="14">
+        <v>10</v>
+      </c>
+      <c r="G28" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -2422,10 +4124,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60A858D4-5BEF-44D4-8A9F-866174BC0619}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2446,10 +4148,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E1" s="10"/>
     </row>
@@ -2464,97 +4166,176 @@
         <v>25</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="15" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
-        <v>38</v>
-      </c>
+      <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>116</v>
+        <v>167</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="14" t="s">
-        <v>117</v>
+      <c r="D5" s="15" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="15" t="s">
-        <v>120</v>
+      <c r="A6" s="2"/>
+      <c r="B6" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>119</v>
+        <v>195</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="14" t="s">
-        <v>121</v>
-      </c>
+      <c r="D7" s="15"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>61</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="2"/>
       <c r="D9" s="14" t="s">
-        <v>62</v>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="15" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>69</v>
+      <c r="B11" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="14" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>92</v>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
-        <v>76</v>
-      </c>
       <c r="B15" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>89</v>
+        <v>198</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" s="6" t="s">
-        <v>90</v>
+        <v>199</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>91</v>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D17" s="15"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B22" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B25" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B26" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -2568,13 +4349,15 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="16" width="7.625" customWidth="1"/>
+    <col min="2" max="5" width="7.625" customWidth="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="16" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
@@ -2766,12 +4549,12 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/plan/招式.xlsx
+++ b/plan/招式.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\pealpool.github.io\plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB802FD-67F1-4F68-853C-4E1D12268C78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC08C9B7-D041-494D-B678-18C0C4D9D598}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" xr2:uid="{07694949-CE91-4AC6-84BF-EA7187E3619C}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="239">
   <si>
     <t>派别</t>
   </si>
@@ -255,14 +255,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>破绽发现率 +10%，5s</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>破绽攻击率修正</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>铁布衫</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -283,10 +275,6 @@
   </si>
   <si>
     <t>狮啸功</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>-100%</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -894,6 +882,114 @@
   </si>
   <si>
     <t>金刚诛灭手</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对方内外伤防御-10%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>封锁对方耐力回复3s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-10%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一阳指</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>枯荣禅功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自身耐力回复+10%，对方耐力回复-10%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>段氏步法·进</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>段氏步法·退</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>段氏步法·守</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>段氏心法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>破绽发现率+10%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>段氏步法·攻</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>少商剑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑路雄劲，颇有石破天惊，风雨大至之势</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中冲剑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商阳剑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关冲剑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>少冲剑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>少泽剑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪避+5%，命中+5%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>巧妙灵活，难以捉摸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大开大阖，气势雄迈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以拙滞古朴取胜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻灵迅速</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>忽来忽去，变化精妙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内外伤伤害+5%，5s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>耐力伤害+50%</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -987,7 +1083,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1033,9 +1129,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
@@ -1057,22 +1150,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1098,6 +1176,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1415,13 +1517,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{897EE391-4514-4BBB-B5AB-BFD81F1FD685}">
-  <dimension ref="A1:X53"/>
+  <dimension ref="A1:W59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="V19" sqref="V19"/>
+      <selection pane="bottomRight" activeCell="U39" sqref="U39:U45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1434,114 +1536,110 @@
     <col min="8" max="10" width="3.5" style="1" customWidth="1"/>
     <col min="11" max="11" width="6.25" style="3" customWidth="1"/>
     <col min="12" max="12" width="6.25" style="1" customWidth="1"/>
-    <col min="13" max="14" width="6.25" style="4" customWidth="1"/>
-    <col min="15" max="19" width="6.25" style="1" customWidth="1"/>
-    <col min="20" max="21" width="6.25" style="2" customWidth="1"/>
-    <col min="22" max="22" width="50.25" style="20" customWidth="1"/>
-    <col min="23" max="23" width="26.375" style="5" customWidth="1"/>
-    <col min="24" max="24" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.125" style="1"/>
+    <col min="13" max="13" width="6.25" style="4" customWidth="1"/>
+    <col min="14" max="18" width="6.25" style="1" customWidth="1"/>
+    <col min="19" max="20" width="6.25" style="2" customWidth="1"/>
+    <col min="21" max="21" width="50.25" style="19" customWidth="1"/>
+    <col min="22" max="22" width="26.375" style="5" customWidth="1"/>
+    <col min="23" max="23" width="13" style="5" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:23" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="23" t="s">
+      <c r="B1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="25" t="s">
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="25" t="s">
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="M1" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="O1" s="23" t="s">
+      <c r="N1" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="23" t="s">
+      <c r="O1" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="23" t="s">
+      <c r="P1" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="23" t="s">
+      <c r="Q1" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="S1" s="23" t="s">
+      <c r="R1" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="T1" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="U1" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="V1" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="W1" s="23" t="s">
+      <c r="S1" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="T1" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="U1" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="V1" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="X1" s="23" t="s">
+      <c r="W1" s="33" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="17" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="D2" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" s="18" t="s">
+    <row r="2" spans="1:23" s="16" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="D2" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="25"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="K2" s="35"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="33"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>35</v>
       </c>
@@ -1566,25 +1664,25 @@
       <c r="L3" s="1">
         <v>90</v>
       </c>
+      <c r="N3" s="1">
+        <v>0.4</v>
+      </c>
       <c r="O3" s="1">
+        <v>1</v>
+      </c>
+      <c r="P3" s="1">
         <v>0.4</v>
       </c>
-      <c r="P3" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="S3" s="1">
+      <c r="R3" s="1">
         <v>3</v>
       </c>
-      <c r="W3" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V3" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E4" s="2">
         <v>1</v>
@@ -1608,27 +1706,27 @@
         <v>70</v>
       </c>
       <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
+      <c r="N4" s="2">
+        <v>0.4</v>
+      </c>
       <c r="O4" s="2">
+        <v>1</v>
+      </c>
+      <c r="P4" s="2">
         <v>0.4</v>
       </c>
-      <c r="P4" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="S4" s="2">
+      <c r="R4" s="2">
         <v>3</v>
       </c>
-      <c r="V4" s="20"/>
-      <c r="W4" s="5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U4" s="19"/>
+      <c r="V4" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="W4" s="5"/>
+    </row>
+    <row r="5" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E5" s="2">
         <v>1</v>
@@ -1652,27 +1750,27 @@
         <v>90</v>
       </c>
       <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
+      <c r="N5" s="2">
+        <v>0.4</v>
+      </c>
       <c r="O5" s="2">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="P5" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="2">
         <v>0.3</v>
       </c>
-      <c r="S5" s="2">
+      <c r="R5" s="2">
         <v>3</v>
       </c>
-      <c r="V5" s="20"/>
-      <c r="W5" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U5" s="19"/>
+      <c r="V5" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="W5" s="5"/>
+    </row>
+    <row r="6" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E6" s="2">
         <v>1</v>
@@ -1693,28 +1791,30 @@
       <c r="L6" s="2">
         <v>150</v>
       </c>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
+      <c r="M6" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0.6</v>
+      </c>
       <c r="O6" s="2">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="P6" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="2">
         <v>0.4</v>
       </c>
-      <c r="S6" s="2">
+      <c r="R6" s="2">
         <v>5</v>
       </c>
-      <c r="V6" s="20"/>
-      <c r="W6" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U6" s="19"/>
+      <c r="V6" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="W6" s="5"/>
+    </row>
+    <row r="7" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E7" s="2">
         <v>1</v>
@@ -1738,27 +1838,27 @@
         <v>100</v>
       </c>
       <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
+      <c r="N7" s="2">
+        <v>0.4</v>
+      </c>
       <c r="O7" s="2">
+        <v>1</v>
+      </c>
+      <c r="P7" s="2">
         <v>0.4</v>
       </c>
-      <c r="P7" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="S7" s="2">
+      <c r="R7" s="2">
         <v>3</v>
       </c>
-      <c r="V7" s="20"/>
-      <c r="W7" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U7" s="19"/>
+      <c r="V7" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="W7" s="5"/>
+    </row>
+    <row r="8" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E8" s="2">
         <v>1</v>
@@ -1776,28 +1876,30 @@
       <c r="L8" s="2">
         <v>120</v>
       </c>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
+      <c r="M8" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0.6</v>
+      </c>
       <c r="O8" s="2">
+        <v>1</v>
+      </c>
+      <c r="P8" s="2">
         <v>0.6</v>
       </c>
-      <c r="P8" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="S8" s="2">
+      <c r="R8" s="2">
         <v>6</v>
       </c>
-      <c r="V8" s="20"/>
-      <c r="W8" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U8" s="19"/>
+      <c r="V8" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="W8" s="5"/>
+    </row>
+    <row r="9" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F9" s="2">
         <v>1</v>
@@ -1820,28 +1922,30 @@
       <c r="L9" s="2">
         <v>60</v>
       </c>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
+      <c r="M9" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="N9" s="2">
+        <v>0.5</v>
+      </c>
       <c r="O9" s="2">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="P9" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="2">
         <v>0.4</v>
       </c>
-      <c r="S9" s="2">
+      <c r="R9" s="2">
         <v>6</v>
       </c>
-      <c r="V9" s="20"/>
-      <c r="W9" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U9" s="19"/>
+      <c r="V9" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="W9" s="5"/>
+    </row>
+    <row r="10" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E10" s="2">
         <v>1</v>
@@ -1862,39 +1966,41 @@
       <c r="L10" s="2">
         <v>180</v>
       </c>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
+      <c r="M10" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="N10" s="2">
+        <v>0.7</v>
+      </c>
       <c r="O10" s="2">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="P10" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="2">
         <v>0.6</v>
       </c>
-      <c r="S10" s="2">
+      <c r="R10" s="2">
         <v>6</v>
       </c>
-      <c r="V10" s="20"/>
-      <c r="W10" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U10" s="19"/>
+      <c r="V10" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="W10" s="5"/>
+    </row>
+    <row r="11" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G11" s="3"/>
       <c r="K11" s="3"/>
       <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="V11" s="20"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="5"/>
       <c r="W11" s="5"/>
     </row>
-    <row r="12" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E12" s="2">
         <v>1</v>
@@ -1920,27 +2026,27 @@
       <c r="M12" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="N12" s="4"/>
+      <c r="N12" s="2">
+        <v>0.4</v>
+      </c>
       <c r="O12" s="2">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="P12" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="2">
         <v>0.3</v>
       </c>
-      <c r="S12" s="2">
+      <c r="R12" s="2">
         <v>4</v>
       </c>
-      <c r="V12" s="20"/>
-      <c r="W12" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="U12" s="19"/>
+      <c r="V12" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="W12" s="5"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
@@ -1963,25 +2069,25 @@
       <c r="L13" s="1">
         <v>20</v>
       </c>
+      <c r="N13" s="1">
+        <v>0.3</v>
+      </c>
       <c r="O13" s="1">
+        <v>1</v>
+      </c>
+      <c r="P13" s="1">
         <v>0.3</v>
       </c>
-      <c r="P13" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="S13" s="1">
+      <c r="R13" s="1">
         <v>3</v>
       </c>
-      <c r="W13" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V13" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E14" s="2">
         <v>1</v>
@@ -2007,27 +2113,27 @@
       <c r="M14" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="N14" s="4"/>
+      <c r="N14" s="2">
+        <v>0.2</v>
+      </c>
       <c r="O14" s="2">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="P14" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="2">
         <v>0.3</v>
       </c>
-      <c r="S14" s="2">
+      <c r="R14" s="2">
         <v>3</v>
       </c>
-      <c r="V14" s="20"/>
-      <c r="W14" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U14" s="19"/>
+      <c r="V14" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="W14" s="5"/>
+    </row>
+    <row r="15" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E15" s="2">
         <v>1</v>
@@ -2051,27 +2157,27 @@
         <v>80</v>
       </c>
       <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
+      <c r="N15" s="2">
+        <v>0.3</v>
+      </c>
       <c r="O15" s="2">
+        <v>1</v>
+      </c>
+      <c r="P15" s="2">
         <v>0.3</v>
       </c>
-      <c r="P15" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="S15" s="2">
+      <c r="R15" s="2">
         <v>4</v>
       </c>
-      <c r="V15" s="20"/>
-      <c r="W15" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="U15" s="19"/>
+      <c r="V15" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="W15" s="5"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
@@ -2094,25 +2200,25 @@
       <c r="L16" s="1">
         <v>100</v>
       </c>
+      <c r="N16" s="1">
+        <v>0.5</v>
+      </c>
       <c r="O16" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P16" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="1">
         <v>0.4</v>
       </c>
-      <c r="S16" s="1">
+      <c r="R16" s="1">
         <v>3</v>
       </c>
-      <c r="W16" s="5" t="s">
-        <v>114</v>
+      <c r="V16" s="5" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E17" s="2">
         <v>1</v>
@@ -2136,29 +2242,29 @@
         <v>80</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="N17" s="4"/>
+        <v>68</v>
+      </c>
+      <c r="N17" s="2">
+        <v>0.6</v>
+      </c>
       <c r="O17" s="2">
+        <v>1</v>
+      </c>
+      <c r="P17" s="2">
         <v>0.6</v>
       </c>
-      <c r="P17" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="S17" s="2">
+      <c r="R17" s="2">
         <v>5</v>
       </c>
-      <c r="V17" s="20"/>
-      <c r="W17" s="5" t="s">
-        <v>121</v>
-      </c>
+      <c r="U17" s="19"/>
+      <c r="V17" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="W17" s="5"/>
     </row>
     <row r="18" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F18" s="2">
         <v>1</v>
@@ -2182,27 +2288,27 @@
         <v>80</v>
       </c>
       <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
+      <c r="N18" s="2">
+        <v>0.6</v>
+      </c>
       <c r="O18" s="2">
+        <v>1</v>
+      </c>
+      <c r="P18" s="2">
         <v>0.6</v>
       </c>
-      <c r="P18" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="S18" s="2">
+      <c r="R18" s="2">
         <v>6</v>
       </c>
-      <c r="V18" s="20"/>
-      <c r="W18" s="5" t="s">
-        <v>98</v>
-      </c>
+      <c r="U18" s="19"/>
+      <c r="V18" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="W18" s="5"/>
     </row>
     <row r="19" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F19" s="2">
         <v>1</v>
@@ -2226,30 +2332,30 @@
         <v>130</v>
       </c>
       <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
+      <c r="N19" s="2">
+        <v>0.6</v>
+      </c>
       <c r="O19" s="2">
+        <v>1</v>
+      </c>
+      <c r="P19" s="2">
         <v>0.6</v>
       </c>
-      <c r="P19" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="S19" s="2">
+      <c r="R19" s="2">
         <v>6</v>
       </c>
-      <c r="V19" s="20"/>
-      <c r="W19" s="5" t="s">
-        <v>114</v>
-      </c>
+      <c r="U19" s="19"/>
+      <c r="V19" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="W19" s="5"/>
     </row>
     <row r="21" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E21" s="2">
         <v>1</v>
@@ -2272,32 +2378,34 @@
       <c r="L21" s="2">
         <v>30</v>
       </c>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
+      <c r="M21" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="N21" s="2">
+        <v>0.3</v>
+      </c>
       <c r="O21" s="2">
+        <v>1</v>
+      </c>
+      <c r="P21" s="2">
         <v>0.3</v>
       </c>
-      <c r="P21" s="2">
-        <v>1</v>
-      </c>
       <c r="Q21" s="2">
-        <v>0.3</v>
+        <v>25</v>
       </c>
       <c r="R21" s="2">
-        <v>25</v>
-      </c>
-      <c r="S21" s="2">
         <v>3</v>
       </c>
-      <c r="V21" s="20"/>
-      <c r="W21" s="5" t="s">
-        <v>134</v>
-      </c>
+      <c r="U21" s="19"/>
+      <c r="V21" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="W21" s="5"/>
     </row>
     <row r="22" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
       <c r="B22" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E22" s="2">
         <v>1</v>
@@ -2321,31 +2429,31 @@
         <v>60</v>
       </c>
       <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
+      <c r="N22" s="2">
+        <v>0.4</v>
+      </c>
       <c r="O22" s="2">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="P22" s="2">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="Q22" s="2">
-        <v>0.3</v>
+        <v>40</v>
       </c>
       <c r="R22" s="2">
-        <v>40</v>
-      </c>
-      <c r="S22" s="2">
         <v>4</v>
       </c>
-      <c r="V22" s="20"/>
-      <c r="W22" s="5" t="s">
-        <v>172</v>
-      </c>
+      <c r="U22" s="19"/>
+      <c r="V22" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="W22" s="5"/>
     </row>
     <row r="23" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
       <c r="B23" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F23" s="2">
         <v>1</v>
@@ -2367,30 +2475,30 @@
         <v>90</v>
       </c>
       <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
+      <c r="N23" s="2">
+        <v>0.6</v>
+      </c>
       <c r="O23" s="2">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="P23" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Q23" s="2">
-        <v>0.5</v>
+        <v>70</v>
       </c>
       <c r="R23" s="2">
-        <v>70</v>
-      </c>
-      <c r="S23" s="2">
         <v>6</v>
       </c>
-      <c r="V23" s="20"/>
-      <c r="W23" s="5" t="s">
-        <v>203</v>
-      </c>
+      <c r="U23" s="19"/>
+      <c r="V23" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="W23" s="5"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F24" s="1">
         <v>1</v>
@@ -2413,29 +2521,29 @@
       <c r="L24" s="1">
         <v>50</v>
       </c>
+      <c r="N24" s="1">
+        <v>0.6</v>
+      </c>
       <c r="O24" s="1">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="P24" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Q24" s="1">
-        <v>0.5</v>
+        <v>60</v>
       </c>
       <c r="R24" s="1">
-        <v>60</v>
-      </c>
-      <c r="S24" s="1">
         <v>6</v>
       </c>
-      <c r="W24" s="5" t="s">
-        <v>202</v>
+      <c r="V24" s="5" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="25" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
       <c r="B25" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E25" s="2">
         <v>1</v>
@@ -2459,31 +2567,31 @@
         <v>50</v>
       </c>
       <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
+      <c r="N25" s="2">
+        <v>0.3</v>
+      </c>
       <c r="O25" s="2">
+        <v>1</v>
+      </c>
+      <c r="P25" s="2">
         <v>0.3</v>
       </c>
-      <c r="P25" s="2">
-        <v>1</v>
-      </c>
       <c r="Q25" s="2">
-        <v>0.3</v>
+        <v>10</v>
       </c>
       <c r="R25" s="2">
-        <v>10</v>
-      </c>
-      <c r="S25" s="2">
         <v>3</v>
       </c>
-      <c r="V25" s="20"/>
-      <c r="W25" s="5" t="s">
-        <v>208</v>
-      </c>
+      <c r="U25" s="19"/>
+      <c r="V25" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="W25" s="5"/>
     </row>
     <row r="26" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
       <c r="B26" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E26" s="2">
         <v>1</v>
@@ -2507,31 +2615,31 @@
         <v>70</v>
       </c>
       <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
+      <c r="N26" s="2">
+        <v>0.4</v>
+      </c>
       <c r="O26" s="2">
+        <v>1</v>
+      </c>
+      <c r="P26" s="2">
         <v>0.4</v>
       </c>
-      <c r="P26" s="2">
-        <v>1</v>
-      </c>
       <c r="Q26" s="2">
-        <v>0.4</v>
+        <v>40</v>
       </c>
       <c r="R26" s="2">
-        <v>40</v>
-      </c>
-      <c r="S26" s="2">
         <v>3</v>
       </c>
-      <c r="V26" s="20"/>
-      <c r="W26" s="5" t="s">
-        <v>208</v>
-      </c>
+      <c r="U26" s="19"/>
+      <c r="V26" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="W26" s="5"/>
     </row>
     <row r="27" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
       <c r="B27" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E27" s="2">
         <v>1</v>
@@ -2555,31 +2663,31 @@
         <v>20</v>
       </c>
       <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
+      <c r="N27" s="2">
+        <v>0.4</v>
+      </c>
       <c r="O27" s="2">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="P27" s="2">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="Q27" s="2">
-        <v>0.3</v>
+        <v>30</v>
       </c>
       <c r="R27" s="2">
-        <v>30</v>
-      </c>
-      <c r="S27" s="2">
         <v>3</v>
       </c>
-      <c r="V27" s="20"/>
-      <c r="W27" s="5" t="s">
-        <v>208</v>
-      </c>
+      <c r="U27" s="19"/>
+      <c r="V27" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="W27" s="5"/>
     </row>
     <row r="28" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
       <c r="B28" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E28" s="2">
         <v>1</v>
@@ -2602,24 +2710,28 @@
       <c r="L28" s="2">
         <v>60</v>
       </c>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
+      <c r="M28" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="N28" s="2">
+        <v>0.5</v>
+      </c>
       <c r="O28" s="2">
+        <v>1</v>
+      </c>
+      <c r="P28" s="2">
         <v>0.5</v>
       </c>
-      <c r="P28" s="2">
-        <v>1</v>
-      </c>
       <c r="Q28" s="2">
-        <v>0.5</v>
+        <v>50</v>
       </c>
       <c r="R28" s="2">
-        <v>50</v>
-      </c>
-      <c r="S28" s="2">
         <v>3</v>
       </c>
-      <c r="V28" s="20"/>
+      <c r="U28" s="19"/>
+      <c r="V28" s="5" t="s">
+        <v>213</v>
+      </c>
       <c r="W28" s="5"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.2">
@@ -2627,7 +2739,7 @@
         <v>37</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E30" s="1">
         <v>1</v>
@@ -2647,25 +2759,25 @@
       <c r="K30" s="3">
         <v>140</v>
       </c>
+      <c r="N30" s="1">
+        <v>0.3</v>
+      </c>
       <c r="O30" s="1">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="P30" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q30" s="1">
         <v>0.4</v>
       </c>
-      <c r="S30" s="1">
+      <c r="R30" s="1">
         <v>4</v>
       </c>
-      <c r="W30" s="5" t="s">
-        <v>98</v>
+      <c r="V30" s="5" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E31" s="2">
         <v>1</v>
@@ -2689,27 +2801,27 @@
         <v>30</v>
       </c>
       <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
+      <c r="N31" s="2">
+        <v>0.4</v>
+      </c>
       <c r="O31" s="2">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="P31" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q31" s="2">
         <v>0.3</v>
       </c>
-      <c r="S31" s="2">
+      <c r="R31" s="2">
         <v>3</v>
       </c>
-      <c r="V31" s="20"/>
-      <c r="W31" s="5" t="s">
-        <v>98</v>
-      </c>
+      <c r="U31" s="19"/>
+      <c r="V31" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="W31" s="5"/>
     </row>
     <row r="32" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E32" s="2">
         <v>1</v>
@@ -2730,27 +2842,27 @@
         <v>180</v>
       </c>
       <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
+      <c r="N32" s="2">
+        <v>0.4</v>
+      </c>
       <c r="O32" s="2">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="P32" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q32" s="2">
         <v>0.3</v>
       </c>
-      <c r="S32" s="2">
+      <c r="R32" s="2">
         <v>4</v>
       </c>
-      <c r="V32" s="20"/>
-      <c r="W32" s="5" t="s">
-        <v>98</v>
-      </c>
+      <c r="U32" s="19"/>
+      <c r="V32" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="W32" s="5"/>
     </row>
     <row r="33" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E33" s="2">
         <v>1</v>
@@ -2776,27 +2888,27 @@
       <c r="M33" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="N33" s="4"/>
+      <c r="N33" s="2">
+        <v>0.2</v>
+      </c>
       <c r="O33" s="2">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="P33" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q33" s="2">
         <v>0.3</v>
       </c>
-      <c r="S33" s="2">
+      <c r="R33" s="2">
         <v>3</v>
       </c>
-      <c r="V33" s="20"/>
-      <c r="W33" s="5" t="s">
-        <v>134</v>
-      </c>
+      <c r="U33" s="19"/>
+      <c r="V33" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="W33" s="5"/>
     </row>
     <row r="34" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E34" s="2">
         <v>1</v>
@@ -2819,27 +2931,27 @@
       <c r="M34" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="N34" s="4"/>
+      <c r="N34" s="2">
+        <v>0.4</v>
+      </c>
       <c r="O34" s="2">
+        <v>1</v>
+      </c>
+      <c r="P34" s="2">
         <v>0.4</v>
       </c>
-      <c r="P34" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q34" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="S34" s="2">
+      <c r="R34" s="2">
         <v>4</v>
       </c>
-      <c r="V34" s="20"/>
-      <c r="W34" s="5" t="s">
-        <v>153</v>
-      </c>
+      <c r="U34" s="19"/>
+      <c r="V34" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="W34" s="5"/>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F35" s="1">
         <v>1</v>
@@ -2860,27 +2972,27 @@
         <v>210</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>158</v>
+        <v>214</v>
+      </c>
+      <c r="N35" s="1">
+        <v>0.6</v>
       </c>
       <c r="O35" s="1">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="P35" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q35" s="1">
         <v>0.5</v>
       </c>
-      <c r="S35" s="1">
+      <c r="R35" s="1">
         <v>6</v>
       </c>
-      <c r="W35" s="5" t="s">
-        <v>98</v>
+      <c r="V35" s="5" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F36" s="2">
         <v>1</v>
@@ -2902,27 +3014,27 @@
         <v>20</v>
       </c>
       <c r="M36" s="4"/>
-      <c r="N36" s="4"/>
+      <c r="N36" s="2">
+        <v>0.4</v>
+      </c>
       <c r="O36" s="2">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="P36" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q36" s="2">
         <v>0.6</v>
       </c>
-      <c r="S36" s="2">
+      <c r="R36" s="2">
         <v>6</v>
       </c>
-      <c r="V36" s="20"/>
-      <c r="W36" s="5" t="s">
-        <v>98</v>
-      </c>
+      <c r="U36" s="19"/>
+      <c r="V36" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="W36" s="5"/>
     </row>
     <row r="37" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E37" s="2">
         <v>1</v>
@@ -2943,366 +3055,678 @@
       <c r="M37" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="N37" s="4"/>
+      <c r="N37" s="2">
+        <v>0.2</v>
+      </c>
       <c r="O37" s="2">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="P37" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q37" s="2">
         <v>0.3</v>
       </c>
-      <c r="S37" s="2">
+      <c r="R37" s="2">
         <v>3</v>
       </c>
-      <c r="V37" s="20"/>
-      <c r="W37" s="5" t="s">
-        <v>104</v>
-      </c>
+      <c r="U37" s="19"/>
+      <c r="V37" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="W37" s="5"/>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E39" s="1">
-        <v>1</v>
-      </c>
+      <c r="B39" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2">
+        <v>1</v>
+      </c>
+      <c r="F39" s="2"/>
       <c r="G39" s="3">
         <v>1</v>
       </c>
-      <c r="H39" s="1">
-        <v>1</v>
-      </c>
-      <c r="I39" s="1">
-        <v>1</v>
-      </c>
-      <c r="J39" s="1">
-        <v>1</v>
-      </c>
-      <c r="L39" s="1">
-        <v>60</v>
-      </c>
-      <c r="M39" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="N39" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="O39" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="P39" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="Q39" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="R39" s="1">
+      <c r="H39" s="2">
+        <v>1</v>
+      </c>
+      <c r="I39" s="2">
+        <v>1</v>
+      </c>
+      <c r="J39" s="2">
+        <v>1</v>
+      </c>
+      <c r="K39" s="3">
+        <v>30</v>
+      </c>
+      <c r="L39" s="2">
+        <v>70</v>
+      </c>
+      <c r="N39" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="O39" s="2">
+        <v>1</v>
+      </c>
+      <c r="P39" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="Q39" s="2">
         <v>10</v>
       </c>
-      <c r="S39" s="1">
+      <c r="R39" s="2">
+        <v>4</v>
+      </c>
+      <c r="V39" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="6"/>
+      <c r="B40" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E40" s="2">
+        <v>1</v>
+      </c>
+      <c r="G40" s="3">
+        <v>1</v>
+      </c>
+      <c r="H40" s="2">
+        <v>1</v>
+      </c>
+      <c r="I40" s="2">
+        <v>1</v>
+      </c>
+      <c r="J40" s="2">
+        <v>1</v>
+      </c>
+      <c r="K40" s="3">
+        <v>80</v>
+      </c>
+      <c r="L40" s="2">
+        <v>20</v>
+      </c>
+      <c r="M40" s="4"/>
+      <c r="N40" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="O40" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="P40" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="Q40" s="2">
+        <v>10</v>
+      </c>
+      <c r="R40" s="2">
         <v>3</v>
       </c>
-      <c r="W39" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23" ht="57" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E42" s="1">
+      <c r="U40" s="19"/>
+      <c r="V40" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="W40" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="6"/>
+      <c r="B41" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E41" s="2">
+        <v>1</v>
+      </c>
+      <c r="G41" s="3">
+        <v>1</v>
+      </c>
+      <c r="H41" s="2">
+        <v>1</v>
+      </c>
+      <c r="I41" s="2">
+        <v>1</v>
+      </c>
+      <c r="J41" s="2">
+        <v>1</v>
+      </c>
+      <c r="K41" s="3">
+        <v>20</v>
+      </c>
+      <c r="L41" s="2">
+        <v>30</v>
+      </c>
+      <c r="M41" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="N41" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="O41" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="P41" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="Q41" s="2">
+        <v>5</v>
+      </c>
+      <c r="R41" s="2">
+        <v>3</v>
+      </c>
+      <c r="U41" s="19"/>
+      <c r="V41" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="W41" s="5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="6"/>
+      <c r="B42" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E42" s="2">
         <v>1</v>
       </c>
       <c r="G42" s="3">
         <v>1</v>
       </c>
-      <c r="I42" s="1">
-        <v>1</v>
-      </c>
-      <c r="J42" s="1">
-        <v>1</v>
-      </c>
-      <c r="S42" s="1">
+      <c r="H42" s="2">
+        <v>1</v>
+      </c>
+      <c r="I42" s="2">
+        <v>1</v>
+      </c>
+      <c r="J42" s="2">
+        <v>1</v>
+      </c>
+      <c r="K42" s="3">
+        <v>70</v>
+      </c>
+      <c r="L42" s="2">
+        <v>30</v>
+      </c>
+      <c r="M42" s="4"/>
+      <c r="N42" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="O42" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="P42" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="Q42" s="2">
+        <v>8</v>
+      </c>
+      <c r="R42" s="2">
         <v>3</v>
       </c>
-      <c r="V42" s="21" t="s">
-        <v>78</v>
+      <c r="U42" s="19"/>
+      <c r="V42" s="5" t="s">
+        <v>238</v>
       </c>
       <c r="W42" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E43" s="1">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="6"/>
+      <c r="B43" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E43" s="2">
         <v>1</v>
       </c>
       <c r="G43" s="3">
         <v>1</v>
       </c>
-      <c r="H43" s="1">
-        <v>1</v>
-      </c>
-      <c r="I43" s="1">
-        <v>1</v>
-      </c>
-      <c r="J43" s="1">
+      <c r="H43" s="2">
+        <v>1</v>
+      </c>
+      <c r="I43" s="2">
+        <v>1</v>
+      </c>
+      <c r="J43" s="2">
         <v>1</v>
       </c>
       <c r="K43" s="3">
-        <v>10</v>
-      </c>
-      <c r="L43" s="1">
-        <v>20</v>
-      </c>
-      <c r="O43" s="1">
+        <v>50</v>
+      </c>
+      <c r="L43" s="2">
+        <v>40</v>
+      </c>
+      <c r="M43" s="4"/>
+      <c r="N43" s="2">
         <v>0.3</v>
       </c>
-      <c r="P43" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q43" s="1">
+      <c r="O43" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="P43" s="2">
         <v>0.3</v>
       </c>
-      <c r="S43" s="1">
+      <c r="Q43" s="2">
+        <v>5</v>
+      </c>
+      <c r="R43" s="2">
         <v>3</v>
       </c>
-      <c r="U43" s="2">
+      <c r="U43" s="19"/>
+      <c r="V43" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="W43" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="6"/>
+      <c r="B44" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="2">
+        <v>1</v>
+      </c>
+      <c r="G44" s="3">
+        <v>1</v>
+      </c>
+      <c r="H44" s="2">
+        <v>1</v>
+      </c>
+      <c r="I44" s="2">
+        <v>1</v>
+      </c>
+      <c r="J44" s="2">
+        <v>1</v>
+      </c>
+      <c r="K44" s="3">
+        <v>40</v>
+      </c>
+      <c r="L44" s="1">
         <v>30</v>
       </c>
-      <c r="V43" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="W43" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E44" s="2">
-        <v>1</v>
-      </c>
-      <c r="G44" s="3">
-        <v>1</v>
-      </c>
-      <c r="H44" s="2">
-        <v>1</v>
-      </c>
-      <c r="I44" s="2">
-        <v>1</v>
-      </c>
-      <c r="J44" s="2">
-        <v>1</v>
-      </c>
-      <c r="K44" s="3"/>
-      <c r="L44" s="2">
-        <v>50</v>
-      </c>
       <c r="M44" s="4"/>
-      <c r="N44" s="4"/>
-      <c r="O44" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="P44" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="Q44" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="S44" s="2">
+      <c r="N44" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="O44" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="P44" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="Q44" s="1">
+        <v>5</v>
+      </c>
+      <c r="R44" s="1">
         <v>3</v>
       </c>
-      <c r="V44" s="20"/>
+      <c r="U44" s="19"/>
+      <c r="V44" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="W44" s="5" t="s">
-        <v>82</v>
+        <v>235</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B45" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2">
+        <v>1</v>
+      </c>
+      <c r="F45" s="2"/>
+      <c r="G45" s="3">
+        <v>1</v>
+      </c>
+      <c r="H45" s="2">
+        <v>1</v>
+      </c>
+      <c r="I45" s="2">
+        <v>1</v>
+      </c>
+      <c r="J45" s="2">
+        <v>1</v>
+      </c>
+      <c r="K45" s="3">
+        <v>30</v>
+      </c>
+      <c r="L45" s="2">
+        <v>30</v>
+      </c>
+      <c r="M45" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="N45" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="O45" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="P45" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="Q45" s="2">
+        <v>5</v>
+      </c>
+      <c r="R45" s="2">
+        <v>3</v>
+      </c>
+      <c r="V45" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="W45" s="5" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="46" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G46" s="3"/>
       <c r="K46" s="3"/>
       <c r="M46" s="4"/>
-      <c r="N46" s="4"/>
-      <c r="V46" s="20"/>
+      <c r="U46" s="19"/>
+      <c r="V46" s="5"/>
       <c r="W46" s="5"/>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A47" s="6" t="s">
+    <row r="48" spans="1:23" ht="57" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E48" s="1">
+        <v>1</v>
+      </c>
+      <c r="G48" s="3">
+        <v>1</v>
+      </c>
+      <c r="I48" s="1">
+        <v>1</v>
+      </c>
+      <c r="J48" s="1">
+        <v>1</v>
+      </c>
+      <c r="R48" s="1">
+        <v>3</v>
+      </c>
+      <c r="U48" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="V48" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E49" s="1">
+        <v>1</v>
+      </c>
+      <c r="G49" s="3">
+        <v>1</v>
+      </c>
+      <c r="H49" s="1">
+        <v>1</v>
+      </c>
+      <c r="I49" s="1">
+        <v>1</v>
+      </c>
+      <c r="J49" s="1">
+        <v>1</v>
+      </c>
+      <c r="K49" s="3">
+        <v>10</v>
+      </c>
+      <c r="L49" s="1">
+        <v>20</v>
+      </c>
+      <c r="N49" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="O49" s="1">
+        <v>1</v>
+      </c>
+      <c r="P49" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="R49" s="1">
+        <v>3</v>
+      </c>
+      <c r="T49" s="2">
         <v>30</v>
       </c>
-      <c r="B47" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="G47" s="3">
-        <v>1</v>
-      </c>
-      <c r="H47" s="1">
-        <v>1</v>
-      </c>
-      <c r="I47" s="1">
-        <v>1</v>
-      </c>
-      <c r="J47" s="1">
-        <v>1</v>
-      </c>
-      <c r="L47" s="1">
+      <c r="U49" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="V49" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E50" s="2">
+        <v>1</v>
+      </c>
+      <c r="G50" s="3">
+        <v>1</v>
+      </c>
+      <c r="H50" s="2">
+        <v>1</v>
+      </c>
+      <c r="I50" s="2">
+        <v>1</v>
+      </c>
+      <c r="J50" s="2">
+        <v>1</v>
+      </c>
+      <c r="K50" s="3"/>
+      <c r="L50" s="2">
+        <v>50</v>
+      </c>
+      <c r="M50" s="4"/>
+      <c r="N50" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="O50" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="P50" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="R50" s="2">
+        <v>3</v>
+      </c>
+      <c r="U50" s="19"/>
+      <c r="V50" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="W50" s="5"/>
+    </row>
+    <row r="52" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="M52" s="4"/>
+      <c r="U52" s="19"/>
+      <c r="V52" s="5"/>
+      <c r="W52" s="5"/>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A53" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="M47" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="N47" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="O47" s="1">
+      <c r="B53" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G53" s="3">
+        <v>1</v>
+      </c>
+      <c r="H53" s="1">
+        <v>1</v>
+      </c>
+      <c r="I53" s="1">
+        <v>1</v>
+      </c>
+      <c r="J53" s="1">
+        <v>1</v>
+      </c>
+      <c r="L53" s="1">
+        <v>30</v>
+      </c>
+      <c r="M53" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="N53" s="1">
         <v>0.9</v>
       </c>
-      <c r="P47" s="1">
+      <c r="O53" s="1">
         <v>2</v>
       </c>
-      <c r="Q47" s="1">
+      <c r="P53" s="1">
         <v>0.5</v>
       </c>
-      <c r="S47" s="1">
+      <c r="R53" s="1">
         <v>3</v>
       </c>
-      <c r="V47" s="20" t="s">
+      <c r="U53" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="V53" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B54" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D54" s="1">
+        <v>1</v>
+      </c>
+      <c r="G54" s="3">
+        <v>1</v>
+      </c>
+      <c r="H54" s="1">
+        <v>1</v>
+      </c>
+      <c r="K54" s="3">
+        <v>50</v>
+      </c>
+      <c r="M54" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="N54" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="O54" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="P54" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R54" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E58" s="1">
+        <v>1</v>
+      </c>
+      <c r="G58" s="3">
+        <v>1</v>
+      </c>
+      <c r="H58" s="1">
+        <v>1</v>
+      </c>
+      <c r="I58" s="1">
+        <v>1</v>
+      </c>
+      <c r="J58" s="1">
+        <v>1</v>
+      </c>
+      <c r="K58" s="3">
+        <v>90</v>
+      </c>
+      <c r="N58" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="O58" s="1">
+        <v>1</v>
+      </c>
+      <c r="P58" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="R58" s="1">
+        <v>3</v>
+      </c>
+      <c r="V58" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B59" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F59" s="1">
+        <v>1</v>
+      </c>
+      <c r="G59" s="3">
+        <v>1</v>
+      </c>
+      <c r="H59" s="1">
+        <v>1</v>
+      </c>
+      <c r="I59" s="1">
+        <v>1</v>
+      </c>
+      <c r="J59" s="1">
+        <v>1</v>
+      </c>
+      <c r="K59" s="3">
+        <v>120</v>
+      </c>
+      <c r="N59" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="O59" s="1">
+        <v>1</v>
+      </c>
+      <c r="P59" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="R59" s="1">
+        <v>5</v>
+      </c>
+      <c r="V59" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="W47" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B48" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D48" s="1">
-        <v>1</v>
-      </c>
-      <c r="G48" s="3">
-        <v>1</v>
-      </c>
-      <c r="H48" s="1">
-        <v>1</v>
-      </c>
-      <c r="K48" s="3">
-        <v>50</v>
-      </c>
-      <c r="M48" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="O48" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="P48" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="Q48" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="S48" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E52" s="1">
-        <v>1</v>
-      </c>
-      <c r="G52" s="3">
-        <v>1</v>
-      </c>
-      <c r="H52" s="1">
-        <v>1</v>
-      </c>
-      <c r="I52" s="1">
-        <v>1</v>
-      </c>
-      <c r="J52" s="1">
-        <v>1</v>
-      </c>
-      <c r="K52" s="3">
-        <v>90</v>
-      </c>
-      <c r="O52" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="P52" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q52" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="S52" s="1">
-        <v>3</v>
-      </c>
-      <c r="W52" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B53" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F53" s="1">
-        <v>1</v>
-      </c>
-      <c r="G53" s="3">
-        <v>1</v>
-      </c>
-      <c r="H53" s="1">
-        <v>1</v>
-      </c>
-      <c r="I53" s="1">
-        <v>1</v>
-      </c>
-      <c r="J53" s="1">
-        <v>1</v>
-      </c>
-      <c r="K53" s="3">
-        <v>120</v>
-      </c>
-      <c r="O53" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="P53" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q53" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="S53" s="1">
-        <v>5</v>
-      </c>
-      <c r="W53" s="5" t="s">
-        <v>95</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="15">
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="N1:N2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:N2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="P1:P2"/>
     <mergeCell ref="Q1:Q2"/>
@@ -3312,10 +3736,23 @@
     <mergeCell ref="U1:U2"/>
     <mergeCell ref="V1:V2"/>
     <mergeCell ref="W1:W2"/>
-    <mergeCell ref="X1:X2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="K1:L1048576">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7FE3E37C-0B7D-402E-AB20-D4B618AE074C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N1:P1048576">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -3324,7 +3761,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7FE3E37C-0B7D-402E-AB20-D4B618AE074C}</x14:id>
+          <x14:id>{C687EA02-BCFE-4B01-86A6-E7FAF1A19516}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3345,6 +3782,17 @@
           </x14:cfRule>
           <xm:sqref>K1:L1048576</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{C687EA02-BCFE-4B01-86A6-E7FAF1A19516}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>N1:P1048576</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
@@ -3353,10 +3801,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01B6F42B-4BB2-402E-8EF0-FC889EE96737}">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3369,7 +3820,7 @@
     <col min="6" max="6" width="5.75" style="8" customWidth="1"/>
     <col min="7" max="7" width="5.75" style="13" customWidth="1"/>
     <col min="8" max="8" width="11" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.5" style="27" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="30.375" customWidth="1"/>
     <col min="11" max="11" width="29" customWidth="1"/>
   </cols>
@@ -3384,19 +3835,19 @@
       <c r="C1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="27"/>
-      <c r="F1" s="26" t="s">
+      <c r="E1" s="37"/>
+      <c r="F1" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="28"/>
+      <c r="G1" s="38"/>
       <c r="H1" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="I1" s="29" t="s">
-        <v>75</v>
+      <c r="I1" s="23" t="s">
+        <v>72</v>
       </c>
       <c r="J1" s="10" t="s">
         <v>16</v>
@@ -3421,7 +3872,7 @@
       <c r="G2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="31"/>
+      <c r="I2" s="25"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
@@ -3440,15 +3891,15 @@
       <c r="G3" s="13">
         <v>1</v>
       </c>
-      <c r="I3" s="32"/>
+      <c r="I3" s="26"/>
       <c r="J3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="8">
@@ -3464,16 +3915,16 @@
         <v>53</v>
       </c>
       <c r="I4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="8">
@@ -3488,8 +3939,8 @@
       <c r="G5" s="13">
         <v>1</v>
       </c>
-      <c r="I5" s="34" t="s">
-        <v>178</v>
+      <c r="I5" s="28" t="s">
+        <v>175</v>
       </c>
       <c r="J5" t="s">
         <v>54</v>
@@ -3498,7 +3949,7 @@
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="8">
@@ -3513,8 +3964,8 @@
       <c r="G6" s="13">
         <v>1</v>
       </c>
-      <c r="I6" s="34" t="s">
-        <v>179</v>
+      <c r="I6" s="28" t="s">
+        <v>176</v>
       </c>
       <c r="J6" t="s">
         <v>54</v>
@@ -3523,7 +3974,7 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="8">
@@ -3538,17 +3989,17 @@
       <c r="G7" s="13">
         <v>1</v>
       </c>
-      <c r="I7" s="33" t="s">
-        <v>192</v>
+      <c r="I7" s="27" t="s">
+        <v>189</v>
       </c>
       <c r="J7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="8">
@@ -3560,16 +4011,16 @@
       <c r="G8" s="13">
         <v>1</v>
       </c>
-      <c r="I8" s="32"/>
+      <c r="I8" s="26"/>
       <c r="J8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
-      <c r="I9" s="32"/>
+      <c r="I9" s="26"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B10" s="2"/>
@@ -3580,7 +4031,7 @@
         <v>37</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D11" s="8">
         <v>1</v>
@@ -3592,12 +4043,12 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B12" s="6" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D12" s="8">
         <v>1</v>
@@ -3615,12 +4066,12 @@
         <v>47</v>
       </c>
       <c r="J12" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B13" s="6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D13" s="8">
         <v>1</v>
@@ -3634,16 +4085,16 @@
       <c r="G13" s="13">
         <v>1</v>
       </c>
-      <c r="I13" s="35" t="s">
-        <v>153</v>
+      <c r="I13" s="29" t="s">
+        <v>150</v>
       </c>
       <c r="J13" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B14" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D14" s="8">
         <v>1</v>
@@ -3657,21 +4108,21 @@
       <c r="G14" s="13">
         <v>1</v>
       </c>
-      <c r="I14" s="35" t="s">
-        <v>156</v>
+      <c r="I14" s="29" t="s">
+        <v>153</v>
       </c>
       <c r="J14" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B15" s="6" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D15" s="8">
         <v>1</v>
       </c>
-      <c r="E15" s="36">
+      <c r="E15" s="30">
         <v>1</v>
       </c>
       <c r="F15" s="8">
@@ -3681,21 +4132,21 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="J15" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I16" s="35"/>
+      <c r="I16" s="29"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>38</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D18" s="8">
         <v>1</v>
@@ -3707,12 +4158,12 @@
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B19" s="6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D19" s="8">
         <v>1</v>
@@ -3727,12 +4178,12 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B20" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D20" s="8">
         <v>1</v>
@@ -3747,12 +4198,12 @@
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B21" s="6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D21" s="8">
         <v>1</v>
@@ -3766,11 +4217,11 @@
       <c r="G21" s="13">
         <v>1</v>
       </c>
-      <c r="I21" s="33" t="s">
-        <v>144</v>
+      <c r="I21" s="27" t="s">
+        <v>141</v>
       </c>
       <c r="J21" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
@@ -3778,7 +4229,7 @@
         <v>26</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D24" s="8">
         <v>1</v>
@@ -3792,11 +4243,16 @@
       <c r="G24" s="13">
         <v>1</v>
       </c>
-      <c r="I24" s="33" t="s">
-        <v>206</v>
+      <c r="I24" s="27" t="s">
+        <v>203</v>
       </c>
       <c r="J24" t="s">
-        <v>205</v>
+        <v>202</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -3811,140 +4267,144 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54D9C67E-4237-478B-81E0-48BC15B60241}">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="6"/>
+    <col min="2" max="2" width="15.375" style="6" customWidth="1"/>
     <col min="4" max="4" width="9" style="14"/>
-    <col min="5" max="5" width="11" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29" style="33" customWidth="1"/>
+    <col min="5" max="5" width="11" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29" style="27" customWidth="1"/>
     <col min="7" max="7" width="30.375" customWidth="1"/>
-    <col min="8" max="8" width="34" style="30" customWidth="1"/>
+    <col min="8" max="8" width="34" style="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="E1" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="29" t="s">
-        <v>75</v>
+      <c r="F1" s="23" t="s">
+        <v>72</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="23" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
       <c r="C2" s="1"/>
       <c r="D2" s="3"/>
-      <c r="F2" s="31"/>
+      <c r="F2" s="25"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="3">
         <v>10</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="32"/>
+      <c r="F3" s="26"/>
       <c r="G3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="3">
         <v>10</v>
       </c>
-      <c r="F4" s="32"/>
+      <c r="F4" s="26"/>
       <c r="G4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="3">
         <v>20</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="32"/>
+      <c r="F5" s="26"/>
       <c r="G5" t="s">
-        <v>134</v>
-      </c>
-      <c r="H5" s="30" t="s">
-        <v>187</v>
+        <v>131</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="3">
         <v>30</v>
       </c>
-      <c r="E6" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="F6" s="32"/>
+      <c r="E6" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="F6" s="26"/>
       <c r="G6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="3"/>
-      <c r="F7" s="32"/>
+      <c r="F7" s="26"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="3"/>
-      <c r="F8" s="32"/>
+      <c r="F8" s="26"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B9" s="1"/>
+      <c r="B9" s="2"/>
       <c r="C9" s="1"/>
       <c r="D9" s="3"/>
     </row>
@@ -3952,168 +4412,215 @@
       <c r="A11" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B11" t="s">
-        <v>105</v>
+      <c r="B11" s="6" t="s">
+        <v>102</v>
       </c>
       <c r="D11" s="14">
         <v>30</v>
       </c>
-      <c r="E11" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="F11" s="33" t="s">
+      <c r="E11" s="21" t="s">
         <v>161</v>
       </c>
+      <c r="F11" s="27" t="s">
+        <v>158</v>
+      </c>
       <c r="G11" t="s">
-        <v>135</v>
-      </c>
-      <c r="H11" s="30" t="s">
-        <v>162</v>
+        <v>132</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>145</v>
+      <c r="B12" s="6" t="s">
+        <v>142</v>
       </c>
       <c r="D12" s="14">
         <v>10</v>
       </c>
       <c r="G12" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>160</v>
+      <c r="B13" s="6" t="s">
+        <v>157</v>
       </c>
       <c r="D13" s="14">
         <v>10</v>
       </c>
       <c r="G13" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="A16" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B16" t="s">
-        <v>122</v>
+      <c r="B16" s="6" t="s">
+        <v>119</v>
       </c>
       <c r="D16" s="14">
         <v>15</v>
       </c>
-      <c r="F16" s="30" t="s">
+      <c r="F16" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="G16" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="G16" s="30" t="s">
-        <v>139</v>
-      </c>
-      <c r="H16" s="30" t="s">
-        <v>133</v>
+      <c r="H16" s="24" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>123</v>
+      <c r="B17" s="6" t="s">
+        <v>120</v>
       </c>
       <c r="D17" s="14">
         <v>10</v>
       </c>
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="21" t="s">
         <v>53</v>
       </c>
       <c r="G17" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>125</v>
+      <c r="B18" s="6" t="s">
+        <v>122</v>
       </c>
       <c r="D18" s="14">
         <v>10</v>
       </c>
-      <c r="F18" s="33" t="s">
+      <c r="F18" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="G18" t="s">
         <v>132</v>
       </c>
-      <c r="G18" t="s">
-        <v>135</v>
-      </c>
-      <c r="H18" s="30" t="s">
-        <v>131</v>
+      <c r="H18" s="24" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
-        <v>129</v>
+      <c r="B19" s="6" t="s">
+        <v>126</v>
       </c>
       <c r="D19" s="14">
         <v>10</v>
       </c>
       <c r="G19" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>130</v>
+      <c r="B20" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="D20" s="14">
         <v>10</v>
       </c>
       <c r="G20" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
-        <v>141</v>
+      <c r="B21" s="6" t="s">
+        <v>138</v>
       </c>
       <c r="D21" s="14">
         <v>10</v>
       </c>
-      <c r="E21" s="22" t="s">
+      <c r="E21" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="F21" s="33" t="s">
-        <v>142</v>
+      <c r="F21" s="27" t="s">
+        <v>139</v>
       </c>
       <c r="G21" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
-        <v>126</v>
+      <c r="B24" s="6" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="A27" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
-        <v>209</v>
+      <c r="B27" s="6" t="s">
+        <v>206</v>
       </c>
       <c r="D27" s="14">
         <v>10</v>
       </c>
-      <c r="F27" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="G27" s="30" t="s">
-        <v>211</v>
+      <c r="F27" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="G27" s="24" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
-        <v>210</v>
+      <c r="B28" s="6" t="s">
+        <v>207</v>
       </c>
       <c r="D28" s="14">
         <v>10</v>
       </c>
       <c r="G28" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D31" s="14">
+        <v>10</v>
+      </c>
+      <c r="G31" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B32" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D32" s="14">
+        <v>10</v>
+      </c>
+      <c r="G32" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B33" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="D33" s="14">
+        <v>10</v>
+      </c>
+      <c r="G33" t="s">
         <v>135</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B34" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="D34" s="14">
+        <v>10</v>
+      </c>
+      <c r="G34" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -4124,10 +4631,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60A858D4-5BEF-44D4-8A9F-866174BC0619}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4135,7 +4645,7 @@
     <col min="1" max="1" width="9" style="6"/>
     <col min="2" max="2" width="11" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="6"/>
-    <col min="4" max="4" width="56.125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="56.125" style="32" customWidth="1"/>
     <col min="5" max="5" width="30.375" style="6" customWidth="1"/>
     <col min="6" max="16384" width="9" style="6"/>
   </cols>
@@ -4150,192 +4660,213 @@
       <c r="C1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="22" t="s">
         <v>46</v>
       </c>
       <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
+      <c r="A2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="7"/>
+      <c r="D2" s="31" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="15" t="s">
-        <v>61</v>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="31" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="15" t="s">
-        <v>168</v>
+      <c r="D4" s="31" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="15" t="s">
-        <v>124</v>
+      <c r="B5" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>60</v>
-      </c>
+      <c r="B6" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="31"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="15"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="A8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="32" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
-        <v>38</v>
-      </c>
       <c r="B9" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="31" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="15" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="14" t="s">
-        <v>112</v>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
-        <v>26</v>
-      </c>
       <c r="B13" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>67</v>
+        <v>193</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="D14" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="D14" s="31" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>200</v>
+        <v>196</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D17" s="15"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
+      <c r="D16" s="31"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>89</v>
+      <c r="B18" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="32" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
-        <v>73</v>
-      </c>
       <c r="B21" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="D21" s="14" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B22" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>88</v>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D23" s="32" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
-        <v>35</v>
-      </c>
       <c r="B24" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>183</v>
+        <v>178</v>
+      </c>
+      <c r="D24" s="32" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B25" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="31" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B26" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>185</v>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D27" s="32" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B28" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="D28" s="32" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B29" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="32" t="s">
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -4349,7 +4880,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4548,13 +5079,13 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="16" t="s">
-        <v>99</v>
+      <c r="A15" s="15" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="16" t="s">
-        <v>62</v>
+      <c r="A16" s="15" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/plan/招式.xlsx
+++ b/plan/招式.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\pealpool.github.io\plan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\mycode\pealpool.github.io\plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC08C9B7-D041-494D-B678-18C0C4D9D598}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9800815-B863-493A-8093-729E100CCB54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" xr2:uid="{07694949-CE91-4AC6-84BF-EA7187E3619C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{07694949-CE91-4AC6-84BF-EA7187E3619C}"/>
   </bookViews>
   <sheets>
     <sheet name="攻击" sheetId="2" r:id="rId1"/>
@@ -27,9 +27,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1186,10 +1184,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1520,10 +1518,10 @@
   <dimension ref="A1:W59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="U39" sqref="U39:U45"/>
+      <selection pane="bottomRight" activeCell="Q48" sqref="Q48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1557,19 +1555,19 @@
       </c>
       <c r="E1" s="33"/>
       <c r="F1" s="33"/>
-      <c r="G1" s="35" t="s">
+      <c r="G1" s="34" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="33"/>
       <c r="I1" s="33"/>
       <c r="J1" s="33"/>
-      <c r="K1" s="35" t="s">
+      <c r="K1" s="34" t="s">
         <v>3</v>
       </c>
       <c r="L1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="34" t="s">
+      <c r="M1" s="35" t="s">
         <v>5</v>
       </c>
       <c r="N1" s="33" t="s">
@@ -1593,7 +1591,7 @@
       <c r="T1" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="U1" s="34" t="s">
+      <c r="U1" s="35" t="s">
         <v>72</v>
       </c>
       <c r="V1" s="33" t="s">
@@ -1625,9 +1623,9 @@
       <c r="J2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="35"/>
+      <c r="K2" s="34"/>
       <c r="L2" s="33"/>
-      <c r="M2" s="34"/>
+      <c r="M2" s="35"/>
       <c r="N2" s="33"/>
       <c r="O2" s="33"/>
       <c r="P2" s="33"/>
@@ -1635,7 +1633,7 @@
       <c r="R2" s="33"/>
       <c r="S2" s="33"/>
       <c r="T2" s="33"/>
-      <c r="U2" s="34"/>
+      <c r="U2" s="35"/>
       <c r="V2" s="33"/>
       <c r="W2" s="33"/>
     </row>
@@ -3457,6 +3455,15 @@
       <c r="J48" s="1">
         <v>1</v>
       </c>
+      <c r="N48" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="O48" s="1">
+        <v>1</v>
+      </c>
+      <c r="P48" s="1">
+        <v>0.3</v>
+      </c>
       <c r="R48" s="1">
         <v>3</v>
       </c>
@@ -3721,21 +3728,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="W1:W2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="K1:L1048576">
@@ -4273,7 +4280,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F37" sqref="F37"/>
+      <selection pane="bottomRight" activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4626,6 +4633,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/plan/招式.xlsx
+++ b/plan/招式.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\mycode\pealpool.github.io\plan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\pealpool.github.io\plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9800815-B863-493A-8093-729E100CCB54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{085DDBDE-12C0-4593-BBB4-E001756F6529}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{07694949-CE91-4AC6-84BF-EA7187E3619C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" xr2:uid="{07694949-CE91-4AC6-84BF-EA7187E3619C}"/>
   </bookViews>
   <sheets>
     <sheet name="攻击" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="242">
   <si>
     <t>派别</t>
   </si>
@@ -249,10 +251,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>六脉神剑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>铁布衫</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -651,10 +649,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>大韦陀蹬</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>-5%</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -923,10 +917,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>破绽发现率+10%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>段氏步法·攻</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -983,11 +973,35 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>内外伤伤害+5%，5s</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>耐力伤害+50%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>六脉神剑的根基招式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大韦陀杵蹬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>五罗轻烟掌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>飘渺轻盈，招数精奇，拥有多重变势。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内外伤伤害+10%，5s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>六脉神剑经</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>破绽发现+30%</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1184,10 +1198,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1518,10 +1532,10 @@
   <dimension ref="A1:W59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C39" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q48" sqref="Q48"/>
+      <selection pane="bottomRight" activeCell="U24" sqref="U24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1555,19 +1569,19 @@
       </c>
       <c r="E1" s="33"/>
       <c r="F1" s="33"/>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="35" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="33"/>
       <c r="I1" s="33"/>
       <c r="J1" s="33"/>
-      <c r="K1" s="34" t="s">
+      <c r="K1" s="35" t="s">
         <v>3</v>
       </c>
       <c r="L1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="35" t="s">
+      <c r="M1" s="34" t="s">
         <v>5</v>
       </c>
       <c r="N1" s="33" t="s">
@@ -1586,13 +1600,13 @@
         <v>43</v>
       </c>
       <c r="S1" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="T1" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="T1" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="U1" s="35" t="s">
-        <v>72</v>
+      <c r="U1" s="34" t="s">
+        <v>71</v>
       </c>
       <c r="V1" s="33" t="s">
         <v>16</v>
@@ -1603,7 +1617,7 @@
     </row>
     <row r="2" spans="1:23" s="16" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="D2" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>9</v>
@@ -1623,9 +1637,9 @@
       <c r="J2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="34"/>
+      <c r="K2" s="35"/>
       <c r="L2" s="33"/>
-      <c r="M2" s="35"/>
+      <c r="M2" s="34"/>
       <c r="N2" s="33"/>
       <c r="O2" s="33"/>
       <c r="P2" s="33"/>
@@ -1633,7 +1647,7 @@
       <c r="R2" s="33"/>
       <c r="S2" s="33"/>
       <c r="T2" s="33"/>
-      <c r="U2" s="35"/>
+      <c r="U2" s="34"/>
       <c r="V2" s="33"/>
       <c r="W2" s="33"/>
     </row>
@@ -1663,7 +1677,7 @@
         <v>90</v>
       </c>
       <c r="N3" s="1">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="O3" s="1">
         <v>1</v>
@@ -1675,12 +1689,12 @@
         <v>3</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E4" s="2">
         <v>1</v>
@@ -1718,13 +1732,13 @@
       </c>
       <c r="U4" s="19"/>
       <c r="V4" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="W4" s="5"/>
     </row>
     <row r="5" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E5" s="2">
         <v>1</v>
@@ -1762,13 +1776,13 @@
       </c>
       <c r="U5" s="19"/>
       <c r="V5" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="W5" s="5"/>
     </row>
     <row r="6" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E6" s="2">
         <v>1</v>
@@ -1790,7 +1804,7 @@
         <v>150</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="N6" s="2">
         <v>0.6</v>
@@ -1806,13 +1820,13 @@
       </c>
       <c r="U6" s="19"/>
       <c r="V6" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="W6" s="5"/>
     </row>
     <row r="7" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E7" s="2">
         <v>1</v>
@@ -1837,7 +1851,7 @@
       </c>
       <c r="M7" s="4"/>
       <c r="N7" s="2">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="O7" s="2">
         <v>1</v>
@@ -1850,13 +1864,13 @@
       </c>
       <c r="U7" s="19"/>
       <c r="V7" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="W7" s="5"/>
     </row>
     <row r="8" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E8" s="2">
         <v>1</v>
@@ -1875,7 +1889,7 @@
         <v>120</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="N8" s="2">
         <v>0.6</v>
@@ -1891,13 +1905,13 @@
       </c>
       <c r="U8" s="19"/>
       <c r="V8" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="W8" s="5"/>
     </row>
     <row r="9" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F9" s="2">
         <v>1</v>
@@ -1921,7 +1935,7 @@
         <v>60</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="N9" s="2">
         <v>0.5</v>
@@ -1937,13 +1951,13 @@
       </c>
       <c r="U9" s="19"/>
       <c r="V9" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="W9" s="5"/>
     </row>
     <row r="10" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E10" s="2">
         <v>1</v>
@@ -1965,7 +1979,7 @@
         <v>180</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="N10" s="2">
         <v>0.7</v>
@@ -1981,7 +1995,7 @@
       </c>
       <c r="U10" s="19"/>
       <c r="V10" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="W10" s="5"/>
     </row>
@@ -1998,7 +2012,7 @@
         <v>38</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E12" s="2">
         <v>1</v>
@@ -2038,13 +2052,13 @@
       </c>
       <c r="U12" s="19"/>
       <c r="V12" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="W12" s="5"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
@@ -2080,12 +2094,12 @@
         <v>3</v>
       </c>
       <c r="V13" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E14" s="2">
         <v>1</v>
@@ -2125,13 +2139,13 @@
       </c>
       <c r="U14" s="19"/>
       <c r="V14" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="W14" s="5"/>
     </row>
     <row r="15" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E15" s="2">
         <v>1</v>
@@ -2169,13 +2183,13 @@
       </c>
       <c r="U15" s="19"/>
       <c r="V15" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="W15" s="5"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
@@ -2211,12 +2225,12 @@
         <v>3</v>
       </c>
       <c r="V16" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E17" s="2">
         <v>1</v>
@@ -2240,7 +2254,7 @@
         <v>80</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N17" s="2">
         <v>0.6</v>
@@ -2256,13 +2270,13 @@
       </c>
       <c r="U17" s="19"/>
       <c r="V17" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="W17" s="5"/>
     </row>
     <row r="18" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F18" s="2">
         <v>1</v>
@@ -2300,13 +2314,13 @@
       </c>
       <c r="U18" s="19"/>
       <c r="V18" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="W18" s="5"/>
     </row>
     <row r="19" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F19" s="2">
         <v>1</v>
@@ -2344,7 +2358,7 @@
       </c>
       <c r="U19" s="19"/>
       <c r="V19" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="W19" s="5"/>
     </row>
@@ -2353,7 +2367,7 @@
         <v>26</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E21" s="2">
         <v>1</v>
@@ -2396,14 +2410,14 @@
       </c>
       <c r="U21" s="19"/>
       <c r="V21" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="W21" s="5"/>
     </row>
     <row r="22" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
       <c r="B22" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E22" s="2">
         <v>1</v>
@@ -2444,14 +2458,14 @@
       </c>
       <c r="U22" s="19"/>
       <c r="V22" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="W22" s="5"/>
     </row>
     <row r="23" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
       <c r="B23" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F23" s="2">
         <v>1</v>
@@ -2490,13 +2504,13 @@
       </c>
       <c r="U23" s="19"/>
       <c r="V23" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="W23" s="5"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F24" s="1">
         <v>1</v>
@@ -2535,13 +2549,13 @@
         <v>6</v>
       </c>
       <c r="V24" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="25" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
       <c r="B25" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E25" s="2">
         <v>1</v>
@@ -2582,14 +2596,14 @@
       </c>
       <c r="U25" s="19"/>
       <c r="V25" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="W25" s="5"/>
     </row>
     <row r="26" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
       <c r="B26" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E26" s="2">
         <v>1</v>
@@ -2630,14 +2644,14 @@
       </c>
       <c r="U26" s="19"/>
       <c r="V26" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="W26" s="5"/>
     </row>
     <row r="27" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
       <c r="B27" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E27" s="2">
         <v>1</v>
@@ -2678,14 +2692,14 @@
       </c>
       <c r="U27" s="19"/>
       <c r="V27" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="W27" s="5"/>
     </row>
     <row r="28" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
       <c r="B28" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E28" s="2">
         <v>1</v>
@@ -2709,7 +2723,7 @@
         <v>60</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="N28" s="2">
         <v>0.5</v>
@@ -2728,7 +2742,7 @@
       </c>
       <c r="U28" s="19"/>
       <c r="V28" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="W28" s="5"/>
     </row>
@@ -2737,7 +2751,7 @@
         <v>37</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E30" s="1">
         <v>1</v>
@@ -2770,12 +2784,12 @@
         <v>4</v>
       </c>
       <c r="V30" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E31" s="2">
         <v>1</v>
@@ -2813,13 +2827,13 @@
       </c>
       <c r="U31" s="19"/>
       <c r="V31" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="W31" s="5"/>
     </row>
     <row r="32" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E32" s="2">
         <v>1</v>
@@ -2854,13 +2868,13 @@
       </c>
       <c r="U32" s="19"/>
       <c r="V32" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="W32" s="5"/>
     </row>
     <row r="33" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E33" s="2">
         <v>1</v>
@@ -2900,13 +2914,13 @@
       </c>
       <c r="U33" s="19"/>
       <c r="V33" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="W33" s="5"/>
     </row>
     <row r="34" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E34" s="2">
         <v>1</v>
@@ -2943,13 +2957,13 @@
       </c>
       <c r="U34" s="19"/>
       <c r="V34" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="W34" s="5"/>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F35" s="1">
         <v>1</v>
@@ -2970,7 +2984,7 @@
         <v>210</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="N35" s="1">
         <v>0.6</v>
@@ -2985,12 +2999,12 @@
         <v>6</v>
       </c>
       <c r="V35" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="2" t="s">
-        <v>154</v>
+        <v>236</v>
       </c>
       <c r="F36" s="2">
         <v>1</v>
@@ -3026,13 +3040,13 @@
       </c>
       <c r="U36" s="19"/>
       <c r="V36" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="W36" s="5"/>
     </row>
     <row r="37" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E37" s="2">
         <v>1</v>
@@ -3067,7 +3081,7 @@
       </c>
       <c r="U37" s="19"/>
       <c r="V37" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="W37" s="5"/>
     </row>
@@ -3076,7 +3090,7 @@
         <v>34</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -3100,31 +3114,32 @@
         <v>30</v>
       </c>
       <c r="L39" s="2">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="N39" s="2">
         <v>0.3</v>
       </c>
       <c r="O39" s="2">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="P39" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="Q39" s="2">
-        <v>10</v>
-      </c>
+        <v>0.3</v>
+      </c>
+      <c r="Q39" s="2"/>
       <c r="R39" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V39" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
+      </c>
+      <c r="W39" s="5" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="40" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="6"/>
       <c r="B40" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E40" s="2">
         <v>1</v>
@@ -3142,17 +3157,17 @@
         <v>1</v>
       </c>
       <c r="K40" s="3">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="L40" s="2">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="M40" s="4"/>
       <c r="N40" s="2">
         <v>0.4</v>
       </c>
       <c r="O40" s="2">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="P40" s="2">
         <v>0.3</v>
@@ -3161,20 +3176,20 @@
         <v>10</v>
       </c>
       <c r="R40" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U40" s="19"/>
       <c r="V40" s="5" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="W40" s="5" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="41" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="6"/>
       <c r="B41" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E41" s="2">
         <v>1</v>
@@ -3195,7 +3210,7 @@
         <v>20</v>
       </c>
       <c r="L41" s="2">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M41" s="4" t="s">
         <v>53</v>
@@ -3204,7 +3219,7 @@
         <v>0.3</v>
       </c>
       <c r="O41" s="2">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="P41" s="2">
         <v>0.3</v>
@@ -3217,16 +3232,16 @@
       </c>
       <c r="U41" s="19"/>
       <c r="V41" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="W41" s="5" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="42" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="6"/>
       <c r="B42" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E42" s="2">
         <v>1</v>
@@ -3244,39 +3259,39 @@
         <v>1</v>
       </c>
       <c r="K42" s="3">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="L42" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M42" s="4"/>
       <c r="N42" s="2">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="O42" s="2">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="P42" s="2">
         <v>0.3</v>
       </c>
       <c r="Q42" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="R42" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U42" s="19"/>
       <c r="V42" s="5" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="W42" s="5" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="43" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="6"/>
       <c r="B43" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E43" s="2">
         <v>1</v>
@@ -3297,36 +3312,36 @@
         <v>50</v>
       </c>
       <c r="L43" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="M43" s="4"/>
       <c r="N43" s="2">
         <v>0.3</v>
       </c>
       <c r="O43" s="2">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="P43" s="2">
         <v>0.3</v>
       </c>
       <c r="Q43" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R43" s="2">
         <v>3</v>
       </c>
       <c r="U43" s="19"/>
       <c r="V43" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="W43" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="44" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="6"/>
       <c r="B44" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -3346,14 +3361,14 @@
         <v>1</v>
       </c>
       <c r="K44" s="3">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="L44" s="1">
         <v>30</v>
       </c>
       <c r="M44" s="4"/>
       <c r="N44" s="1">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="O44" s="1">
         <v>0.8</v>
@@ -3369,15 +3384,15 @@
       </c>
       <c r="U44" s="19"/>
       <c r="V44" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="W44" s="5" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B45" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -3401,7 +3416,7 @@
         <v>30</v>
       </c>
       <c r="L45" s="2">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M45" s="4" t="s">
         <v>53</v>
@@ -3410,7 +3425,7 @@
         <v>0.3</v>
       </c>
       <c r="O45" s="2">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="P45" s="2">
         <v>0.3</v>
@@ -3422,26 +3437,64 @@
         <v>3</v>
       </c>
       <c r="V45" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="W45" s="5" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="46" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G46" s="3"/>
-      <c r="K46" s="3"/>
+      <c r="B46" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E46" s="2">
+        <v>1</v>
+      </c>
+      <c r="G46" s="3">
+        <v>1</v>
+      </c>
+      <c r="H46" s="2">
+        <v>1</v>
+      </c>
+      <c r="I46" s="2">
+        <v>1</v>
+      </c>
+      <c r="J46" s="2">
+        <v>1</v>
+      </c>
+      <c r="K46" s="3">
+        <v>40</v>
+      </c>
+      <c r="L46" s="2">
+        <v>30</v>
+      </c>
       <c r="M46" s="4"/>
+      <c r="N46" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="O46" s="2">
+        <v>1</v>
+      </c>
+      <c r="P46" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="R46" s="2">
+        <v>3</v>
+      </c>
       <c r="U46" s="19"/>
-      <c r="V46" s="5"/>
-      <c r="W46" s="5"/>
+      <c r="V46" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="W46" s="5" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="48" spans="1:23" ht="57" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="E48" s="1">
         <v>1</v>
@@ -3468,15 +3521,15 @@
         <v>3</v>
       </c>
       <c r="U48" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="V48" s="5" t="s">
         <v>75</v>
-      </c>
-      <c r="V48" s="5" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="49" spans="1:23" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E49" s="1">
         <v>1</v>
@@ -3515,15 +3568,15 @@
         <v>30</v>
       </c>
       <c r="U49" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="V49" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="V49" s="5" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="50" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E50" s="2">
         <v>1</v>
@@ -3549,7 +3602,7 @@
         <v>0.2</v>
       </c>
       <c r="O50" s="2">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="P50" s="2">
         <v>0.2</v>
@@ -3559,7 +3612,7 @@
       </c>
       <c r="U50" s="19"/>
       <c r="V50" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="W50" s="5"/>
     </row>
@@ -3576,7 +3629,7 @@
         <v>30</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G53" s="3">
         <v>1</v>
@@ -3594,7 +3647,7 @@
         <v>30</v>
       </c>
       <c r="M53" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N53" s="1">
         <v>0.9</v>
@@ -3609,15 +3662,15 @@
         <v>3</v>
       </c>
       <c r="U53" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V53" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B54" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D54" s="1">
         <v>1</v>
@@ -3632,7 +3685,7 @@
         <v>50</v>
       </c>
       <c r="M54" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N54" s="1">
         <v>0.3</v>
@@ -3649,10 +3702,10 @@
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="E58" s="1">
         <v>1</v>
@@ -3685,12 +3738,12 @@
         <v>3</v>
       </c>
       <c r="V58" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B59" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F59" s="1">
         <v>1</v>
@@ -3723,26 +3776,26 @@
         <v>5</v>
       </c>
       <c r="V59" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
     <mergeCell ref="S1:S2"/>
     <mergeCell ref="T1:T2"/>
     <mergeCell ref="U1:U2"/>
     <mergeCell ref="V1:V2"/>
     <mergeCell ref="W1:W2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="M1:M2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="K1:L1048576">
@@ -3854,7 +3907,7 @@
         <v>49</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J1" s="10" t="s">
         <v>16</v>
@@ -3900,13 +3953,13 @@
       </c>
       <c r="I3" s="26"/>
       <c r="J3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="8">
@@ -3922,16 +3975,16 @@
         <v>53</v>
       </c>
       <c r="I4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="8">
@@ -3947,7 +4000,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="28" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J5" t="s">
         <v>54</v>
@@ -3956,7 +4009,7 @@
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="8">
@@ -3972,7 +4025,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="28" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="J6" t="s">
         <v>54</v>
@@ -3981,7 +4034,7 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="8">
@@ -3997,16 +4050,16 @@
         <v>1</v>
       </c>
       <c r="I7" s="27" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="8">
@@ -4020,7 +4073,7 @@
       </c>
       <c r="I8" s="26"/>
       <c r="J8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -4038,7 +4091,7 @@
         <v>37</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D11" s="8">
         <v>1</v>
@@ -4050,12 +4103,12 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B12" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D12" s="8">
         <v>1</v>
@@ -4073,12 +4126,12 @@
         <v>47</v>
       </c>
       <c r="J12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B13" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D13" s="8">
         <v>1</v>
@@ -4093,38 +4146,38 @@
         <v>1</v>
       </c>
       <c r="I13" s="29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B14" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D14" s="8">
+        <v>1</v>
+      </c>
+      <c r="E14" s="11">
+        <v>1</v>
+      </c>
+      <c r="F14" s="8">
+        <v>1</v>
+      </c>
+      <c r="G14" s="13">
+        <v>1</v>
+      </c>
+      <c r="I14" s="29" t="s">
         <v>152</v>
       </c>
-      <c r="D14" s="8">
-        <v>1</v>
-      </c>
-      <c r="E14" s="11">
-        <v>1</v>
-      </c>
-      <c r="F14" s="8">
-        <v>1</v>
-      </c>
-      <c r="G14" s="13">
-        <v>1</v>
-      </c>
-      <c r="I14" s="29" t="s">
-        <v>153</v>
-      </c>
       <c r="J14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B15" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D15" s="8">
         <v>1</v>
@@ -4139,10 +4192,10 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -4153,7 +4206,7 @@
         <v>38</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D18" s="8">
         <v>1</v>
@@ -4165,12 +4218,12 @@
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B19" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D19" s="8">
         <v>1</v>
@@ -4185,12 +4238,12 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B20" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D20" s="8">
         <v>1</v>
@@ -4205,30 +4258,30 @@
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B21" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D21" s="8">
+        <v>1</v>
+      </c>
+      <c r="E21" s="11">
+        <v>1</v>
+      </c>
+      <c r="F21" s="8">
+        <v>1</v>
+      </c>
+      <c r="G21" s="13">
+        <v>1</v>
+      </c>
+      <c r="I21" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="D21" s="8">
-        <v>1</v>
-      </c>
-      <c r="E21" s="11">
-        <v>1</v>
-      </c>
-      <c r="F21" s="8">
-        <v>1</v>
-      </c>
-      <c r="G21" s="13">
-        <v>1</v>
-      </c>
-      <c r="I21" s="27" t="s">
-        <v>141</v>
-      </c>
       <c r="J21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
@@ -4236,25 +4289,25 @@
         <v>26</v>
       </c>
       <c r="B24" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="D24" s="8">
+        <v>1</v>
+      </c>
+      <c r="E24" s="11">
+        <v>1</v>
+      </c>
+      <c r="F24" s="8">
+        <v>1</v>
+      </c>
+      <c r="G24" s="13">
+        <v>1</v>
+      </c>
+      <c r="I24" s="27" t="s">
         <v>201</v>
       </c>
-      <c r="D24" s="8">
-        <v>1</v>
-      </c>
-      <c r="E24" s="11">
-        <v>1</v>
-      </c>
-      <c r="F24" s="8">
-        <v>1</v>
-      </c>
-      <c r="G24" s="13">
-        <v>1</v>
-      </c>
-      <c r="I24" s="27" t="s">
-        <v>203</v>
-      </c>
       <c r="J24" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
@@ -4277,10 +4330,10 @@
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H29" sqref="H29"/>
+      <selection pane="bottomRight" activeCell="F18" sqref="F18:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4305,13 +4358,13 @@
         <v>44</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E1" s="21" t="s">
         <v>52</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>16</v>
@@ -4343,13 +4396,13 @@
       </c>
       <c r="F3" s="26"/>
       <c r="G3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="3">
@@ -4357,13 +4410,13 @@
       </c>
       <c r="F4" s="26"/>
       <c r="G4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="3">
@@ -4374,27 +4427,27 @@
       </c>
       <c r="F5" s="26"/>
       <c r="G5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H5" s="24" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="3">
         <v>30</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F6" s="26"/>
       <c r="G6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -4420,44 +4473,44 @@
         <v>37</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D11" s="14">
         <v>30</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H11" s="24" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B12" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D12" s="14">
         <v>10</v>
       </c>
       <c r="G12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B13" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D13" s="14">
         <v>10</v>
       </c>
       <c r="G13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
@@ -4465,24 +4518,24 @@
         <v>38</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D16" s="14">
         <v>15</v>
       </c>
       <c r="F16" s="24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G16" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H16" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B17" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D17" s="14">
         <v>10</v>
@@ -4491,51 +4544,51 @@
         <v>53</v>
       </c>
       <c r="G17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B18" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D18" s="14">
         <v>10</v>
       </c>
       <c r="F18" s="27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H18" s="24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B19" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D19" s="14">
         <v>10</v>
       </c>
       <c r="G19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B20" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D20" s="14">
         <v>10</v>
       </c>
       <c r="G20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B21" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D21" s="14">
         <v>10</v>
@@ -4544,15 +4597,15 @@
         <v>53</v>
       </c>
       <c r="F21" s="27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B24" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
@@ -4560,27 +4613,27 @@
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D27" s="14">
         <v>10</v>
       </c>
       <c r="F27" s="24" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G27" s="24" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B28" s="6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D28" s="14">
         <v>10</v>
       </c>
       <c r="G28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -4588,46 +4641,46 @@
         <v>34</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D31" s="14">
         <v>10</v>
       </c>
       <c r="G31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B32" s="6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D32" s="14">
         <v>10</v>
       </c>
       <c r="G32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B33" s="6" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D33" s="14">
         <v>10</v>
       </c>
       <c r="G33" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B34" s="6" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D34" s="14">
         <v>10</v>
       </c>
       <c r="G34" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -4645,7 +4698,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D29" sqref="D29"/>
+      <selection pane="bottomRight" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4678,45 +4731,45 @@
         <v>25</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="31" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="31" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="32" t="s">
         <v>57</v>
-      </c>
-      <c r="D5" s="32" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="31"/>
@@ -4730,29 +4783,29 @@
         <v>38</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="31" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -4760,34 +4813,34 @@
         <v>26</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="31" t="s">
         <v>63</v>
-      </c>
-      <c r="D12" s="31" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" s="6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="D14" s="31" t="s">
         <v>195</v>
-      </c>
-      <c r="D14" s="31" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" s="6" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D15" s="32" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -4798,29 +4851,29 @@
         <v>31</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B20" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="32" t="s">
         <v>82</v>
-      </c>
-      <c r="D20" s="32" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B21" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" s="32" t="s">
         <v>84</v>
-      </c>
-      <c r="D21" s="32" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -4828,26 +4881,26 @@
         <v>35</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D23" s="32" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B24" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D24" s="32" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B25" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D25" s="31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -4855,26 +4908,26 @@
         <v>34</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D27" s="32" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B28" s="6" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D28" s="32" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B29" s="6" t="s">
-        <v>55</v>
+        <v>240</v>
       </c>
       <c r="D29" s="32" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -4888,7 +4941,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5088,12 +5141,12 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/plan/招式.xlsx
+++ b/plan/招式.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\pealpool.github.io\plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{085DDBDE-12C0-4593-BBB4-E001756F6529}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4458960D-C216-453D-9615-EB9929F7FC66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" xr2:uid="{07694949-CE91-4AC6-84BF-EA7187E3619C}"/>
   </bookViews>
@@ -1198,10 +1198,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1532,10 +1532,10 @@
   <dimension ref="A1:W59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="U24" sqref="U24"/>
+      <selection pane="bottomRight" activeCell="U47" sqref="U47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1569,19 +1569,19 @@
       </c>
       <c r="E1" s="33"/>
       <c r="F1" s="33"/>
-      <c r="G1" s="35" t="s">
+      <c r="G1" s="34" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="33"/>
       <c r="I1" s="33"/>
       <c r="J1" s="33"/>
-      <c r="K1" s="35" t="s">
+      <c r="K1" s="34" t="s">
         <v>3</v>
       </c>
       <c r="L1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="34" t="s">
+      <c r="M1" s="35" t="s">
         <v>5</v>
       </c>
       <c r="N1" s="33" t="s">
@@ -1605,7 +1605,7 @@
       <c r="T1" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="U1" s="34" t="s">
+      <c r="U1" s="35" t="s">
         <v>71</v>
       </c>
       <c r="V1" s="33" t="s">
@@ -1637,9 +1637,9 @@
       <c r="J2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="35"/>
+      <c r="K2" s="34"/>
       <c r="L2" s="33"/>
-      <c r="M2" s="34"/>
+      <c r="M2" s="35"/>
       <c r="N2" s="33"/>
       <c r="O2" s="33"/>
       <c r="P2" s="33"/>
@@ -1647,7 +1647,7 @@
       <c r="R2" s="33"/>
       <c r="S2" s="33"/>
       <c r="T2" s="33"/>
-      <c r="U2" s="34"/>
+      <c r="U2" s="35"/>
       <c r="V2" s="33"/>
       <c r="W2" s="33"/>
     </row>
@@ -1686,7 +1686,7 @@
         <v>0.4</v>
       </c>
       <c r="R3" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="V3" s="5" t="s">
         <v>104</v>
@@ -1728,7 +1728,7 @@
         <v>0.4</v>
       </c>
       <c r="R4" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="U4" s="19"/>
       <c r="V4" s="5" t="s">
@@ -1772,7 +1772,7 @@
         <v>0.3</v>
       </c>
       <c r="R5" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="U5" s="19"/>
       <c r="V5" s="5" t="s">
@@ -1816,7 +1816,7 @@
         <v>0.4</v>
       </c>
       <c r="R6" s="2">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="U6" s="19"/>
       <c r="V6" s="5" t="s">
@@ -1860,7 +1860,7 @@
         <v>0.4</v>
       </c>
       <c r="R7" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="U7" s="19"/>
       <c r="V7" s="5" t="s">
@@ -1901,7 +1901,7 @@
         <v>0.6</v>
       </c>
       <c r="R8" s="2">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="U8" s="19"/>
       <c r="V8" s="5" t="s">
@@ -1947,7 +1947,7 @@
         <v>0.4</v>
       </c>
       <c r="R9" s="2">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="U9" s="19"/>
       <c r="V9" s="5" t="s">
@@ -1991,7 +1991,7 @@
         <v>0.6</v>
       </c>
       <c r="R10" s="2">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="U10" s="19"/>
       <c r="V10" s="5" t="s">
@@ -2048,7 +2048,7 @@
         <v>0.3</v>
       </c>
       <c r="R12" s="2">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="U12" s="19"/>
       <c r="V12" s="5" t="s">
@@ -2091,7 +2091,7 @@
         <v>0.3</v>
       </c>
       <c r="R13" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="V13" s="5" t="s">
         <v>94</v>
@@ -2135,7 +2135,7 @@
         <v>0.3</v>
       </c>
       <c r="R14" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="U14" s="19"/>
       <c r="V14" s="5" t="s">
@@ -2179,7 +2179,7 @@
         <v>0.3</v>
       </c>
       <c r="R15" s="2">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="U15" s="19"/>
       <c r="V15" s="5" t="s">
@@ -2222,7 +2222,7 @@
         <v>0.4</v>
       </c>
       <c r="R16" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="V16" s="5" t="s">
         <v>110</v>
@@ -2266,7 +2266,7 @@
         <v>0.6</v>
       </c>
       <c r="R17" s="2">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="U17" s="19"/>
       <c r="V17" s="5" t="s">
@@ -2310,7 +2310,7 @@
         <v>0.6</v>
       </c>
       <c r="R18" s="2">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="U18" s="19"/>
       <c r="V18" s="5" t="s">
@@ -2354,7 +2354,7 @@
         <v>0.6</v>
       </c>
       <c r="R19" s="2">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="U19" s="19"/>
       <c r="V19" s="5" t="s">
@@ -2406,7 +2406,7 @@
         <v>25</v>
       </c>
       <c r="R21" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="U21" s="19"/>
       <c r="V21" s="5" t="s">
@@ -2454,7 +2454,7 @@
         <v>40</v>
       </c>
       <c r="R22" s="2">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="U22" s="19"/>
       <c r="V22" s="5" t="s">
@@ -2500,7 +2500,7 @@
         <v>70</v>
       </c>
       <c r="R23" s="2">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="U23" s="19"/>
       <c r="V23" s="5" t="s">
@@ -2546,7 +2546,7 @@
         <v>60</v>
       </c>
       <c r="R24" s="1">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="V24" s="5" t="s">
         <v>197</v>
@@ -2592,7 +2592,7 @@
         <v>10</v>
       </c>
       <c r="R25" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="U25" s="19"/>
       <c r="V25" s="5" t="s">
@@ -2640,7 +2640,7 @@
         <v>40</v>
       </c>
       <c r="R26" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="U26" s="19"/>
       <c r="V26" s="5" t="s">
@@ -2688,7 +2688,7 @@
         <v>30</v>
       </c>
       <c r="R27" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="U27" s="19"/>
       <c r="V27" s="5" t="s">
@@ -2738,7 +2738,7 @@
         <v>50</v>
       </c>
       <c r="R28" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="U28" s="19"/>
       <c r="V28" s="5" t="s">
@@ -2781,7 +2781,7 @@
         <v>0.4</v>
       </c>
       <c r="R30" s="1">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="V30" s="5" t="s">
         <v>94</v>
@@ -2823,7 +2823,7 @@
         <v>0.3</v>
       </c>
       <c r="R31" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="U31" s="19"/>
       <c r="V31" s="5" t="s">
@@ -2864,7 +2864,7 @@
         <v>0.3</v>
       </c>
       <c r="R32" s="2">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="U32" s="19"/>
       <c r="V32" s="5" t="s">
@@ -2910,7 +2910,7 @@
         <v>0.3</v>
       </c>
       <c r="R33" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="U33" s="19"/>
       <c r="V33" s="5" t="s">
@@ -2953,7 +2953,7 @@
         <v>0.4</v>
       </c>
       <c r="R34" s="2">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="U34" s="19"/>
       <c r="V34" s="5" t="s">
@@ -2996,7 +2996,7 @@
         <v>0.5</v>
       </c>
       <c r="R35" s="1">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="V35" s="5" t="s">
         <v>94</v>
@@ -3036,7 +3036,7 @@
         <v>0.6</v>
       </c>
       <c r="R36" s="2">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="U36" s="19"/>
       <c r="V36" s="5" t="s">
@@ -3077,7 +3077,7 @@
         <v>0.3</v>
       </c>
       <c r="R37" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="U37" s="19"/>
       <c r="V37" s="5" t="s">
@@ -3127,7 +3127,7 @@
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="V39" s="5" t="s">
         <v>211</v>
@@ -3176,7 +3176,7 @@
         <v>10</v>
       </c>
       <c r="R40" s="2">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="U40" s="19"/>
       <c r="V40" s="5" t="s">
@@ -3228,7 +3228,7 @@
         <v>5</v>
       </c>
       <c r="R41" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="U41" s="19"/>
       <c r="V41" s="5" t="s">
@@ -3278,7 +3278,7 @@
         <v>10</v>
       </c>
       <c r="R42" s="2">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="U42" s="19"/>
       <c r="V42" s="5" t="s">
@@ -3328,7 +3328,7 @@
         <v>7</v>
       </c>
       <c r="R43" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="U43" s="19"/>
       <c r="V43" s="5" t="s">
@@ -3380,7 +3380,7 @@
         <v>5</v>
       </c>
       <c r="R44" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="U44" s="19"/>
       <c r="V44" s="5" t="s">
@@ -3434,7 +3434,7 @@
         <v>5</v>
       </c>
       <c r="R45" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="V45" s="5" t="s">
         <v>130</v>
@@ -3479,7 +3479,7 @@
         <v>0.3</v>
       </c>
       <c r="R46" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="U46" s="19"/>
       <c r="V46" s="5" t="s">
@@ -3518,7 +3518,7 @@
         <v>0.3</v>
       </c>
       <c r="R48" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="U48" s="20" t="s">
         <v>74</v>
@@ -3562,7 +3562,7 @@
         <v>0.3</v>
       </c>
       <c r="R49" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="T49" s="2">
         <v>30</v>
@@ -3608,7 +3608,7 @@
         <v>0.2</v>
       </c>
       <c r="R50" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="U50" s="19"/>
       <c r="V50" s="5" t="s">
@@ -3659,7 +3659,7 @@
         <v>0.5</v>
       </c>
       <c r="R53" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="U53" s="19" t="s">
         <v>88</v>
@@ -3697,7 +3697,7 @@
         <v>0.2</v>
       </c>
       <c r="R54" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.2">
@@ -3735,7 +3735,7 @@
         <v>0.3</v>
       </c>
       <c r="R58" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="V58" s="5" t="s">
         <v>89</v>
@@ -3773,7 +3773,7 @@
         <v>0.4</v>
       </c>
       <c r="R59" s="1">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="V59" s="5" t="s">
         <v>91</v>
@@ -3781,21 +3781,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="W1:W2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="K1:L1048576">
@@ -4333,7 +4333,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F18" sqref="F18:H18"/>
+      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4389,7 +4389,7 @@
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E3" s="21" t="s">
         <v>53</v>
@@ -4406,7 +4406,7 @@
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F4" s="26"/>
       <c r="G4" t="s">
@@ -4420,7 +4420,7 @@
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E5" s="21" t="s">
         <v>47</v>
@@ -4440,7 +4440,7 @@
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="3">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E6" s="21" t="s">
         <v>145</v>
@@ -4476,7 +4476,7 @@
         <v>101</v>
       </c>
       <c r="D11" s="14">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E11" s="21" t="s">
         <v>159</v>
@@ -4496,7 +4496,7 @@
         <v>141</v>
       </c>
       <c r="D12" s="14">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G12" t="s">
         <v>130</v>
@@ -4507,7 +4507,7 @@
         <v>155</v>
       </c>
       <c r="D13" s="14">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G13" t="s">
         <v>131</v>
@@ -4538,7 +4538,7 @@
         <v>119</v>
       </c>
       <c r="D17" s="14">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E17" s="21" t="s">
         <v>53</v>
@@ -4552,7 +4552,7 @@
         <v>121</v>
       </c>
       <c r="D18" s="14">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F18" s="27" t="s">
         <v>128</v>
@@ -4569,7 +4569,7 @@
         <v>125</v>
       </c>
       <c r="D19" s="14">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G19" t="s">
         <v>94</v>
@@ -4580,7 +4580,7 @@
         <v>126</v>
       </c>
       <c r="D20" s="14">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G20" t="s">
         <v>110</v>
@@ -4591,7 +4591,7 @@
         <v>137</v>
       </c>
       <c r="D21" s="14">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E21" s="21" t="s">
         <v>53</v>
@@ -4616,7 +4616,7 @@
         <v>204</v>
       </c>
       <c r="D27" s="14">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F27" s="24" t="s">
         <v>206</v>
@@ -4630,7 +4630,7 @@
         <v>205</v>
       </c>
       <c r="D28" s="14">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G28" t="s">
         <v>131</v>
@@ -4644,7 +4644,7 @@
         <v>216</v>
       </c>
       <c r="D31" s="14">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G31" t="s">
         <v>130</v>
@@ -4655,7 +4655,7 @@
         <v>217</v>
       </c>
       <c r="D32" s="14">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G32" t="s">
         <v>131</v>
@@ -4666,7 +4666,7 @@
         <v>220</v>
       </c>
       <c r="D33" s="14">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G33" t="s">
         <v>134</v>
@@ -4677,7 +4677,7 @@
         <v>218</v>
       </c>
       <c r="D34" s="14">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G34" t="s">
         <v>167</v>

--- a/plan/招式.xlsx
+++ b/plan/招式.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\pealpool.github.io\plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4458960D-C216-453D-9615-EB9929F7FC66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E922CBD1-7BC2-4488-A433-CA9347999A2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" xr2:uid="{07694949-CE91-4AC6-84BF-EA7187E3619C}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="252">
   <si>
     <t>派别</t>
   </si>
@@ -385,10 +385,6 @@
     <t>鹰爪门</t>
   </si>
   <si>
-    <t>鹰爪功</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>所有部位均受伤害，反伤/反击无效</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -728,14 +724,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>反击外伤伤害50</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>反击内伤伤害50</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>弱水柔易</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -877,10 +865,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>对方内外伤防御-10%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>封锁对方耐力回复3s</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -973,10 +957,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>耐力伤害+50%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>六脉神剑的根基招式</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1002,6 +982,66 @@
   </si>
   <si>
     <t>破绽发现+30%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>反击内伤伤害50，打断连招</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>反击外伤伤害50，打断连招</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>八门金锁·生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>外伤内伤伤害+5%，5s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>八门金锁·死</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>八门金锁·惊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>八门金锁·伤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大力鹰爪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹰爪擒拿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>雁行刀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以掌为刀，掌风若大雁飞过所带劲风</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>啄目争珠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对方-10%闪避，-10%命中，2s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接命中时，本次耐力伤害变为30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接命中时，对方内外伤防御-10%</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1198,10 +1238,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1529,13 +1569,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{897EE391-4514-4BBB-B5AB-BFD81F1FD685}">
-  <dimension ref="A1:W59"/>
+  <dimension ref="A1:W63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="D42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="U47" sqref="U47"/>
+      <selection pane="bottomRight" activeCell="V42" sqref="V42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1552,8 +1592,8 @@
     <col min="14" max="18" width="6.25" style="1" customWidth="1"/>
     <col min="19" max="20" width="6.25" style="2" customWidth="1"/>
     <col min="21" max="21" width="50.25" style="19" customWidth="1"/>
-    <col min="22" max="22" width="26.375" style="5" customWidth="1"/>
-    <col min="23" max="23" width="13" style="5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="31.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.625" style="5" customWidth="1"/>
     <col min="24" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
@@ -1569,19 +1609,19 @@
       </c>
       <c r="E1" s="33"/>
       <c r="F1" s="33"/>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="35" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="33"/>
       <c r="I1" s="33"/>
       <c r="J1" s="33"/>
-      <c r="K1" s="34" t="s">
+      <c r="K1" s="35" t="s">
         <v>3</v>
       </c>
       <c r="L1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="35" t="s">
+      <c r="M1" s="34" t="s">
         <v>5</v>
       </c>
       <c r="N1" s="33" t="s">
@@ -1605,7 +1645,7 @@
       <c r="T1" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="U1" s="35" t="s">
+      <c r="U1" s="34" t="s">
         <v>71</v>
       </c>
       <c r="V1" s="33" t="s">
@@ -1637,9 +1677,9 @@
       <c r="J2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="34"/>
+      <c r="K2" s="35"/>
       <c r="L2" s="33"/>
-      <c r="M2" s="35"/>
+      <c r="M2" s="34"/>
       <c r="N2" s="33"/>
       <c r="O2" s="33"/>
       <c r="P2" s="33"/>
@@ -1647,7 +1687,7 @@
       <c r="R2" s="33"/>
       <c r="S2" s="33"/>
       <c r="T2" s="33"/>
-      <c r="U2" s="35"/>
+      <c r="U2" s="34"/>
       <c r="V2" s="33"/>
       <c r="W2" s="33"/>
     </row>
@@ -1689,12 +1729,12 @@
         <v>10</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E4" s="2">
         <v>1</v>
@@ -1732,13 +1772,13 @@
       </c>
       <c r="U4" s="19"/>
       <c r="V4" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="W4" s="5"/>
     </row>
     <row r="5" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E5" s="2">
         <v>1</v>
@@ -1776,13 +1816,13 @@
       </c>
       <c r="U5" s="19"/>
       <c r="V5" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="W5" s="5"/>
     </row>
     <row r="6" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E6" s="2">
         <v>1</v>
@@ -1804,7 +1844,7 @@
         <v>150</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N6" s="2">
         <v>0.6</v>
@@ -1820,13 +1860,13 @@
       </c>
       <c r="U6" s="19"/>
       <c r="V6" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="W6" s="5"/>
     </row>
     <row r="7" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E7" s="2">
         <v>1</v>
@@ -1864,13 +1904,13 @@
       </c>
       <c r="U7" s="19"/>
       <c r="V7" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="W7" s="5"/>
     </row>
     <row r="8" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E8" s="2">
         <v>1</v>
@@ -1889,7 +1929,7 @@
         <v>120</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N8" s="2">
         <v>0.6</v>
@@ -1905,13 +1945,13 @@
       </c>
       <c r="U8" s="19"/>
       <c r="V8" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="W8" s="5"/>
     </row>
     <row r="9" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F9" s="2">
         <v>1</v>
@@ -1935,7 +1975,7 @@
         <v>60</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N9" s="2">
         <v>0.5</v>
@@ -1951,13 +1991,13 @@
       </c>
       <c r="U9" s="19"/>
       <c r="V9" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="W9" s="5"/>
     </row>
     <row r="10" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E10" s="2">
         <v>1</v>
@@ -1979,7 +2019,7 @@
         <v>180</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="N10" s="2">
         <v>0.7</v>
@@ -1995,7 +2035,7 @@
       </c>
       <c r="U10" s="19"/>
       <c r="V10" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="W10" s="5"/>
     </row>
@@ -2007,99 +2047,94 @@
       <c r="V11" s="5"/>
       <c r="W11" s="5"/>
     </row>
-    <row r="12" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E12" s="2">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" s="1">
         <v>1</v>
       </c>
       <c r="G12" s="3">
         <v>1</v>
       </c>
-      <c r="H12" s="2">
-        <v>1</v>
-      </c>
-      <c r="I12" s="2">
-        <v>1</v>
-      </c>
-      <c r="J12" s="2">
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1">
         <v>1</v>
       </c>
       <c r="K12" s="3">
-        <v>60</v>
-      </c>
-      <c r="L12" s="2">
-        <v>60</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="N12" s="2">
+        <v>140</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="O12" s="1">
+        <v>1</v>
+      </c>
+      <c r="P12" s="1">
         <v>0.4</v>
       </c>
-      <c r="O12" s="2">
-        <v>1</v>
-      </c>
-      <c r="P12" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="R12" s="2">
+      <c r="R12" s="1">
         <v>15</v>
       </c>
-      <c r="U12" s="19"/>
       <c r="V12" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="W12" s="5"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B13" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E13" s="1">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="2">
         <v>1</v>
       </c>
       <c r="G13" s="3">
         <v>1</v>
       </c>
-      <c r="H13" s="1">
-        <v>1</v>
-      </c>
-      <c r="I13" s="1">
-        <v>1</v>
-      </c>
-      <c r="J13" s="1">
+      <c r="H13" s="2">
+        <v>1</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1</v>
+      </c>
+      <c r="J13" s="2">
         <v>1</v>
       </c>
       <c r="K13" s="3">
         <v>100</v>
       </c>
-      <c r="L13" s="1">
-        <v>20</v>
-      </c>
-      <c r="N13" s="1">
+      <c r="L13" s="2">
+        <v>30</v>
+      </c>
+      <c r="M13" s="4"/>
+      <c r="N13" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="O13" s="2">
+        <v>1</v>
+      </c>
+      <c r="P13" s="2">
         <v>0.3</v>
       </c>
-      <c r="O13" s="1">
-        <v>1</v>
-      </c>
-      <c r="P13" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="R13" s="1">
+      <c r="R13" s="2">
         <v>10</v>
       </c>
+      <c r="U13" s="19"/>
       <c r="V13" s="5" t="s">
-        <v>94</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="W13" s="5"/>
     </row>
     <row r="14" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>109</v>
+        <v>142</v>
       </c>
       <c r="E14" s="2">
         <v>1</v>
@@ -2117,16 +2152,11 @@
         <v>1</v>
       </c>
       <c r="K14" s="3">
-        <v>60</v>
-      </c>
-      <c r="L14" s="2">
-        <v>80</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>47</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="M14" s="4"/>
       <c r="N14" s="2">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="O14" s="2">
         <v>1</v>
@@ -2135,17 +2165,17 @@
         <v>0.3</v>
       </c>
       <c r="R14" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="U14" s="19"/>
       <c r="V14" s="5" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="W14" s="5"/>
     </row>
     <row r="15" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="E15" s="2">
         <v>1</v>
@@ -2163,14 +2193,16 @@
         <v>1</v>
       </c>
       <c r="K15" s="3">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="L15" s="2">
-        <v>80</v>
-      </c>
-      <c r="M15" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="N15" s="2">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="O15" s="2">
         <v>1</v>
@@ -2179,111 +2211,104 @@
         <v>0.3</v>
       </c>
       <c r="R15" s="2">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="U15" s="19"/>
       <c r="V15" s="5" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="W15" s="5"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B16" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E16" s="1">
+    <row r="16" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E16" s="2">
         <v>1</v>
       </c>
       <c r="G16" s="3">
         <v>1</v>
       </c>
-      <c r="H16" s="1">
-        <v>1</v>
-      </c>
-      <c r="I16" s="1">
-        <v>1</v>
-      </c>
-      <c r="J16" s="1">
+      <c r="H16" s="2">
+        <v>1</v>
+      </c>
+      <c r="I16" s="2">
+        <v>1</v>
+      </c>
+      <c r="J16" s="2">
         <v>1</v>
       </c>
       <c r="K16" s="3">
-        <v>60</v>
-      </c>
-      <c r="L16" s="1">
-        <v>100</v>
-      </c>
-      <c r="N16" s="1">
+        <v>120</v>
+      </c>
+      <c r="M16" s="4"/>
+      <c r="N16" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="O16" s="2">
+        <v>1</v>
+      </c>
+      <c r="P16" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="R16" s="2">
+        <v>15</v>
+      </c>
+      <c r="U16" s="19"/>
+      <c r="V16" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="W16" s="5"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1</v>
+      </c>
+      <c r="K17" s="3">
+        <v>210</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="O17" s="1">
+        <v>1</v>
+      </c>
+      <c r="P17" s="1">
         <v>0.5</v>
       </c>
-      <c r="O16" s="1">
-        <v>1</v>
-      </c>
-      <c r="P16" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="R16" s="1">
-        <v>10</v>
-      </c>
-      <c r="V16" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E17" s="2">
-        <v>1</v>
-      </c>
-      <c r="G17" s="3">
-        <v>1</v>
-      </c>
-      <c r="H17" s="2">
-        <v>1</v>
-      </c>
-      <c r="I17" s="2">
-        <v>1</v>
-      </c>
-      <c r="J17" s="2">
-        <v>1</v>
-      </c>
-      <c r="K17" s="3">
-        <v>80</v>
-      </c>
-      <c r="L17" s="2">
-        <v>80</v>
-      </c>
-      <c r="M17" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="N17" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="O17" s="2">
-        <v>1</v>
-      </c>
-      <c r="P17" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="R17" s="2">
-        <v>17</v>
-      </c>
-      <c r="U17" s="19"/>
+      <c r="R17" s="1">
+        <v>20</v>
+      </c>
       <c r="V17" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="W17" s="5"/>
+        <v>132</v>
+      </c>
     </row>
     <row r="18" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>123</v>
+        <v>231</v>
       </c>
       <c r="F18" s="2">
         <v>1</v>
       </c>
-      <c r="G18" s="3">
-        <v>1</v>
-      </c>
+      <c r="G18" s="3"/>
       <c r="H18" s="2">
         <v>1</v>
       </c>
@@ -2294,14 +2319,16 @@
         <v>1</v>
       </c>
       <c r="K18" s="3">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="L18" s="2">
-        <v>80</v>
-      </c>
-      <c r="M18" s="4"/>
+        <v>20</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>208</v>
+      </c>
       <c r="N18" s="2">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="O18" s="2">
         <v>1</v>
@@ -2314,20 +2341,18 @@
       </c>
       <c r="U18" s="19"/>
       <c r="V18" s="5" t="s">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c r="W18" s="5"/>
     </row>
     <row r="19" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F19" s="2">
-        <v>1</v>
-      </c>
-      <c r="G19" s="3">
-        <v>1</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1</v>
+      </c>
+      <c r="G19" s="3"/>
       <c r="H19" s="2">
         <v>1</v>
       </c>
@@ -2338,224 +2363,199 @@
         <v>1</v>
       </c>
       <c r="K19" s="3">
-        <v>80</v>
-      </c>
-      <c r="L19" s="2">
-        <v>130</v>
-      </c>
-      <c r="M19" s="4"/>
+        <v>100</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="N19" s="2">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="O19" s="2">
         <v>1</v>
       </c>
       <c r="P19" s="2">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="R19" s="2">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="U19" s="19"/>
       <c r="V19" s="5" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="W19" s="5"/>
     </row>
-    <row r="21" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E21" s="2">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E21" s="1">
         <v>1</v>
       </c>
       <c r="G21" s="3">
         <v>1</v>
       </c>
-      <c r="H21" s="2">
-        <v>1</v>
-      </c>
-      <c r="I21" s="2">
-        <v>1</v>
-      </c>
-      <c r="J21" s="2">
+      <c r="H21" s="1">
+        <v>1</v>
+      </c>
+      <c r="I21" s="1">
+        <v>1</v>
+      </c>
+      <c r="J21" s="1">
         <v>1</v>
       </c>
       <c r="K21" s="3">
+        <v>100</v>
+      </c>
+      <c r="N21" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="O21" s="1">
+        <v>1</v>
+      </c>
+      <c r="P21" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="R21" s="1">
+        <v>10</v>
+      </c>
+      <c r="U21" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="V21" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="G22" s="3">
+        <v>1</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1</v>
+      </c>
+      <c r="I22" s="1">
+        <v>1</v>
+      </c>
+      <c r="J22" s="1">
+        <v>1</v>
+      </c>
+      <c r="K22" s="3">
+        <v>120</v>
+      </c>
+      <c r="N22" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="O22" s="1">
+        <v>1</v>
+      </c>
+      <c r="P22" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="R22" s="1">
         <v>20</v>
       </c>
-      <c r="L21" s="2">
-        <v>30</v>
-      </c>
-      <c r="M21" s="4" t="s">
+      <c r="V22" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1</v>
+      </c>
+      <c r="G23" s="3">
+        <v>1</v>
+      </c>
+      <c r="H23" s="2">
+        <v>1</v>
+      </c>
+      <c r="I23" s="2">
+        <v>1</v>
+      </c>
+      <c r="K23" s="3">
+        <v>90</v>
+      </c>
+      <c r="M23" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="N21" s="2">
+      <c r="N23" s="2">
         <v>0.3</v>
       </c>
-      <c r="O21" s="2">
-        <v>1</v>
-      </c>
-      <c r="P21" s="2">
+      <c r="O23" s="2">
+        <v>1</v>
+      </c>
+      <c r="P23" s="2">
         <v>0.3</v>
       </c>
-      <c r="Q21" s="2">
-        <v>25</v>
-      </c>
-      <c r="R21" s="2">
+      <c r="R23" s="2">
         <v>10</v>
-      </c>
-      <c r="U21" s="19"/>
-      <c r="V21" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="W21" s="5"/>
-    </row>
-    <row r="22" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="6"/>
-      <c r="B22" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E22" s="2">
-        <v>1</v>
-      </c>
-      <c r="G22" s="3">
-        <v>1</v>
-      </c>
-      <c r="H22" s="2">
-        <v>1</v>
-      </c>
-      <c r="I22" s="2">
-        <v>1</v>
-      </c>
-      <c r="J22" s="2">
-        <v>1</v>
-      </c>
-      <c r="K22" s="3">
-        <v>60</v>
-      </c>
-      <c r="L22" s="2">
-        <v>60</v>
-      </c>
-      <c r="M22" s="4"/>
-      <c r="N22" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="O22" s="2">
-        <v>1</v>
-      </c>
-      <c r="P22" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="Q22" s="2">
-        <v>40</v>
-      </c>
-      <c r="R22" s="2">
-        <v>15</v>
-      </c>
-      <c r="U22" s="19"/>
-      <c r="V22" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="W22" s="5"/>
-    </row>
-    <row r="23" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="6"/>
-      <c r="B23" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="F23" s="2">
-        <v>1</v>
-      </c>
-      <c r="G23" s="3"/>
-      <c r="H23" s="2">
-        <v>1</v>
-      </c>
-      <c r="I23" s="2">
-        <v>1</v>
-      </c>
-      <c r="J23" s="2">
-        <v>1</v>
-      </c>
-      <c r="K23" s="3">
-        <v>30</v>
-      </c>
-      <c r="L23" s="2">
-        <v>90</v>
-      </c>
-      <c r="M23" s="4"/>
-      <c r="N23" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="O23" s="2">
-        <v>1</v>
-      </c>
-      <c r="P23" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="Q23" s="2">
-        <v>70</v>
-      </c>
-      <c r="R23" s="2">
-        <v>20</v>
       </c>
       <c r="U23" s="19"/>
       <c r="V23" s="5" t="s">
-        <v>198</v>
+        <v>99</v>
       </c>
       <c r="W23" s="5"/>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B24" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F24" s="1">
+    <row r="24" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E24" s="2">
         <v>1</v>
       </c>
       <c r="G24" s="3">
         <v>1</v>
       </c>
-      <c r="H24" s="1">
-        <v>1</v>
-      </c>
-      <c r="I24" s="1">
-        <v>1</v>
-      </c>
-      <c r="J24" s="1">
+      <c r="H24" s="2">
+        <v>1</v>
+      </c>
+      <c r="I24" s="2">
+        <v>1</v>
+      </c>
+      <c r="J24" s="2">
         <v>1</v>
       </c>
       <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="1">
-        <v>50</v>
-      </c>
-      <c r="N24" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="O24" s="1">
-        <v>1</v>
-      </c>
-      <c r="P24" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="Q24" s="1">
-        <v>60</v>
-      </c>
-      <c r="R24" s="1">
-        <v>20</v>
+      <c r="M24" s="4"/>
+      <c r="N24" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="O24" s="2">
+        <v>1</v>
+      </c>
+      <c r="P24" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="R24" s="2">
+        <v>10</v>
+      </c>
+      <c r="U24" s="5" t="s">
+        <v>88</v>
       </c>
       <c r="V24" s="5" t="s">
-        <v>197</v>
+        <v>166</v>
+      </c>
+      <c r="W24" s="5" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="25" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="6"/>
       <c r="B25" s="2" t="s">
-        <v>202</v>
+        <v>248</v>
       </c>
       <c r="E25" s="2">
         <v>1</v>
@@ -2563,22 +2563,12 @@
       <c r="G25" s="3">
         <v>1</v>
       </c>
-      <c r="H25" s="2">
-        <v>1</v>
-      </c>
-      <c r="I25" s="2">
-        <v>1</v>
-      </c>
-      <c r="J25" s="2">
-        <v>1</v>
-      </c>
       <c r="K25" s="3">
-        <v>30</v>
-      </c>
-      <c r="L25" s="2">
-        <v>50</v>
-      </c>
-      <c r="M25" s="4"/>
+        <v>70</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="N25" s="2">
         <v>0.3</v>
       </c>
@@ -2588,252 +2578,132 @@
       <c r="P25" s="2">
         <v>0.3</v>
       </c>
-      <c r="Q25" s="2">
-        <v>10</v>
-      </c>
       <c r="R25" s="2">
         <v>10</v>
       </c>
-      <c r="U25" s="19"/>
-      <c r="V25" s="5" t="s">
-        <v>203</v>
-      </c>
+      <c r="U25" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="V25" s="5"/>
       <c r="W25" s="5"/>
     </row>
     <row r="26" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="6"/>
-      <c r="B26" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="E26" s="2">
-        <v>1</v>
-      </c>
-      <c r="G26" s="3">
-        <v>1</v>
-      </c>
-      <c r="H26" s="2">
-        <v>1</v>
-      </c>
-      <c r="I26" s="2">
-        <v>1</v>
-      </c>
-      <c r="J26" s="2">
-        <v>1</v>
-      </c>
-      <c r="K26" s="3">
-        <v>40</v>
-      </c>
-      <c r="L26" s="2">
-        <v>70</v>
-      </c>
+      <c r="G26" s="3"/>
+      <c r="K26" s="3"/>
       <c r="M26" s="4"/>
-      <c r="N26" s="2">
+      <c r="U26" s="19"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="5"/>
+    </row>
+    <row r="27" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="M27" s="4"/>
+      <c r="U27" s="19"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="5"/>
+    </row>
+    <row r="28" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="M28" s="4"/>
+      <c r="U28" s="19"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="5"/>
+    </row>
+    <row r="30" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E30" s="2">
+        <v>1</v>
+      </c>
+      <c r="G30" s="3">
+        <v>1</v>
+      </c>
+      <c r="H30" s="2">
+        <v>1</v>
+      </c>
+      <c r="I30" s="2">
+        <v>1</v>
+      </c>
+      <c r="J30" s="2">
+        <v>1</v>
+      </c>
+      <c r="K30" s="3">
+        <v>60</v>
+      </c>
+      <c r="L30" s="2">
+        <v>60</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="N30" s="2">
         <v>0.4</v>
       </c>
-      <c r="O26" s="2">
-        <v>1</v>
-      </c>
-      <c r="P26" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="Q26" s="2">
-        <v>40</v>
-      </c>
-      <c r="R26" s="2">
-        <v>10</v>
-      </c>
-      <c r="U26" s="19"/>
-      <c r="V26" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="W26" s="5"/>
-    </row>
-    <row r="27" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="6"/>
-      <c r="B27" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="E27" s="2">
-        <v>1</v>
-      </c>
-      <c r="G27" s="3">
-        <v>1</v>
-      </c>
-      <c r="H27" s="2">
-        <v>1</v>
-      </c>
-      <c r="I27" s="2">
-        <v>1</v>
-      </c>
-      <c r="J27" s="2">
-        <v>1</v>
-      </c>
-      <c r="K27" s="3">
-        <v>90</v>
-      </c>
-      <c r="L27" s="2">
-        <v>20</v>
-      </c>
-      <c r="M27" s="4"/>
-      <c r="N27" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="O27" s="2">
-        <v>1</v>
-      </c>
-      <c r="P27" s="2">
+      <c r="O30" s="2">
+        <v>1</v>
+      </c>
+      <c r="P30" s="2">
         <v>0.3</v>
       </c>
-      <c r="Q27" s="2">
-        <v>30</v>
-      </c>
-      <c r="R27" s="2">
-        <v>10</v>
-      </c>
-      <c r="U27" s="19"/>
-      <c r="V27" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="W27" s="5"/>
-    </row>
-    <row r="28" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="6"/>
-      <c r="B28" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="E28" s="2">
-        <v>1</v>
-      </c>
-      <c r="G28" s="3">
-        <v>1</v>
-      </c>
-      <c r="H28" s="2">
-        <v>1</v>
-      </c>
-      <c r="I28" s="2">
-        <v>1</v>
-      </c>
-      <c r="J28" s="2">
-        <v>1</v>
-      </c>
-      <c r="K28" s="3">
-        <v>80</v>
-      </c>
-      <c r="L28" s="2">
-        <v>60</v>
-      </c>
-      <c r="M28" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="N28" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="O28" s="2">
-        <v>1</v>
-      </c>
-      <c r="P28" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="Q28" s="2">
-        <v>50</v>
-      </c>
-      <c r="R28" s="2">
-        <v>10</v>
-      </c>
-      <c r="U28" s="19"/>
-      <c r="V28" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="W28" s="5"/>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E30" s="1">
-        <v>1</v>
-      </c>
-      <c r="G30" s="3">
-        <v>1</v>
-      </c>
-      <c r="H30" s="1">
-        <v>1</v>
-      </c>
-      <c r="I30" s="1">
-        <v>1</v>
-      </c>
-      <c r="J30" s="1">
-        <v>1</v>
-      </c>
-      <c r="K30" s="3">
-        <v>140</v>
-      </c>
-      <c r="N30" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="O30" s="1">
-        <v>1</v>
-      </c>
-      <c r="P30" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="R30" s="1">
+      <c r="R30" s="2">
         <v>15</v>
       </c>
+      <c r="U30" s="19"/>
       <c r="V30" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E31" s="2">
+        <v>99</v>
+      </c>
+      <c r="W30" s="5"/>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B31" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E31" s="1">
         <v>1</v>
       </c>
       <c r="G31" s="3">
         <v>1</v>
       </c>
-      <c r="H31" s="2">
-        <v>1</v>
-      </c>
-      <c r="I31" s="2">
-        <v>1</v>
-      </c>
-      <c r="J31" s="2">
+      <c r="H31" s="1">
+        <v>1</v>
+      </c>
+      <c r="I31" s="1">
+        <v>1</v>
+      </c>
+      <c r="J31" s="1">
         <v>1</v>
       </c>
       <c r="K31" s="3">
         <v>100</v>
       </c>
-      <c r="L31" s="2">
-        <v>30</v>
-      </c>
-      <c r="M31" s="4"/>
-      <c r="N31" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="O31" s="2">
-        <v>1</v>
-      </c>
-      <c r="P31" s="2">
+      <c r="L31" s="1">
+        <v>20</v>
+      </c>
+      <c r="N31" s="1">
         <v>0.3</v>
       </c>
-      <c r="R31" s="2">
+      <c r="O31" s="1">
+        <v>1</v>
+      </c>
+      <c r="P31" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="R31" s="1">
         <v>10</v>
       </c>
-      <c r="U31" s="19"/>
       <c r="V31" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="W31" s="5"/>
+        <v>132</v>
+      </c>
     </row>
     <row r="32" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="E32" s="2">
         <v>1</v>
@@ -2851,11 +2721,16 @@
         <v>1</v>
       </c>
       <c r="K32" s="3">
-        <v>180</v>
-      </c>
-      <c r="M32" s="4"/>
+        <v>60</v>
+      </c>
+      <c r="L32" s="2">
+        <v>80</v>
+      </c>
+      <c r="M32" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="N32" s="2">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="O32" s="2">
         <v>1</v>
@@ -2864,17 +2739,17 @@
         <v>0.3</v>
       </c>
       <c r="R32" s="2">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="U32" s="19"/>
       <c r="V32" s="5" t="s">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="W32" s="5"/>
     </row>
     <row r="33" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="E33" s="2">
         <v>1</v>
@@ -2892,16 +2767,14 @@
         <v>1</v>
       </c>
       <c r="K33" s="3">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="L33" s="2">
-        <v>10</v>
-      </c>
-      <c r="M33" s="4" t="s">
-        <v>53</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="M33" s="4"/>
       <c r="N33" s="2">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="O33" s="2">
         <v>1</v>
@@ -2910,106 +2783,111 @@
         <v>0.3</v>
       </c>
       <c r="R33" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="U33" s="19"/>
       <c r="V33" s="5" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="W33" s="5"/>
     </row>
-    <row r="34" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E34" s="2">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B34" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E34" s="1">
         <v>1</v>
       </c>
       <c r="G34" s="3">
         <v>1</v>
       </c>
-      <c r="H34" s="2">
-        <v>1</v>
-      </c>
-      <c r="I34" s="2">
-        <v>1</v>
-      </c>
-      <c r="J34" s="2">
+      <c r="H34" s="1">
+        <v>1</v>
+      </c>
+      <c r="I34" s="1">
+        <v>1</v>
+      </c>
+      <c r="J34" s="1">
         <v>1</v>
       </c>
       <c r="K34" s="3">
-        <v>120</v>
-      </c>
-      <c r="M34" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="N34" s="2">
+        <v>60</v>
+      </c>
+      <c r="L34" s="1">
+        <v>100</v>
+      </c>
+      <c r="N34" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="O34" s="1">
+        <v>1</v>
+      </c>
+      <c r="P34" s="1">
         <v>0.4</v>
       </c>
-      <c r="O34" s="2">
-        <v>1</v>
-      </c>
-      <c r="P34" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="R34" s="2">
-        <v>15</v>
-      </c>
-      <c r="U34" s="19"/>
+      <c r="R34" s="1">
+        <v>10</v>
+      </c>
       <c r="V34" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="W34" s="5"/>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B35" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F35" s="1">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E35" s="2">
         <v>1</v>
       </c>
       <c r="G35" s="3">
         <v>1</v>
       </c>
-      <c r="H35" s="1">
-        <v>1</v>
-      </c>
-      <c r="I35" s="1">
-        <v>1</v>
-      </c>
-      <c r="J35" s="1">
+      <c r="H35" s="2">
+        <v>1</v>
+      </c>
+      <c r="I35" s="2">
+        <v>1</v>
+      </c>
+      <c r="J35" s="2">
         <v>1</v>
       </c>
       <c r="K35" s="3">
-        <v>210</v>
+        <v>80</v>
+      </c>
+      <c r="L35" s="2">
+        <v>80</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="N35" s="1">
+        <v>67</v>
+      </c>
+      <c r="N35" s="2">
         <v>0.6</v>
       </c>
-      <c r="O35" s="1">
-        <v>1</v>
-      </c>
-      <c r="P35" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="R35" s="1">
-        <v>20</v>
-      </c>
+      <c r="O35" s="2">
+        <v>1</v>
+      </c>
+      <c r="P35" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="R35" s="2">
+        <v>17</v>
+      </c>
+      <c r="U35" s="19"/>
       <c r="V35" s="5" t="s">
-        <v>94</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="W35" s="5"/>
     </row>
     <row r="36" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="2" t="s">
-        <v>236</v>
+        <v>122</v>
       </c>
       <c r="F36" s="2">
         <v>1</v>
       </c>
-      <c r="G36" s="3"/>
+      <c r="G36" s="3">
+        <v>1</v>
+      </c>
       <c r="H36" s="2">
         <v>1</v>
       </c>
@@ -3020,14 +2898,16 @@
         <v>1</v>
       </c>
       <c r="K36" s="3">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="L36" s="2">
-        <v>20</v>
-      </c>
-      <c r="M36" s="4"/>
+        <v>80</v>
+      </c>
+      <c r="M36" s="4" t="s">
+        <v>208</v>
+      </c>
       <c r="N36" s="2">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="O36" s="2">
         <v>1</v>
@@ -3040,18 +2920,20 @@
       </c>
       <c r="U36" s="19"/>
       <c r="V36" s="5" t="s">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c r="W36" s="5"/>
     </row>
     <row r="37" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E37" s="2">
-        <v>1</v>
-      </c>
-      <c r="G37" s="3"/>
+        <v>123</v>
+      </c>
+      <c r="F37" s="2">
+        <v>1</v>
+      </c>
+      <c r="G37" s="3">
+        <v>1</v>
+      </c>
       <c r="H37" s="2">
         <v>1</v>
       </c>
@@ -3062,42 +2944,42 @@
         <v>1</v>
       </c>
       <c r="K37" s="3">
-        <v>100</v>
+        <v>80</v>
+      </c>
+      <c r="L37" s="2">
+        <v>130</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>53</v>
+        <v>208</v>
       </c>
       <c r="N37" s="2">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="O37" s="2">
         <v>1</v>
       </c>
       <c r="P37" s="2">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="R37" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="U37" s="19"/>
       <c r="V37" s="5" t="s">
-        <v>100</v>
+        <v>133</v>
       </c>
       <c r="W37" s="5"/>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
+        <v>96</v>
+      </c>
       <c r="E39" s="2">
         <v>1</v>
       </c>
-      <c r="F39" s="2"/>
       <c r="G39" s="3">
         <v>1</v>
       </c>
@@ -3111,35 +2993,39 @@
         <v>1</v>
       </c>
       <c r="K39" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="L39" s="2">
         <v>30</v>
       </c>
+      <c r="M39" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="N39" s="2">
         <v>0.3</v>
       </c>
       <c r="O39" s="2">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="P39" s="2">
         <v>0.3</v>
       </c>
-      <c r="Q39" s="2"/>
+      <c r="Q39" s="2">
+        <v>25</v>
+      </c>
       <c r="R39" s="2">
         <v>10</v>
       </c>
+      <c r="U39" s="19"/>
       <c r="V39" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="W39" s="5" t="s">
-        <v>235</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="W39" s="5"/>
     </row>
     <row r="40" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="6"/>
       <c r="B40" s="2" t="s">
-        <v>221</v>
+        <v>145</v>
       </c>
       <c r="E40" s="2">
         <v>1</v>
@@ -3157,10 +3043,10 @@
         <v>1</v>
       </c>
       <c r="K40" s="3">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="L40" s="2">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="M40" s="4"/>
       <c r="N40" s="2">
@@ -3173,30 +3059,26 @@
         <v>0.3</v>
       </c>
       <c r="Q40" s="2">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="R40" s="2">
         <v>15</v>
       </c>
       <c r="U40" s="19"/>
       <c r="V40" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="W40" s="5" t="s">
-        <v>222</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="W40" s="5"/>
     </row>
     <row r="41" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="6"/>
       <c r="B41" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="E41" s="2">
-        <v>1</v>
-      </c>
-      <c r="G41" s="3">
-        <v>1</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="F41" s="2">
+        <v>1</v>
+      </c>
+      <c r="G41" s="3"/>
       <c r="H41" s="2">
         <v>1</v>
       </c>
@@ -3207,91 +3089,86 @@
         <v>1</v>
       </c>
       <c r="K41" s="3">
+        <v>30</v>
+      </c>
+      <c r="L41" s="2">
+        <v>90</v>
+      </c>
+      <c r="M41" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="N41" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="O41" s="2">
+        <v>1</v>
+      </c>
+      <c r="P41" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q41" s="2">
+        <v>70</v>
+      </c>
+      <c r="R41" s="2">
         <v>20</v>
-      </c>
-      <c r="L41" s="2">
-        <v>40</v>
-      </c>
-      <c r="M41" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="N41" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="O41" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="P41" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="Q41" s="2">
-        <v>5</v>
-      </c>
-      <c r="R41" s="2">
-        <v>10</v>
       </c>
       <c r="U41" s="19"/>
       <c r="V41" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="W41" s="5" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="6"/>
-      <c r="B42" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="E42" s="2">
+        <v>195</v>
+      </c>
+      <c r="W41" s="5"/>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B42" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F42" s="1">
         <v>1</v>
       </c>
       <c r="G42" s="3">
         <v>1</v>
       </c>
-      <c r="H42" s="2">
-        <v>1</v>
-      </c>
-      <c r="I42" s="2">
-        <v>1</v>
-      </c>
-      <c r="J42" s="2">
+      <c r="H42" s="1">
+        <v>1</v>
+      </c>
+      <c r="I42" s="1">
+        <v>1</v>
+      </c>
+      <c r="J42" s="1">
         <v>1</v>
       </c>
       <c r="K42" s="3">
-        <v>80</v>
-      </c>
-      <c r="L42" s="2">
+        <v>100</v>
+      </c>
+      <c r="L42" s="1">
+        <v>50</v>
+      </c>
+      <c r="M42" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="N42" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="O42" s="1">
+        <v>1</v>
+      </c>
+      <c r="P42" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="Q42" s="1">
+        <v>60</v>
+      </c>
+      <c r="R42" s="1">
         <v>20</v>
       </c>
-      <c r="M42" s="4"/>
-      <c r="N42" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="O42" s="2">
-        <v>1</v>
-      </c>
-      <c r="P42" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="Q42" s="2">
-        <v>10</v>
-      </c>
-      <c r="R42" s="2">
-        <v>15</v>
-      </c>
-      <c r="U42" s="19"/>
       <c r="V42" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="W42" s="5" t="s">
-        <v>230</v>
+        <v>194</v>
       </c>
     </row>
     <row r="43" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="6"/>
       <c r="B43" s="2" t="s">
-        <v>225</v>
+        <v>199</v>
       </c>
       <c r="E43" s="2">
         <v>1</v>
@@ -3309,7 +3186,7 @@
         <v>1</v>
       </c>
       <c r="K43" s="3">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="L43" s="2">
         <v>50</v>
@@ -3325,26 +3202,22 @@
         <v>0.3</v>
       </c>
       <c r="Q43" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="R43" s="2">
         <v>10</v>
       </c>
       <c r="U43" s="19"/>
       <c r="V43" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="W43" s="5" t="s">
-        <v>231</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="W43" s="5"/>
     </row>
     <row r="44" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="6"/>
-      <c r="B44" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
+      <c r="B44" s="2" t="s">
+        <v>206</v>
+      </c>
       <c r="E44" s="2">
         <v>1</v>
       </c>
@@ -3361,45 +3234,41 @@
         <v>1</v>
       </c>
       <c r="K44" s="3">
-        <v>60</v>
-      </c>
-      <c r="L44" s="1">
-        <v>30</v>
+        <v>40</v>
+      </c>
+      <c r="L44" s="2">
+        <v>70</v>
       </c>
       <c r="M44" s="4"/>
-      <c r="N44" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="O44" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="P44" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="Q44" s="1">
-        <v>5</v>
-      </c>
-      <c r="R44" s="1">
+      <c r="N44" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="O44" s="2">
+        <v>1</v>
+      </c>
+      <c r="P44" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="Q44" s="2">
+        <v>40</v>
+      </c>
+      <c r="R44" s="2">
         <v>10</v>
       </c>
       <c r="U44" s="19"/>
       <c r="V44" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="W44" s="5" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+      <c r="W44" s="5"/>
+    </row>
+    <row r="45" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="6"/>
       <c r="B45" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
+        <v>204</v>
+      </c>
       <c r="E45" s="2">
         <v>1</v>
       </c>
-      <c r="F45" s="2"/>
       <c r="G45" s="3">
         <v>1</v>
       </c>
@@ -3413,39 +3282,37 @@
         <v>1</v>
       </c>
       <c r="K45" s="3">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="L45" s="2">
-        <v>40</v>
-      </c>
-      <c r="M45" s="4" t="s">
-        <v>53</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="M45" s="4"/>
       <c r="N45" s="2">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="O45" s="2">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="P45" s="2">
         <v>0.3</v>
       </c>
       <c r="Q45" s="2">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="R45" s="2">
         <v>10</v>
       </c>
+      <c r="U45" s="19"/>
       <c r="V45" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="W45" s="5" t="s">
-        <v>233</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="W45" s="5"/>
     </row>
     <row r="46" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="6"/>
       <c r="B46" s="2" t="s">
-        <v>237</v>
+        <v>205</v>
       </c>
       <c r="E46" s="2">
         <v>1</v>
@@ -3463,249 +3330,491 @@
         <v>1</v>
       </c>
       <c r="K46" s="3">
+        <v>80</v>
+      </c>
+      <c r="L46" s="2">
+        <v>60</v>
+      </c>
+      <c r="M46" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="N46" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="O46" s="2">
+        <v>1</v>
+      </c>
+      <c r="P46" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q46" s="2">
+        <v>50</v>
+      </c>
+      <c r="R46" s="2">
+        <v>15</v>
+      </c>
+      <c r="U46" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="V46" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="W46" s="5"/>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A48" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2">
+        <v>1</v>
+      </c>
+      <c r="F48" s="2"/>
+      <c r="G48" s="3">
+        <v>1</v>
+      </c>
+      <c r="H48" s="2">
+        <v>1</v>
+      </c>
+      <c r="I48" s="2">
+        <v>1</v>
+      </c>
+      <c r="J48" s="2">
+        <v>1</v>
+      </c>
+      <c r="K48" s="3">
+        <v>30</v>
+      </c>
+      <c r="L48" s="2">
+        <v>30</v>
+      </c>
+      <c r="N48" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="O48" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="P48" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="2">
+        <v>10</v>
+      </c>
+      <c r="U48" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="V48" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="W48" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="6"/>
+      <c r="B49" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E49" s="2">
+        <v>1</v>
+      </c>
+      <c r="G49" s="3">
+        <v>1</v>
+      </c>
+      <c r="H49" s="2">
+        <v>1</v>
+      </c>
+      <c r="I49" s="2">
+        <v>1</v>
+      </c>
+      <c r="J49" s="2">
+        <v>1</v>
+      </c>
+      <c r="K49" s="3">
+        <v>30</v>
+      </c>
+      <c r="L49" s="2">
+        <v>70</v>
+      </c>
+      <c r="M49" s="4"/>
+      <c r="N49" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="O49" s="2">
+        <v>1</v>
+      </c>
+      <c r="P49" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="Q49" s="2">
+        <v>15</v>
+      </c>
+      <c r="R49" s="2">
+        <v>15</v>
+      </c>
+      <c r="U49" s="19"/>
+      <c r="V49" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="W49" s="5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="6"/>
+      <c r="B50" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E50" s="2">
+        <v>1</v>
+      </c>
+      <c r="G50" s="3">
+        <v>1</v>
+      </c>
+      <c r="H50" s="2">
+        <v>1</v>
+      </c>
+      <c r="I50" s="2">
+        <v>1</v>
+      </c>
+      <c r="J50" s="2">
+        <v>1</v>
+      </c>
+      <c r="K50" s="3">
+        <v>20</v>
+      </c>
+      <c r="L50" s="2">
         <v>40</v>
       </c>
-      <c r="L46" s="2">
-        <v>30</v>
-      </c>
-      <c r="M46" s="4"/>
-      <c r="N46" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="O46" s="2">
-        <v>1</v>
-      </c>
-      <c r="P46" s="2">
+      <c r="M50" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="N50" s="2">
         <v>0.3</v>
-      </c>
-      <c r="R46" s="2">
-        <v>10</v>
-      </c>
-      <c r="U46" s="19"/>
-      <c r="V46" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="W46" s="5" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23" ht="57" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E48" s="1">
-        <v>1</v>
-      </c>
-      <c r="G48" s="3">
-        <v>1</v>
-      </c>
-      <c r="I48" s="1">
-        <v>1</v>
-      </c>
-      <c r="J48" s="1">
-        <v>1</v>
-      </c>
-      <c r="N48" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="O48" s="1">
-        <v>1</v>
-      </c>
-      <c r="P48" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="R48" s="1">
-        <v>10</v>
-      </c>
-      <c r="U48" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="V48" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="49" spans="1:23" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E49" s="1">
-        <v>1</v>
-      </c>
-      <c r="G49" s="3">
-        <v>1</v>
-      </c>
-      <c r="H49" s="1">
-        <v>1</v>
-      </c>
-      <c r="I49" s="1">
-        <v>1</v>
-      </c>
-      <c r="J49" s="1">
-        <v>1</v>
-      </c>
-      <c r="K49" s="3">
-        <v>10</v>
-      </c>
-      <c r="L49" s="1">
-        <v>20</v>
-      </c>
-      <c r="N49" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="O49" s="1">
-        <v>1</v>
-      </c>
-      <c r="P49" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="R49" s="1">
-        <v>10</v>
-      </c>
-      <c r="T49" s="2">
-        <v>30</v>
-      </c>
-      <c r="U49" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="V49" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="50" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E50" s="2">
-        <v>1</v>
-      </c>
-      <c r="G50" s="3">
-        <v>1</v>
-      </c>
-      <c r="H50" s="2">
-        <v>1</v>
-      </c>
-      <c r="I50" s="2">
-        <v>1</v>
-      </c>
-      <c r="J50" s="2">
-        <v>1</v>
-      </c>
-      <c r="K50" s="3"/>
-      <c r="L50" s="2">
-        <v>50</v>
-      </c>
-      <c r="M50" s="4"/>
-      <c r="N50" s="2">
-        <v>0.2</v>
       </c>
       <c r="O50" s="2">
         <v>0.9</v>
       </c>
       <c r="P50" s="2">
-        <v>0.2</v>
+        <v>0.3</v>
+      </c>
+      <c r="Q50" s="2">
+        <v>10</v>
       </c>
       <c r="R50" s="2">
         <v>10</v>
       </c>
       <c r="U50" s="19"/>
       <c r="V50" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="W50" s="5"/>
+        <v>130</v>
+      </c>
+      <c r="W50" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="6"/>
+      <c r="B51" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E51" s="2">
+        <v>1</v>
+      </c>
+      <c r="G51" s="3">
+        <v>1</v>
+      </c>
+      <c r="H51" s="2">
+        <v>1</v>
+      </c>
+      <c r="I51" s="2">
+        <v>1</v>
+      </c>
+      <c r="J51" s="2">
+        <v>1</v>
+      </c>
+      <c r="K51" s="3">
+        <v>80</v>
+      </c>
+      <c r="L51" s="2">
+        <v>20</v>
+      </c>
+      <c r="M51" s="4"/>
+      <c r="N51" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="O51" s="2">
+        <v>1</v>
+      </c>
+      <c r="P51" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="Q51" s="2">
+        <v>15</v>
+      </c>
+      <c r="R51" s="2">
+        <v>15</v>
+      </c>
+      <c r="U51" s="19"/>
+      <c r="V51" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="W51" s="5" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="52" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G52" s="3"/>
-      <c r="K52" s="3"/>
+      <c r="A52" s="6"/>
+      <c r="B52" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E52" s="2">
+        <v>1</v>
+      </c>
+      <c r="G52" s="3">
+        <v>1</v>
+      </c>
+      <c r="H52" s="2">
+        <v>1</v>
+      </c>
+      <c r="I52" s="2">
+        <v>1</v>
+      </c>
+      <c r="J52" s="2">
+        <v>1</v>
+      </c>
+      <c r="K52" s="3">
+        <v>50</v>
+      </c>
+      <c r="L52" s="2">
+        <v>50</v>
+      </c>
       <c r="M52" s="4"/>
+      <c r="N52" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="O52" s="2">
+        <v>1</v>
+      </c>
+      <c r="P52" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="Q52" s="2">
+        <v>12</v>
+      </c>
+      <c r="R52" s="2">
+        <v>10</v>
+      </c>
       <c r="U52" s="19"/>
-      <c r="V52" s="5"/>
-      <c r="W52" s="5"/>
-    </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A53" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B53" s="6" t="s">
+      <c r="V52" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="W52" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="6"/>
+      <c r="B53" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="2">
+        <v>1</v>
+      </c>
+      <c r="G53" s="3">
+        <v>1</v>
+      </c>
+      <c r="H53" s="2">
+        <v>1</v>
+      </c>
+      <c r="I53" s="2">
+        <v>1</v>
+      </c>
+      <c r="J53" s="2">
+        <v>1</v>
+      </c>
+      <c r="K53" s="3">
         <v>60</v>
-      </c>
-      <c r="G53" s="3">
-        <v>1</v>
-      </c>
-      <c r="H53" s="1">
-        <v>1</v>
-      </c>
-      <c r="I53" s="1">
-        <v>1</v>
-      </c>
-      <c r="J53" s="1">
-        <v>1</v>
       </c>
       <c r="L53" s="1">
         <v>30</v>
       </c>
-      <c r="M53" s="4" t="s">
-        <v>67</v>
-      </c>
+      <c r="M53" s="4"/>
       <c r="N53" s="1">
-        <v>0.9</v>
+        <v>0.2</v>
       </c>
       <c r="O53" s="1">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="P53" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
+      </c>
+      <c r="Q53" s="1">
+        <v>10</v>
       </c>
       <c r="R53" s="1">
         <v>10</v>
       </c>
-      <c r="U53" s="19" t="s">
-        <v>88</v>
-      </c>
+      <c r="U53" s="19"/>
       <c r="V53" s="5" t="s">
-        <v>61</v>
+        <v>130</v>
+      </c>
+      <c r="W53" s="5" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B54" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D54" s="1">
-        <v>1</v>
-      </c>
+      <c r="B54" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2">
+        <v>1</v>
+      </c>
+      <c r="F54" s="2"/>
       <c r="G54" s="3">
         <v>1</v>
       </c>
-      <c r="H54" s="1">
+      <c r="H54" s="2">
+        <v>1</v>
+      </c>
+      <c r="I54" s="2">
+        <v>1</v>
+      </c>
+      <c r="J54" s="2">
         <v>1</v>
       </c>
       <c r="K54" s="3">
-        <v>50</v>
+        <v>30</v>
+      </c>
+      <c r="L54" s="2">
+        <v>40</v>
       </c>
       <c r="M54" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="N54" s="1">
+        <v>53</v>
+      </c>
+      <c r="N54" s="2">
         <v>0.3</v>
       </c>
-      <c r="O54" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="P54" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="R54" s="1">
+      <c r="O54" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="P54" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="Q54" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
-        <v>86</v>
-      </c>
+      <c r="R54" s="2">
+        <v>10</v>
+      </c>
+      <c r="V54" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="W54" s="5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E55" s="2">
+        <v>1</v>
+      </c>
+      <c r="G55" s="3">
+        <v>1</v>
+      </c>
+      <c r="H55" s="2">
+        <v>1</v>
+      </c>
+      <c r="I55" s="2">
+        <v>1</v>
+      </c>
+      <c r="J55" s="2">
+        <v>1</v>
+      </c>
+      <c r="K55" s="3">
+        <v>40</v>
+      </c>
+      <c r="L55" s="2">
+        <v>30</v>
+      </c>
+      <c r="M55" s="4"/>
+      <c r="N55" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="O55" s="2">
+        <v>1</v>
+      </c>
+      <c r="P55" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="R55" s="2">
+        <v>10</v>
+      </c>
+      <c r="U55" s="19"/>
+      <c r="V55" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="W55" s="5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" ht="57" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E57" s="1">
+        <v>1</v>
+      </c>
+      <c r="G57" s="3">
+        <v>1</v>
+      </c>
+      <c r="I57" s="1">
+        <v>1</v>
+      </c>
+      <c r="J57" s="1">
+        <v>1</v>
+      </c>
+      <c r="M57" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="N57" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="O57" s="1">
+        <v>1</v>
+      </c>
+      <c r="P57" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="Q57" s="1">
+        <v>10</v>
+      </c>
+      <c r="R57" s="1">
+        <v>10</v>
+      </c>
+      <c r="U57" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="V57" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E58" s="1">
         <v>1</v>
@@ -3723,7 +3832,10 @@
         <v>1</v>
       </c>
       <c r="K58" s="3">
-        <v>90</v>
+        <v>10</v>
+      </c>
+      <c r="L58" s="1">
+        <v>20</v>
       </c>
       <c r="N58" s="1">
         <v>0.3</v>
@@ -3737,65 +3849,159 @@
       <c r="R58" s="1">
         <v>10</v>
       </c>
+      <c r="T58" s="2">
+        <v>30</v>
+      </c>
+      <c r="U58" s="20" t="s">
+        <v>76</v>
+      </c>
       <c r="V58" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B59" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F59" s="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E59" s="2">
         <v>1</v>
       </c>
       <c r="G59" s="3">
         <v>1</v>
       </c>
-      <c r="H59" s="1">
-        <v>1</v>
-      </c>
-      <c r="I59" s="1">
-        <v>1</v>
-      </c>
-      <c r="J59" s="1">
-        <v>1</v>
-      </c>
-      <c r="K59" s="3">
-        <v>120</v>
-      </c>
-      <c r="N59" s="1">
+      <c r="H59" s="2">
+        <v>1</v>
+      </c>
+      <c r="I59" s="2">
+        <v>1</v>
+      </c>
+      <c r="J59" s="2">
+        <v>1</v>
+      </c>
+      <c r="K59" s="3"/>
+      <c r="L59" s="2">
+        <v>50</v>
+      </c>
+      <c r="M59" s="4"/>
+      <c r="N59" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="O59" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="P59" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="R59" s="2">
+        <v>10</v>
+      </c>
+      <c r="U59" s="19"/>
+      <c r="V59" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="W59" s="5"/>
+    </row>
+    <row r="61" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G61" s="3"/>
+      <c r="K61" s="3"/>
+      <c r="M61" s="4"/>
+      <c r="U61" s="19"/>
+      <c r="V61" s="5"/>
+      <c r="W61" s="5"/>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A62" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G62" s="3">
+        <v>1</v>
+      </c>
+      <c r="H62" s="1">
+        <v>1</v>
+      </c>
+      <c r="I62" s="1">
+        <v>1</v>
+      </c>
+      <c r="J62" s="1">
+        <v>1</v>
+      </c>
+      <c r="L62" s="1">
+        <v>30</v>
+      </c>
+      <c r="M62" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="N62" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="O62" s="1">
+        <v>2</v>
+      </c>
+      <c r="P62" s="1">
         <v>0.5</v>
       </c>
-      <c r="O59" s="1">
-        <v>1</v>
-      </c>
-      <c r="P59" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="R59" s="1">
-        <v>17</v>
-      </c>
-      <c r="V59" s="5" t="s">
-        <v>91</v>
+      <c r="R62" s="1">
+        <v>10</v>
+      </c>
+      <c r="U62" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="V62" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B63" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D63" s="1">
+        <v>1</v>
+      </c>
+      <c r="G63" s="3">
+        <v>1</v>
+      </c>
+      <c r="H63" s="1">
+        <v>1</v>
+      </c>
+      <c r="K63" s="3">
+        <v>50</v>
+      </c>
+      <c r="M63" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="N63" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="O63" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="P63" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R63" s="1">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
     <mergeCell ref="S1:S2"/>
     <mergeCell ref="T1:T2"/>
     <mergeCell ref="U1:U2"/>
     <mergeCell ref="V1:V2"/>
     <mergeCell ref="W1:W2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="M1:M2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="K1:L1048576">
@@ -3861,19 +4067,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01B6F42B-4BB2-402E-8EF0-FC889EE96737}">
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O15" sqref="O15"/>
+      <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="6"/>
-    <col min="2" max="2" width="13" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.125" style="6" customWidth="1"/>
     <col min="3" max="3" width="9" style="6"/>
     <col min="4" max="4" width="5.125" style="8" customWidth="1"/>
     <col min="5" max="5" width="5.125" style="11" customWidth="1"/>
@@ -3953,13 +4159,13 @@
       </c>
       <c r="I3" s="26"/>
       <c r="J3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="8">
@@ -3975,16 +4181,16 @@
         <v>53</v>
       </c>
       <c r="I4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="8">
@@ -4000,7 +4206,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="28" t="s">
-        <v>173</v>
+        <v>238</v>
       </c>
       <c r="J5" t="s">
         <v>54</v>
@@ -4009,7 +4215,7 @@
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="8">
@@ -4025,7 +4231,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="28" t="s">
-        <v>174</v>
+        <v>237</v>
       </c>
       <c r="J6" t="s">
         <v>54</v>
@@ -4034,7 +4240,7 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="8">
@@ -4050,16 +4256,16 @@
         <v>1</v>
       </c>
       <c r="I7" s="27" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="J7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="8">
@@ -4073,7 +4279,7 @@
       </c>
       <c r="I8" s="26"/>
       <c r="J8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -4091,7 +4297,7 @@
         <v>37</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D11" s="8">
         <v>1</v>
@@ -4103,12 +4309,12 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B12" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D12" s="8">
         <v>1</v>
@@ -4126,12 +4332,12 @@
         <v>47</v>
       </c>
       <c r="J12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B13" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D13" s="8">
         <v>1</v>
@@ -4146,38 +4352,38 @@
         <v>1</v>
       </c>
       <c r="I13" s="29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B14" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D14" s="8">
+        <v>1</v>
+      </c>
+      <c r="E14" s="11">
+        <v>1</v>
+      </c>
+      <c r="F14" s="8">
+        <v>1</v>
+      </c>
+      <c r="G14" s="13">
+        <v>1</v>
+      </c>
+      <c r="I14" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="D14" s="8">
-        <v>1</v>
-      </c>
-      <c r="E14" s="11">
-        <v>1</v>
-      </c>
-      <c r="F14" s="8">
-        <v>1</v>
-      </c>
-      <c r="G14" s="13">
-        <v>1</v>
-      </c>
-      <c r="I14" s="29" t="s">
-        <v>152</v>
-      </c>
       <c r="J14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B15" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D15" s="8">
         <v>1</v>
@@ -4192,10 +4398,10 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -4206,7 +4412,7 @@
         <v>38</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D18" s="8">
         <v>1</v>
@@ -4218,12 +4424,12 @@
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B19" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D19" s="8">
         <v>1</v>
@@ -4238,12 +4444,12 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B20" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D20" s="8">
         <v>1</v>
@@ -4258,30 +4464,30 @@
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B21" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D21" s="8">
+        <v>1</v>
+      </c>
+      <c r="E21" s="11">
+        <v>1</v>
+      </c>
+      <c r="F21" s="8">
+        <v>1</v>
+      </c>
+      <c r="G21" s="13">
+        <v>1</v>
+      </c>
+      <c r="I21" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="D21" s="8">
-        <v>1</v>
-      </c>
-      <c r="E21" s="11">
-        <v>1</v>
-      </c>
-      <c r="F21" s="8">
-        <v>1</v>
-      </c>
-      <c r="G21" s="13">
-        <v>1</v>
-      </c>
-      <c r="I21" s="27" t="s">
-        <v>140</v>
-      </c>
       <c r="J21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
@@ -4289,7 +4495,7 @@
         <v>26</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D24" s="8">
         <v>1</v>
@@ -4304,15 +4510,93 @@
         <v>1</v>
       </c>
       <c r="I24" s="27" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="J24" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>34</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="D27" s="8">
+        <v>1</v>
+      </c>
+      <c r="E27" s="11">
+        <v>1</v>
+      </c>
+      <c r="F27" s="8">
+        <v>1</v>
+      </c>
+      <c r="G27" s="11">
+        <v>1</v>
+      </c>
+      <c r="J27" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B28" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="D28" s="8">
+        <v>1</v>
+      </c>
+      <c r="E28" s="11">
+        <v>1</v>
+      </c>
+      <c r="F28" s="8">
+        <v>1</v>
+      </c>
+      <c r="G28" s="11">
+        <v>1</v>
+      </c>
+      <c r="J28" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B29" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="D29" s="8">
+        <v>1</v>
+      </c>
+      <c r="E29" s="11">
+        <v>1</v>
+      </c>
+      <c r="F29" s="8">
+        <v>1</v>
+      </c>
+      <c r="G29" s="11">
+        <v>1</v>
+      </c>
+      <c r="J29" s="27" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B30" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="D30" s="8">
+        <v>1</v>
+      </c>
+      <c r="E30" s="11">
+        <v>1</v>
+      </c>
+      <c r="F30" s="8">
+        <v>1</v>
+      </c>
+      <c r="G30" s="13">
+        <v>1</v>
+      </c>
+      <c r="J30" s="27" t="s">
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -4333,7 +4617,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomRight" activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4358,7 +4642,7 @@
         <v>44</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E1" s="21" t="s">
         <v>52</v>
@@ -4396,13 +4680,13 @@
       </c>
       <c r="F3" s="26"/>
       <c r="G3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="3">
@@ -4410,13 +4694,13 @@
       </c>
       <c r="F4" s="26"/>
       <c r="G4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="3">
@@ -4427,27 +4711,27 @@
       </c>
       <c r="F5" s="26"/>
       <c r="G5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H5" s="24" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="3">
         <v>15</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F6" s="26"/>
       <c r="G6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -4473,44 +4757,44 @@
         <v>37</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D11" s="14">
         <v>20</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F11" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="G11" t="s">
+        <v>130</v>
+      </c>
+      <c r="H11" s="24" t="s">
         <v>156</v>
-      </c>
-      <c r="G11" t="s">
-        <v>131</v>
-      </c>
-      <c r="H11" s="24" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B12" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D12" s="14">
         <v>5</v>
       </c>
       <c r="G12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B13" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D13" s="14">
         <v>5</v>
       </c>
       <c r="G13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
@@ -4518,24 +4802,24 @@
         <v>38</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D16" s="14">
         <v>15</v>
       </c>
       <c r="F16" s="24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G16" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H16" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B17" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D17" s="14">
         <v>5</v>
@@ -4544,51 +4828,51 @@
         <v>53</v>
       </c>
       <c r="G17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B18" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D18" s="14">
         <v>5</v>
       </c>
       <c r="F18" s="27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H18" s="24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B19" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D19" s="14">
         <v>5</v>
       </c>
       <c r="G19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B20" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D20" s="14">
         <v>5</v>
       </c>
       <c r="G20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B21" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D21" s="14">
         <v>5</v>
@@ -4597,15 +4881,15 @@
         <v>53</v>
       </c>
       <c r="F21" s="27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B24" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
@@ -4613,27 +4897,27 @@
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D27" s="14">
         <v>5</v>
       </c>
       <c r="F27" s="24" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G27" s="24" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B28" s="6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D28" s="14">
         <v>5</v>
       </c>
       <c r="G28" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -4641,46 +4925,46 @@
         <v>34</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D31" s="14">
         <v>5</v>
       </c>
       <c r="G31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B32" s="6" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D32" s="14">
         <v>5</v>
       </c>
       <c r="G32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B33" s="6" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D33" s="14">
         <v>5</v>
       </c>
       <c r="G33" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B34" s="6" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D34" s="14">
         <v>5</v>
       </c>
       <c r="G34" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -4698,7 +4982,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F26" sqref="F26"/>
+      <selection pane="bottomRight" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4727,180 +5011,180 @@
       <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="31" t="s">
+      <c r="C6" s="1"/>
+      <c r="D6" s="31" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="31" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="31" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="31" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="6" t="s">
+      <c r="C8" s="2"/>
+      <c r="D8" s="31" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
+      <c r="B9" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D9" s="32" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="31"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="32" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="31" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>106</v>
+        <v>187</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="32" t="s">
-        <v>108</v>
-      </c>
+      <c r="D10" s="31"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="32" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="31" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="32" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B16" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="D16" s="31" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="6" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B17" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B18" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B19" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="D13" s="31" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="D14" s="31" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="D15" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D16" s="31"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
+      <c r="D19" s="32" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D20" s="31"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B22" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="31" t="s">
+      <c r="D22" s="31" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B24" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D20" s="32" t="s">
+      <c r="D24" s="32" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B21" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D21" s="32" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="D23" s="32" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B24" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="D24" s="32" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B25" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="D25" s="31" t="s">
-        <v>180</v>
+        <v>83</v>
+      </c>
+      <c r="D25" s="32" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -4908,26 +5192,26 @@
         <v>34</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D27" s="32" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B28" s="6" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D28" s="32" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B29" s="6" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D29" s="32" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -4941,7 +5225,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="F4" sqref="F4:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5141,7 +5425,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">

--- a/plan/招式.xlsx
+++ b/plan/招式.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\pealpool.github.io\plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E922CBD1-7BC2-4488-A433-CA9347999A2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97750FFC-127C-4106-922C-D61C30BD5AF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" xr2:uid="{07694949-CE91-4AC6-84BF-EA7187E3619C}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="293">
   <si>
     <t>派别</t>
   </si>
@@ -175,10 +175,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>五毒派</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>少林派</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -223,10 +219,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>格挡对手部位</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>格挡率加成</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -326,722 +318,880 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>不同部位不同效果：5s
+    <t>青蛇刁手</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>五毒衣</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>被直接命中时，反击毒伤害10；毒防御5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>外伤防御 +30%，内伤防御 +15%，</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹰爪门</t>
+  </si>
+  <si>
+    <t>所有部位均受伤害，反伤/反击无效</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>沾衣十八跌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙爪手</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://taiwu.huijiwiki.com/wiki/%E6%A8%A1%E6%9D%BF:Navbox%E5%8A%9F%E6%B3%95</t>
+  </si>
+  <si>
+    <t>般若掌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大力金刚指</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>伏魔腿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通臂拳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一苇渡江</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一指禅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>千手法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>格挡+10%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金身法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>太玄功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>外伤伤害+10%，外伤防御 +10%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内伤伤害+10%，内伤防御 +10%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一元指</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内伤伤害+10%，5s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>缠丝手</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>四象掌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金顶绵掌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>飘雪穿云掌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>截手九式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛光普照</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金鼎飞仙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>千潭映月步</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>命中+5%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>移花接木</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>移形换影</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>灭腿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝腿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅花步</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>莲花步</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用树木山石替代自身受到攻击，照常弹反伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按命中弹反伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高高跃起，准备下落攻击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>命中+5%，5s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪避+5%，5s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下次的攻击前摇-0.2s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>外伤伤害+5%，5s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内伤伤害+5%，5s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>四象莲华</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>跌打十八式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>反击外伤伤害25，内伤伤害25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分花拂柳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>如同闪避，不受格挡，不弹反伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>壁虎游墙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>达摩十八手</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>六十八罗汉拳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>千手观音</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+20%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大力金刚拳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铜人护体</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>格挡率+5%，5s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>外伤防御+5%，5s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>如来千手式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>去烦恼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内伤防御+5%，5s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-5%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>因陀罗抓</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大智无定步</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下次攻击前摇+0.2s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使出轻身发，奋力后跃，远离敌人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>耐力消耗</t>
+  </si>
+  <si>
+    <t>阿罗汉附体</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>易筋经</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>菩提心法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>外伤伤害+15%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫阳正气拳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>格挡+5%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>北斗步</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>格挡+5%，5s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>八封掌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无极劲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>太极拳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天蚕诀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>四两拨千斤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱水柔易</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三花聚顶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>外伤防御+10%，内伤防御+10%，毒防御5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内伤伤害+10%，内伤防御+10%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无上罡气</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内伤伤害+15%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>梯云纵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>乃是「武当七绝」之一，堪称轻功中的轻功，其注重身法的轻灵，不以步法多变来迷惑对手，要旨是身形轻巧，高低进退自如。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>千里不留痕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>破金鎚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>霹雳腿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>游身手</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不受内伤伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>两仪掌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>隔山打牛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙象般若功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>耐力伤害+15%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>五轮大法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>瑜伽密乘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>外伤伤害 +10%，内伤伤害+10%，</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无上大力蹬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>外伤伤害 +5%，5s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内伤伤害 +5%，5s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>摩诃迦罗附体</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>耐力伤害+5%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>外伤内伤防御+5%，5s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>波罗密掌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>耐力伤害 +5%，5s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>神足通</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>明王拙火定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大日如来掌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金刚诛灭手</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>封锁对方耐力回复3s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-10%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一阳指</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>枯荣禅功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自身耐力回复+10%，对方耐力回复-10%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>段氏步法·进</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>段氏步法·退</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>段氏步法·守</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>段氏心法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>段氏步法·攻</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>少商剑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑路雄劲，颇有石破天惊，风雨大至之势</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中冲剑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商阳剑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关冲剑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>少冲剑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>少泽剑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪避+5%，命中+5%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>巧妙灵活，难以捉摸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大开大阖，气势雄迈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以拙滞古朴取胜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻灵迅速</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>忽来忽去，变化精妙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>六脉神剑的根基招式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大韦陀杵蹬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>五罗轻烟掌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>飘渺轻盈，招数精奇，拥有多重变势。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>六脉神剑经</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>破绽发现+30%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>反击内伤伤害50，打断连招</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>反击外伤伤害50，打断连招</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>八门金锁·生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>外伤内伤伤害+5%，5s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>八门金锁·死</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>八门金锁·惊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>八门金锁·伤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大力鹰爪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹰爪擒拿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>雁行刀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以掌为刀，掌风若大雁飞过所带劲风</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>啄目争珠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对方-10%闪避，-10%命中，2s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接命中时，本次耐力伤害变为30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>外伤伤害+5%，5s</t>
+  </si>
+  <si>
+    <t>格挡+5%</t>
+  </si>
+  <si>
+    <t>命中+5%，5s</t>
+  </si>
+  <si>
+    <t>闪避+5%，5s</t>
+  </si>
+  <si>
+    <t>内外伤伤害+5%，5s</t>
+  </si>
+  <si>
+    <t>命中率+5%，5s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">三阴蜈蚣爪 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>怒鹰锁喉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶鹰掏心</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>雄鹰飞踢</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>苍鹰踩兔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>苍鹰按爪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>老鹰盘旋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>雄鹰展翅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>老鹰攀枝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>外伤伤害+5%，5s
+内伤伤害+5%，5s</t>
+  </si>
+  <si>
+    <t>内伤伤害+5%，5s</t>
+  </si>
+  <si>
+    <t>雁行千里</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>奋力远离敌方</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>母鹰护雏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金鹰上架</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹰爪提坛功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>外伤伤害+10%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹰爪撕把功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>流血伤害+10/s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞鹰叼桩功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>本招式特效加倍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10/s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>流血持续 5s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>【青蛇毒】命中-10%，攻击增浮动率-10%，破绽发现率 -10%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>【蜈蚣毒】格挡率-10%，防御-10%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>【蝎子毒】伤害-10%，削耐-10%，破绽伤害-10%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>【蜘蛛毒】闪避几率-10%，攻击慢0.2s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机五毒之一，毒效皆为爆发才生效</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒伤害+5，5s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>千蛛万毒手</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒蟾砂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不能格挡，不同部位不同效果：5s
 ①脚-10%闪避-10%格挡率；
 ②手攻击慢0.2s速度，手格挡率-10%；
 ③头：命中率-10%，闪避率-10%，格挡率-10%；</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>本招式特效加倍，5s</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>随机五毒之一：
-【青蛇】命中-10%，攻击增浮动率-10%，破绽发现率 -10%
-【蜈蚣】格挡率-10%，防御-10%
-【蝎子】伤害-10%，削耐-10%，破绽伤害-10%
-【蜘蛛】闪避几率-10%，攻击慢0.2s
-【蟾蜍】最大耐力-10%，耐力恢复-10%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>毒伤害+10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>命中率+10%，5s</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>青蛇刁手</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>五毒掌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>蛤蟆功</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>内伤防御 +15%，被直接命中时，反击内功伤害50</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>五毒衣</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>被直接命中时，反击毒伤害10；毒防御5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>外伤防御 +30%，内伤防御 +15%，</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>鹰爪门</t>
-  </si>
-  <si>
-    <t>所有部位均受伤害，反伤/反击无效</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成流血 9/s，5s</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>飞鹰踢</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪避+10%，5s</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>沾衣十八跌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙爪手</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>外伤伤害+10%，5s</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://taiwu.huijiwiki.com/wiki/%E6%A8%A1%E6%9D%BF:Navbox%E5%8A%9F%E6%B3%95</t>
-  </si>
-  <si>
-    <t>般若掌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>大力金刚指</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>伏魔腿</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通臂拳</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>命中+10%，5s</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>一苇渡江</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>一指禅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>千手法</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>格挡+10%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>金身法</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>太玄功</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>外伤伤害+10%，外伤防御 +10%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>内伤伤害+10%，内伤防御 +10%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>一元指</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>内伤伤害+10%，5s</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>缠丝手</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>四象掌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>金顶绵掌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>飘雪穿云掌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>截手九式</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>佛光普照</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪避+10%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>金鼎飞仙</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>千潭映月步</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>命中+5%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>移花接木</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>移形换影</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>灭腿</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>绝腿</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>梅花步</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>莲花步</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>利用树木山石替代自身受到攻击，照常弹反伤害</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>按命中弹反伤害</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>高高跃起，准备下落攻击</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>命中+5%，5s</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪避+5%，5s</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>下次的攻击前摇-0.2s</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>外伤伤害+5%，5s</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>内伤伤害+5%，5s</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>外伤伤害+10%，5s
-内伤伤害+10%，5s</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>四象莲华</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>跌打十八式</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>反击外伤伤害25，内伤伤害25</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>分花拂柳</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>如同闪避，不受格挡，不弹反伤害</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>壁虎游墙</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>达摩十八手</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>六十八罗汉拳</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>千手观音</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>+20%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>大力金刚拳</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>铜人护体</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>格挡率+5%，5s</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>外伤防御+5%，5s</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>如来千手式</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>去烦恼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>内伤防御+5%，5s</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>-5%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>因陀罗抓</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>大智无定步</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>下次攻击前摇+0.2s</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>使出轻身发，奋力后跃，远离敌人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>耐力消耗</t>
-  </si>
-  <si>
-    <t>+50%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>阿罗汉附体</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>易筋经</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>菩提心法</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>外伤伤害+15%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>紫阳正气拳</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>格挡+5%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>北斗步</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>格挡+5%，5s</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>八封掌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无极劲</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>太极拳</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>天蚕诀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>四两拨千斤</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>弱水柔易</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>三花聚顶</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>外伤防御+10%，内伤防御+10%，毒防御5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>内伤伤害+10%，内伤防御+10%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无上罡气</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>内伤伤害+15%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>梯云纵</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>乃是「武当七绝」之一，堪称轻功中的轻功，其注重身法的轻灵，不以步法多变来迷惑对手，要旨是身形轻巧，高低进退自如。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>千里不留痕</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>破金鎚</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>霹雳腿</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>游身手</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不受内伤伤害</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>两仪掌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>隔山打牛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙象般若功</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>耐力伤害+15%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>五轮大法</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>瑜伽密乘</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>外伤伤害 +10%，内伤伤害+10%，</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无上大力蹬</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>外伤伤害 +5%，5s</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>内伤伤害 +5%，5s</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>摩诃迦罗附体</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>耐力伤害+5%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>外伤内伤防御+5%，5s</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>波罗密掌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>耐力伤害 +5%，5s</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>缩骨功</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>神足通</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>外伤防御+5%，5s
-内伤防御+5%，5s</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>明王拙火定</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>大日如来掌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>金刚诛灭手</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>封锁对方耐力回复3s</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>-10%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>一阳指</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>枯荣禅功</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>自身耐力回复+10%，对方耐力回复-10%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>段氏步法·进</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>段氏步法·退</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>段氏步法·守</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>段氏心法</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>段氏步法·攻</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>少商剑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>剑路雄劲，颇有石破天惊，风雨大至之势</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>中冲剑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>商阳剑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>关冲剑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>少冲剑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>少泽剑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪避+5%，命中+5%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>巧妙灵活，难以捉摸</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>大开大阖，气势雄迈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>以拙滞古朴取胜</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>轻灵迅速</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>忽来忽去，变化精妙</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>六脉神剑的根基招式</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>大韦陀杵蹬</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>五罗轻烟掌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>飘渺轻盈，招数精奇，拥有多重变势。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>内外伤伤害+10%，5s</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>六脉神剑经</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>破绽发现+30%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>反击内伤伤害50，打断连招</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>反击外伤伤害50，打断连招</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>八门金锁·生</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>外伤内伤伤害+5%，5s</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>八门金锁·死</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>八门金锁·惊</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>八门金锁·伤</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>大力鹰爪</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>鹰爪擒拿</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>雁行刀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>以掌为刀，掌风若大雁飞过所带劲风</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>啄目争珠</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>对方-10%闪避，-10%命中，2s</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>直接命中时，本次耐力伤害变为30</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>直接命中时，对方内外伤防御-10%</t>
+    <t>不能格挡，【蟾蜍毒】最大耐力-10%，耐力恢复-0.1/s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>八步赶蟾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>红蛛索网</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>五毒神掌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蝎子摆尾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>补天诀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒伤害+5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒王经</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>耐力回复+0.1/s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>妙手织天</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>遁地百足仙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛤蟆纵跳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天蛇翻</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天蛇换骨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内外伤防御+5%，5s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金刚灌顶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>易筋缩骨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>七轮感应</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三密合应手</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">灵热护身掌 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔障护体</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>耐力恢复20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>能格挡特殊招式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对方内外伤防御-10%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>子午毒砂</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1099,7 +1249,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1116,15 +1266,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1135,7 +1276,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1170,12 +1311,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1238,19 +1373,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1569,13 +1701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{897EE391-4514-4BBB-B5AB-BFD81F1FD685}">
-  <dimension ref="A1:W63"/>
+  <dimension ref="A1:W77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="D42" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="V42" sqref="V42"/>
+      <selection pane="bottomRight" activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1591,105 +1723,105 @@
     <col min="13" max="13" width="6.25" style="4" customWidth="1"/>
     <col min="14" max="18" width="6.25" style="1" customWidth="1"/>
     <col min="19" max="20" width="6.25" style="2" customWidth="1"/>
-    <col min="21" max="21" width="50.25" style="19" customWidth="1"/>
+    <col min="21" max="21" width="52.125" style="17" customWidth="1"/>
     <col min="22" max="22" width="31.75" style="5" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="19.625" style="5" customWidth="1"/>
     <col min="24" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:23" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="33" t="s">
+      <c r="B1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="35" t="s">
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="35" t="s">
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="33" t="s">
+      <c r="L1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="34" t="s">
+      <c r="M1" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="33" t="s">
+      <c r="N1" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="33" t="s">
+      <c r="O1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="33" t="s">
+      <c r="P1" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="33" t="s">
+      <c r="Q1" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="R1" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="R1" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="S1" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="T1" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="U1" s="34" t="s">
+      <c r="S1" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="T1" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="V1" s="33" t="s">
+      <c r="U1" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="V1" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="33" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" s="16" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="D2" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="E2" s="17" t="s">
+      <c r="W1" s="31" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" s="14" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="D2" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="35"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="34"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="31"/>
+      <c r="W2" s="31"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -1729,12 +1861,12 @@
         <v>10</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>103</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="E4" s="2">
         <v>1</v>
@@ -1770,15 +1902,15 @@
       <c r="R4" s="2">
         <v>10</v>
       </c>
-      <c r="U4" s="19"/>
+      <c r="U4" s="17"/>
       <c r="V4" s="5" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="W4" s="5"/>
     </row>
     <row r="5" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="E5" s="2">
         <v>1</v>
@@ -1814,15 +1946,15 @@
       <c r="R5" s="2">
         <v>10</v>
       </c>
-      <c r="U5" s="19"/>
+      <c r="U5" s="17"/>
       <c r="V5" s="5" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="W5" s="5"/>
     </row>
     <row r="6" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="E6" s="2">
         <v>1</v>
@@ -1844,7 +1976,7 @@
         <v>150</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="N6" s="2">
         <v>0.6</v>
@@ -1858,15 +1990,15 @@
       <c r="R6" s="2">
         <v>17</v>
       </c>
-      <c r="U6" s="19"/>
+      <c r="U6" s="17"/>
       <c r="V6" s="5" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="W6" s="5"/>
     </row>
     <row r="7" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="E7" s="2">
         <v>1</v>
@@ -1902,15 +2034,15 @@
       <c r="R7" s="2">
         <v>10</v>
       </c>
-      <c r="U7" s="19"/>
+      <c r="U7" s="17"/>
       <c r="V7" s="5" t="s">
-        <v>103</v>
+        <v>231</v>
       </c>
       <c r="W7" s="5"/>
     </row>
     <row r="8" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="E8" s="2">
         <v>1</v>
@@ -1929,7 +2061,7 @@
         <v>120</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="N8" s="2">
         <v>0.6</v>
@@ -1943,15 +2075,15 @@
       <c r="R8" s="2">
         <v>20</v>
       </c>
-      <c r="U8" s="19"/>
+      <c r="U8" s="17"/>
       <c r="V8" s="5" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="W8" s="5"/>
     </row>
     <row r="9" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="F9" s="2">
         <v>1</v>
@@ -1975,7 +2107,7 @@
         <v>60</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="N9" s="2">
         <v>0.5</v>
@@ -1989,15 +2121,15 @@
       <c r="R9" s="2">
         <v>20</v>
       </c>
-      <c r="U9" s="19"/>
+      <c r="U9" s="17"/>
       <c r="V9" s="5" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="W9" s="5"/>
     </row>
     <row r="10" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="E10" s="2">
         <v>1</v>
@@ -2019,7 +2151,7 @@
         <v>180</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="N10" s="2">
         <v>0.7</v>
@@ -2033,9 +2165,9 @@
       <c r="R10" s="2">
         <v>20</v>
       </c>
-      <c r="U10" s="19"/>
+      <c r="U10" s="17"/>
       <c r="V10" s="5" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="W10" s="5"/>
     </row>
@@ -2043,16 +2175,16 @@
       <c r="G11" s="3"/>
       <c r="K11" s="3"/>
       <c r="M11" s="4"/>
-      <c r="U11" s="19"/>
+      <c r="U11" s="17"/>
       <c r="V11" s="5"/>
       <c r="W11" s="5"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
@@ -2085,12 +2217,12 @@
         <v>15</v>
       </c>
       <c r="V12" s="5" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="E13" s="2">
         <v>1</v>
@@ -2126,15 +2258,15 @@
       <c r="R13" s="2">
         <v>10</v>
       </c>
-      <c r="U13" s="19"/>
+      <c r="U13" s="17"/>
       <c r="V13" s="5" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="W13" s="5"/>
     </row>
     <row r="14" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="E14" s="2">
         <v>1</v>
@@ -2167,15 +2299,15 @@
       <c r="R14" s="2">
         <v>15</v>
       </c>
-      <c r="U14" s="19"/>
+      <c r="U14" s="17"/>
       <c r="V14" s="5" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="W14" s="5"/>
     </row>
     <row r="15" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="E15" s="2">
         <v>1</v>
@@ -2199,7 +2331,7 @@
         <v>10</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N15" s="2">
         <v>0.2</v>
@@ -2213,15 +2345,15 @@
       <c r="R15" s="2">
         <v>10</v>
       </c>
-      <c r="U15" s="19"/>
+      <c r="U15" s="17"/>
       <c r="V15" s="5" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="W15" s="5"/>
     </row>
     <row r="16" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="E16" s="2">
         <v>1</v>
@@ -2254,15 +2386,15 @@
       <c r="R16" s="2">
         <v>15</v>
       </c>
-      <c r="U16" s="19"/>
+      <c r="U16" s="17"/>
       <c r="V16" s="5" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="W16" s="5"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="F17" s="1">
         <v>1</v>
@@ -2283,7 +2415,7 @@
         <v>210</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="N17" s="1">
         <v>0.6</v>
@@ -2298,12 +2430,12 @@
         <v>20</v>
       </c>
       <c r="V17" s="5" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="F18" s="2">
         <v>1</v>
@@ -2325,7 +2457,7 @@
         <v>20</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="N18" s="2">
         <v>0.4</v>
@@ -2339,15 +2471,15 @@
       <c r="R18" s="2">
         <v>20</v>
       </c>
-      <c r="U18" s="19"/>
+      <c r="U18" s="17"/>
       <c r="V18" s="5" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="W18" s="5"/>
     </row>
     <row r="19" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="E19" s="2">
         <v>1</v>
@@ -2366,7 +2498,7 @@
         <v>100</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N19" s="2">
         <v>0.2</v>
@@ -2380,18 +2512,18 @@
       <c r="R19" s="2">
         <v>10</v>
       </c>
-      <c r="U19" s="19"/>
+      <c r="U19" s="17"/>
       <c r="V19" s="5" t="s">
-        <v>99</v>
+        <v>232</v>
       </c>
       <c r="W19" s="5"/>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>244</v>
+        <v>223</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
@@ -2423,54 +2555,63 @@
       <c r="R21" s="1">
         <v>10</v>
       </c>
+      <c r="S21" s="2" t="s">
+        <v>257</v>
+      </c>
       <c r="U21" s="5" t="s">
-        <v>88</v>
+        <v>258</v>
       </c>
       <c r="V21" s="5" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B22" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F22" s="1">
-        <v>1</v>
-      </c>
+      <c r="B22" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2">
+        <v>1</v>
+      </c>
+      <c r="F22" s="2"/>
       <c r="G22" s="3">
         <v>1</v>
       </c>
-      <c r="H22" s="1">
-        <v>1</v>
-      </c>
-      <c r="I22" s="1">
-        <v>1</v>
-      </c>
-      <c r="J22" s="1">
-        <v>1</v>
-      </c>
+      <c r="H22" s="2">
+        <v>1</v>
+      </c>
+      <c r="I22" s="2">
+        <v>1</v>
+      </c>
+      <c r="J22" s="2"/>
       <c r="K22" s="3">
-        <v>120</v>
-      </c>
-      <c r="N22" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="O22" s="1">
-        <v>1</v>
-      </c>
-      <c r="P22" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="R22" s="1">
-        <v>20</v>
+        <v>90</v>
+      </c>
+      <c r="L22" s="2"/>
+      <c r="M22" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="N22" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="O22" s="2">
+        <v>1</v>
+      </c>
+      <c r="P22" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2">
+        <v>10</v>
       </c>
       <c r="V22" s="5" t="s">
-        <v>90</v>
+        <v>232</v>
       </c>
     </row>
     <row r="23" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="E23" s="2">
         <v>1</v>
@@ -2484,12 +2625,13 @@
       <c r="I23" s="2">
         <v>1</v>
       </c>
+      <c r="J23" s="2">
+        <v>1</v>
+      </c>
       <c r="K23" s="3">
-        <v>90</v>
-      </c>
-      <c r="M23" s="4" t="s">
-        <v>53</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="M23" s="4"/>
       <c r="N23" s="2">
         <v>0.3</v>
       </c>
@@ -2500,17 +2642,24 @@
         <v>0.3</v>
       </c>
       <c r="R23" s="2">
-        <v>10</v>
-      </c>
-      <c r="U23" s="19"/>
+        <v>15</v>
+      </c>
+      <c r="S23" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="U23" s="5" t="s">
+        <v>258</v>
+      </c>
       <c r="V23" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="W23" s="5"/>
+        <v>148</v>
+      </c>
+      <c r="W23" s="5" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="24" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="E24" s="2">
         <v>1</v>
@@ -2518,19 +2667,12 @@
       <c r="G24" s="3">
         <v>1</v>
       </c>
-      <c r="H24" s="2">
-        <v>1</v>
-      </c>
-      <c r="I24" s="2">
-        <v>1</v>
-      </c>
-      <c r="J24" s="2">
-        <v>1</v>
-      </c>
       <c r="K24" s="3">
-        <v>100</v>
-      </c>
-      <c r="M24" s="4"/>
+        <v>70</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="N24" s="2">
         <v>0.3</v>
       </c>
@@ -2543,19 +2685,17 @@
       <c r="R24" s="2">
         <v>10</v>
       </c>
-      <c r="U24" s="5" t="s">
-        <v>88</v>
+      <c r="U24" s="17" t="s">
+        <v>228</v>
       </c>
       <c r="V24" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="W24" s="5" t="s">
-        <v>247</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="W24" s="5"/>
     </row>
     <row r="25" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="E25" s="2">
         <v>1</v>
@@ -2564,11 +2704,9 @@
         <v>1</v>
       </c>
       <c r="K25" s="3">
-        <v>70</v>
-      </c>
-      <c r="M25" s="4" t="s">
-        <v>53</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="M25" s="4"/>
       <c r="N25" s="2">
         <v>0.3</v>
       </c>
@@ -2578,49 +2716,156 @@
       <c r="P25" s="2">
         <v>0.3</v>
       </c>
+      <c r="Q25" s="2">
+        <v>20</v>
+      </c>
       <c r="R25" s="2">
         <v>10</v>
       </c>
-      <c r="U25" s="19" t="s">
-        <v>249</v>
-      </c>
-      <c r="V25" s="5"/>
+      <c r="U25" s="17"/>
+      <c r="V25" s="5" t="s">
+        <v>232</v>
+      </c>
       <c r="W25" s="5"/>
     </row>
     <row r="26" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E26" s="2">
+        <v>1</v>
+      </c>
       <c r="G26" s="3"/>
-      <c r="K26" s="3"/>
+      <c r="H26" s="2">
+        <v>1</v>
+      </c>
+      <c r="K26" s="3">
+        <v>120</v>
+      </c>
       <c r="M26" s="4"/>
-      <c r="U26" s="19"/>
-      <c r="V26" s="5"/>
+      <c r="N26" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="O26" s="2">
+        <v>1</v>
+      </c>
+      <c r="P26" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="R26" s="2">
+        <v>15</v>
+      </c>
+      <c r="S26" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="U26" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="V26" s="5" t="s">
+        <v>116</v>
+      </c>
       <c r="W26" s="5"/>
     </row>
     <row r="27" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G27" s="3"/>
-      <c r="K27" s="3"/>
+      <c r="B27" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="F27" s="2">
+        <v>1</v>
+      </c>
+      <c r="G27" s="3">
+        <v>1</v>
+      </c>
+      <c r="H27" s="2">
+        <v>1</v>
+      </c>
+      <c r="I27" s="2">
+        <v>1</v>
+      </c>
+      <c r="J27" s="2">
+        <v>1</v>
+      </c>
+      <c r="K27" s="3">
+        <v>130</v>
+      </c>
       <c r="M27" s="4"/>
-      <c r="U27" s="19"/>
-      <c r="V27" s="5"/>
+      <c r="N27" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="O27" s="2">
+        <v>1</v>
+      </c>
+      <c r="P27" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="R27" s="2">
+        <v>20</v>
+      </c>
+      <c r="U27" s="17"/>
+      <c r="V27" s="5" t="s">
+        <v>233</v>
+      </c>
       <c r="W27" s="5"/>
     </row>
     <row r="28" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G28" s="3"/>
-      <c r="K28" s="3"/>
+      <c r="B28" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1">
+        <v>1</v>
+      </c>
+      <c r="G28" s="3">
+        <v>1</v>
+      </c>
+      <c r="H28" s="1">
+        <v>1</v>
+      </c>
+      <c r="I28" s="1">
+        <v>1</v>
+      </c>
+      <c r="J28" s="1">
+        <v>1</v>
+      </c>
+      <c r="K28" s="3">
+        <v>150</v>
+      </c>
+      <c r="L28" s="1"/>
       <c r="M28" s="4"/>
-      <c r="U28" s="19"/>
-      <c r="V28" s="5"/>
+      <c r="N28" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="O28" s="1">
+        <v>1</v>
+      </c>
+      <c r="P28" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1">
+        <v>20</v>
+      </c>
+      <c r="U28" s="17"/>
+      <c r="V28" s="5" t="s">
+        <v>116</v>
+      </c>
       <c r="W28" s="5"/>
     </row>
-    <row r="30" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>38</v>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>98</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
       <c r="E30" s="2">
         <v>1</v>
       </c>
+      <c r="F30" s="2"/>
       <c r="G30" s="3">
         <v>1</v>
       </c>
@@ -2634,122 +2879,140 @@
         <v>1</v>
       </c>
       <c r="K30" s="3">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="L30" s="2">
-        <v>60</v>
-      </c>
-      <c r="M30" s="4" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="N30" s="2">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="O30" s="2">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="P30" s="2">
         <v>0.3</v>
       </c>
+      <c r="Q30" s="2"/>
       <c r="R30" s="2">
+        <v>10</v>
+      </c>
+      <c r="U30" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="V30" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="W30" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="6"/>
+      <c r="B31" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E31" s="2">
+        <v>1</v>
+      </c>
+      <c r="G31" s="3">
+        <v>1</v>
+      </c>
+      <c r="H31" s="2">
+        <v>1</v>
+      </c>
+      <c r="I31" s="2">
+        <v>1</v>
+      </c>
+      <c r="J31" s="2">
+        <v>1</v>
+      </c>
+      <c r="K31" s="3">
+        <v>30</v>
+      </c>
+      <c r="L31" s="2">
+        <v>70</v>
+      </c>
+      <c r="M31" s="4"/>
+      <c r="N31" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="O31" s="2">
+        <v>1</v>
+      </c>
+      <c r="P31" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="Q31" s="2">
         <v>15</v>
       </c>
-      <c r="U30" s="19"/>
-      <c r="V30" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="W30" s="5"/>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B31" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E31" s="1">
-        <v>1</v>
-      </c>
-      <c r="G31" s="3">
-        <v>1</v>
-      </c>
-      <c r="H31" s="1">
-        <v>1</v>
-      </c>
-      <c r="I31" s="1">
-        <v>1</v>
-      </c>
-      <c r="J31" s="1">
-        <v>1</v>
-      </c>
-      <c r="K31" s="3">
-        <v>100</v>
-      </c>
-      <c r="L31" s="1">
+      <c r="R31" s="2">
+        <v>15</v>
+      </c>
+      <c r="U31" s="17"/>
+      <c r="V31" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="W31" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="6"/>
+      <c r="B32" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E32" s="2">
+        <v>1</v>
+      </c>
+      <c r="G32" s="3">
+        <v>1</v>
+      </c>
+      <c r="H32" s="2">
+        <v>1</v>
+      </c>
+      <c r="I32" s="2">
+        <v>1</v>
+      </c>
+      <c r="J32" s="2">
+        <v>1</v>
+      </c>
+      <c r="K32" s="3">
         <v>20</v>
       </c>
-      <c r="N31" s="1">
+      <c r="L32" s="2">
+        <v>40</v>
+      </c>
+      <c r="M32" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="N32" s="2">
         <v>0.3</v>
       </c>
-      <c r="O31" s="1">
-        <v>1</v>
-      </c>
-      <c r="P31" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="R31" s="1">
-        <v>10</v>
-      </c>
-      <c r="V31" s="5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E32" s="2">
-        <v>1</v>
-      </c>
-      <c r="G32" s="3">
-        <v>1</v>
-      </c>
-      <c r="H32" s="2">
-        <v>1</v>
-      </c>
-      <c r="I32" s="2">
-        <v>1</v>
-      </c>
-      <c r="J32" s="2">
-        <v>1</v>
-      </c>
-      <c r="K32" s="3">
-        <v>60</v>
-      </c>
-      <c r="L32" s="2">
-        <v>80</v>
-      </c>
-      <c r="M32" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="N32" s="2">
-        <v>0.2</v>
-      </c>
       <c r="O32" s="2">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="P32" s="2">
         <v>0.3</v>
       </c>
+      <c r="Q32" s="2">
+        <v>10</v>
+      </c>
       <c r="R32" s="2">
         <v>10</v>
       </c>
-      <c r="U32" s="19"/>
+      <c r="U32" s="17"/>
       <c r="V32" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="W32" s="5"/>
+        <v>114</v>
+      </c>
+      <c r="W32" s="5" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="33" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="6"/>
       <c r="B33" s="2" t="s">
-        <v>111</v>
+        <v>199</v>
       </c>
       <c r="E33" s="2">
         <v>1</v>
@@ -2770,11 +3033,11 @@
         <v>80</v>
       </c>
       <c r="L33" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="M33" s="4"/>
       <c r="N33" s="2">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="O33" s="2">
         <v>1</v>
@@ -2782,109 +3045,132 @@
       <c r="P33" s="2">
         <v>0.3</v>
       </c>
+      <c r="Q33" s="2">
+        <v>15</v>
+      </c>
       <c r="R33" s="2">
         <v>15</v>
       </c>
-      <c r="U33" s="19"/>
+      <c r="U33" s="17"/>
       <c r="V33" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="W33" s="5"/>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B34" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E34" s="1">
+        <v>229</v>
+      </c>
+      <c r="W33" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="6"/>
+      <c r="B34" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E34" s="2">
         <v>1</v>
       </c>
       <c r="G34" s="3">
         <v>1</v>
       </c>
-      <c r="H34" s="1">
-        <v>1</v>
-      </c>
-      <c r="I34" s="1">
-        <v>1</v>
-      </c>
-      <c r="J34" s="1">
+      <c r="H34" s="2">
+        <v>1</v>
+      </c>
+      <c r="I34" s="2">
+        <v>1</v>
+      </c>
+      <c r="J34" s="2">
         <v>1</v>
       </c>
       <c r="K34" s="3">
+        <v>50</v>
+      </c>
+      <c r="L34" s="2">
+        <v>50</v>
+      </c>
+      <c r="M34" s="4"/>
+      <c r="N34" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="O34" s="2">
+        <v>1</v>
+      </c>
+      <c r="P34" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>12</v>
+      </c>
+      <c r="R34" s="2">
+        <v>10</v>
+      </c>
+      <c r="U34" s="17"/>
+      <c r="V34" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="W34" s="5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="6"/>
+      <c r="B35" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="2">
+        <v>1</v>
+      </c>
+      <c r="G35" s="3">
+        <v>1</v>
+      </c>
+      <c r="H35" s="2">
+        <v>1</v>
+      </c>
+      <c r="I35" s="2">
+        <v>1</v>
+      </c>
+      <c r="J35" s="2">
+        <v>1</v>
+      </c>
+      <c r="K35" s="3">
         <v>60</v>
       </c>
-      <c r="L34" s="1">
-        <v>100</v>
-      </c>
-      <c r="N34" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="O34" s="1">
-        <v>1</v>
-      </c>
-      <c r="P34" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="R34" s="1">
+      <c r="L35" s="1">
+        <v>30</v>
+      </c>
+      <c r="M35" s="4"/>
+      <c r="N35" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="O35" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="P35" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="Q35" s="1">
         <v>10</v>
       </c>
-      <c r="V34" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E35" s="2">
-        <v>1</v>
-      </c>
-      <c r="G35" s="3">
-        <v>1</v>
-      </c>
-      <c r="H35" s="2">
-        <v>1</v>
-      </c>
-      <c r="I35" s="2">
-        <v>1</v>
-      </c>
-      <c r="J35" s="2">
-        <v>1</v>
-      </c>
-      <c r="K35" s="3">
-        <v>80</v>
-      </c>
-      <c r="L35" s="2">
-        <v>80</v>
-      </c>
-      <c r="M35" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="N35" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="O35" s="2">
-        <v>1</v>
-      </c>
-      <c r="P35" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="R35" s="2">
-        <v>17</v>
-      </c>
-      <c r="U35" s="19"/>
+      <c r="R35" s="1">
+        <v>10</v>
+      </c>
+      <c r="U35" s="17"/>
       <c r="V35" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="W35" s="5"/>
-    </row>
-    <row r="36" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+      <c r="W35" s="5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B36" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F36" s="2">
-        <v>1</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2">
+        <v>1</v>
+      </c>
+      <c r="F36" s="2"/>
       <c r="G36" s="3">
         <v>1</v>
       </c>
@@ -2898,37 +3184,41 @@
         <v>1</v>
       </c>
       <c r="K36" s="3">
-        <v>160</v>
+        <v>30</v>
       </c>
       <c r="L36" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>208</v>
+        <v>51</v>
       </c>
       <c r="N36" s="2">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="O36" s="2">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="P36" s="2">
-        <v>0.6</v>
+        <v>0.3</v>
+      </c>
+      <c r="Q36" s="2">
+        <v>10</v>
       </c>
       <c r="R36" s="2">
-        <v>20</v>
-      </c>
-      <c r="U36" s="19"/>
+        <v>10</v>
+      </c>
       <c r="V36" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="W36" s="5"/>
+        <v>113</v>
+      </c>
+      <c r="W36" s="5" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="37" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F37" s="2">
+        <v>212</v>
+      </c>
+      <c r="E37" s="2">
         <v>1</v>
       </c>
       <c r="G37" s="3">
@@ -2944,38 +3234,38 @@
         <v>1</v>
       </c>
       <c r="K37" s="3">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="L37" s="2">
-        <v>130</v>
-      </c>
-      <c r="M37" s="4" t="s">
-        <v>208</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="M37" s="4"/>
       <c r="N37" s="2">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="O37" s="2">
         <v>1</v>
       </c>
       <c r="P37" s="2">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="R37" s="2">
-        <v>20</v>
-      </c>
-      <c r="U37" s="19"/>
+        <v>10</v>
+      </c>
+      <c r="U37" s="17"/>
       <c r="V37" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="W37" s="5"/>
+        <v>113</v>
+      </c>
+      <c r="W37" s="5" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="39" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="6" t="s">
-        <v>26</v>
+      <c r="A39" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="E39" s="2">
         <v>1</v>
@@ -2993,16 +3283,16 @@
         <v>1</v>
       </c>
       <c r="K39" s="3">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="L39" s="2">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="N39" s="2">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="O39" s="2">
         <v>1</v>
@@ -3010,311 +3300,284 @@
       <c r="P39" s="2">
         <v>0.3</v>
       </c>
-      <c r="Q39" s="2">
-        <v>25</v>
-      </c>
       <c r="R39" s="2">
+        <v>15</v>
+      </c>
+      <c r="U39" s="17"/>
+      <c r="V39" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="W39" s="5"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B40" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E40" s="1">
+        <v>1</v>
+      </c>
+      <c r="G40" s="3">
+        <v>1</v>
+      </c>
+      <c r="H40" s="1">
+        <v>1</v>
+      </c>
+      <c r="I40" s="1">
+        <v>1</v>
+      </c>
+      <c r="J40" s="1">
+        <v>1</v>
+      </c>
+      <c r="K40" s="3">
+        <v>100</v>
+      </c>
+      <c r="L40" s="1">
+        <v>20</v>
+      </c>
+      <c r="N40" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="O40" s="1">
+        <v>1</v>
+      </c>
+      <c r="P40" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="R40" s="1">
         <v>10</v>
       </c>
-      <c r="U39" s="19"/>
-      <c r="V39" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="W39" s="5"/>
-    </row>
-    <row r="40" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="6"/>
-      <c r="B40" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E40" s="2">
-        <v>1</v>
-      </c>
-      <c r="G40" s="3">
-        <v>1</v>
-      </c>
-      <c r="H40" s="2">
-        <v>1</v>
-      </c>
-      <c r="I40" s="2">
-        <v>1</v>
-      </c>
-      <c r="J40" s="2">
-        <v>1</v>
-      </c>
-      <c r="K40" s="3">
+      <c r="V40" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E41" s="2">
+        <v>1</v>
+      </c>
+      <c r="G41" s="3">
+        <v>1</v>
+      </c>
+      <c r="H41" s="2">
+        <v>1</v>
+      </c>
+      <c r="I41" s="2">
+        <v>1</v>
+      </c>
+      <c r="J41" s="2">
+        <v>1</v>
+      </c>
+      <c r="K41" s="3">
         <v>60</v>
       </c>
-      <c r="L40" s="2">
+      <c r="L41" s="2">
+        <v>80</v>
+      </c>
+      <c r="M41" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N41" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="O41" s="2">
+        <v>1</v>
+      </c>
+      <c r="P41" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="R41" s="2">
+        <v>10</v>
+      </c>
+      <c r="U41" s="17"/>
+      <c r="V41" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="W41" s="5"/>
+    </row>
+    <row r="42" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E42" s="2">
+        <v>1</v>
+      </c>
+      <c r="G42" s="3">
+        <v>1</v>
+      </c>
+      <c r="H42" s="2">
+        <v>1</v>
+      </c>
+      <c r="I42" s="2">
+        <v>1</v>
+      </c>
+      <c r="J42" s="2">
+        <v>1</v>
+      </c>
+      <c r="K42" s="3">
+        <v>80</v>
+      </c>
+      <c r="L42" s="2">
+        <v>80</v>
+      </c>
+      <c r="M42" s="4"/>
+      <c r="N42" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="O42" s="2">
+        <v>1</v>
+      </c>
+      <c r="P42" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="R42" s="2">
+        <v>15</v>
+      </c>
+      <c r="U42" s="17"/>
+      <c r="V42" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="W42" s="5"/>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B43" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E43" s="1">
+        <v>1</v>
+      </c>
+      <c r="G43" s="3">
+        <v>1</v>
+      </c>
+      <c r="H43" s="1">
+        <v>1</v>
+      </c>
+      <c r="I43" s="1">
+        <v>1</v>
+      </c>
+      <c r="J43" s="1">
+        <v>1</v>
+      </c>
+      <c r="K43" s="3">
         <v>60</v>
       </c>
-      <c r="M40" s="4"/>
-      <c r="N40" s="2">
+      <c r="L43" s="1">
+        <v>100</v>
+      </c>
+      <c r="N43" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="O43" s="1">
+        <v>1</v>
+      </c>
+      <c r="P43" s="1">
         <v>0.4</v>
       </c>
-      <c r="O40" s="2">
-        <v>1</v>
-      </c>
-      <c r="P40" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="Q40" s="2">
-        <v>40</v>
-      </c>
-      <c r="R40" s="2">
-        <v>15</v>
-      </c>
-      <c r="U40" s="19"/>
-      <c r="V40" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="W40" s="5"/>
-    </row>
-    <row r="41" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="6"/>
-      <c r="B41" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="F41" s="2">
-        <v>1</v>
-      </c>
-      <c r="G41" s="3"/>
-      <c r="H41" s="2">
-        <v>1</v>
-      </c>
-      <c r="I41" s="2">
-        <v>1</v>
-      </c>
-      <c r="J41" s="2">
-        <v>1</v>
-      </c>
-      <c r="K41" s="3">
-        <v>30</v>
-      </c>
-      <c r="L41" s="2">
-        <v>90</v>
-      </c>
-      <c r="M41" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="N41" s="2">
+      <c r="R43" s="1">
+        <v>10</v>
+      </c>
+      <c r="V43" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E44" s="2">
+        <v>1</v>
+      </c>
+      <c r="G44" s="3">
+        <v>1</v>
+      </c>
+      <c r="H44" s="2">
+        <v>1</v>
+      </c>
+      <c r="I44" s="2">
+        <v>1</v>
+      </c>
+      <c r="J44" s="2">
+        <v>1</v>
+      </c>
+      <c r="K44" s="3">
+        <v>80</v>
+      </c>
+      <c r="L44" s="2">
+        <v>80</v>
+      </c>
+      <c r="M44" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="N44" s="2">
         <v>0.6</v>
       </c>
-      <c r="O41" s="2">
-        <v>1</v>
-      </c>
-      <c r="P41" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="Q41" s="2">
-        <v>70</v>
-      </c>
-      <c r="R41" s="2">
+      <c r="O44" s="2">
+        <v>1</v>
+      </c>
+      <c r="P44" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="R44" s="2">
+        <v>17</v>
+      </c>
+      <c r="U44" s="17"/>
+      <c r="V44" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="W44" s="5"/>
+    </row>
+    <row r="45" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F45" s="2">
+        <v>1</v>
+      </c>
+      <c r="G45" s="3">
+        <v>1</v>
+      </c>
+      <c r="H45" s="2">
+        <v>1</v>
+      </c>
+      <c r="I45" s="2">
+        <v>1</v>
+      </c>
+      <c r="J45" s="2">
+        <v>1</v>
+      </c>
+      <c r="K45" s="3">
+        <v>160</v>
+      </c>
+      <c r="L45" s="2">
+        <v>80</v>
+      </c>
+      <c r="M45" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="N45" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="O45" s="2">
+        <v>1</v>
+      </c>
+      <c r="P45" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="R45" s="2">
         <v>20</v>
       </c>
-      <c r="U41" s="19"/>
-      <c r="V41" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="W41" s="5"/>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B42" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F42" s="1">
-        <v>1</v>
-      </c>
-      <c r="G42" s="3">
-        <v>1</v>
-      </c>
-      <c r="H42" s="1">
-        <v>1</v>
-      </c>
-      <c r="I42" s="1">
-        <v>1</v>
-      </c>
-      <c r="J42" s="1">
-        <v>1</v>
-      </c>
-      <c r="K42" s="3">
-        <v>100</v>
-      </c>
-      <c r="L42" s="1">
-        <v>50</v>
-      </c>
-      <c r="M42" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="N42" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="O42" s="1">
-        <v>1</v>
-      </c>
-      <c r="P42" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="Q42" s="1">
-        <v>60</v>
-      </c>
-      <c r="R42" s="1">
-        <v>20</v>
-      </c>
-      <c r="V42" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="6"/>
-      <c r="B43" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="E43" s="2">
-        <v>1</v>
-      </c>
-      <c r="G43" s="3">
-        <v>1</v>
-      </c>
-      <c r="H43" s="2">
-        <v>1</v>
-      </c>
-      <c r="I43" s="2">
-        <v>1</v>
-      </c>
-      <c r="J43" s="2">
-        <v>1</v>
-      </c>
-      <c r="K43" s="3">
-        <v>30</v>
-      </c>
-      <c r="L43" s="2">
-        <v>50</v>
-      </c>
-      <c r="M43" s="4"/>
-      <c r="N43" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="O43" s="2">
-        <v>1</v>
-      </c>
-      <c r="P43" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="Q43" s="2">
-        <v>10</v>
-      </c>
-      <c r="R43" s="2">
-        <v>10</v>
-      </c>
-      <c r="U43" s="19"/>
-      <c r="V43" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="W43" s="5"/>
-    </row>
-    <row r="44" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="6"/>
-      <c r="B44" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="E44" s="2">
-        <v>1</v>
-      </c>
-      <c r="G44" s="3">
-        <v>1</v>
-      </c>
-      <c r="H44" s="2">
-        <v>1</v>
-      </c>
-      <c r="I44" s="2">
-        <v>1</v>
-      </c>
-      <c r="J44" s="2">
-        <v>1</v>
-      </c>
-      <c r="K44" s="3">
-        <v>40</v>
-      </c>
-      <c r="L44" s="2">
-        <v>70</v>
-      </c>
-      <c r="M44" s="4"/>
-      <c r="N44" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="O44" s="2">
-        <v>1</v>
-      </c>
-      <c r="P44" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="Q44" s="2">
-        <v>40</v>
-      </c>
-      <c r="R44" s="2">
-        <v>10</v>
-      </c>
-      <c r="U44" s="19"/>
-      <c r="V44" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="W44" s="5"/>
-    </row>
-    <row r="45" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="6"/>
-      <c r="B45" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E45" s="2">
-        <v>1</v>
-      </c>
-      <c r="G45" s="3">
-        <v>1</v>
-      </c>
-      <c r="H45" s="2">
-        <v>1</v>
-      </c>
-      <c r="I45" s="2">
-        <v>1</v>
-      </c>
-      <c r="J45" s="2">
-        <v>1</v>
-      </c>
-      <c r="K45" s="3">
-        <v>90</v>
-      </c>
-      <c r="L45" s="2">
-        <v>20</v>
-      </c>
-      <c r="M45" s="4"/>
-      <c r="N45" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="O45" s="2">
-        <v>1</v>
-      </c>
-      <c r="P45" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="Q45" s="2">
-        <v>30</v>
-      </c>
-      <c r="R45" s="2">
-        <v>10</v>
-      </c>
-      <c r="U45" s="19"/>
+      <c r="U45" s="17"/>
       <c r="V45" s="5" t="s">
-        <v>200</v>
+        <v>116</v>
       </c>
       <c r="W45" s="5"/>
     </row>
     <row r="46" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="6"/>
       <c r="B46" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="E46" s="2">
+        <v>107</v>
+      </c>
+      <c r="F46" s="2">
         <v>1</v>
       </c>
       <c r="G46" s="3">
@@ -3333,47 +3596,39 @@
         <v>80</v>
       </c>
       <c r="L46" s="2">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="M46" s="4" t="s">
-        <v>152</v>
+        <v>188</v>
       </c>
       <c r="N46" s="2">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="O46" s="2">
         <v>1</v>
       </c>
       <c r="P46" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="Q46" s="2">
-        <v>50</v>
+        <v>0.6</v>
       </c>
       <c r="R46" s="2">
-        <v>15</v>
-      </c>
-      <c r="U46" s="5" t="s">
-        <v>207</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="U46" s="17"/>
       <c r="V46" s="5" t="s">
-        <v>200</v>
+        <v>117</v>
       </c>
       <c r="W46" s="5"/>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
+        <v>82</v>
+      </c>
       <c r="E48" s="2">
         <v>1</v>
       </c>
-      <c r="F48" s="2"/>
       <c r="G48" s="3">
         <v>1</v>
       </c>
@@ -3387,38 +3642,39 @@
         <v>1</v>
       </c>
       <c r="K48" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="L48" s="2">
         <v>30</v>
       </c>
+      <c r="M48" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="N48" s="2">
         <v>0.3</v>
       </c>
       <c r="O48" s="2">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="P48" s="2">
         <v>0.3</v>
       </c>
-      <c r="Q48" s="2"/>
+      <c r="Q48" s="2">
+        <v>25</v>
+      </c>
       <c r="R48" s="2">
         <v>10</v>
       </c>
-      <c r="U48" s="5" t="s">
-        <v>207</v>
-      </c>
+      <c r="U48" s="17"/>
       <c r="V48" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="W48" s="5" t="s">
-        <v>230</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="W48" s="5"/>
     </row>
     <row r="49" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="6"/>
       <c r="B49" s="2" t="s">
-        <v>217</v>
+        <v>128</v>
       </c>
       <c r="E49" s="2">
         <v>1</v>
@@ -3436,10 +3692,10 @@
         <v>1</v>
       </c>
       <c r="K49" s="3">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="L49" s="2">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="M49" s="4"/>
       <c r="N49" s="2">
@@ -3452,30 +3708,26 @@
         <v>0.3</v>
       </c>
       <c r="Q49" s="2">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="R49" s="2">
         <v>15</v>
       </c>
-      <c r="U49" s="19"/>
+      <c r="U49" s="17"/>
       <c r="V49" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="W49" s="5" t="s">
-        <v>218</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="W49" s="5"/>
     </row>
     <row r="50" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="6"/>
       <c r="B50" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="E50" s="2">
-        <v>1</v>
-      </c>
-      <c r="G50" s="3">
-        <v>1</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="F50" s="2">
+        <v>1</v>
+      </c>
+      <c r="G50" s="3"/>
       <c r="H50" s="2">
         <v>1</v>
       </c>
@@ -3486,91 +3738,86 @@
         <v>1</v>
       </c>
       <c r="K50" s="3">
+        <v>30</v>
+      </c>
+      <c r="L50" s="2">
+        <v>90</v>
+      </c>
+      <c r="M50" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="N50" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="O50" s="2">
+        <v>1</v>
+      </c>
+      <c r="P50" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q50" s="2">
+        <v>70</v>
+      </c>
+      <c r="R50" s="2">
         <v>20</v>
       </c>
-      <c r="L50" s="2">
-        <v>40</v>
-      </c>
-      <c r="M50" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="N50" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="O50" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="P50" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="Q50" s="2">
-        <v>10</v>
-      </c>
-      <c r="R50" s="2">
-        <v>10</v>
-      </c>
-      <c r="U50" s="19"/>
+      <c r="U50" s="17"/>
       <c r="V50" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="W50" s="5" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="51" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="6"/>
-      <c r="B51" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E51" s="2">
+        <v>177</v>
+      </c>
+      <c r="W50" s="5"/>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B51" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F51" s="1">
         <v>1</v>
       </c>
       <c r="G51" s="3">
         <v>1</v>
       </c>
-      <c r="H51" s="2">
-        <v>1</v>
-      </c>
-      <c r="I51" s="2">
-        <v>1</v>
-      </c>
-      <c r="J51" s="2">
+      <c r="H51" s="1">
+        <v>1</v>
+      </c>
+      <c r="I51" s="1">
+        <v>1</v>
+      </c>
+      <c r="J51" s="1">
         <v>1</v>
       </c>
       <c r="K51" s="3">
-        <v>80</v>
-      </c>
-      <c r="L51" s="2">
+        <v>100</v>
+      </c>
+      <c r="L51" s="1">
+        <v>50</v>
+      </c>
+      <c r="M51" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="N51" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="O51" s="1">
+        <v>1</v>
+      </c>
+      <c r="P51" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="Q51" s="1">
+        <v>60</v>
+      </c>
+      <c r="R51" s="1">
         <v>20</v>
       </c>
-      <c r="M51" s="4"/>
-      <c r="N51" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="O51" s="2">
-        <v>1</v>
-      </c>
-      <c r="P51" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="Q51" s="2">
-        <v>15</v>
-      </c>
-      <c r="R51" s="2">
-        <v>15</v>
-      </c>
-      <c r="U51" s="19"/>
       <c r="V51" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="W51" s="5" t="s">
-        <v>226</v>
+        <v>176</v>
       </c>
     </row>
     <row r="52" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="6"/>
       <c r="B52" s="2" t="s">
-        <v>221</v>
+        <v>181</v>
       </c>
       <c r="E52" s="2">
         <v>1</v>
@@ -3588,7 +3835,7 @@
         <v>1</v>
       </c>
       <c r="K52" s="3">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="L52" s="2">
         <v>50</v>
@@ -3604,26 +3851,22 @@
         <v>0.3</v>
       </c>
       <c r="Q52" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R52" s="2">
-        <v>10</v>
-      </c>
-      <c r="U52" s="19"/>
+        <v>15</v>
+      </c>
+      <c r="U52" s="17"/>
       <c r="V52" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="W52" s="5" t="s">
-        <v>227</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="W52" s="5"/>
     </row>
     <row r="53" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="6"/>
-      <c r="B53" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
+      <c r="B53" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="E53" s="2">
         <v>1</v>
       </c>
@@ -3640,45 +3883,43 @@
         <v>1</v>
       </c>
       <c r="K53" s="3">
-        <v>60</v>
-      </c>
-      <c r="L53" s="1">
-        <v>30</v>
+        <v>40</v>
+      </c>
+      <c r="L53" s="2">
+        <v>70</v>
       </c>
       <c r="M53" s="4"/>
-      <c r="N53" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="O53" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="P53" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="Q53" s="1">
-        <v>10</v>
-      </c>
-      <c r="R53" s="1">
-        <v>10</v>
-      </c>
-      <c r="U53" s="19"/>
+      <c r="N53" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="O53" s="2">
+        <v>1</v>
+      </c>
+      <c r="P53" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="Q53" s="2">
+        <v>40</v>
+      </c>
+      <c r="R53" s="2">
+        <v>15</v>
+      </c>
+      <c r="U53" s="17" t="s">
+        <v>291</v>
+      </c>
       <c r="V53" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="W53" s="5" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+      <c r="W53" s="5"/>
+    </row>
+    <row r="54" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="6"/>
       <c r="B54" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
+        <v>184</v>
+      </c>
       <c r="E54" s="2">
         <v>1</v>
       </c>
-      <c r="F54" s="2"/>
       <c r="G54" s="3">
         <v>1</v>
       </c>
@@ -3692,39 +3933,37 @@
         <v>1</v>
       </c>
       <c r="K54" s="3">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="L54" s="2">
-        <v>40</v>
-      </c>
-      <c r="M54" s="4" t="s">
-        <v>53</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="M54" s="4"/>
       <c r="N54" s="2">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="O54" s="2">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="P54" s="2">
         <v>0.3</v>
       </c>
       <c r="Q54" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="R54" s="2">
-        <v>10</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="U54" s="17"/>
       <c r="V54" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="W54" s="5" t="s">
-        <v>229</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="W54" s="5"/>
     </row>
     <row r="55" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="6"/>
       <c r="B55" s="2" t="s">
-        <v>232</v>
+        <v>185</v>
       </c>
       <c r="E55" s="2">
         <v>1</v>
@@ -3742,266 +3981,561 @@
         <v>1</v>
       </c>
       <c r="K55" s="3">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="L55" s="2">
-        <v>30</v>
-      </c>
-      <c r="M55" s="4"/>
+        <v>60</v>
+      </c>
+      <c r="M55" s="4" t="s">
+        <v>135</v>
+      </c>
       <c r="N55" s="2">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="O55" s="2">
         <v>1</v>
       </c>
       <c r="P55" s="2">
-        <v>0.3</v>
+        <v>0.5</v>
+      </c>
+      <c r="Q55" s="2">
+        <v>50</v>
       </c>
       <c r="R55" s="2">
-        <v>10</v>
-      </c>
-      <c r="U55" s="19"/>
+        <v>20</v>
+      </c>
+      <c r="U55" s="5" t="s">
+        <v>187</v>
+      </c>
       <c r="V55" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="W55" s="5" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="57" spans="1:23" ht="57" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E57" s="1">
-        <v>1</v>
-      </c>
-      <c r="G57" s="3">
-        <v>1</v>
-      </c>
-      <c r="I57" s="1">
-        <v>1</v>
-      </c>
-      <c r="J57" s="1">
-        <v>1</v>
-      </c>
-      <c r="M57" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="N57" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="O57" s="1">
-        <v>1</v>
-      </c>
-      <c r="P57" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="Q57" s="1">
-        <v>10</v>
-      </c>
-      <c r="R57" s="1">
-        <v>10</v>
-      </c>
-      <c r="U57" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="V57" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="58" spans="1:23" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E58" s="1">
-        <v>1</v>
-      </c>
-      <c r="G58" s="3">
-        <v>1</v>
-      </c>
-      <c r="H58" s="1">
-        <v>1</v>
-      </c>
-      <c r="I58" s="1">
-        <v>1</v>
-      </c>
-      <c r="J58" s="1">
-        <v>1</v>
-      </c>
-      <c r="K58" s="3">
-        <v>10</v>
-      </c>
-      <c r="L58" s="1">
-        <v>20</v>
-      </c>
-      <c r="N58" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="O58" s="1">
-        <v>1</v>
-      </c>
-      <c r="P58" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="R58" s="1">
-        <v>10</v>
-      </c>
-      <c r="T58" s="2">
-        <v>30</v>
-      </c>
-      <c r="U58" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="V58" s="5" t="s">
-        <v>77</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="W55" s="5"/>
+    </row>
+    <row r="56" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="6"/>
+      <c r="G56" s="3"/>
+      <c r="K56" s="3"/>
+      <c r="M56" s="4"/>
+      <c r="U56" s="5"/>
+      <c r="V56" s="5"/>
+      <c r="W56" s="5"/>
+    </row>
+    <row r="57" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="G57" s="3"/>
+      <c r="K57" s="3"/>
+      <c r="M57" s="4"/>
+      <c r="U57" s="5"/>
+      <c r="V57" s="5"/>
+      <c r="W57" s="5"/>
+    </row>
+    <row r="58" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="6"/>
+      <c r="G58" s="3"/>
+      <c r="K58" s="3"/>
+      <c r="M58" s="4"/>
+      <c r="U58" s="5"/>
+      <c r="V58" s="5"/>
+      <c r="W58" s="5"/>
     </row>
     <row r="59" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E59" s="2">
-        <v>1</v>
-      </c>
-      <c r="G59" s="3">
-        <v>1</v>
-      </c>
-      <c r="H59" s="2">
-        <v>1</v>
-      </c>
-      <c r="I59" s="2">
-        <v>1</v>
-      </c>
-      <c r="J59" s="2">
-        <v>1</v>
-      </c>
+      <c r="A59" s="6"/>
+      <c r="G59" s="3"/>
       <c r="K59" s="3"/>
-      <c r="L59" s="2">
-        <v>50</v>
-      </c>
       <c r="M59" s="4"/>
-      <c r="N59" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="O59" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="P59" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="R59" s="2">
-        <v>10</v>
-      </c>
-      <c r="U59" s="19"/>
-      <c r="V59" s="5" t="s">
-        <v>78</v>
-      </c>
+      <c r="U59" s="5"/>
+      <c r="V59" s="5"/>
       <c r="W59" s="5"/>
     </row>
+    <row r="60" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="6"/>
+      <c r="G60" s="3"/>
+      <c r="K60" s="3"/>
+      <c r="M60" s="4"/>
+      <c r="U60" s="5"/>
+      <c r="V60" s="5"/>
+      <c r="W60" s="5"/>
+    </row>
     <row r="61" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="6"/>
       <c r="G61" s="3"/>
       <c r="K61" s="3"/>
       <c r="M61" s="4"/>
-      <c r="U61" s="19"/>
+      <c r="U61" s="5"/>
       <c r="V61" s="5"/>
       <c r="W61" s="5"/>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A62" s="6" t="s">
+    <row r="62" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="6"/>
+      <c r="G62" s="3"/>
+      <c r="K62" s="3"/>
+      <c r="M62" s="4"/>
+      <c r="U62" s="5"/>
+      <c r="V62" s="5"/>
+      <c r="W62" s="5"/>
+    </row>
+    <row r="63" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="6"/>
+      <c r="G63" s="3"/>
+      <c r="K63" s="3"/>
+      <c r="M63" s="4"/>
+      <c r="U63" s="5"/>
+      <c r="V63" s="5"/>
+      <c r="W63" s="5"/>
+    </row>
+    <row r="65" spans="1:23" ht="57" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E65" s="1">
+        <v>1</v>
+      </c>
+      <c r="G65" s="3">
+        <v>1</v>
+      </c>
+      <c r="I65" s="1">
+        <v>1</v>
+      </c>
+      <c r="J65" s="1">
+        <v>1</v>
+      </c>
+      <c r="M65" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="N65" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="O65" s="1">
+        <v>1</v>
+      </c>
+      <c r="P65" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="Q65" s="1">
+        <v>10</v>
+      </c>
+      <c r="R65" s="1">
+        <v>20</v>
+      </c>
+      <c r="T65" s="2">
+        <v>10</v>
+      </c>
+      <c r="U65" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="V65" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B66" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E66" s="1">
+        <v>1</v>
+      </c>
+      <c r="G66" s="3">
+        <v>1</v>
+      </c>
+      <c r="H66" s="1">
+        <v>1</v>
+      </c>
+      <c r="I66" s="1">
+        <v>1</v>
+      </c>
+      <c r="J66" s="1">
+        <v>1</v>
+      </c>
+      <c r="K66" s="3">
+        <v>20</v>
+      </c>
+      <c r="L66" s="1">
+        <v>40</v>
+      </c>
+      <c r="N66" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="O66" s="1">
+        <v>1</v>
+      </c>
+      <c r="P66" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="R66" s="1">
+        <v>10</v>
+      </c>
+      <c r="T66" s="2">
         <v>30</v>
       </c>
-      <c r="B62" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="G62" s="3">
-        <v>1</v>
-      </c>
-      <c r="H62" s="1">
-        <v>1</v>
-      </c>
-      <c r="I62" s="1">
-        <v>1</v>
-      </c>
-      <c r="J62" s="1">
-        <v>1</v>
-      </c>
-      <c r="L62" s="1">
+      <c r="U66" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="V66" s="5" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E67" s="2">
+        <v>1</v>
+      </c>
+      <c r="G67" s="3">
+        <v>1</v>
+      </c>
+      <c r="H67" s="2">
+        <v>1</v>
+      </c>
+      <c r="I67" s="2">
+        <v>1</v>
+      </c>
+      <c r="J67" s="2">
+        <v>1</v>
+      </c>
+      <c r="K67" s="3"/>
+      <c r="L67" s="2">
         <v>30</v>
       </c>
-      <c r="M62" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="N62" s="1">
+      <c r="M67" s="4"/>
+      <c r="N67" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="O67" s="2">
         <v>0.9</v>
       </c>
-      <c r="O62" s="1">
+      <c r="P67" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="R67" s="2">
+        <v>10</v>
+      </c>
+      <c r="T67" s="2">
+        <v>10</v>
+      </c>
+      <c r="U67" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="V67" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="W67" s="5"/>
+    </row>
+    <row r="68" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E68" s="2">
+        <v>1</v>
+      </c>
+      <c r="G68" s="3">
+        <v>1</v>
+      </c>
+      <c r="H68" s="2">
+        <v>1</v>
+      </c>
+      <c r="I68" s="2">
+        <v>1</v>
+      </c>
+      <c r="J68" s="2">
+        <v>1</v>
+      </c>
+      <c r="K68" s="3">
+        <v>30</v>
+      </c>
+      <c r="L68" s="2">
+        <v>20</v>
+      </c>
+      <c r="M68" s="4"/>
+      <c r="N68" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="O68" s="2">
+        <v>1</v>
+      </c>
+      <c r="P68" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="R68" s="2">
+        <v>10</v>
+      </c>
+      <c r="T68" s="2">
+        <v>20</v>
+      </c>
+      <c r="U68" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="V68" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="W68" s="5"/>
+    </row>
+    <row r="69" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="F69" s="2">
+        <v>1</v>
+      </c>
+      <c r="G69" s="3">
+        <v>1</v>
+      </c>
+      <c r="H69" s="2">
+        <v>1</v>
+      </c>
+      <c r="I69" s="2">
+        <v>1</v>
+      </c>
+      <c r="J69" s="2">
+        <v>1</v>
+      </c>
+      <c r="K69" s="3">
+        <v>50</v>
+      </c>
+      <c r="L69" s="2">
+        <v>50</v>
+      </c>
+      <c r="M69" s="4"/>
+      <c r="N69" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="O69" s="2">
+        <v>1</v>
+      </c>
+      <c r="P69" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="R69" s="2">
+        <v>20</v>
+      </c>
+      <c r="T69" s="2">
+        <v>10</v>
+      </c>
+      <c r="U69" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="V69" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="W69" s="5"/>
+    </row>
+    <row r="70" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B70" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E70" s="2">
+        <v>1</v>
+      </c>
+      <c r="G70" s="3">
+        <v>1</v>
+      </c>
+      <c r="H70" s="2">
+        <v>1</v>
+      </c>
+      <c r="I70" s="2">
+        <v>1</v>
+      </c>
+      <c r="J70" s="2">
+        <v>1</v>
+      </c>
+      <c r="K70" s="3"/>
+      <c r="L70" s="2">
+        <v>40</v>
+      </c>
+      <c r="M70" s="4"/>
+      <c r="N70" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="O70" s="2">
+        <v>1</v>
+      </c>
+      <c r="P70" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="R70" s="2">
+        <v>10</v>
+      </c>
+      <c r="T70" s="2">
+        <v>20</v>
+      </c>
+      <c r="U70" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="V70" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="W70" s="5"/>
+    </row>
+    <row r="71" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E71" s="2">
+        <v>1</v>
+      </c>
+      <c r="G71" s="3">
+        <v>1</v>
+      </c>
+      <c r="H71" s="2">
+        <v>1</v>
+      </c>
+      <c r="I71" s="2">
+        <v>1</v>
+      </c>
+      <c r="J71" s="2">
+        <v>1</v>
+      </c>
+      <c r="K71" s="3"/>
+      <c r="M71" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="N71" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="O71" s="2">
+        <v>1</v>
+      </c>
+      <c r="P71" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="R71" s="2">
+        <v>17</v>
+      </c>
+      <c r="T71" s="2">
+        <v>30</v>
+      </c>
+      <c r="U71" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="V71" s="5"/>
+      <c r="W71" s="5"/>
+    </row>
+    <row r="72" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G72" s="3"/>
+      <c r="K72" s="3"/>
+      <c r="M72" s="4"/>
+      <c r="U72" s="17"/>
+      <c r="V72" s="5"/>
+      <c r="W72" s="5"/>
+    </row>
+    <row r="73" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G73" s="3"/>
+      <c r="K73" s="3"/>
+      <c r="M73" s="4"/>
+      <c r="U73" s="17"/>
+      <c r="V73" s="5"/>
+      <c r="W73" s="5"/>
+    </row>
+    <row r="75" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G75" s="3"/>
+      <c r="K75" s="3"/>
+      <c r="M75" s="4"/>
+      <c r="U75" s="17"/>
+      <c r="V75" s="5"/>
+      <c r="W75" s="5"/>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A76" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G76" s="3">
+        <v>1</v>
+      </c>
+      <c r="H76" s="1">
+        <v>1</v>
+      </c>
+      <c r="I76" s="1">
+        <v>1</v>
+      </c>
+      <c r="J76" s="1">
+        <v>1</v>
+      </c>
+      <c r="L76" s="1">
+        <v>30</v>
+      </c>
+      <c r="M76" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="N76" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="O76" s="1">
         <v>2</v>
       </c>
-      <c r="P62" s="1">
+      <c r="P76" s="1">
         <v>0.5</v>
       </c>
-      <c r="R62" s="1">
+      <c r="R76" s="1">
         <v>10</v>
       </c>
-      <c r="U62" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="V62" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B63" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D63" s="1">
-        <v>1</v>
-      </c>
-      <c r="G63" s="3">
-        <v>1</v>
-      </c>
-      <c r="H63" s="1">
-        <v>1</v>
-      </c>
-      <c r="K63" s="3">
+      <c r="U76" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="V76" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B77" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D77" s="1">
+        <v>1</v>
+      </c>
+      <c r="G77" s="3">
+        <v>1</v>
+      </c>
+      <c r="H77" s="1">
+        <v>1</v>
+      </c>
+      <c r="K77" s="3">
         <v>50</v>
       </c>
-      <c r="M63" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="N63" s="1">
+      <c r="M77" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="N77" s="1">
         <v>0.3</v>
       </c>
-      <c r="O63" s="1">
+      <c r="O77" s="1">
         <v>0.8</v>
       </c>
-      <c r="P63" s="1">
+      <c r="P77" s="1">
         <v>0.2</v>
       </c>
-      <c r="R63" s="1">
+      <c r="R77" s="1">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="W1:W2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="K1:L1048576">
@@ -4067,13 +4601,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01B6F42B-4BB2-402E-8EF0-FC889EE96737}">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
+      <selection pane="bottomRight" activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4083,15 +4617,13 @@
     <col min="3" max="3" width="9" style="6"/>
     <col min="4" max="4" width="5.125" style="8" customWidth="1"/>
     <col min="5" max="5" width="5.125" style="11" customWidth="1"/>
-    <col min="6" max="6" width="5.75" style="8" customWidth="1"/>
-    <col min="7" max="7" width="5.75" style="13" customWidth="1"/>
-    <col min="8" max="8" width="11" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.5" style="27" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.375" customWidth="1"/>
-    <col min="11" max="11" width="29" customWidth="1"/>
+    <col min="6" max="6" width="11" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.5" style="25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.375" customWidth="1"/>
+    <col min="9" max="9" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4099,30 +4631,26 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="36" t="s">
+      <c r="E1" s="35"/>
+      <c r="F1" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="38"/>
-      <c r="H1" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="I1" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -4132,65 +4660,45 @@
       <c r="E2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="25"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G2" s="23"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="8">
         <v>1</v>
       </c>
-      <c r="F3" s="8">
-        <v>1</v>
-      </c>
-      <c r="G3" s="13">
-        <v>1</v>
-      </c>
-      <c r="I3" s="26"/>
-      <c r="J3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G3" s="24"/>
+      <c r="H3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="8">
         <v>1</v>
       </c>
-      <c r="F4" s="8">
-        <v>1</v>
-      </c>
-      <c r="G4" s="13">
-        <v>1</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="I4" t="s">
-        <v>164</v>
-      </c>
-      <c r="J4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F4" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4"/>
+      <c r="H4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="6" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="8">
@@ -4199,23 +4707,17 @@
       <c r="E5" s="11">
         <v>1</v>
       </c>
-      <c r="F5" s="8">
-        <v>1</v>
-      </c>
-      <c r="G5" s="13">
-        <v>1</v>
-      </c>
-      <c r="I5" s="28" t="s">
-        <v>238</v>
-      </c>
-      <c r="J5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G5" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="H5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="8">
@@ -4224,23 +4726,17 @@
       <c r="E6" s="11">
         <v>1</v>
       </c>
-      <c r="F6" s="8">
-        <v>1</v>
-      </c>
-      <c r="G6" s="13">
-        <v>1</v>
-      </c>
-      <c r="I6" s="28" t="s">
-        <v>237</v>
-      </c>
-      <c r="J6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G6" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="H6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="8">
@@ -4249,360 +4745,429 @@
       <c r="E7" s="11">
         <v>1</v>
       </c>
-      <c r="F7" s="8">
-        <v>1</v>
-      </c>
-      <c r="G7" s="13">
-        <v>1</v>
-      </c>
-      <c r="I7" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="J7" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G7" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="H7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="8">
         <v>1</v>
       </c>
-      <c r="F8" s="8">
-        <v>1</v>
-      </c>
-      <c r="G8" s="13">
-        <v>1</v>
-      </c>
-      <c r="I8" s="26"/>
-      <c r="J8" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G8" s="24"/>
+      <c r="H8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
-      <c r="I9" s="26"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G9" s="24"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D11" s="8">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B12" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D12" s="8">
+        <v>1</v>
+      </c>
+      <c r="E12" s="11">
+        <v>1</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B13" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D13" s="8">
+        <v>1</v>
+      </c>
+      <c r="E13" s="11">
+        <v>1</v>
+      </c>
+      <c r="G13" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="H13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B14" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D14" s="8">
+        <v>1</v>
+      </c>
+      <c r="E14" s="11">
+        <v>1</v>
+      </c>
+      <c r="G14" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="H14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B15" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D15" s="8">
+        <v>1</v>
+      </c>
+      <c r="E15" s="28">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>116</v>
+      </c>
+      <c r="H15" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E16" s="28"/>
+      <c r="G16"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="D17" s="8">
+        <v>1</v>
+      </c>
+      <c r="E17" s="28"/>
+      <c r="G17"/>
+      <c r="H17" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B18" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="D18" s="8">
+        <v>1</v>
+      </c>
+      <c r="E18" s="28">
+        <v>1</v>
+      </c>
+      <c r="G18"/>
+      <c r="H18" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B19" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="D19" s="8">
+        <v>1</v>
+      </c>
+      <c r="E19" s="28">
+        <v>1</v>
+      </c>
+      <c r="G19"/>
+      <c r="H19" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E20" s="28"/>
+      <c r="G20"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="D21" s="8">
+        <v>1</v>
+      </c>
+      <c r="E21" s="28">
+        <v>1</v>
+      </c>
+      <c r="G21"/>
+      <c r="H21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B22" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="D22" s="8">
+        <v>1</v>
+      </c>
+      <c r="E22" s="28">
+        <v>1</v>
+      </c>
+      <c r="G22"/>
+      <c r="H22" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B23" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="D23" s="8">
+        <v>1</v>
+      </c>
+      <c r="E23" s="28">
+        <v>1</v>
+      </c>
+      <c r="G23"/>
+      <c r="H23" s="25" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E24" s="28"/>
+      <c r="G24"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D25" s="8">
+        <v>1</v>
+      </c>
+      <c r="E25" s="11">
+        <v>1</v>
+      </c>
+      <c r="H25" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B26" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="D26" s="8">
+        <v>1</v>
+      </c>
+      <c r="E26" s="11">
+        <v>1</v>
+      </c>
+      <c r="H26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B27" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="D27" s="8">
+        <v>1</v>
+      </c>
+      <c r="E27" s="11">
+        <v>1</v>
+      </c>
+      <c r="H27" s="25" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B28" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D28" s="8">
+        <v>1</v>
+      </c>
+      <c r="E28" s="11">
+        <v>1</v>
+      </c>
+      <c r="H28" s="25" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G29" s="27"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="D11" s="8">
-        <v>1</v>
-      </c>
-      <c r="F11" s="8">
-        <v>1</v>
-      </c>
-      <c r="G11" s="13">
-        <v>1</v>
-      </c>
-      <c r="J11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B12" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="D12" s="8">
-        <v>1</v>
-      </c>
-      <c r="E12" s="11">
-        <v>1</v>
-      </c>
-      <c r="F12" s="8">
-        <v>1</v>
-      </c>
-      <c r="G12" s="13">
-        <v>1</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="J12" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B13" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="D13" s="8">
-        <v>1</v>
-      </c>
-      <c r="E13" s="11">
-        <v>1</v>
-      </c>
-      <c r="F13" s="8">
-        <v>1</v>
-      </c>
-      <c r="G13" s="13">
-        <v>1</v>
-      </c>
-      <c r="I13" s="29" t="s">
-        <v>148</v>
-      </c>
-      <c r="J13" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B14" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="D14" s="8">
-        <v>1</v>
-      </c>
-      <c r="E14" s="11">
-        <v>1</v>
-      </c>
-      <c r="F14" s="8">
-        <v>1</v>
-      </c>
-      <c r="G14" s="13">
-        <v>1</v>
-      </c>
-      <c r="I14" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="J14" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B15" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="D15" s="8">
-        <v>1</v>
-      </c>
-      <c r="E15" s="30">
-        <v>1</v>
-      </c>
-      <c r="F15" s="8">
-        <v>1</v>
-      </c>
-      <c r="G15" s="13">
-        <v>1</v>
-      </c>
-      <c r="I15" t="s">
-        <v>132</v>
-      </c>
-      <c r="J15" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I16" s="29"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D18" s="8">
-        <v>1</v>
-      </c>
-      <c r="F18" s="8">
-        <v>1</v>
-      </c>
-      <c r="G18" s="13">
-        <v>1</v>
-      </c>
-      <c r="J18" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B19" s="6" t="s">
+      <c r="B30" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30" s="8">
+        <v>1</v>
+      </c>
+      <c r="H30" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B31" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D31" s="8">
+        <v>1</v>
+      </c>
+      <c r="E31" s="11">
+        <v>1</v>
+      </c>
+      <c r="H31" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B32" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D32" s="8">
+        <v>1</v>
+      </c>
+      <c r="E32" s="11">
+        <v>1</v>
+      </c>
+      <c r="H32" t="s">
         <v>114</v>
       </c>
-      <c r="D19" s="8">
-        <v>1</v>
-      </c>
-      <c r="E19" s="11">
-        <v>1</v>
-      </c>
-      <c r="F19" s="8">
-        <v>1</v>
-      </c>
-      <c r="G19" s="13">
-        <v>1</v>
-      </c>
-      <c r="J19" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B20" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="D20" s="8">
-        <v>1</v>
-      </c>
-      <c r="E20" s="11">
-        <v>1</v>
-      </c>
-      <c r="F20" s="8">
-        <v>1</v>
-      </c>
-      <c r="G20" s="13">
-        <v>1</v>
-      </c>
-      <c r="J20" t="s">
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B33" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D33" s="8">
+        <v>1</v>
+      </c>
+      <c r="E33" s="11">
+        <v>1</v>
+      </c>
+      <c r="G33" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="H33" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="D36" s="8">
+        <v>1</v>
+      </c>
+      <c r="E36" s="11">
+        <v>1</v>
+      </c>
+      <c r="G36" s="25" t="s">
+        <v>289</v>
+      </c>
+      <c r="H36" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B37" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="D37" s="8">
+        <v>1</v>
+      </c>
+      <c r="E37" s="28">
+        <v>1</v>
+      </c>
+      <c r="G37" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="H37" s="25" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B38" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="D38" s="8">
+        <v>1</v>
+      </c>
+      <c r="E38" s="28"/>
+      <c r="H38" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B21" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="D21" s="8">
-        <v>1</v>
-      </c>
-      <c r="E21" s="11">
-        <v>1</v>
-      </c>
-      <c r="F21" s="8">
-        <v>1</v>
-      </c>
-      <c r="G21" s="13">
-        <v>1</v>
-      </c>
-      <c r="I21" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="J21" t="s">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B39" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="D39" s="8">
+        <v>1</v>
+      </c>
+      <c r="G39" t="s">
+        <v>134</v>
+      </c>
+      <c r="H39" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B40" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="D40" s="8">
+        <v>1</v>
+      </c>
+      <c r="E40" s="11">
+        <v>1</v>
+      </c>
+      <c r="G40" s="25" t="s">
+        <v>290</v>
+      </c>
+      <c r="H40" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="D24" s="8">
-        <v>1</v>
-      </c>
-      <c r="E24" s="11">
-        <v>1</v>
-      </c>
-      <c r="F24" s="8">
-        <v>1</v>
-      </c>
-      <c r="G24" s="13">
-        <v>1</v>
-      </c>
-      <c r="I24" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="J24" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="D27" s="8">
-        <v>1</v>
-      </c>
-      <c r="E27" s="11">
-        <v>1</v>
-      </c>
-      <c r="F27" s="8">
-        <v>1</v>
-      </c>
-      <c r="G27" s="11">
-        <v>1</v>
-      </c>
-      <c r="J27" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B28" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="D28" s="8">
-        <v>1</v>
-      </c>
-      <c r="E28" s="11">
-        <v>1</v>
-      </c>
-      <c r="F28" s="8">
-        <v>1</v>
-      </c>
-      <c r="G28" s="11">
-        <v>1</v>
-      </c>
-      <c r="J28" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B29" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="D29" s="8">
-        <v>1</v>
-      </c>
-      <c r="E29" s="11">
-        <v>1</v>
-      </c>
-      <c r="F29" s="8">
-        <v>1</v>
-      </c>
-      <c r="G29" s="11">
-        <v>1</v>
-      </c>
-      <c r="J29" s="27" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B30" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="D30" s="8">
-        <v>1</v>
-      </c>
-      <c r="E30" s="11">
-        <v>1</v>
-      </c>
-      <c r="F30" s="8">
-        <v>1</v>
-      </c>
-      <c r="G30" s="13">
-        <v>1</v>
-      </c>
-      <c r="J30" s="27" t="s">
-        <v>240</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4611,24 +5176,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54D9C67E-4237-478B-81E0-48BC15B60241}">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H38" sqref="H38"/>
+      <selection pane="bottomRight" activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="6"/>
     <col min="2" max="2" width="15.375" style="6" customWidth="1"/>
-    <col min="4" max="4" width="9" style="14"/>
-    <col min="5" max="5" width="11" style="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29" style="27" customWidth="1"/>
+    <col min="4" max="4" width="9" style="12"/>
+    <col min="5" max="5" width="11" style="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29" style="25" customWidth="1"/>
     <col min="7" max="7" width="30.375" customWidth="1"/>
-    <col min="8" max="8" width="34" style="24" customWidth="1"/>
+    <col min="8" max="8" width="34" style="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -4639,22 +5204,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>71</v>
+        <v>140</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>69</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="23" t="s">
-        <v>50</v>
+      <c r="H1" s="21" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -4662,90 +5227,90 @@
       <c r="B2" s="2"/>
       <c r="C2" s="1"/>
       <c r="D2" s="3"/>
-      <c r="F2" s="25"/>
+      <c r="F2" s="23"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="3">
         <v>5</v>
       </c>
-      <c r="E3" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="F3" s="26"/>
+      <c r="E3" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="24"/>
       <c r="G3" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="3">
         <v>5</v>
       </c>
-      <c r="F4" s="26"/>
+      <c r="F4" s="24"/>
       <c r="G4" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="3">
         <v>10</v>
       </c>
-      <c r="E5" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" s="26"/>
+      <c r="E5" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="24"/>
       <c r="G5" t="s">
-        <v>129</v>
-      </c>
-      <c r="H5" s="24" t="s">
-        <v>179</v>
+        <v>113</v>
+      </c>
+      <c r="H5" s="22" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="3">
         <v>15</v>
       </c>
-      <c r="E6" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="F6" s="26"/>
+      <c r="E6" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="F6" s="24"/>
       <c r="G6" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="3"/>
-      <c r="F7" s="26"/>
+      <c r="F7" s="24"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="3"/>
-      <c r="F8" s="26"/>
+      <c r="F8" s="24"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B9" s="2"/>
@@ -4754,217 +5319,337 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="D11" s="14">
+        <v>85</v>
+      </c>
+      <c r="D11" s="12">
         <v>20</v>
       </c>
-      <c r="E11" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="F11" s="27" t="s">
-        <v>155</v>
+      <c r="E11" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>138</v>
       </c>
       <c r="G11" t="s">
-        <v>130</v>
-      </c>
-      <c r="H11" s="24" t="s">
-        <v>156</v>
+        <v>114</v>
+      </c>
+      <c r="H11" s="22" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B12" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="D12" s="14">
+        <v>123</v>
+      </c>
+      <c r="D12" s="12">
         <v>5</v>
       </c>
       <c r="G12" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B13" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="D13" s="14">
+        <v>137</v>
+      </c>
+      <c r="D13" s="12">
         <v>5</v>
       </c>
       <c r="G13" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="D16" s="14">
-        <v>15</v>
-      </c>
-      <c r="F16" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="G16" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="H16" s="24" t="s">
-        <v>128</v>
+        <v>242</v>
+      </c>
+      <c r="D16" s="12">
+        <v>5</v>
+      </c>
+      <c r="G16" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B17" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="D17" s="14">
+        <v>244</v>
+      </c>
+      <c r="D17" s="12">
         <v>5</v>
       </c>
-      <c r="E17" s="21" t="s">
-        <v>53</v>
-      </c>
       <c r="G17" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B18" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="D18" s="14">
+        <v>250</v>
+      </c>
+      <c r="D18" s="12">
         <v>5</v>
       </c>
-      <c r="F18" s="27" t="s">
-        <v>127</v>
-      </c>
       <c r="G18" t="s">
-        <v>130</v>
-      </c>
-      <c r="H18" s="24" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B19" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="D19" s="14">
+        <v>247</v>
+      </c>
+      <c r="D19" s="12">
+        <v>20</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="G19" t="s">
+        <v>114</v>
+      </c>
+      <c r="H19" s="22" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="D21" s="12">
         <v>5</v>
       </c>
-      <c r="G19" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B20" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="D20" s="14">
+      <c r="G21" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B22" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="D22" s="12">
         <v>5</v>
       </c>
-      <c r="G20" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B21" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="D21" s="14">
+      <c r="G22" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B23" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="D23" s="12">
         <v>5</v>
       </c>
-      <c r="E21" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="F21" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="G21" t="s">
-        <v>93</v>
+      <c r="G23" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B24" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
-        <v>26</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="D24" s="12">
+        <v>5</v>
+      </c>
+      <c r="G24" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D26" s="12">
+        <v>5</v>
+      </c>
+      <c r="G26" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B27" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="D27" s="14">
+        <v>193</v>
+      </c>
+      <c r="D27" s="12">
         <v>5</v>
       </c>
-      <c r="F27" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="G27" s="24" t="s">
-        <v>203</v>
+      <c r="G27" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B28" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="D28" s="14">
+        <v>196</v>
+      </c>
+      <c r="D28" s="12">
         <v>5</v>
       </c>
       <c r="G28" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B29" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="D29" s="12">
+        <v>5</v>
+      </c>
+      <c r="G29" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="D31" s="14">
-        <v>5</v>
-      </c>
-      <c r="G31" t="s">
-        <v>129</v>
+        <v>101</v>
+      </c>
+      <c r="D31" s="12">
+        <v>15</v>
+      </c>
+      <c r="F31" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="G31" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="H31" s="22" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B32" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="D32" s="14">
+        <v>102</v>
+      </c>
+      <c r="D32" s="12">
         <v>5</v>
       </c>
+      <c r="E32" s="19" t="s">
+        <v>51</v>
+      </c>
       <c r="G32" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B33" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="D33" s="14">
+        <v>104</v>
+      </c>
+      <c r="D33" s="12">
         <v>5</v>
       </c>
+      <c r="F33" s="25" t="s">
+        <v>111</v>
+      </c>
       <c r="G33" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+      <c r="H33" s="22" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B34" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="D34" s="14">
+        <v>108</v>
+      </c>
+      <c r="D34" s="12">
         <v>5</v>
       </c>
       <c r="G34" t="s">
-        <v>166</v>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B35" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D35" s="12">
+        <v>5</v>
+      </c>
+      <c r="G35" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B36" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D36" s="12">
+        <v>5</v>
+      </c>
+      <c r="E36" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F36" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="G36" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="D38" s="12">
+        <v>5</v>
+      </c>
+      <c r="F38" s="22" t="s">
+        <v>282</v>
+      </c>
+      <c r="G38" s="22" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B39" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D39" s="12">
+        <v>20</v>
+      </c>
+      <c r="E39" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="F39" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="G39" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B40" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="D40" s="12">
+        <v>5</v>
+      </c>
+      <c r="G40" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B47" s="6" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -4976,13 +5661,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60A858D4-5BEF-44D4-8A9F-866174BC0619}">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D24" sqref="D24"/>
+      <selection pane="bottomRight" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4990,7 +5675,7 @@
     <col min="1" max="1" width="9" style="6"/>
     <col min="2" max="2" width="11" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="6"/>
-    <col min="4" max="4" width="56.125" style="32" customWidth="1"/>
+    <col min="4" max="4" width="56.125" style="30" customWidth="1"/>
     <col min="5" max="5" width="30.375" style="6" customWidth="1"/>
     <col min="6" max="16384" width="9" style="6"/>
   </cols>
@@ -5003,10 +5688,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>46</v>
+        <v>43</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>45</v>
       </c>
       <c r="E1" s="10"/>
     </row>
@@ -5015,26 +5700,26 @@
         <v>35</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="D2" s="32" t="s">
-        <v>175</v>
+        <v>152</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="D3" s="32" t="s">
-        <v>174</v>
+        <v>155</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="D4" s="31" t="s">
-        <v>177</v>
+        <v>158</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -5042,176 +5727,224 @@
         <v>25</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="31" t="s">
-        <v>58</v>
+      <c r="D6" s="29" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="31" t="s">
-        <v>162</v>
+      <c r="D7" s="29" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="31" t="s">
-        <v>119</v>
+      <c r="D8" s="29" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="32" t="s">
-        <v>57</v>
+        <v>54</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="31"/>
+      <c r="D10" s="29"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+      <c r="A11" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="29" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
-        <v>38</v>
-      </c>
       <c r="B12" s="2" t="s">
-        <v>102</v>
+        <v>253</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="D12" s="32" t="s">
-        <v>103</v>
+      <c r="D12" s="29" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>104</v>
+        <v>255</v>
       </c>
       <c r="C13" s="2"/>
-      <c r="D13" s="31" t="s">
-        <v>106</v>
+      <c r="D13" s="29" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="32" t="s">
-        <v>107</v>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="30" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" s="31" t="s">
-        <v>63</v>
+      <c r="B16" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="30" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B17" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="D17" s="31" t="s">
-        <v>189</v>
+        <v>73</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="D18" s="31" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B19" s="6" t="s">
+      <c r="D19" s="30" t="s">
         <v>191</v>
       </c>
-      <c r="D19" s="32" t="s">
-        <v>177</v>
-      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D20" s="31"/>
+      <c r="B20" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B21" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D22" s="31" t="s">
-        <v>85</v>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="30" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D24" s="32" t="s">
-        <v>82</v>
+      <c r="B24" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="29" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B25" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D25" s="32" t="s">
-        <v>84</v>
+      <c r="B25" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="30" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="D27" s="32" t="s">
-        <v>211</v>
+        <v>60</v>
+      </c>
+      <c r="D27" s="29" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B28" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="D28" s="32" t="s">
-        <v>224</v>
+        <v>170</v>
+      </c>
+      <c r="D28" s="29" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B29" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="D29" s="32" t="s">
-        <v>236</v>
+        <v>172</v>
+      </c>
+      <c r="D29" s="29" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B30" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D30" s="30" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D31" s="29"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D33" s="29" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -5225,7 +5958,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:F5"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5244,19 +5977,19 @@
         <v>35</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E1" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="F1" t="s">
         <v>34</v>
       </c>
       <c r="G1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H1" t="s">
         <v>26</v>
@@ -5271,10 +6004,10 @@
         <v>31</v>
       </c>
       <c r="L1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1" t="s">
         <v>39</v>
-      </c>
-      <c r="M1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -5424,13 +6157,13 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="15" t="s">
-        <v>94</v>
+      <c r="A15" s="13" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="15" t="s">
-        <v>59</v>
+      <c r="A16" s="13" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/plan/招式.xlsx
+++ b/plan/招式.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\pealpool.github.io\plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97750FFC-127C-4106-922C-D61C30BD5AF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEBAF7C1-A803-41DE-B437-9CFF2093401A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" xr2:uid="{07694949-CE91-4AC6-84BF-EA7187E3619C}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="310">
   <si>
     <t>派别</t>
   </si>
@@ -1192,6 +1192,74 @@
   </si>
   <si>
     <t>子午毒砂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒蒺藜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5/s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>流血伤害+5/s，5s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>击中破绽率+10%，5s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>命中后特效</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>击中破绽率+5%，5s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>击中破绽率+6%，5s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>击中破绽率+8%，5s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>流血持续 5s，敌方闪避破绽+10%，5s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不能格挡，敌方命中-5%，格挡破绽+10%，5s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴雨梨花针</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>流血持续 5s，击中破绽率+10%，5s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金蝉脱壳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下次的攻击前摇+0.1s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鬼影迷踪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+40%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚影重重，奥妙迷踪</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1373,10 +1441,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1704,10 +1772,10 @@
   <dimension ref="A1:W77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C45" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="D36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D58" sqref="D58"/>
+      <selection pane="bottomRight" activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1741,19 +1809,19 @@
       </c>
       <c r="E1" s="31"/>
       <c r="F1" s="31"/>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="33" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
       <c r="J1" s="31"/>
-      <c r="K1" s="32" t="s">
+      <c r="K1" s="33" t="s">
         <v>3</v>
       </c>
       <c r="L1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="33" t="s">
+      <c r="M1" s="32" t="s">
         <v>5</v>
       </c>
       <c r="N1" s="31" t="s">
@@ -1777,8 +1845,8 @@
       <c r="T1" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="U1" s="33" t="s">
-        <v>69</v>
+      <c r="U1" s="32" t="s">
+        <v>297</v>
       </c>
       <c r="V1" s="31" t="s">
         <v>16</v>
@@ -1809,9 +1877,9 @@
       <c r="J2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="32"/>
+      <c r="K2" s="33"/>
       <c r="L2" s="31"/>
-      <c r="M2" s="33"/>
+      <c r="M2" s="32"/>
       <c r="N2" s="31"/>
       <c r="O2" s="31"/>
       <c r="P2" s="31"/>
@@ -1819,7 +1887,7 @@
       <c r="R2" s="31"/>
       <c r="S2" s="31"/>
       <c r="T2" s="31"/>
-      <c r="U2" s="33"/>
+      <c r="U2" s="32"/>
       <c r="V2" s="31"/>
       <c r="W2" s="31"/>
     </row>
@@ -2949,7 +3017,9 @@
       <c r="R31" s="2">
         <v>15</v>
       </c>
-      <c r="U31" s="17"/>
+      <c r="U31" s="17" t="s">
+        <v>296</v>
+      </c>
       <c r="V31" s="5" t="s">
         <v>234</v>
       </c>
@@ -3001,7 +3071,9 @@
       <c r="R32" s="2">
         <v>10</v>
       </c>
-      <c r="U32" s="17"/>
+      <c r="U32" s="17" t="s">
+        <v>298</v>
+      </c>
       <c r="V32" s="5" t="s">
         <v>114</v>
       </c>
@@ -3051,7 +3123,9 @@
       <c r="R33" s="2">
         <v>15</v>
       </c>
-      <c r="U33" s="17"/>
+      <c r="U33" s="17" t="s">
+        <v>296</v>
+      </c>
       <c r="V33" s="5" t="s">
         <v>229</v>
       </c>
@@ -3101,7 +3175,9 @@
       <c r="R34" s="2">
         <v>10</v>
       </c>
-      <c r="U34" s="17"/>
+      <c r="U34" s="17" t="s">
+        <v>300</v>
+      </c>
       <c r="V34" s="5" t="s">
         <v>148</v>
       </c>
@@ -3153,7 +3229,9 @@
       <c r="R35" s="1">
         <v>10</v>
       </c>
-      <c r="U35" s="17"/>
+      <c r="U35" s="17" t="s">
+        <v>299</v>
+      </c>
       <c r="V35" s="5" t="s">
         <v>114</v>
       </c>
@@ -3206,6 +3284,9 @@
       </c>
       <c r="R36" s="2">
         <v>10</v>
+      </c>
+      <c r="U36" s="17" t="s">
+        <v>298</v>
       </c>
       <c r="V36" s="5" t="s">
         <v>113</v>
@@ -4028,37 +4109,155 @@
       <c r="B57" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="G57" s="3"/>
+      <c r="E57" s="2">
+        <v>1</v>
+      </c>
+      <c r="G57" s="3">
+        <v>1</v>
+      </c>
       <c r="K57" s="3"/>
-      <c r="M57" s="4"/>
-      <c r="U57" s="5"/>
-      <c r="V57" s="5"/>
+      <c r="M57" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="N57" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="O57" s="2">
+        <v>1</v>
+      </c>
+      <c r="P57" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="R57" s="2">
+        <v>10</v>
+      </c>
+      <c r="T57" s="2">
+        <v>25</v>
+      </c>
+      <c r="U57" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="V57" s="5" t="s">
+        <v>264</v>
+      </c>
       <c r="W57" s="5"/>
     </row>
     <row r="58" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="6"/>
-      <c r="G58" s="3"/>
-      <c r="K58" s="3"/>
+      <c r="B58" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="E58" s="2">
+        <v>1</v>
+      </c>
+      <c r="G58" s="3">
+        <v>1</v>
+      </c>
+      <c r="H58" s="2">
+        <v>1</v>
+      </c>
+      <c r="I58" s="2">
+        <v>1</v>
+      </c>
+      <c r="J58" s="2">
+        <v>1</v>
+      </c>
+      <c r="K58" s="3">
+        <v>10</v>
+      </c>
       <c r="M58" s="4"/>
-      <c r="U58" s="5"/>
-      <c r="V58" s="5"/>
+      <c r="N58" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="O58" s="2">
+        <v>1</v>
+      </c>
+      <c r="P58" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="R58" s="2">
+        <v>10</v>
+      </c>
+      <c r="S58" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="U58" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="V58" s="5" t="s">
+        <v>295</v>
+      </c>
       <c r="W58" s="5"/>
     </row>
     <row r="59" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="6"/>
-      <c r="G59" s="3"/>
-      <c r="K59" s="3"/>
-      <c r="M59" s="4"/>
-      <c r="U59" s="5"/>
-      <c r="V59" s="5"/>
+      <c r="B59" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="E59" s="2">
+        <v>1</v>
+      </c>
+      <c r="G59" s="3">
+        <v>1</v>
+      </c>
+      <c r="H59" s="2">
+        <v>1</v>
+      </c>
+      <c r="I59" s="2">
+        <v>1</v>
+      </c>
+      <c r="J59" s="2">
+        <v>1</v>
+      </c>
+      <c r="K59" s="3">
+        <v>30</v>
+      </c>
+      <c r="M59" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="N59" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="O59" s="2">
+        <v>1</v>
+      </c>
+      <c r="P59" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="R59" s="2">
+        <v>20</v>
+      </c>
+      <c r="S59" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="U59" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="V59" s="5" t="s">
+        <v>113</v>
+      </c>
       <c r="W59" s="5"/>
     </row>
     <row r="60" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="6"/>
-      <c r="G60" s="3"/>
+      <c r="E60" s="2">
+        <v>1</v>
+      </c>
+      <c r="G60" s="3">
+        <v>1</v>
+      </c>
+      <c r="H60" s="2">
+        <v>1</v>
+      </c>
+      <c r="I60" s="2">
+        <v>1</v>
+      </c>
+      <c r="J60" s="2">
+        <v>1</v>
+      </c>
       <c r="K60" s="3"/>
       <c r="M60" s="4"/>
-      <c r="U60" s="5"/>
+      <c r="U60" s="17"/>
       <c r="V60" s="5"/>
       <c r="W60" s="5"/>
     </row>
@@ -4133,7 +4332,7 @@
         <v>267</v>
       </c>
       <c r="V65" s="5" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
     </row>
     <row r="66" spans="1:23" x14ac:dyDescent="0.2">
@@ -4411,12 +4610,14 @@
         <v>17</v>
       </c>
       <c r="T71" s="2">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="U71" s="17" t="s">
         <v>268</v>
       </c>
-      <c r="V71" s="5"/>
+      <c r="V71" s="5" t="s">
+        <v>274</v>
+      </c>
       <c r="W71" s="5"/>
     </row>
     <row r="72" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4521,21 +4722,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
     <mergeCell ref="S1:S2"/>
     <mergeCell ref="T1:T2"/>
     <mergeCell ref="U1:U2"/>
     <mergeCell ref="V1:V2"/>
     <mergeCell ref="W1:W2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="M1:M2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="K1:L1048576">
@@ -5179,10 +5380,10 @@
   <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B43" sqref="B43"/>
+      <selection pane="bottomRight" activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5647,6 +5848,43 @@
         <v>114</v>
       </c>
     </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="D42" s="12">
+        <v>10</v>
+      </c>
+      <c r="E42" s="19" t="s">
+        <v>308</v>
+      </c>
+      <c r="F42" s="22" t="s">
+        <v>306</v>
+      </c>
+      <c r="G42" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B43" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="D43" s="12">
+        <v>5</v>
+      </c>
+      <c r="E43" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="G43" t="s">
+        <v>114</v>
+      </c>
+      <c r="H43" s="22" t="s">
+        <v>309</v>
+      </c>
+    </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B47" s="6" t="s">
         <v>105</v>
@@ -5667,7 +5905,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E21" sqref="E21"/>
+      <selection pane="bottomRight" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5958,7 +6196,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/plan/招式.xlsx
+++ b/plan/招式.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\pealpool.github.io\plan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\mycode\pealpool.github.io\plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEBAF7C1-A803-41DE-B437-9CFF2093401A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFE3B4CB-C025-4A38-A5DE-4201C52AE6E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" xr2:uid="{07694949-CE91-4AC6-84BF-EA7187E3619C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{07694949-CE91-4AC6-84BF-EA7187E3619C}"/>
   </bookViews>
   <sheets>
     <sheet name="攻击" sheetId="2" r:id="rId1"/>
@@ -27,9 +27,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="317">
   <si>
     <t>派别</t>
   </si>
@@ -1207,30 +1205,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>击中破绽率+10%，5s</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>命中后特效</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>击中破绽率+5%，5s</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>击中破绽率+6%，5s</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>击中破绽率+8%，5s</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>流血持续 5s，敌方闪避破绽+10%，5s</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>不能格挡，敌方命中-5%，格挡破绽+10%，5s</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1239,10 +1217,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>流血持续 5s，击中破绽率+10%，5s</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>金蝉脱壳</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1260,6 +1234,58 @@
   </si>
   <si>
     <t>虚影重重，奥妙迷踪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>十二金钱镖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对方所有破绽率+10%，10s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对方所有破绽率+5%，10s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对方所有破绽率+8%，10s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对方所有破绽率+6%，10s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>流血持续 5s，对方所有破绽率+10%，5s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>流血持续 5s，对方闪避破绽+10%，5s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天女散花</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>千机扫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>外伤伤害 +10%，5s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛怒唐莲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>命中+10%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿心透骨钉</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1441,10 +1467,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1769,13 +1795,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{897EE391-4514-4BBB-B5AB-BFD81F1FD685}">
-  <dimension ref="A1:W77"/>
+  <dimension ref="A1:W78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="D36" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B60" sqref="B60"/>
+      <selection pane="bottomRight" activeCell="V62" sqref="V62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1809,19 +1835,19 @@
       </c>
       <c r="E1" s="31"/>
       <c r="F1" s="31"/>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="32" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
       <c r="J1" s="31"/>
-      <c r="K1" s="33" t="s">
+      <c r="K1" s="32" t="s">
         <v>3</v>
       </c>
       <c r="L1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="32" t="s">
+      <c r="M1" s="33" t="s">
         <v>5</v>
       </c>
       <c r="N1" s="31" t="s">
@@ -1845,8 +1871,8 @@
       <c r="T1" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="U1" s="32" t="s">
-        <v>297</v>
+      <c r="U1" s="33" t="s">
+        <v>296</v>
       </c>
       <c r="V1" s="31" t="s">
         <v>16</v>
@@ -1877,9 +1903,9 @@
       <c r="J2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="33"/>
+      <c r="K2" s="32"/>
       <c r="L2" s="31"/>
-      <c r="M2" s="32"/>
+      <c r="M2" s="33"/>
       <c r="N2" s="31"/>
       <c r="O2" s="31"/>
       <c r="P2" s="31"/>
@@ -1887,7 +1913,7 @@
       <c r="R2" s="31"/>
       <c r="S2" s="31"/>
       <c r="T2" s="31"/>
-      <c r="U2" s="32"/>
+      <c r="U2" s="33"/>
       <c r="V2" s="31"/>
       <c r="W2" s="31"/>
     </row>
@@ -3018,7 +3044,7 @@
         <v>15</v>
       </c>
       <c r="U31" s="17" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="V31" s="5" t="s">
         <v>234</v>
@@ -3072,7 +3098,7 @@
         <v>10</v>
       </c>
       <c r="U32" s="17" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="V32" s="5" t="s">
         <v>114</v>
@@ -3124,7 +3150,7 @@
         <v>15</v>
       </c>
       <c r="U33" s="17" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="V33" s="5" t="s">
         <v>229</v>
@@ -3176,7 +3202,7 @@
         <v>10</v>
       </c>
       <c r="U34" s="17" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="V34" s="5" t="s">
         <v>148</v>
@@ -3230,7 +3256,7 @@
         <v>10</v>
       </c>
       <c r="U35" s="17" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="V35" s="5" t="s">
         <v>114</v>
@@ -3286,7 +3312,7 @@
         <v>10</v>
       </c>
       <c r="U36" s="17" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="V36" s="5" t="s">
         <v>113</v>
@@ -4135,7 +4161,7 @@
         <v>25</v>
       </c>
       <c r="U57" s="5" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="V57" s="5" t="s">
         <v>264</v>
@@ -4170,7 +4196,7 @@
         <v>0.2</v>
       </c>
       <c r="O58" s="2">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="P58" s="2">
         <v>0.2</v>
@@ -4182,7 +4208,7 @@
         <v>294</v>
       </c>
       <c r="U58" s="5" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="V58" s="5" t="s">
         <v>295</v>
@@ -4192,7 +4218,7 @@
     <row r="59" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="6"/>
       <c r="B59" s="2" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E59" s="2">
         <v>1</v>
@@ -4225,13 +4251,13 @@
         <v>0.3</v>
       </c>
       <c r="R59" s="2">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="S59" s="2" t="s">
         <v>294</v>
       </c>
       <c r="U59" s="17" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="V59" s="5" t="s">
         <v>113</v>
@@ -4240,6 +4266,9 @@
     </row>
     <row r="60" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="6"/>
+      <c r="B60" s="2" t="s">
+        <v>304</v>
+      </c>
       <c r="E60" s="2">
         <v>1</v>
       </c>
@@ -4255,183 +4284,291 @@
       <c r="J60" s="2">
         <v>1</v>
       </c>
-      <c r="K60" s="3"/>
+      <c r="K60" s="3">
+        <v>20</v>
+      </c>
+      <c r="L60" s="2">
+        <v>20</v>
+      </c>
       <c r="M60" s="4"/>
-      <c r="U60" s="17"/>
-      <c r="V60" s="5"/>
+      <c r="N60" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="O60" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="P60" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="Q60" s="2">
+        <v>10</v>
+      </c>
+      <c r="R60" s="2">
+        <v>10</v>
+      </c>
+      <c r="U60" s="17" t="s">
+        <v>305</v>
+      </c>
+      <c r="V60" s="5" t="s">
+        <v>114</v>
+      </c>
       <c r="W60" s="5"/>
     </row>
     <row r="61" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="6"/>
-      <c r="G61" s="3"/>
-      <c r="K61" s="3"/>
+      <c r="B61" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="E61" s="2">
+        <v>1</v>
+      </c>
+      <c r="G61" s="3">
+        <v>1</v>
+      </c>
+      <c r="H61" s="2">
+        <v>1</v>
+      </c>
+      <c r="I61" s="2">
+        <v>1</v>
+      </c>
+      <c r="J61" s="2">
+        <v>1</v>
+      </c>
+      <c r="K61" s="3">
+        <v>50</v>
+      </c>
       <c r="M61" s="4"/>
-      <c r="U61" s="5"/>
-      <c r="V61" s="5"/>
+      <c r="N61" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="O61" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="P61" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="Q61" s="2">
+        <v>10</v>
+      </c>
+      <c r="R61" s="2">
+        <v>10</v>
+      </c>
+      <c r="S61" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="U61" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="V61" s="5" t="s">
+        <v>295</v>
+      </c>
       <c r="W61" s="5"/>
     </row>
     <row r="62" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="6"/>
-      <c r="G62" s="3"/>
-      <c r="K62" s="3"/>
-      <c r="M62" s="4"/>
-      <c r="U62" s="5"/>
-      <c r="V62" s="5"/>
+      <c r="B62" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="F62" s="2">
+        <v>1</v>
+      </c>
+      <c r="G62" s="3">
+        <v>1</v>
+      </c>
+      <c r="H62" s="2">
+        <v>1</v>
+      </c>
+      <c r="I62" s="2">
+        <v>1</v>
+      </c>
+      <c r="J62" s="2">
+        <v>1</v>
+      </c>
+      <c r="K62" s="3">
+        <v>80</v>
+      </c>
+      <c r="M62" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="N62" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="O62" s="2">
+        <v>1</v>
+      </c>
+      <c r="P62" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="R62" s="2">
+        <v>20</v>
+      </c>
+      <c r="S62" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="T62" s="2">
+        <v>25</v>
+      </c>
+      <c r="U62" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="V62" s="5" t="s">
+        <v>313</v>
+      </c>
       <c r="W62" s="5"/>
     </row>
     <row r="63" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="6"/>
-      <c r="G63" s="3"/>
-      <c r="K63" s="3"/>
+      <c r="B63" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E63" s="2">
+        <v>1</v>
+      </c>
+      <c r="G63" s="3">
+        <v>1</v>
+      </c>
+      <c r="H63" s="2">
+        <v>1</v>
+      </c>
+      <c r="I63" s="2">
+        <v>1</v>
+      </c>
+      <c r="J63" s="2">
+        <v>1</v>
+      </c>
+      <c r="K63" s="3">
+        <v>100</v>
+      </c>
       <c r="M63" s="4"/>
-      <c r="U63" s="5"/>
-      <c r="V63" s="5"/>
+      <c r="N63" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="O63" s="2">
+        <v>1</v>
+      </c>
+      <c r="P63" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="R63" s="2">
+        <v>20</v>
+      </c>
+      <c r="S63" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="U63" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="V63" s="5" t="s">
+        <v>295</v>
+      </c>
       <c r="W63" s="5"/>
     </row>
-    <row r="65" spans="1:23" ht="57" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
+    <row r="64" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="6"/>
+      <c r="G64" s="3"/>
+      <c r="K64" s="3"/>
+      <c r="M64" s="4"/>
+      <c r="U64" s="5"/>
+      <c r="V64" s="5"/>
+      <c r="W64" s="5"/>
+    </row>
+    <row r="66" spans="1:23" ht="57" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B66" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E65" s="1">
-        <v>1</v>
-      </c>
-      <c r="G65" s="3">
-        <v>1</v>
-      </c>
-      <c r="I65" s="1">
-        <v>1</v>
-      </c>
-      <c r="J65" s="1">
-        <v>1</v>
-      </c>
-      <c r="M65" s="4" t="s">
+      <c r="E66" s="1">
+        <v>1</v>
+      </c>
+      <c r="G66" s="3">
+        <v>1</v>
+      </c>
+      <c r="I66" s="1">
+        <v>1</v>
+      </c>
+      <c r="J66" s="1">
+        <v>1</v>
+      </c>
+      <c r="M66" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="N65" s="1">
+      <c r="N66" s="1">
         <v>0.5</v>
       </c>
-      <c r="O65" s="1">
-        <v>1</v>
-      </c>
-      <c r="P65" s="1">
+      <c r="O66" s="1">
+        <v>1</v>
+      </c>
+      <c r="P66" s="1">
         <v>0.4</v>
       </c>
-      <c r="Q65" s="1">
+      <c r="Q66" s="1">
         <v>10</v>
       </c>
-      <c r="R65" s="1">
+      <c r="R66" s="1">
         <v>20</v>
       </c>
-      <c r="T65" s="2">
+      <c r="T66" s="2">
         <v>10</v>
       </c>
-      <c r="U65" s="18" t="s">
+      <c r="U66" s="18" t="s">
         <v>267</v>
       </c>
-      <c r="V65" s="5" t="s">
+      <c r="V66" s="5" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B66" s="1" t="s">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B67" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="E66" s="1">
-        <v>1</v>
-      </c>
-      <c r="G66" s="3">
-        <v>1</v>
-      </c>
-      <c r="H66" s="1">
-        <v>1</v>
-      </c>
-      <c r="I66" s="1">
-        <v>1</v>
-      </c>
-      <c r="J66" s="1">
-        <v>1</v>
-      </c>
-      <c r="K66" s="3">
+      <c r="E67" s="1">
+        <v>1</v>
+      </c>
+      <c r="G67" s="3">
+        <v>1</v>
+      </c>
+      <c r="H67" s="1">
+        <v>1</v>
+      </c>
+      <c r="I67" s="1">
+        <v>1</v>
+      </c>
+      <c r="J67" s="1">
+        <v>1</v>
+      </c>
+      <c r="K67" s="3">
         <v>20</v>
       </c>
-      <c r="L66" s="1">
+      <c r="L67" s="1">
         <v>40</v>
       </c>
-      <c r="N66" s="1">
+      <c r="N67" s="1">
         <v>0.3</v>
       </c>
-      <c r="O66" s="1">
-        <v>1</v>
-      </c>
-      <c r="P66" s="1">
+      <c r="O67" s="1">
+        <v>1</v>
+      </c>
+      <c r="P67" s="1">
         <v>0.3</v>
       </c>
-      <c r="R66" s="1">
+      <c r="R67" s="1">
         <v>10</v>
       </c>
-      <c r="T66" s="2">
+      <c r="T67" s="2">
         <v>30</v>
       </c>
-      <c r="U66" s="18" t="s">
+      <c r="U67" s="18" t="s">
         <v>263</v>
       </c>
-      <c r="V66" s="5" t="s">
+      <c r="V67" s="5" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="67" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E67" s="2">
-        <v>1</v>
-      </c>
-      <c r="G67" s="3">
-        <v>1</v>
-      </c>
-      <c r="H67" s="2">
-        <v>1</v>
-      </c>
-      <c r="I67" s="2">
-        <v>1</v>
-      </c>
-      <c r="J67" s="2">
-        <v>1</v>
-      </c>
-      <c r="K67" s="3"/>
-      <c r="L67" s="2">
-        <v>30</v>
-      </c>
-      <c r="M67" s="4"/>
-      <c r="N67" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="O67" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="P67" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="R67" s="2">
-        <v>10</v>
-      </c>
-      <c r="T67" s="2">
-        <v>10</v>
-      </c>
-      <c r="U67" s="17" t="s">
-        <v>259</v>
-      </c>
-      <c r="V67" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="W67" s="5"/>
     </row>
     <row r="68" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B68" s="2" t="s">
-        <v>236</v>
+        <v>72</v>
       </c>
       <c r="E68" s="2">
         <v>1</v>
@@ -4448,18 +4585,16 @@
       <c r="J68" s="2">
         <v>1</v>
       </c>
-      <c r="K68" s="3">
+      <c r="K68" s="3"/>
+      <c r="L68" s="2">
         <v>30</v>
-      </c>
-      <c r="L68" s="2">
-        <v>20</v>
       </c>
       <c r="M68" s="4"/>
       <c r="N68" s="2">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="O68" s="2">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="P68" s="2">
         <v>0.3</v>
@@ -4468,21 +4603,21 @@
         <v>10</v>
       </c>
       <c r="T68" s="2">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="U68" s="17" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="V68" s="5" t="s">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="W68" s="5"/>
     </row>
     <row r="69" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B69" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="F69" s="2">
+        <v>236</v>
+      </c>
+      <c r="E69" s="2">
         <v>1</v>
       </c>
       <c r="G69" s="3">
@@ -4498,14 +4633,14 @@
         <v>1</v>
       </c>
       <c r="K69" s="3">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="L69" s="2">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="M69" s="4"/>
       <c r="N69" s="2">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="O69" s="2">
         <v>1</v>
@@ -4514,24 +4649,24 @@
         <v>0.3</v>
       </c>
       <c r="R69" s="2">
+        <v>10</v>
+      </c>
+      <c r="T69" s="2">
         <v>20</v>
       </c>
-      <c r="T69" s="2">
-        <v>10</v>
-      </c>
       <c r="U69" s="17" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="V69" s="5" t="s">
-        <v>117</v>
+        <v>264</v>
       </c>
       <c r="W69" s="5"/>
     </row>
     <row r="70" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B70" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="E70" s="2">
+        <v>272</v>
+      </c>
+      <c r="F70" s="2">
         <v>1</v>
       </c>
       <c r="G70" s="3">
@@ -4546,13 +4681,15 @@
       <c r="J70" s="2">
         <v>1</v>
       </c>
-      <c r="K70" s="3"/>
+      <c r="K70" s="3">
+        <v>50</v>
+      </c>
       <c r="L70" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="M70" s="4"/>
       <c r="N70" s="2">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="O70" s="2">
         <v>1</v>
@@ -4561,71 +4698,110 @@
         <v>0.3</v>
       </c>
       <c r="R70" s="2">
+        <v>20</v>
+      </c>
+      <c r="T70" s="2">
         <v>10</v>
       </c>
-      <c r="T70" s="2">
-        <v>20</v>
-      </c>
       <c r="U70" s="17" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="V70" s="5" t="s">
-        <v>264</v>
+        <v>117</v>
       </c>
       <c r="W70" s="5"/>
     </row>
     <row r="71" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B71" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E71" s="2">
+        <v>1</v>
+      </c>
+      <c r="G71" s="3">
+        <v>1</v>
+      </c>
+      <c r="H71" s="2">
+        <v>1</v>
+      </c>
+      <c r="I71" s="2">
+        <v>1</v>
+      </c>
+      <c r="J71" s="2">
+        <v>1</v>
+      </c>
+      <c r="K71" s="3"/>
+      <c r="L71" s="2">
+        <v>40</v>
+      </c>
+      <c r="M71" s="4"/>
+      <c r="N71" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="O71" s="2">
+        <v>1</v>
+      </c>
+      <c r="P71" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="R71" s="2">
+        <v>10</v>
+      </c>
+      <c r="T71" s="2">
+        <v>20</v>
+      </c>
+      <c r="U71" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="V71" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="W71" s="5"/>
+    </row>
+    <row r="72" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="E71" s="2">
-        <v>1</v>
-      </c>
-      <c r="G71" s="3">
-        <v>1</v>
-      </c>
-      <c r="H71" s="2">
-        <v>1</v>
-      </c>
-      <c r="I71" s="2">
-        <v>1</v>
-      </c>
-      <c r="J71" s="2">
-        <v>1</v>
-      </c>
-      <c r="K71" s="3"/>
-      <c r="M71" s="4" t="s">
+      <c r="E72" s="2">
+        <v>1</v>
+      </c>
+      <c r="G72" s="3">
+        <v>1</v>
+      </c>
+      <c r="H72" s="2">
+        <v>1</v>
+      </c>
+      <c r="I72" s="2">
+        <v>1</v>
+      </c>
+      <c r="J72" s="2">
+        <v>1</v>
+      </c>
+      <c r="K72" s="3"/>
+      <c r="M72" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="N71" s="2">
+      <c r="N72" s="2">
         <v>0.4</v>
       </c>
-      <c r="O71" s="2">
-        <v>1</v>
-      </c>
-      <c r="P71" s="2">
+      <c r="O72" s="2">
+        <v>1</v>
+      </c>
+      <c r="P72" s="2">
         <v>0.4</v>
       </c>
-      <c r="R71" s="2">
+      <c r="R72" s="2">
         <v>17</v>
       </c>
-      <c r="T71" s="2">
+      <c r="T72" s="2">
         <v>25</v>
       </c>
-      <c r="U71" s="17" t="s">
+      <c r="U72" s="17" t="s">
         <v>268</v>
       </c>
-      <c r="V71" s="5" t="s">
+      <c r="V72" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="W71" s="5"/>
-    </row>
-    <row r="72" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G72" s="3"/>
-      <c r="K72" s="3"/>
-      <c r="M72" s="4"/>
-      <c r="U72" s="17"/>
-      <c r="V72" s="5"/>
       <c r="W72" s="5"/>
     </row>
     <row r="73" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4636,107 +4812,115 @@
       <c r="V73" s="5"/>
       <c r="W73" s="5"/>
     </row>
-    <row r="75" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G75" s="3"/>
-      <c r="K75" s="3"/>
-      <c r="M75" s="4"/>
-      <c r="U75" s="17"/>
-      <c r="V75" s="5"/>
-      <c r="W75" s="5"/>
-    </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A76" s="6" t="s">
+    <row r="74" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G74" s="3"/>
+      <c r="K74" s="3"/>
+      <c r="M74" s="4"/>
+      <c r="U74" s="17"/>
+      <c r="V74" s="5"/>
+      <c r="W74" s="5"/>
+    </row>
+    <row r="76" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G76" s="3"/>
+      <c r="K76" s="3"/>
+      <c r="M76" s="4"/>
+      <c r="U76" s="17"/>
+      <c r="V76" s="5"/>
+      <c r="W76" s="5"/>
+    </row>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A77" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B76" s="6" t="s">
+      <c r="B77" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="G76" s="3">
-        <v>1</v>
-      </c>
-      <c r="H76" s="1">
-        <v>1</v>
-      </c>
-      <c r="I76" s="1">
-        <v>1</v>
-      </c>
-      <c r="J76" s="1">
-        <v>1</v>
-      </c>
-      <c r="L76" s="1">
+      <c r="G77" s="3">
+        <v>1</v>
+      </c>
+      <c r="H77" s="1">
+        <v>1</v>
+      </c>
+      <c r="I77" s="1">
+        <v>1</v>
+      </c>
+      <c r="J77" s="1">
+        <v>1</v>
+      </c>
+      <c r="L77" s="1">
         <v>30</v>
-      </c>
-      <c r="M76" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="N76" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="O76" s="1">
-        <v>2</v>
-      </c>
-      <c r="P76" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="R76" s="1">
-        <v>10</v>
-      </c>
-      <c r="U76" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="V76" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B77" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D77" s="1">
-        <v>1</v>
-      </c>
-      <c r="G77" s="3">
-        <v>1</v>
-      </c>
-      <c r="H77" s="1">
-        <v>1</v>
-      </c>
-      <c r="K77" s="3">
-        <v>50</v>
       </c>
       <c r="M77" s="4" t="s">
         <v>65</v>
       </c>
       <c r="N77" s="1">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="O77" s="1">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="P77" s="1">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="R77" s="1">
         <v>10</v>
       </c>
+      <c r="U77" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="V77" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B78" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D78" s="1">
+        <v>1</v>
+      </c>
+      <c r="G78" s="3">
+        <v>1</v>
+      </c>
+      <c r="H78" s="1">
+        <v>1</v>
+      </c>
+      <c r="K78" s="3">
+        <v>50</v>
+      </c>
+      <c r="M78" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="N78" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="O78" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="P78" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R78" s="1">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="W1:W2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="K1:L1048576">
@@ -5853,16 +6037,16 @@
         <v>33</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="D42" s="12">
         <v>10</v>
       </c>
       <c r="E42" s="19" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="F42" s="22" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="G42" t="s">
         <v>114</v>
@@ -5870,7 +6054,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B43" s="6" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="D43" s="12">
         <v>5</v>
@@ -5882,7 +6066,7 @@
         <v>114</v>
       </c>
       <c r="H43" s="22" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
@@ -5899,13 +6083,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60A858D4-5BEF-44D4-8A9F-866174BC0619}">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomRight" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6185,6 +6369,17 @@
         <v>75</v>
       </c>
     </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="D35" s="30" t="s">
+        <v>315</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6196,7 +6391,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="I5" sqref="I5:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/plan/招式.xlsx
+++ b/plan/招式.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\mycode\pealpool.github.io\plan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\pealpool.github.io\plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFE3B4CB-C025-4A38-A5DE-4201C52AE6E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED978EA-A600-47F1-8F25-DB707A1676DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{07694949-CE91-4AC6-84BF-EA7187E3619C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" activeTab="1" xr2:uid="{07694949-CE91-4AC6-84BF-EA7187E3619C}"/>
   </bookViews>
   <sheets>
     <sheet name="攻击" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="324">
   <si>
     <t>派别</t>
   </si>
@@ -1269,23 +1269,51 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>千机扫</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>外伤伤害 +10%，5s</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>佛怒唐莲</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>命中+10%</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>穿心透骨钉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>七煞袖箭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>乱飞蝗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>流血持续 5s，敌方命中-5%，格挡破绽+10%，5s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>袖炮血天腐地</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙棠踏水</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>七星飞旋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天女灵梭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天渊纵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下次的攻击前摇-0.1s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一跃而起，从上往下攻击</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1467,10 +1495,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1797,11 +1825,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{897EE391-4514-4BBB-B5AB-BFD81F1FD685}">
   <dimension ref="A1:W78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C39" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="D45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="V62" sqref="V62"/>
+      <selection pane="bottomRight" activeCell="V59" sqref="V59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1835,19 +1863,19 @@
       </c>
       <c r="E1" s="31"/>
       <c r="F1" s="31"/>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="33" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
       <c r="J1" s="31"/>
-      <c r="K1" s="32" t="s">
+      <c r="K1" s="33" t="s">
         <v>3</v>
       </c>
       <c r="L1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="33" t="s">
+      <c r="M1" s="32" t="s">
         <v>5</v>
       </c>
       <c r="N1" s="31" t="s">
@@ -1871,7 +1899,7 @@
       <c r="T1" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="U1" s="33" t="s">
+      <c r="U1" s="32" t="s">
         <v>296</v>
       </c>
       <c r="V1" s="31" t="s">
@@ -1903,9 +1931,9 @@
       <c r="J2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="32"/>
+      <c r="K2" s="33"/>
       <c r="L2" s="31"/>
-      <c r="M2" s="33"/>
+      <c r="M2" s="32"/>
       <c r="N2" s="31"/>
       <c r="O2" s="31"/>
       <c r="P2" s="31"/>
@@ -1913,7 +1941,7 @@
       <c r="R2" s="31"/>
       <c r="S2" s="31"/>
       <c r="T2" s="31"/>
-      <c r="U2" s="33"/>
+      <c r="U2" s="32"/>
       <c r="V2" s="31"/>
       <c r="W2" s="31"/>
     </row>
@@ -4301,7 +4329,7 @@
         <v>0.3</v>
       </c>
       <c r="Q60" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R60" s="2">
         <v>10</v>
@@ -4317,7 +4345,7 @@
     <row r="61" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="6"/>
       <c r="B61" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E61" s="2">
         <v>1</v>
@@ -4335,7 +4363,10 @@
         <v>1</v>
       </c>
       <c r="K61" s="3">
-        <v>50</v>
+        <v>30</v>
+      </c>
+      <c r="L61" s="2">
+        <v>30</v>
       </c>
       <c r="M61" s="4"/>
       <c r="N61" s="2">
@@ -4354,22 +4385,25 @@
         <v>10</v>
       </c>
       <c r="S61" s="2" t="s">
-        <v>257</v>
+        <v>294</v>
+      </c>
+      <c r="T61" s="2">
+        <v>20</v>
       </c>
       <c r="U61" s="5" t="s">
         <v>258</v>
       </c>
       <c r="V61" s="5" t="s">
-        <v>295</v>
+        <v>113</v>
       </c>
       <c r="W61" s="5"/>
     </row>
     <row r="62" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="6"/>
       <c r="B62" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="F62" s="2">
+        <v>314</v>
+      </c>
+      <c r="E62" s="2">
         <v>1</v>
       </c>
       <c r="G62" s="3">
@@ -4385,41 +4419,39 @@
         <v>1</v>
       </c>
       <c r="K62" s="3">
-        <v>80</v>
-      </c>
-      <c r="M62" s="4" t="s">
-        <v>135</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="M62" s="4"/>
       <c r="N62" s="2">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="O62" s="2">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="P62" s="2">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="R62" s="2">
+        <v>10</v>
+      </c>
+      <c r="S62" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="T62" s="2">
         <v>20</v>
-      </c>
-      <c r="S62" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="T62" s="2">
-        <v>25</v>
       </c>
       <c r="U62" s="5" t="s">
         <v>258</v>
       </c>
       <c r="V62" s="5" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="W62" s="5"/>
     </row>
     <row r="63" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="6"/>
       <c r="B63" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E63" s="2">
         <v>1</v>
@@ -4437,9 +4469,14 @@
         <v>1</v>
       </c>
       <c r="K63" s="3">
-        <v>100</v>
-      </c>
-      <c r="M63" s="4"/>
+        <v>30</v>
+      </c>
+      <c r="L63" s="2">
+        <v>10</v>
+      </c>
+      <c r="M63" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="N63" s="2">
         <v>0.5</v>
       </c>
@@ -4447,29 +4484,76 @@
         <v>1</v>
       </c>
       <c r="P63" s="2">
-        <v>0.4</v>
+        <v>0.3</v>
+      </c>
+      <c r="Q63" s="2">
+        <v>10</v>
       </c>
       <c r="R63" s="2">
-        <v>20</v>
-      </c>
-      <c r="S63" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="U63" s="5" t="s">
-        <v>258</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="U63" s="5"/>
       <c r="V63" s="5" t="s">
-        <v>295</v>
+        <v>113</v>
       </c>
       <c r="W63" s="5"/>
     </row>
     <row r="64" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="6"/>
-      <c r="G64" s="3"/>
-      <c r="K64" s="3"/>
-      <c r="M64" s="4"/>
-      <c r="U64" s="5"/>
-      <c r="V64" s="5"/>
+      <c r="B64" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="E64" s="2">
+        <v>1</v>
+      </c>
+      <c r="G64" s="3">
+        <v>1</v>
+      </c>
+      <c r="H64" s="2">
+        <v>1</v>
+      </c>
+      <c r="I64" s="2">
+        <v>1</v>
+      </c>
+      <c r="J64" s="2">
+        <v>1</v>
+      </c>
+      <c r="K64" s="3">
+        <v>100</v>
+      </c>
+      <c r="L64" s="2">
+        <v>20</v>
+      </c>
+      <c r="M64" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="N64" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="O64" s="2">
+        <v>1</v>
+      </c>
+      <c r="P64" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q64" s="2">
+        <v>10</v>
+      </c>
+      <c r="R64" s="2">
+        <v>20</v>
+      </c>
+      <c r="S64" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="T64" s="2">
+        <v>30</v>
+      </c>
+      <c r="U64" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="V64" s="5" t="s">
+        <v>114</v>
+      </c>
       <c r="W64" s="5"/>
     </row>
     <row r="66" spans="1:23" ht="57" x14ac:dyDescent="0.2">
@@ -4906,21 +4990,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
     <mergeCell ref="S1:S2"/>
     <mergeCell ref="T1:T2"/>
     <mergeCell ref="U1:U2"/>
     <mergeCell ref="V1:V2"/>
     <mergeCell ref="W1:W2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="M1:M2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="K1:L1048576">
@@ -4986,13 +5070,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01B6F42B-4BB2-402E-8EF0-FC889EE96737}">
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L30" sqref="L30"/>
+      <selection pane="bottomRight" activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5550,6 +5634,11 @@
         <v>130</v>
       </c>
     </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D1:E1"/>
@@ -5561,13 +5650,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54D9C67E-4237-478B-81E0-48BC15B60241}">
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J34" sqref="J34"/>
+      <selection pane="bottomRight" activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6057,20 +6146,79 @@
         <v>301</v>
       </c>
       <c r="D43" s="12">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E43" s="19" t="s">
         <v>46</v>
       </c>
       <c r="G43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H43" s="22" t="s">
         <v>303</v>
       </c>
     </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B44" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="D44" s="12">
+        <v>5</v>
+      </c>
+      <c r="E44" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="G44" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B45" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="D45" s="12">
+        <v>5</v>
+      </c>
+      <c r="E45" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="G45" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B46" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="D46" s="12">
+        <v>5</v>
+      </c>
+      <c r="E46" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="G46" t="s">
+        <v>113</v>
+      </c>
+    </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B47" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="D47" s="12">
+        <v>15</v>
+      </c>
+      <c r="F47" s="22" t="s">
+        <v>322</v>
+      </c>
+      <c r="G47" t="s">
+        <v>113</v>
+      </c>
+      <c r="H47" s="22" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B49" s="6" t="s">
         <v>105</v>
       </c>
     </row>
@@ -6083,13 +6231,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60A858D4-5BEF-44D4-8A9F-866174BC0619}">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D36" sqref="D36"/>
+      <selection pane="bottomRight" activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6358,26 +6506,26 @@
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D31" s="29"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="6" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="D32" s="30" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B36" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D33" s="29" t="s">
+      <c r="D36" s="29" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="D35" s="30" t="s">
-        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -6391,7 +6539,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5:I7"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/plan/招式.xlsx
+++ b/plan/招式.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\pealpool.github.io\plan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\mycode\pealpool.github.io\plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED978EA-A600-47F1-8F25-DB707A1676DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59AA3ADF-174F-456A-A8DC-C0BDC9730F32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" activeTab="1" xr2:uid="{07694949-CE91-4AC6-84BF-EA7187E3619C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{07694949-CE91-4AC6-84BF-EA7187E3619C}"/>
   </bookViews>
   <sheets>
     <sheet name="攻击" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="350">
   <si>
     <t>派别</t>
   </si>
@@ -1054,18 +1054,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>【青蛇毒】命中-10%，攻击增浮动率-10%，破绽发现率 -10%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>【蜈蚣毒】格挡率-10%，防御-10%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>【蝎子毒】伤害-10%，削耐-10%，破绽伤害-10%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>【蜘蛛毒】闪避几率-10%，攻击慢0.2s</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1093,10 +1081,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>不能格挡，【蟾蜍毒】最大耐力-10%，耐力恢复-0.1/s</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>八步赶蟾</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1225,10 +1209,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>鬼影迷踪</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>+40%</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1293,27 +1273,150 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>沙棠踏水</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>七星飞旋</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>天女灵梭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>天渊纵</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>下次的攻击前摇-0.1s</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>一跃而起，从上往下攻击</t>
+    <t>傀儡替身</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>傀儡分身</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>魅影迷踪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>奇门遁甲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲天纵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一跃而起，居高临下</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>烟遁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重重鬼影</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞沙急退</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>急退同时踢起沙土，掩护暗器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>命中+15%，1s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>血犼教</t>
+  </si>
+  <si>
+    <t>万毒典</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>千刃炼器术</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>流血伤害+5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">血犼邪经 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对方所有破绽率+10%，5s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑尸诀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>邪鬼功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>血犼魔掌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>血池鬼爪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>15/s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>血影腿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大阴风腿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不能格挡，【蟾蜍毒】最大耐力-15%，耐力恢复-0.1/s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>【蝎子毒】伤害-15%，削耐-15%，破绽伤害-15%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>【蜈蚣毒】格挡率-15%，防御-15%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>【青蛇毒】命中-15%，攻击增浮动率-15%，破绽发现率 -15%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄泉指</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>腐尸血掌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">三指夺阴爪 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄坟砂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不能格挡，【尸血毒】爆发时，马上结算流血伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对方所有流血持续时间+5s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">血煞掌 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前部位流血伤害马上结算</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1495,10 +1598,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1823,13 +1926,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{897EE391-4514-4BBB-B5AB-BFD81F1FD685}">
-  <dimension ref="A1:W78"/>
+  <dimension ref="A1:W87"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="D45" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="D57" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="V59" sqref="V59"/>
+      <selection pane="bottomRight" activeCell="W70" sqref="W70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1863,19 +1966,19 @@
       </c>
       <c r="E1" s="31"/>
       <c r="F1" s="31"/>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="32" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
       <c r="J1" s="31"/>
-      <c r="K1" s="33" t="s">
+      <c r="K1" s="32" t="s">
         <v>3</v>
       </c>
       <c r="L1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="32" t="s">
+      <c r="M1" s="33" t="s">
         <v>5</v>
       </c>
       <c r="N1" s="31" t="s">
@@ -1899,8 +2002,8 @@
       <c r="T1" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="U1" s="32" t="s">
-        <v>296</v>
+      <c r="U1" s="33" t="s">
+        <v>292</v>
       </c>
       <c r="V1" s="31" t="s">
         <v>16</v>
@@ -1931,9 +2034,9 @@
       <c r="J2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="33"/>
+      <c r="K2" s="32"/>
       <c r="L2" s="31"/>
-      <c r="M2" s="32"/>
+      <c r="M2" s="33"/>
       <c r="N2" s="31"/>
       <c r="O2" s="31"/>
       <c r="P2" s="31"/>
@@ -1941,7 +2044,7 @@
       <c r="R2" s="31"/>
       <c r="S2" s="31"/>
       <c r="T2" s="31"/>
-      <c r="U2" s="32"/>
+      <c r="U2" s="33"/>
       <c r="V2" s="31"/>
       <c r="W2" s="31"/>
     </row>
@@ -2975,143 +3078,126 @@
       </c>
       <c r="W28" s="5"/>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A30" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2">
-        <v>1</v>
-      </c>
-      <c r="F30" s="2"/>
+    <row r="30" spans="1:23" ht="57" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1</v>
+      </c>
       <c r="G30" s="3">
         <v>1</v>
       </c>
-      <c r="H30" s="2">
-        <v>1</v>
-      </c>
-      <c r="I30" s="2">
-        <v>1</v>
-      </c>
-      <c r="J30" s="2">
-        <v>1</v>
-      </c>
-      <c r="K30" s="3">
+      <c r="I30" s="1">
+        <v>1</v>
+      </c>
+      <c r="J30" s="1">
+        <v>1</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="N30" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="O30" s="1">
+        <v>1</v>
+      </c>
+      <c r="P30" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>10</v>
+      </c>
+      <c r="R30" s="1">
+        <v>20</v>
+      </c>
+      <c r="T30" s="2">
+        <v>15</v>
+      </c>
+      <c r="U30" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="V30" s="5" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B31" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1</v>
+      </c>
+      <c r="G31" s="3">
+        <v>1</v>
+      </c>
+      <c r="H31" s="1">
+        <v>1</v>
+      </c>
+      <c r="I31" s="1">
+        <v>1</v>
+      </c>
+      <c r="J31" s="1">
+        <v>1</v>
+      </c>
+      <c r="K31" s="3">
+        <v>20</v>
+      </c>
+      <c r="L31" s="1">
+        <v>40</v>
+      </c>
+      <c r="N31" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="O31" s="1">
+        <v>1</v>
+      </c>
+      <c r="P31" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="R31" s="1">
+        <v>10</v>
+      </c>
+      <c r="T31" s="2">
         <v>30</v>
       </c>
-      <c r="L30" s="2">
+      <c r="U31" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="V31" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E32" s="2">
+        <v>1</v>
+      </c>
+      <c r="G32" s="3">
+        <v>1</v>
+      </c>
+      <c r="H32" s="2">
+        <v>1</v>
+      </c>
+      <c r="I32" s="2">
+        <v>1</v>
+      </c>
+      <c r="J32" s="2">
+        <v>1</v>
+      </c>
+      <c r="K32" s="3"/>
+      <c r="L32" s="2">
         <v>30</v>
       </c>
-      <c r="N30" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="O30" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="P30" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="Q30" s="2"/>
-      <c r="R30" s="2">
-        <v>10</v>
-      </c>
-      <c r="U30" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="V30" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="W30" s="5" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="6"/>
-      <c r="B31" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="E31" s="2">
-        <v>1</v>
-      </c>
-      <c r="G31" s="3">
-        <v>1</v>
-      </c>
-      <c r="H31" s="2">
-        <v>1</v>
-      </c>
-      <c r="I31" s="2">
-        <v>1</v>
-      </c>
-      <c r="J31" s="2">
-        <v>1</v>
-      </c>
-      <c r="K31" s="3">
-        <v>30</v>
-      </c>
-      <c r="L31" s="2">
-        <v>70</v>
-      </c>
-      <c r="M31" s="4"/>
-      <c r="N31" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="O31" s="2">
-        <v>1</v>
-      </c>
-      <c r="P31" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="Q31" s="2">
-        <v>15</v>
-      </c>
-      <c r="R31" s="2">
-        <v>15</v>
-      </c>
-      <c r="U31" s="17" t="s">
-        <v>305</v>
-      </c>
-      <c r="V31" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="W31" s="5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="6"/>
-      <c r="B32" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="E32" s="2">
-        <v>1</v>
-      </c>
-      <c r="G32" s="3">
-        <v>1</v>
-      </c>
-      <c r="H32" s="2">
-        <v>1</v>
-      </c>
-      <c r="I32" s="2">
-        <v>1</v>
-      </c>
-      <c r="J32" s="2">
-        <v>1</v>
-      </c>
-      <c r="K32" s="3">
-        <v>20</v>
-      </c>
-      <c r="L32" s="2">
-        <v>40</v>
-      </c>
-      <c r="M32" s="4" t="s">
-        <v>51</v>
-      </c>
+      <c r="M32" s="4"/>
       <c r="N32" s="2">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="O32" s="2">
         <v>0.9</v>
@@ -3119,26 +3205,23 @@
       <c r="P32" s="2">
         <v>0.3</v>
       </c>
-      <c r="Q32" s="2">
-        <v>10</v>
-      </c>
       <c r="R32" s="2">
         <v>10</v>
       </c>
+      <c r="T32" s="2">
+        <v>15</v>
+      </c>
       <c r="U32" s="17" t="s">
-        <v>306</v>
+        <v>341</v>
       </c>
       <c r="V32" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="W32" s="5" t="s">
-        <v>205</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="W32" s="5"/>
     </row>
     <row r="33" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="6"/>
       <c r="B33" s="2" t="s">
-        <v>199</v>
+        <v>236</v>
       </c>
       <c r="E33" s="2">
         <v>1</v>
@@ -3156,14 +3239,14 @@
         <v>1</v>
       </c>
       <c r="K33" s="3">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="L33" s="2">
         <v>20</v>
       </c>
       <c r="M33" s="4"/>
       <c r="N33" s="2">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="O33" s="2">
         <v>1</v>
@@ -3171,28 +3254,25 @@
       <c r="P33" s="2">
         <v>0.3</v>
       </c>
-      <c r="Q33" s="2">
-        <v>15</v>
-      </c>
       <c r="R33" s="2">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="T33" s="2">
+        <v>20</v>
       </c>
       <c r="U33" s="17" t="s">
-        <v>305</v>
+        <v>340</v>
       </c>
       <c r="V33" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="W33" s="5" t="s">
-        <v>206</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="W33" s="5"/>
     </row>
     <row r="34" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="6"/>
       <c r="B34" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E34" s="2">
+        <v>268</v>
+      </c>
+      <c r="F34" s="2">
         <v>1</v>
       </c>
       <c r="G34" s="3">
@@ -3215,7 +3295,7 @@
       </c>
       <c r="M34" s="4"/>
       <c r="N34" s="2">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="O34" s="2">
         <v>1</v>
@@ -3223,209 +3303,202 @@
       <c r="P34" s="2">
         <v>0.3</v>
       </c>
-      <c r="Q34" s="2">
-        <v>12</v>
-      </c>
       <c r="R34" s="2">
+        <v>20</v>
+      </c>
+      <c r="T34" s="2">
+        <v>15</v>
+      </c>
+      <c r="U34" s="17" t="s">
+        <v>339</v>
+      </c>
+      <c r="V34" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="W34" s="5"/>
+    </row>
+    <row r="35" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="E35" s="2">
+        <v>1</v>
+      </c>
+      <c r="G35" s="3">
+        <v>1</v>
+      </c>
+      <c r="H35" s="2">
+        <v>1</v>
+      </c>
+      <c r="I35" s="2">
+        <v>1</v>
+      </c>
+      <c r="J35" s="2">
+        <v>1</v>
+      </c>
+      <c r="K35" s="3"/>
+      <c r="L35" s="2">
+        <v>40</v>
+      </c>
+      <c r="M35" s="4"/>
+      <c r="N35" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="O35" s="2">
+        <v>1</v>
+      </c>
+      <c r="P35" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="R35" s="2">
         <v>10</v>
       </c>
-      <c r="U34" s="17" t="s">
-        <v>307</v>
-      </c>
-      <c r="V34" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="W34" s="5" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="6"/>
-      <c r="B35" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="2">
-        <v>1</v>
-      </c>
-      <c r="G35" s="3">
-        <v>1</v>
-      </c>
-      <c r="H35" s="2">
-        <v>1</v>
-      </c>
-      <c r="I35" s="2">
-        <v>1</v>
-      </c>
-      <c r="J35" s="2">
-        <v>1</v>
-      </c>
-      <c r="K35" s="3">
-        <v>60</v>
-      </c>
-      <c r="L35" s="1">
+      <c r="T35" s="2">
+        <v>20</v>
+      </c>
+      <c r="U35" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="V35" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="W35" s="5"/>
+    </row>
+    <row r="36" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E36" s="2">
+        <v>1</v>
+      </c>
+      <c r="G36" s="3">
+        <v>1</v>
+      </c>
+      <c r="H36" s="2">
+        <v>1</v>
+      </c>
+      <c r="I36" s="2">
+        <v>1</v>
+      </c>
+      <c r="J36" s="2">
+        <v>1</v>
+      </c>
+      <c r="K36" s="3"/>
+      <c r="M36" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="N36" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="O36" s="2">
+        <v>1</v>
+      </c>
+      <c r="P36" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="R36" s="2">
+        <v>17</v>
+      </c>
+      <c r="T36" s="2">
+        <v>25</v>
+      </c>
+      <c r="U36" s="17" t="s">
+        <v>338</v>
+      </c>
+      <c r="V36" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="W36" s="5"/>
+    </row>
+    <row r="37" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="M37" s="4"/>
+      <c r="U37" s="17"/>
+      <c r="V37" s="5"/>
+      <c r="W37" s="5"/>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A38" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2">
+        <v>1</v>
+      </c>
+      <c r="F38" s="2"/>
+      <c r="G38" s="3">
+        <v>1</v>
+      </c>
+      <c r="H38" s="2">
+        <v>1</v>
+      </c>
+      <c r="I38" s="2">
+        <v>1</v>
+      </c>
+      <c r="J38" s="2">
+        <v>1</v>
+      </c>
+      <c r="K38" s="3">
         <v>30</v>
       </c>
-      <c r="M35" s="4"/>
-      <c r="N35" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="O35" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="P35" s="1">
+      <c r="L38" s="2">
+        <v>30</v>
+      </c>
+      <c r="N38" s="2">
         <v>0.3</v>
       </c>
-      <c r="Q35" s="1">
+      <c r="O38" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="P38" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2">
         <v>10</v>
       </c>
-      <c r="R35" s="1">
-        <v>10</v>
-      </c>
-      <c r="U35" s="17" t="s">
-        <v>308</v>
-      </c>
-      <c r="V35" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="W35" s="5" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B36" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2">
-        <v>1</v>
-      </c>
-      <c r="F36" s="2"/>
-      <c r="G36" s="3">
-        <v>1</v>
-      </c>
-      <c r="H36" s="2">
-        <v>1</v>
-      </c>
-      <c r="I36" s="2">
-        <v>1</v>
-      </c>
-      <c r="J36" s="2">
-        <v>1</v>
-      </c>
-      <c r="K36" s="3">
+      <c r="U38" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="V38" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="W38" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="6"/>
+      <c r="B39" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E39" s="2">
+        <v>1</v>
+      </c>
+      <c r="G39" s="3">
+        <v>1</v>
+      </c>
+      <c r="H39" s="2">
+        <v>1</v>
+      </c>
+      <c r="I39" s="2">
+        <v>1</v>
+      </c>
+      <c r="J39" s="2">
+        <v>1</v>
+      </c>
+      <c r="K39" s="3">
         <v>30</v>
       </c>
-      <c r="L36" s="2">
-        <v>40</v>
-      </c>
-      <c r="M36" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="N36" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="O36" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="P36" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="Q36" s="2">
-        <v>10</v>
-      </c>
-      <c r="R36" s="2">
-        <v>10</v>
-      </c>
-      <c r="U36" s="17" t="s">
-        <v>306</v>
-      </c>
-      <c r="V36" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="W36" s="5" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E37" s="2">
-        <v>1</v>
-      </c>
-      <c r="G37" s="3">
-        <v>1</v>
-      </c>
-      <c r="H37" s="2">
-        <v>1</v>
-      </c>
-      <c r="I37" s="2">
-        <v>1</v>
-      </c>
-      <c r="J37" s="2">
-        <v>1</v>
-      </c>
-      <c r="K37" s="3">
-        <v>40</v>
-      </c>
-      <c r="L37" s="2">
-        <v>30</v>
-      </c>
-      <c r="M37" s="4"/>
-      <c r="N37" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="O37" s="2">
-        <v>1</v>
-      </c>
-      <c r="P37" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="R37" s="2">
-        <v>10</v>
-      </c>
-      <c r="U37" s="17"/>
-      <c r="V37" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="W37" s="5" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E39" s="2">
-        <v>1</v>
-      </c>
-      <c r="G39" s="3">
-        <v>1</v>
-      </c>
-      <c r="H39" s="2">
-        <v>1</v>
-      </c>
-      <c r="I39" s="2">
-        <v>1</v>
-      </c>
-      <c r="J39" s="2">
-        <v>1</v>
-      </c>
-      <c r="K39" s="3">
-        <v>60</v>
-      </c>
       <c r="L39" s="2">
-        <v>60</v>
-      </c>
-      <c r="M39" s="4" t="s">
-        <v>46</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="M39" s="4"/>
       <c r="N39" s="2">
         <v>0.4</v>
       </c>
@@ -3435,59 +3508,80 @@
       <c r="P39" s="2">
         <v>0.3</v>
       </c>
+      <c r="Q39" s="2">
+        <v>15</v>
+      </c>
       <c r="R39" s="2">
         <v>15</v>
       </c>
-      <c r="U39" s="17"/>
+      <c r="U39" s="17" t="s">
+        <v>300</v>
+      </c>
       <c r="V39" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="W39" s="5"/>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B40" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E40" s="1">
+        <v>234</v>
+      </c>
+      <c r="W39" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="6"/>
+      <c r="B40" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E40" s="2">
         <v>1</v>
       </c>
       <c r="G40" s="3">
         <v>1</v>
       </c>
-      <c r="H40" s="1">
-        <v>1</v>
-      </c>
-      <c r="I40" s="1">
-        <v>1</v>
-      </c>
-      <c r="J40" s="1">
+      <c r="H40" s="2">
+        <v>1</v>
+      </c>
+      <c r="I40" s="2">
+        <v>1</v>
+      </c>
+      <c r="J40" s="2">
         <v>1</v>
       </c>
       <c r="K40" s="3">
-        <v>100</v>
-      </c>
-      <c r="L40" s="1">
         <v>20</v>
       </c>
-      <c r="N40" s="1">
+      <c r="L40" s="2">
+        <v>40</v>
+      </c>
+      <c r="M40" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="N40" s="2">
         <v>0.3</v>
       </c>
-      <c r="O40" s="1">
-        <v>1</v>
-      </c>
-      <c r="P40" s="1">
+      <c r="O40" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="P40" s="2">
         <v>0.3</v>
       </c>
-      <c r="R40" s="1">
+      <c r="Q40" s="2">
         <v>10</v>
       </c>
+      <c r="R40" s="2">
+        <v>10</v>
+      </c>
+      <c r="U40" s="17" t="s">
+        <v>301</v>
+      </c>
       <c r="V40" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
+      </c>
+      <c r="W40" s="5" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="41" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="6"/>
       <c r="B41" s="2" t="s">
-        <v>93</v>
+        <v>199</v>
       </c>
       <c r="E41" s="2">
         <v>1</v>
@@ -3505,16 +3599,14 @@
         <v>1</v>
       </c>
       <c r="K41" s="3">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="L41" s="2">
-        <v>80</v>
-      </c>
-      <c r="M41" s="4" t="s">
-        <v>46</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="M41" s="4"/>
       <c r="N41" s="2">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="O41" s="2">
         <v>1</v>
@@ -3522,18 +3614,26 @@
       <c r="P41" s="2">
         <v>0.3</v>
       </c>
+      <c r="Q41" s="2">
+        <v>15</v>
+      </c>
       <c r="R41" s="2">
-        <v>10</v>
-      </c>
-      <c r="U41" s="17"/>
+        <v>15</v>
+      </c>
+      <c r="U41" s="17" t="s">
+        <v>300</v>
+      </c>
       <c r="V41" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="W41" s="5"/>
+        <v>229</v>
+      </c>
+      <c r="W41" s="5" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="42" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="6"/>
       <c r="B42" s="2" t="s">
-        <v>96</v>
+        <v>201</v>
       </c>
       <c r="E42" s="2">
         <v>1</v>
@@ -3551,10 +3651,10 @@
         <v>1</v>
       </c>
       <c r="K42" s="3">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="L42" s="2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="M42" s="4"/>
       <c r="N42" s="2">
@@ -3566,63 +3666,86 @@
       <c r="P42" s="2">
         <v>0.3</v>
       </c>
+      <c r="Q42" s="2">
+        <v>12</v>
+      </c>
       <c r="R42" s="2">
-        <v>15</v>
-      </c>
-      <c r="U42" s="17"/>
+        <v>10</v>
+      </c>
+      <c r="U42" s="17" t="s">
+        <v>302</v>
+      </c>
       <c r="V42" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="W42" s="5"/>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+      <c r="W42" s="5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="6"/>
       <c r="B43" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E43" s="1">
+        <v>202</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="2">
         <v>1</v>
       </c>
       <c r="G43" s="3">
         <v>1</v>
       </c>
-      <c r="H43" s="1">
-        <v>1</v>
-      </c>
-      <c r="I43" s="1">
-        <v>1</v>
-      </c>
-      <c r="J43" s="1">
+      <c r="H43" s="2">
+        <v>1</v>
+      </c>
+      <c r="I43" s="2">
+        <v>1</v>
+      </c>
+      <c r="J43" s="2">
         <v>1</v>
       </c>
       <c r="K43" s="3">
         <v>60</v>
       </c>
       <c r="L43" s="1">
-        <v>100</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="M43" s="4"/>
       <c r="N43" s="1">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="O43" s="1">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="P43" s="1">
-        <v>0.4</v>
+        <v>0.3</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>10</v>
       </c>
       <c r="R43" s="1">
         <v>10</v>
       </c>
+      <c r="U43" s="17" t="s">
+        <v>303</v>
+      </c>
       <c r="V43" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+      <c r="W43" s="5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B44" s="2" t="s">
-        <v>100</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
       <c r="E44" s="2">
         <v>1</v>
       </c>
+      <c r="F44" s="2"/>
       <c r="G44" s="3">
         <v>1</v>
       </c>
@@ -3636,37 +3759,44 @@
         <v>1</v>
       </c>
       <c r="K44" s="3">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="L44" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="N44" s="2">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="O44" s="2">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="P44" s="2">
-        <v>0.6</v>
+        <v>0.3</v>
+      </c>
+      <c r="Q44" s="2">
+        <v>10</v>
       </c>
       <c r="R44" s="2">
-        <v>17</v>
-      </c>
-      <c r="U44" s="17"/>
+        <v>10</v>
+      </c>
+      <c r="U44" s="17" t="s">
+        <v>301</v>
+      </c>
       <c r="V44" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="W44" s="5"/>
+        <v>113</v>
+      </c>
+      <c r="W44" s="5" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="45" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F45" s="2">
+        <v>212</v>
+      </c>
+      <c r="E45" s="2">
         <v>1</v>
       </c>
       <c r="G45" s="3">
@@ -3682,134 +3812,125 @@
         <v>1</v>
       </c>
       <c r="K45" s="3">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="L45" s="2">
-        <v>80</v>
-      </c>
-      <c r="M45" s="4" t="s">
-        <v>188</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="M45" s="4"/>
       <c r="N45" s="2">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="O45" s="2">
         <v>1</v>
       </c>
       <c r="P45" s="2">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="R45" s="2">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="U45" s="17"/>
       <c r="V45" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="W45" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E47" s="2">
+        <v>1</v>
+      </c>
+      <c r="G47" s="3">
+        <v>1</v>
+      </c>
+      <c r="H47" s="2">
+        <v>1</v>
+      </c>
+      <c r="I47" s="2">
+        <v>1</v>
+      </c>
+      <c r="J47" s="2">
+        <v>1</v>
+      </c>
+      <c r="K47" s="3">
+        <v>60</v>
+      </c>
+      <c r="L47" s="2">
+        <v>60</v>
+      </c>
+      <c r="M47" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N47" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="O47" s="2">
+        <v>1</v>
+      </c>
+      <c r="P47" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="R47" s="2">
+        <v>15</v>
+      </c>
+      <c r="U47" s="17"/>
+      <c r="V47" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="W47" s="5"/>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B48" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E48" s="1">
+        <v>1</v>
+      </c>
+      <c r="G48" s="3">
+        <v>1</v>
+      </c>
+      <c r="H48" s="1">
+        <v>1</v>
+      </c>
+      <c r="I48" s="1">
+        <v>1</v>
+      </c>
+      <c r="J48" s="1">
+        <v>1</v>
+      </c>
+      <c r="K48" s="3">
+        <v>100</v>
+      </c>
+      <c r="L48" s="1">
+        <v>20</v>
+      </c>
+      <c r="N48" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="O48" s="1">
+        <v>1</v>
+      </c>
+      <c r="P48" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="R48" s="1">
+        <v>10</v>
+      </c>
+      <c r="V48" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="W45" s="5"/>
-    </row>
-    <row r="46" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F46" s="2">
-        <v>1</v>
-      </c>
-      <c r="G46" s="3">
-        <v>1</v>
-      </c>
-      <c r="H46" s="2">
-        <v>1</v>
-      </c>
-      <c r="I46" s="2">
-        <v>1</v>
-      </c>
-      <c r="J46" s="2">
-        <v>1</v>
-      </c>
-      <c r="K46" s="3">
-        <v>80</v>
-      </c>
-      <c r="L46" s="2">
-        <v>130</v>
-      </c>
-      <c r="M46" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="N46" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="O46" s="2">
-        <v>1</v>
-      </c>
-      <c r="P46" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="R46" s="2">
-        <v>20</v>
-      </c>
-      <c r="U46" s="17"/>
-      <c r="V46" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="W46" s="5"/>
-    </row>
-    <row r="48" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E48" s="2">
-        <v>1</v>
-      </c>
-      <c r="G48" s="3">
-        <v>1</v>
-      </c>
-      <c r="H48" s="2">
-        <v>1</v>
-      </c>
-      <c r="I48" s="2">
-        <v>1</v>
-      </c>
-      <c r="J48" s="2">
-        <v>1</v>
-      </c>
-      <c r="K48" s="3">
-        <v>20</v>
-      </c>
-      <c r="L48" s="2">
-        <v>30</v>
-      </c>
-      <c r="M48" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="N48" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="O48" s="2">
-        <v>1</v>
-      </c>
-      <c r="P48" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="Q48" s="2">
-        <v>25</v>
-      </c>
-      <c r="R48" s="2">
-        <v>10</v>
-      </c>
-      <c r="U48" s="17"/>
-      <c r="V48" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="W48" s="5"/>
     </row>
     <row r="49" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="6"/>
       <c r="B49" s="2" t="s">
-        <v>128</v>
+        <v>93</v>
       </c>
       <c r="E49" s="2">
         <v>1</v>
@@ -3830,11 +3951,13 @@
         <v>60</v>
       </c>
       <c r="L49" s="2">
-        <v>60</v>
-      </c>
-      <c r="M49" s="4"/>
+        <v>80</v>
+      </c>
+      <c r="M49" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="N49" s="2">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="O49" s="2">
         <v>1</v>
@@ -3842,27 +3965,25 @@
       <c r="P49" s="2">
         <v>0.3</v>
       </c>
-      <c r="Q49" s="2">
-        <v>40</v>
-      </c>
       <c r="R49" s="2">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="U49" s="17"/>
       <c r="V49" s="5" t="s">
-        <v>148</v>
+        <v>117</v>
       </c>
       <c r="W49" s="5"/>
     </row>
     <row r="50" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="6"/>
       <c r="B50" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="F50" s="2">
-        <v>1</v>
-      </c>
-      <c r="G50" s="3"/>
+        <v>96</v>
+      </c>
+      <c r="E50" s="2">
+        <v>1</v>
+      </c>
+      <c r="G50" s="3">
+        <v>1</v>
+      </c>
       <c r="H50" s="2">
         <v>1</v>
       </c>
@@ -3873,40 +3994,35 @@
         <v>1</v>
       </c>
       <c r="K50" s="3">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="L50" s="2">
-        <v>90</v>
-      </c>
-      <c r="M50" s="4" t="s">
-        <v>135</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="M50" s="4"/>
       <c r="N50" s="2">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="O50" s="2">
         <v>1</v>
       </c>
       <c r="P50" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="Q50" s="2">
-        <v>70</v>
+        <v>0.3</v>
       </c>
       <c r="R50" s="2">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="U50" s="17"/>
       <c r="V50" s="5" t="s">
-        <v>177</v>
+        <v>52</v>
       </c>
       <c r="W50" s="5"/>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F51" s="1">
+        <v>97</v>
+      </c>
+      <c r="E51" s="1">
         <v>1</v>
       </c>
       <c r="G51" s="3">
@@ -3922,87 +4038,78 @@
         <v>1</v>
       </c>
       <c r="K51" s="3">
+        <v>60</v>
+      </c>
+      <c r="L51" s="1">
         <v>100</v>
       </c>
-      <c r="L51" s="1">
-        <v>50</v>
-      </c>
-      <c r="M51" s="4" t="s">
-        <v>135</v>
-      </c>
       <c r="N51" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="O51" s="1">
+        <v>1</v>
+      </c>
+      <c r="P51" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="R51" s="1">
+        <v>10</v>
+      </c>
+      <c r="V51" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E52" s="2">
+        <v>1</v>
+      </c>
+      <c r="G52" s="3">
+        <v>1</v>
+      </c>
+      <c r="H52" s="2">
+        <v>1</v>
+      </c>
+      <c r="I52" s="2">
+        <v>1</v>
+      </c>
+      <c r="J52" s="2">
+        <v>1</v>
+      </c>
+      <c r="K52" s="3">
+        <v>80</v>
+      </c>
+      <c r="L52" s="2">
+        <v>80</v>
+      </c>
+      <c r="M52" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="N52" s="2">
         <v>0.6</v>
       </c>
-      <c r="O51" s="1">
-        <v>1</v>
-      </c>
-      <c r="P51" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="Q51" s="1">
-        <v>60</v>
-      </c>
-      <c r="R51" s="1">
-        <v>20</v>
-      </c>
-      <c r="V51" s="5" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="52" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="6"/>
-      <c r="B52" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E52" s="2">
-        <v>1</v>
-      </c>
-      <c r="G52" s="3">
-        <v>1</v>
-      </c>
-      <c r="H52" s="2">
-        <v>1</v>
-      </c>
-      <c r="I52" s="2">
-        <v>1</v>
-      </c>
-      <c r="J52" s="2">
-        <v>1</v>
-      </c>
-      <c r="K52" s="3">
-        <v>30</v>
-      </c>
-      <c r="L52" s="2">
-        <v>50</v>
-      </c>
-      <c r="M52" s="4"/>
-      <c r="N52" s="2">
-        <v>0.3</v>
-      </c>
       <c r="O52" s="2">
         <v>1</v>
       </c>
       <c r="P52" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="Q52" s="2">
-        <v>10</v>
+        <v>0.6</v>
       </c>
       <c r="R52" s="2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="U52" s="17"/>
       <c r="V52" s="5" t="s">
-        <v>182</v>
+        <v>52</v>
       </c>
       <c r="W52" s="5"/>
     </row>
     <row r="53" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="6"/>
       <c r="B53" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="E53" s="2">
+        <v>106</v>
+      </c>
+      <c r="F53" s="2">
         <v>1</v>
       </c>
       <c r="G53" s="3">
@@ -4018,41 +4125,37 @@
         <v>1</v>
       </c>
       <c r="K53" s="3">
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="L53" s="2">
-        <v>70</v>
-      </c>
-      <c r="M53" s="4"/>
+        <v>80</v>
+      </c>
+      <c r="M53" s="4" t="s">
+        <v>188</v>
+      </c>
       <c r="N53" s="2">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="O53" s="2">
         <v>1</v>
       </c>
       <c r="P53" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="Q53" s="2">
-        <v>40</v>
+        <v>0.6</v>
       </c>
       <c r="R53" s="2">
-        <v>15</v>
-      </c>
-      <c r="U53" s="17" t="s">
-        <v>291</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="U53" s="17"/>
       <c r="V53" s="5" t="s">
-        <v>256</v>
+        <v>116</v>
       </c>
       <c r="W53" s="5"/>
     </row>
     <row r="54" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="6"/>
       <c r="B54" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="E54" s="2">
+        <v>107</v>
+      </c>
+      <c r="F54" s="2">
         <v>1</v>
       </c>
       <c r="G54" s="3">
@@ -4068,111 +4171,111 @@
         <v>1</v>
       </c>
       <c r="K54" s="3">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="L54" s="2">
+        <v>130</v>
+      </c>
+      <c r="M54" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="N54" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="O54" s="2">
+        <v>1</v>
+      </c>
+      <c r="P54" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="R54" s="2">
         <v>20</v>
-      </c>
-      <c r="M54" s="4"/>
-      <c r="N54" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="O54" s="2">
-        <v>1</v>
-      </c>
-      <c r="P54" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="Q54" s="2">
-        <v>30</v>
-      </c>
-      <c r="R54" s="2">
-        <v>15</v>
       </c>
       <c r="U54" s="17"/>
       <c r="V54" s="5" t="s">
-        <v>182</v>
+        <v>117</v>
       </c>
       <c r="W54" s="5"/>
     </row>
-    <row r="55" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="6"/>
-      <c r="B55" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="E55" s="2">
-        <v>1</v>
-      </c>
-      <c r="G55" s="3">
-        <v>1</v>
-      </c>
-      <c r="H55" s="2">
-        <v>1</v>
-      </c>
-      <c r="I55" s="2">
-        <v>1</v>
-      </c>
-      <c r="J55" s="2">
-        <v>1</v>
-      </c>
-      <c r="K55" s="3">
-        <v>80</v>
-      </c>
-      <c r="L55" s="2">
+    <row r="56" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E56" s="2">
+        <v>1</v>
+      </c>
+      <c r="G56" s="3">
+        <v>1</v>
+      </c>
+      <c r="H56" s="2">
+        <v>1</v>
+      </c>
+      <c r="I56" s="2">
+        <v>1</v>
+      </c>
+      <c r="J56" s="2">
+        <v>1</v>
+      </c>
+      <c r="K56" s="3">
+        <v>20</v>
+      </c>
+      <c r="L56" s="2">
+        <v>30</v>
+      </c>
+      <c r="M56" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="N56" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="O56" s="2">
+        <v>1</v>
+      </c>
+      <c r="P56" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="Q56" s="2">
+        <v>25</v>
+      </c>
+      <c r="R56" s="2">
+        <v>10</v>
+      </c>
+      <c r="U56" s="17"/>
+      <c r="V56" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="W56" s="5"/>
+    </row>
+    <row r="57" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="6"/>
+      <c r="B57" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E57" s="2">
+        <v>1</v>
+      </c>
+      <c r="G57" s="3">
+        <v>1</v>
+      </c>
+      <c r="H57" s="2">
+        <v>1</v>
+      </c>
+      <c r="I57" s="2">
+        <v>1</v>
+      </c>
+      <c r="J57" s="2">
+        <v>1</v>
+      </c>
+      <c r="K57" s="3">
         <v>60</v>
       </c>
-      <c r="M55" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="N55" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="O55" s="2">
-        <v>1</v>
-      </c>
-      <c r="P55" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="Q55" s="2">
-        <v>50</v>
-      </c>
-      <c r="R55" s="2">
-        <v>20</v>
-      </c>
-      <c r="U55" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="V55" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="W55" s="5"/>
-    </row>
-    <row r="56" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="6"/>
-      <c r="G56" s="3"/>
-      <c r="K56" s="3"/>
-      <c r="M56" s="4"/>
-      <c r="U56" s="5"/>
-      <c r="V56" s="5"/>
-      <c r="W56" s="5"/>
-    </row>
-    <row r="57" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="E57" s="2">
-        <v>1</v>
-      </c>
-      <c r="G57" s="3">
-        <v>1</v>
-      </c>
-      <c r="K57" s="3"/>
-      <c r="M57" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="L57" s="2">
+        <v>60</v>
+      </c>
+      <c r="M57" s="4"/>
       <c r="N57" s="2">
         <v>0.4</v>
       </c>
@@ -4180,33 +4283,29 @@
         <v>1</v>
       </c>
       <c r="P57" s="2">
-        <v>0.4</v>
+        <v>0.3</v>
+      </c>
+      <c r="Q57" s="2">
+        <v>40</v>
       </c>
       <c r="R57" s="2">
-        <v>10</v>
-      </c>
-      <c r="T57" s="2">
-        <v>25</v>
-      </c>
-      <c r="U57" s="5" t="s">
-        <v>297</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="U57" s="17"/>
       <c r="V57" s="5" t="s">
-        <v>264</v>
+        <v>148</v>
       </c>
       <c r="W57" s="5"/>
     </row>
     <row r="58" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="6"/>
       <c r="B58" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="E58" s="2">
-        <v>1</v>
-      </c>
-      <c r="G58" s="3">
-        <v>1</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="F58" s="2">
+        <v>1</v>
+      </c>
+      <c r="G58" s="3"/>
       <c r="H58" s="2">
         <v>1</v>
       </c>
@@ -4217,85 +4316,86 @@
         <v>1</v>
       </c>
       <c r="K58" s="3">
-        <v>10</v>
-      </c>
-      <c r="M58" s="4"/>
+        <v>30</v>
+      </c>
+      <c r="L58" s="2">
+        <v>90</v>
+      </c>
+      <c r="M58" s="4" t="s">
+        <v>135</v>
+      </c>
       <c r="N58" s="2">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="O58" s="2">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="P58" s="2">
-        <v>0.2</v>
+        <v>0.5</v>
+      </c>
+      <c r="Q58" s="2">
+        <v>70</v>
       </c>
       <c r="R58" s="2">
-        <v>10</v>
-      </c>
-      <c r="S58" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="U58" s="5" t="s">
-        <v>310</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="U58" s="17"/>
       <c r="V58" s="5" t="s">
-        <v>295</v>
+        <v>177</v>
       </c>
       <c r="W58" s="5"/>
     </row>
-    <row r="59" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="6"/>
-      <c r="B59" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="E59" s="2">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B59" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F59" s="1">
         <v>1</v>
       </c>
       <c r="G59" s="3">
         <v>1</v>
       </c>
-      <c r="H59" s="2">
-        <v>1</v>
-      </c>
-      <c r="I59" s="2">
-        <v>1</v>
-      </c>
-      <c r="J59" s="2">
+      <c r="H59" s="1">
+        <v>1</v>
+      </c>
+      <c r="I59" s="1">
+        <v>1</v>
+      </c>
+      <c r="J59" s="1">
         <v>1</v>
       </c>
       <c r="K59" s="3">
-        <v>30</v>
+        <v>100</v>
+      </c>
+      <c r="L59" s="1">
+        <v>50</v>
       </c>
       <c r="M59" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="N59" s="2">
+        <v>135</v>
+      </c>
+      <c r="N59" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="O59" s="1">
+        <v>1</v>
+      </c>
+      <c r="P59" s="1">
         <v>0.5</v>
       </c>
-      <c r="O59" s="2">
-        <v>1</v>
-      </c>
-      <c r="P59" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="R59" s="2">
-        <v>15</v>
-      </c>
-      <c r="S59" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="U59" s="17" t="s">
-        <v>309</v>
+      <c r="Q59" s="1">
+        <v>60</v>
+      </c>
+      <c r="R59" s="1">
+        <v>20</v>
       </c>
       <c r="V59" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="W59" s="5"/>
+        <v>176</v>
+      </c>
     </row>
     <row r="60" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="6"/>
       <c r="B60" s="2" t="s">
-        <v>304</v>
+        <v>181</v>
       </c>
       <c r="E60" s="2">
         <v>1</v>
@@ -4313,39 +4413,37 @@
         <v>1</v>
       </c>
       <c r="K60" s="3">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="L60" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M60" s="4"/>
       <c r="N60" s="2">
         <v>0.3</v>
       </c>
       <c r="O60" s="2">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="P60" s="2">
         <v>0.3</v>
       </c>
       <c r="Q60" s="2">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R60" s="2">
-        <v>10</v>
-      </c>
-      <c r="U60" s="17" t="s">
-        <v>305</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="U60" s="17"/>
       <c r="V60" s="5" t="s">
-        <v>114</v>
+        <v>182</v>
       </c>
       <c r="W60" s="5"/>
     </row>
     <row r="61" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="6"/>
       <c r="B61" s="2" t="s">
-        <v>313</v>
+        <v>186</v>
       </c>
       <c r="E61" s="2">
         <v>1</v>
@@ -4363,45 +4461,39 @@
         <v>1</v>
       </c>
       <c r="K61" s="3">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="L61" s="2">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="M61" s="4"/>
       <c r="N61" s="2">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="O61" s="2">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="P61" s="2">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="Q61" s="2">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="R61" s="2">
-        <v>10</v>
-      </c>
-      <c r="S61" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="T61" s="2">
-        <v>20</v>
-      </c>
-      <c r="U61" s="5" t="s">
-        <v>258</v>
+        <v>15</v>
+      </c>
+      <c r="U61" s="17" t="s">
+        <v>287</v>
       </c>
       <c r="V61" s="5" t="s">
-        <v>113</v>
+        <v>256</v>
       </c>
       <c r="W61" s="5"/>
     </row>
     <row r="62" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="6"/>
       <c r="B62" s="2" t="s">
-        <v>314</v>
+        <v>184</v>
       </c>
       <c r="E62" s="2">
         <v>1</v>
@@ -4419,39 +4511,37 @@
         <v>1</v>
       </c>
       <c r="K62" s="3">
-        <v>60</v>
+        <v>90</v>
+      </c>
+      <c r="L62" s="2">
+        <v>20</v>
       </c>
       <c r="M62" s="4"/>
       <c r="N62" s="2">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="O62" s="2">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="P62" s="2">
         <v>0.3</v>
       </c>
+      <c r="Q62" s="2">
+        <v>30</v>
+      </c>
       <c r="R62" s="2">
-        <v>10</v>
-      </c>
-      <c r="S62" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="T62" s="2">
-        <v>20</v>
-      </c>
-      <c r="U62" s="5" t="s">
-        <v>258</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="U62" s="17"/>
       <c r="V62" s="5" t="s">
-        <v>295</v>
+        <v>182</v>
       </c>
       <c r="W62" s="5"/>
     </row>
     <row r="63" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="6"/>
       <c r="B63" s="2" t="s">
-        <v>315</v>
+        <v>185</v>
       </c>
       <c r="E63" s="2">
         <v>1</v>
@@ -4469,13 +4559,13 @@
         <v>1</v>
       </c>
       <c r="K63" s="3">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="L63" s="2">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="M63" s="4" t="s">
-        <v>51</v>
+        <v>135</v>
       </c>
       <c r="N63" s="2">
         <v>0.5</v>
@@ -4484,222 +4574,221 @@
         <v>1</v>
       </c>
       <c r="P63" s="2">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="Q63" s="2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="R63" s="2">
-        <v>10</v>
-      </c>
-      <c r="U63" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="U63" s="5" t="s">
+        <v>187</v>
+      </c>
       <c r="V63" s="5" t="s">
-        <v>113</v>
+        <v>182</v>
       </c>
       <c r="W63" s="5"/>
     </row>
     <row r="64" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="6"/>
-      <c r="B64" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="E64" s="2">
-        <v>1</v>
-      </c>
-      <c r="G64" s="3">
-        <v>1</v>
-      </c>
-      <c r="H64" s="2">
-        <v>1</v>
-      </c>
-      <c r="I64" s="2">
-        <v>1</v>
-      </c>
-      <c r="J64" s="2">
-        <v>1</v>
-      </c>
-      <c r="K64" s="3">
-        <v>100</v>
-      </c>
-      <c r="L64" s="2">
+      <c r="G64" s="3"/>
+      <c r="K64" s="3"/>
+      <c r="M64" s="4"/>
+      <c r="U64" s="5"/>
+      <c r="V64" s="5"/>
+      <c r="W64" s="5"/>
+    </row>
+    <row r="65" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E65" s="2">
+        <v>1</v>
+      </c>
+      <c r="G65" s="3">
+        <v>1</v>
+      </c>
+      <c r="K65" s="3"/>
+      <c r="M65" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="N65" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="O65" s="2">
+        <v>1</v>
+      </c>
+      <c r="P65" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="R65" s="2">
+        <v>10</v>
+      </c>
+      <c r="T65" s="2">
+        <v>25</v>
+      </c>
+      <c r="U65" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="V65" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="W65" s="5"/>
+    </row>
+    <row r="66" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="6"/>
+      <c r="B66" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="E66" s="2">
+        <v>1</v>
+      </c>
+      <c r="G66" s="3">
+        <v>1</v>
+      </c>
+      <c r="H66" s="2">
+        <v>1</v>
+      </c>
+      <c r="I66" s="2">
+        <v>1</v>
+      </c>
+      <c r="J66" s="2">
+        <v>1</v>
+      </c>
+      <c r="K66" s="3">
+        <v>10</v>
+      </c>
+      <c r="M66" s="4"/>
+      <c r="N66" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="O66" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="P66" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="R66" s="2">
+        <v>10</v>
+      </c>
+      <c r="S66" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="U66" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="V66" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="W66" s="5"/>
+    </row>
+    <row r="67" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="6"/>
+      <c r="B67" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="E67" s="2">
+        <v>1</v>
+      </c>
+      <c r="G67" s="3">
+        <v>1</v>
+      </c>
+      <c r="H67" s="2">
+        <v>1</v>
+      </c>
+      <c r="I67" s="2">
+        <v>1</v>
+      </c>
+      <c r="J67" s="2">
+        <v>1</v>
+      </c>
+      <c r="K67" s="3">
+        <v>30</v>
+      </c>
+      <c r="M67" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="N67" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="O67" s="2">
+        <v>1</v>
+      </c>
+      <c r="P67" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="R67" s="2">
+        <v>15</v>
+      </c>
+      <c r="S67" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="U67" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="V67" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="W67" s="5"/>
+    </row>
+    <row r="68" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="6"/>
+      <c r="B68" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E68" s="2">
+        <v>1</v>
+      </c>
+      <c r="G68" s="3">
+        <v>1</v>
+      </c>
+      <c r="H68" s="2">
+        <v>1</v>
+      </c>
+      <c r="I68" s="2">
+        <v>1</v>
+      </c>
+      <c r="J68" s="2">
+        <v>1</v>
+      </c>
+      <c r="K68" s="3">
         <v>20</v>
       </c>
-      <c r="M64" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="N64" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="O64" s="2">
-        <v>1</v>
-      </c>
-      <c r="P64" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="Q64" s="2">
-        <v>10</v>
-      </c>
-      <c r="R64" s="2">
+      <c r="L68" s="2">
         <v>20</v>
-      </c>
-      <c r="S64" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="T64" s="2">
-        <v>30</v>
-      </c>
-      <c r="U64" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="V64" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="W64" s="5"/>
-    </row>
-    <row r="66" spans="1:23" ht="57" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E66" s="1">
-        <v>1</v>
-      </c>
-      <c r="G66" s="3">
-        <v>1</v>
-      </c>
-      <c r="I66" s="1">
-        <v>1</v>
-      </c>
-      <c r="J66" s="1">
-        <v>1</v>
-      </c>
-      <c r="M66" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="N66" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="O66" s="1">
-        <v>1</v>
-      </c>
-      <c r="P66" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="Q66" s="1">
-        <v>10</v>
-      </c>
-      <c r="R66" s="1">
-        <v>20</v>
-      </c>
-      <c r="T66" s="2">
-        <v>10</v>
-      </c>
-      <c r="U66" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="V66" s="5" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B67" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="E67" s="1">
-        <v>1</v>
-      </c>
-      <c r="G67" s="3">
-        <v>1</v>
-      </c>
-      <c r="H67" s="1">
-        <v>1</v>
-      </c>
-      <c r="I67" s="1">
-        <v>1</v>
-      </c>
-      <c r="J67" s="1">
-        <v>1</v>
-      </c>
-      <c r="K67" s="3">
-        <v>20</v>
-      </c>
-      <c r="L67" s="1">
-        <v>40</v>
-      </c>
-      <c r="N67" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="O67" s="1">
-        <v>1</v>
-      </c>
-      <c r="P67" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="R67" s="1">
-        <v>10</v>
-      </c>
-      <c r="T67" s="2">
-        <v>30</v>
-      </c>
-      <c r="U67" s="18" t="s">
-        <v>263</v>
-      </c>
-      <c r="V67" s="5" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="68" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E68" s="2">
-        <v>1</v>
-      </c>
-      <c r="G68" s="3">
-        <v>1</v>
-      </c>
-      <c r="H68" s="2">
-        <v>1</v>
-      </c>
-      <c r="I68" s="2">
-        <v>1</v>
-      </c>
-      <c r="J68" s="2">
-        <v>1</v>
-      </c>
-      <c r="K68" s="3"/>
-      <c r="L68" s="2">
-        <v>30</v>
       </c>
       <c r="M68" s="4"/>
       <c r="N68" s="2">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="O68" s="2">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="P68" s="2">
         <v>0.3</v>
       </c>
+      <c r="Q68" s="2">
+        <v>20</v>
+      </c>
       <c r="R68" s="2">
         <v>10</v>
       </c>
-      <c r="T68" s="2">
-        <v>10</v>
-      </c>
       <c r="U68" s="17" t="s">
-        <v>259</v>
+        <v>300</v>
       </c>
       <c r="V68" s="5" t="s">
-        <v>235</v>
+        <v>114</v>
       </c>
       <c r="W68" s="5"/>
     </row>
     <row r="69" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="6"/>
       <c r="B69" s="2" t="s">
-        <v>236</v>
+        <v>308</v>
       </c>
       <c r="E69" s="2">
         <v>1</v>
@@ -4720,37 +4809,44 @@
         <v>30</v>
       </c>
       <c r="L69" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M69" s="4"/>
       <c r="N69" s="2">
         <v>0.3</v>
       </c>
       <c r="O69" s="2">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="P69" s="2">
         <v>0.3</v>
       </c>
+      <c r="Q69" s="2">
+        <v>10</v>
+      </c>
       <c r="R69" s="2">
         <v>10</v>
       </c>
+      <c r="S69" s="2" t="s">
+        <v>290</v>
+      </c>
       <c r="T69" s="2">
         <v>20</v>
       </c>
-      <c r="U69" s="17" t="s">
-        <v>260</v>
+      <c r="U69" s="5" t="s">
+        <v>258</v>
       </c>
       <c r="V69" s="5" t="s">
-        <v>264</v>
+        <v>113</v>
       </c>
       <c r="W69" s="5"/>
     </row>
     <row r="70" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="6"/>
       <c r="B70" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="F70" s="2">
+        <v>309</v>
+      </c>
+      <c r="E70" s="2">
         <v>1</v>
       </c>
       <c r="G70" s="3">
@@ -4766,61 +4862,66 @@
         <v>1</v>
       </c>
       <c r="K70" s="3">
-        <v>50</v>
-      </c>
-      <c r="L70" s="2">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="M70" s="4"/>
       <c r="N70" s="2">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="O70" s="2">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="P70" s="2">
         <v>0.3</v>
       </c>
       <c r="R70" s="2">
+        <v>10</v>
+      </c>
+      <c r="S70" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="T70" s="2">
         <v>20</v>
       </c>
-      <c r="T70" s="2">
+      <c r="U70" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="V70" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="W70" s="5"/>
+    </row>
+    <row r="71" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="6"/>
+      <c r="B71" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="E71" s="2">
+        <v>1</v>
+      </c>
+      <c r="G71" s="3">
+        <v>1</v>
+      </c>
+      <c r="H71" s="2">
+        <v>1</v>
+      </c>
+      <c r="I71" s="2">
+        <v>1</v>
+      </c>
+      <c r="J71" s="2">
+        <v>1</v>
+      </c>
+      <c r="K71" s="3">
+        <v>30</v>
+      </c>
+      <c r="L71" s="2">
         <v>10</v>
       </c>
-      <c r="U70" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="V70" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="W70" s="5"/>
-    </row>
-    <row r="71" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="E71" s="2">
-        <v>1</v>
-      </c>
-      <c r="G71" s="3">
-        <v>1</v>
-      </c>
-      <c r="H71" s="2">
-        <v>1</v>
-      </c>
-      <c r="I71" s="2">
-        <v>1</v>
-      </c>
-      <c r="J71" s="2">
-        <v>1</v>
-      </c>
-      <c r="K71" s="3"/>
-      <c r="L71" s="2">
-        <v>40</v>
-      </c>
-      <c r="M71" s="4"/>
+      <c r="M71" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="N71" s="2">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="O71" s="2">
         <v>1</v>
@@ -4828,186 +4929,651 @@
       <c r="P71" s="2">
         <v>0.3</v>
       </c>
+      <c r="Q71" s="2">
+        <v>10</v>
+      </c>
       <c r="R71" s="2">
         <v>10</v>
       </c>
-      <c r="T71" s="2">
+      <c r="U71" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="V71" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="W71" s="5"/>
+    </row>
+    <row r="72" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="6"/>
+      <c r="B72" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E72" s="2">
+        <v>1</v>
+      </c>
+      <c r="G72" s="3">
+        <v>1</v>
+      </c>
+      <c r="H72" s="2">
+        <v>1</v>
+      </c>
+      <c r="I72" s="2">
+        <v>1</v>
+      </c>
+      <c r="J72" s="2">
+        <v>1</v>
+      </c>
+      <c r="K72" s="3">
+        <v>100</v>
+      </c>
+      <c r="L72" s="2">
         <v>20</v>
       </c>
-      <c r="U71" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="V71" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="W71" s="5"/>
-    </row>
-    <row r="72" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="E72" s="2">
-        <v>1</v>
-      </c>
-      <c r="G72" s="3">
-        <v>1</v>
-      </c>
-      <c r="H72" s="2">
-        <v>1</v>
-      </c>
-      <c r="I72" s="2">
-        <v>1</v>
-      </c>
-      <c r="J72" s="2">
-        <v>1</v>
-      </c>
-      <c r="K72" s="3"/>
       <c r="M72" s="4" t="s">
         <v>188</v>
       </c>
       <c r="N72" s="2">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="O72" s="2">
         <v>1</v>
       </c>
       <c r="P72" s="2">
-        <v>0.4</v>
+        <v>0.5</v>
+      </c>
+      <c r="Q72" s="2">
+        <v>10</v>
       </c>
       <c r="R72" s="2">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="S72" s="2" t="s">
+        <v>257</v>
       </c>
       <c r="T72" s="2">
-        <v>25</v>
-      </c>
-      <c r="U72" s="17" t="s">
-        <v>268</v>
+        <v>30</v>
+      </c>
+      <c r="U72" s="5" t="s">
+        <v>311</v>
       </c>
       <c r="V72" s="5" t="s">
-        <v>274</v>
+        <v>114</v>
       </c>
       <c r="W72" s="5"/>
     </row>
     <row r="73" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="6"/>
       <c r="G73" s="3"/>
       <c r="K73" s="3"/>
       <c r="M73" s="4"/>
-      <c r="U73" s="17"/>
+      <c r="U73" s="5"/>
       <c r="V73" s="5"/>
       <c r="W73" s="5"/>
     </row>
     <row r="74" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G74" s="3"/>
-      <c r="K74" s="3"/>
-      <c r="M74" s="4"/>
-      <c r="U74" s="17"/>
-      <c r="V74" s="5"/>
+      <c r="A74" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="E74" s="2">
+        <v>1</v>
+      </c>
+      <c r="G74" s="3">
+        <v>1</v>
+      </c>
+      <c r="H74" s="2">
+        <v>1</v>
+      </c>
+      <c r="I74" s="2">
+        <v>1</v>
+      </c>
+      <c r="J74" s="2">
+        <v>1</v>
+      </c>
+      <c r="K74" s="3">
+        <v>10</v>
+      </c>
+      <c r="M74" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="N74" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="O74" s="2">
+        <v>1</v>
+      </c>
+      <c r="P74" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="R74" s="2">
+        <v>10</v>
+      </c>
+      <c r="T74" s="2">
+        <v>25</v>
+      </c>
+      <c r="U74" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="V74" s="5" t="s">
+        <v>113</v>
+      </c>
       <c r="W74" s="5"/>
     </row>
+    <row r="75" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="6"/>
+      <c r="B75" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="E75" s="2">
+        <v>1</v>
+      </c>
+      <c r="G75" s="3">
+        <v>1</v>
+      </c>
+      <c r="H75" s="2">
+        <v>1</v>
+      </c>
+      <c r="I75" s="2">
+        <v>1</v>
+      </c>
+      <c r="J75" s="2">
+        <v>1</v>
+      </c>
+      <c r="K75" s="3">
+        <v>50</v>
+      </c>
+      <c r="L75" s="2">
+        <v>30</v>
+      </c>
+      <c r="M75" s="4"/>
+      <c r="N75" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="O75" s="2">
+        <v>1</v>
+      </c>
+      <c r="P75" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="R75" s="2">
+        <v>10</v>
+      </c>
+      <c r="U75" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="V75" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="W75" s="5"/>
+    </row>
     <row r="76" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G76" s="3"/>
-      <c r="K76" s="3"/>
+      <c r="A76" s="6"/>
+      <c r="B76" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="E76" s="2">
+        <v>1</v>
+      </c>
+      <c r="G76" s="3">
+        <v>1</v>
+      </c>
+      <c r="H76" s="2">
+        <v>1</v>
+      </c>
+      <c r="I76" s="2">
+        <v>1</v>
+      </c>
+      <c r="J76" s="2">
+        <v>1</v>
+      </c>
+      <c r="K76" s="3">
+        <v>40</v>
+      </c>
+      <c r="L76" s="2">
+        <v>10</v>
+      </c>
       <c r="M76" s="4"/>
-      <c r="U76" s="17"/>
-      <c r="V76" s="5"/>
+      <c r="N76" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="O76" s="2">
+        <v>1</v>
+      </c>
+      <c r="P76" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="R76" s="2">
+        <v>10</v>
+      </c>
+      <c r="S76" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="U76" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="V76" s="5" t="s">
+        <v>291</v>
+      </c>
       <c r="W76" s="5"/>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A77" s="6" t="s">
+    <row r="77" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="6"/>
+      <c r="B77" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="E77" s="2">
+        <v>1</v>
+      </c>
+      <c r="G77" s="3">
+        <v>1</v>
+      </c>
+      <c r="H77" s="2">
+        <v>1</v>
+      </c>
+      <c r="I77" s="2">
+        <v>1</v>
+      </c>
+      <c r="J77" s="2">
+        <v>1</v>
+      </c>
+      <c r="K77" s="3">
+        <v>10</v>
+      </c>
+      <c r="L77" s="2">
+        <v>20</v>
+      </c>
+      <c r="M77" s="4"/>
+      <c r="N77" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="O77" s="2">
+        <v>1</v>
+      </c>
+      <c r="P77" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="R77" s="2">
+        <v>10</v>
+      </c>
+      <c r="S77" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="T77" s="2">
+        <v>20</v>
+      </c>
+      <c r="U77" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="V77" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="W77" s="5"/>
+    </row>
+    <row r="78" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="6"/>
+      <c r="B78" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="E78" s="2">
+        <v>1</v>
+      </c>
+      <c r="G78" s="3">
+        <v>1</v>
+      </c>
+      <c r="H78" s="2">
+        <v>1</v>
+      </c>
+      <c r="I78" s="2">
+        <v>1</v>
+      </c>
+      <c r="J78" s="2">
+        <v>1</v>
+      </c>
+      <c r="K78" s="3">
         <v>30</v>
       </c>
-      <c r="B77" s="6" t="s">
+      <c r="M78" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="N78" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="O78" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="P78" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="R78" s="2">
+        <v>10</v>
+      </c>
+      <c r="S78" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="U78" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="V78" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="W78" s="5"/>
+    </row>
+    <row r="79" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="6"/>
+      <c r="B79" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="E79" s="2">
+        <v>1</v>
+      </c>
+      <c r="G79" s="3">
+        <v>1</v>
+      </c>
+      <c r="H79" s="2">
+        <v>1</v>
+      </c>
+      <c r="I79" s="2">
+        <v>1</v>
+      </c>
+      <c r="J79" s="2">
+        <v>1</v>
+      </c>
+      <c r="K79" s="3">
+        <v>20</v>
+      </c>
+      <c r="L79" s="2">
+        <v>10</v>
+      </c>
+      <c r="M79" s="4"/>
+      <c r="N79" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="O79" s="2">
+        <v>1</v>
+      </c>
+      <c r="P79" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="R79" s="2">
+        <v>10</v>
+      </c>
+      <c r="S79" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="T79" s="2">
+        <v>15</v>
+      </c>
+      <c r="U79" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="V79" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="W79" s="5"/>
+    </row>
+    <row r="80" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="6"/>
+      <c r="B80" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="E80" s="2">
+        <v>1</v>
+      </c>
+      <c r="G80" s="3">
+        <v>1</v>
+      </c>
+      <c r="H80" s="2">
+        <v>1</v>
+      </c>
+      <c r="I80" s="2">
+        <v>1</v>
+      </c>
+      <c r="J80" s="2">
+        <v>1</v>
+      </c>
+      <c r="K80" s="3">
+        <v>20</v>
+      </c>
+      <c r="L80" s="2">
+        <v>20</v>
+      </c>
+      <c r="M80" s="4"/>
+      <c r="N80" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="O80" s="2">
+        <v>1</v>
+      </c>
+      <c r="P80" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="R80" s="2">
+        <v>10</v>
+      </c>
+      <c r="S80" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="U80" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="V80" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="W80" s="5"/>
+    </row>
+    <row r="81" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B81" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F81" s="1">
+        <v>1</v>
+      </c>
+      <c r="G81" s="3">
+        <v>1</v>
+      </c>
+      <c r="H81" s="1">
+        <v>1</v>
+      </c>
+      <c r="I81" s="1">
+        <v>1</v>
+      </c>
+      <c r="J81" s="1">
+        <v>1</v>
+      </c>
+      <c r="K81" s="3">
+        <v>80</v>
+      </c>
+      <c r="M81" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="N81" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="O81" s="1">
+        <v>1</v>
+      </c>
+      <c r="P81" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="R81" s="1">
+        <v>20</v>
+      </c>
+      <c r="T81" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B82" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="F82" s="2">
+        <v>1</v>
+      </c>
+      <c r="G82" s="3">
+        <v>1</v>
+      </c>
+      <c r="H82" s="2">
+        <v>1</v>
+      </c>
+      <c r="I82" s="2">
+        <v>1</v>
+      </c>
+      <c r="J82" s="2">
+        <v>1</v>
+      </c>
+      <c r="K82" s="3">
+        <v>80</v>
+      </c>
+      <c r="M82" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="N82" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="O82" s="2">
+        <v>1</v>
+      </c>
+      <c r="P82" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="R82" s="2">
+        <v>20</v>
+      </c>
+      <c r="S82" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="U82" s="17"/>
+      <c r="V82" s="5"/>
+      <c r="W82" s="5"/>
+    </row>
+    <row r="83" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G83" s="3"/>
+      <c r="K83" s="3"/>
+      <c r="M83" s="4"/>
+      <c r="U83" s="17"/>
+      <c r="V83" s="5"/>
+      <c r="W83" s="5"/>
+    </row>
+    <row r="85" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G85" s="3"/>
+      <c r="K85" s="3"/>
+      <c r="M85" s="4"/>
+      <c r="U85" s="17"/>
+      <c r="V85" s="5"/>
+      <c r="W85" s="5"/>
+    </row>
+    <row r="86" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A86" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B86" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="G77" s="3">
-        <v>1</v>
-      </c>
-      <c r="H77" s="1">
-        <v>1</v>
-      </c>
-      <c r="I77" s="1">
-        <v>1</v>
-      </c>
-      <c r="J77" s="1">
-        <v>1</v>
-      </c>
-      <c r="L77" s="1">
+      <c r="G86" s="3">
+        <v>1</v>
+      </c>
+      <c r="H86" s="1">
+        <v>1</v>
+      </c>
+      <c r="I86" s="1">
+        <v>1</v>
+      </c>
+      <c r="J86" s="1">
+        <v>1</v>
+      </c>
+      <c r="L86" s="1">
         <v>30</v>
       </c>
-      <c r="M77" s="4" t="s">
+      <c r="M86" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="N77" s="1">
+      <c r="N86" s="1">
         <v>0.9</v>
       </c>
-      <c r="O77" s="1">
+      <c r="O86" s="1">
         <v>2</v>
       </c>
-      <c r="P77" s="1">
+      <c r="P86" s="1">
         <v>0.5</v>
       </c>
-      <c r="R77" s="1">
+      <c r="R86" s="1">
         <v>10</v>
       </c>
-      <c r="U77" s="17" t="s">
+      <c r="U86" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="V77" s="5" t="s">
+      <c r="V86" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B78" s="1" t="s">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B87" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D78" s="1">
-        <v>1</v>
-      </c>
-      <c r="G78" s="3">
-        <v>1</v>
-      </c>
-      <c r="H78" s="1">
-        <v>1</v>
-      </c>
-      <c r="K78" s="3">
+      <c r="D87" s="1">
+        <v>1</v>
+      </c>
+      <c r="G87" s="3">
+        <v>1</v>
+      </c>
+      <c r="H87" s="1">
+        <v>1</v>
+      </c>
+      <c r="K87" s="3">
         <v>50</v>
       </c>
-      <c r="M78" s="4" t="s">
+      <c r="M87" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="N78" s="1">
+      <c r="N87" s="1">
         <v>0.3</v>
       </c>
-      <c r="O78" s="1">
+      <c r="O87" s="1">
         <v>0.8</v>
       </c>
-      <c r="P78" s="1">
+      <c r="P87" s="1">
         <v>0.2</v>
       </c>
-      <c r="R78" s="1">
+      <c r="R87" s="1">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="W1:W2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="K1:L1048576">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7FE3E37C-0B7D-402E-AB20-D4B618AE074C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N1:P73 N75:P1048576">
     <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
@@ -5016,7 +5582,21 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7FE3E37C-0B7D-402E-AB20-D4B618AE074C}</x14:id>
+          <x14:id>{C687EA02-BCFE-4B01-86A6-E7FAF1A19516}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N74:P74">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7542E7B5-7E3A-4FAB-81FA-4D614C426105}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5030,7 +5610,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{C687EA02-BCFE-4B01-86A6-E7FAF1A19516}</x14:id>
+          <x14:id>{03FC7C04-3D28-4BBB-92C1-997DB4E2AA2D}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5060,6 +5640,28 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
+          <xm:sqref>N1:P73 N75:P1048576</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{7542E7B5-7E3A-4FAB-81FA-4D614C426105}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>N74:P74</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{03FC7C04-3D28-4BBB-92C1-997DB4E2AA2D}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
           <xm:sqref>N1:P1048576</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
@@ -5072,11 +5674,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01B6F42B-4BB2-402E-8EF0-FC889EE96737}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I32" sqref="I32"/>
+      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5236,32 +5838,43 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
-      <c r="G9" s="24"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+      <c r="A10" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D10" s="8">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="B11" s="6" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D11" s="8">
         <v>1</v>
       </c>
+      <c r="E11" s="11">
+        <v>1</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>46</v>
+      </c>
       <c r="H11" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" s="6" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D12" s="8">
         <v>1</v>
@@ -5269,16 +5882,16 @@
       <c r="E12" s="11">
         <v>1</v>
       </c>
-      <c r="F12" s="9" t="s">
-        <v>46</v>
+      <c r="G12" s="27" t="s">
+        <v>131</v>
       </c>
       <c r="H12" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13" s="6" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D13" s="8">
         <v>1</v>
@@ -5287,69 +5900,67 @@
         <v>1</v>
       </c>
       <c r="G13" s="27" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="H13" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14" s="6" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="D14" s="8">
         <v>1</v>
       </c>
-      <c r="E14" s="11">
-        <v>1</v>
-      </c>
-      <c r="G14" s="27" t="s">
-        <v>134</v>
+      <c r="E14" s="28">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>116</v>
       </c>
       <c r="H14" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B15" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="D15" s="8">
-        <v>1</v>
-      </c>
-      <c r="E15" s="28">
-        <v>1</v>
-      </c>
-      <c r="G15" t="s">
-        <v>116</v>
-      </c>
-      <c r="H15" t="s">
-        <v>116</v>
-      </c>
+      <c r="E15" s="28"/>
+      <c r="G15"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="D16" s="8">
+        <v>1</v>
+      </c>
       <c r="E16" s="28"/>
       <c r="G16"/>
+      <c r="H16" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
-        <v>40</v>
-      </c>
       <c r="B17" s="6" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D17" s="8">
         <v>1</v>
       </c>
-      <c r="E17" s="28"/>
+      <c r="E17" s="28">
+        <v>1</v>
+      </c>
       <c r="G17"/>
       <c r="H17" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B18" s="6" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="D18" s="8">
         <v>1</v>
@@ -5359,34 +5970,34 @@
       </c>
       <c r="G18"/>
       <c r="H18" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E19" s="28"/>
+      <c r="G19"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="D20" s="8">
+        <v>1</v>
+      </c>
+      <c r="E20" s="28">
+        <v>1</v>
+      </c>
+      <c r="G20"/>
+      <c r="H20" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B19" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="D19" s="8">
-        <v>1</v>
-      </c>
-      <c r="E19" s="28">
-        <v>1</v>
-      </c>
-      <c r="G19"/>
-      <c r="H19" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E20" s="28"/>
-      <c r="G20"/>
-    </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
-        <v>67</v>
-      </c>
       <c r="B21" s="6" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D21" s="8">
         <v>1</v>
@@ -5396,7 +6007,7 @@
       </c>
       <c r="G21"/>
       <c r="H21" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -5410,49 +6021,48 @@
         <v>1</v>
       </c>
       <c r="G22"/>
-      <c r="H22" t="s">
+      <c r="H22" s="25" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E23" s="28"/>
+      <c r="G23"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D24" s="8">
+        <v>1</v>
+      </c>
+      <c r="E24" s="11">
+        <v>1</v>
+      </c>
+      <c r="H24" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B25" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="D25" s="8">
+        <v>1</v>
+      </c>
+      <c r="E25" s="11">
+        <v>1</v>
+      </c>
+      <c r="H25" t="s">
         <v>130</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B23" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="D23" s="8">
-        <v>1</v>
-      </c>
-      <c r="E23" s="28">
-        <v>1</v>
-      </c>
-      <c r="G23"/>
-      <c r="H23" s="25" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E24" s="28"/>
-      <c r="G24"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="D25" s="8">
-        <v>1</v>
-      </c>
-      <c r="E25" s="11">
-        <v>1</v>
-      </c>
-      <c r="H25" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B26" s="6" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D26" s="8">
         <v>1</v>
@@ -5460,13 +6070,13 @@
       <c r="E26" s="11">
         <v>1</v>
       </c>
-      <c r="H26" t="s">
-        <v>130</v>
+      <c r="H26" s="25" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B27" s="6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D27" s="8">
         <v>1</v>
@@ -5475,43 +6085,43 @@
         <v>1</v>
       </c>
       <c r="H27" s="25" t="s">
-        <v>180</v>
+        <v>219</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B28" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="D28" s="8">
-        <v>1</v>
-      </c>
-      <c r="E28" s="11">
-        <v>1</v>
-      </c>
-      <c r="H28" s="25" t="s">
-        <v>219</v>
-      </c>
+      <c r="G28" s="27"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G29" s="27"/>
+      <c r="A29" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29" s="8">
+        <v>1</v>
+      </c>
+      <c r="H29" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="6" t="s">
-        <v>37</v>
-      </c>
       <c r="B30" s="6" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D30" s="8">
         <v>1</v>
       </c>
+      <c r="E30" s="11">
+        <v>1</v>
+      </c>
       <c r="H30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B31" s="6" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="D31" s="8">
         <v>1</v>
@@ -5520,123 +6130,132 @@
         <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B32" s="6" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D32" s="8">
         <v>1</v>
       </c>
       <c r="E32" s="11">
         <v>1</v>
+      </c>
+      <c r="G32" s="25" t="s">
+        <v>122</v>
       </c>
       <c r="H32" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B33" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="D33" s="8">
-        <v>1</v>
-      </c>
-      <c r="E33" s="11">
-        <v>1</v>
-      </c>
-      <c r="G33" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="H33" t="s">
-        <v>114</v>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="D35" s="8">
+        <v>1</v>
+      </c>
+      <c r="E35" s="11">
+        <v>1</v>
+      </c>
+      <c r="G35" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="H35" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="6" t="s">
-        <v>26</v>
-      </c>
       <c r="B36" s="6" t="s">
-        <v>178</v>
+        <v>279</v>
       </c>
       <c r="D36" s="8">
         <v>1</v>
       </c>
-      <c r="E36" s="11">
+      <c r="E36" s="28">
         <v>1</v>
       </c>
       <c r="G36" s="25" t="s">
-        <v>289</v>
-      </c>
-      <c r="H36" t="s">
-        <v>179</v>
+        <v>131</v>
+      </c>
+      <c r="H36" s="25" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B37" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D37" s="8">
         <v>1</v>
       </c>
-      <c r="E37" s="28">
-        <v>1</v>
-      </c>
-      <c r="G37" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="H37" s="25" t="s">
-        <v>131</v>
+      <c r="E37" s="28"/>
+      <c r="H37" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B38" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D38" s="8">
         <v>1</v>
       </c>
-      <c r="E38" s="28"/>
+      <c r="G38" t="s">
+        <v>134</v>
+      </c>
       <c r="H38" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B39" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D39" s="8">
         <v>1</v>
       </c>
-      <c r="G39" t="s">
-        <v>134</v>
+      <c r="E39" s="11">
+        <v>1</v>
+      </c>
+      <c r="G39" s="25" t="s">
+        <v>286</v>
       </c>
       <c r="H39" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B40" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="D40" s="8">
-        <v>1</v>
-      </c>
-      <c r="E40" s="11">
-        <v>1</v>
-      </c>
-      <c r="G40" s="25" t="s">
-        <v>290</v>
-      </c>
-      <c r="H40" t="s">
         <v>130</v>
       </c>
     </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="D41" s="8">
+        <v>1</v>
+      </c>
+      <c r="G41" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="H41" t="s">
+        <v>114</v>
+      </c>
+    </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="6" t="s">
-        <v>33</v>
+      <c r="B42" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="D42" s="8">
+        <v>1</v>
+      </c>
+      <c r="H42" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -5650,13 +6269,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54D9C67E-4237-478B-81E0-48BC15B60241}">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D50" sqref="D50"/>
+      <selection pane="bottomRight" activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5897,7 +6516,7 @@
         <v>67</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D21" s="12">
         <v>5</v>
@@ -5908,7 +6527,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B22" s="6" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D22" s="12">
         <v>5</v>
@@ -5919,7 +6538,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B23" s="6" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D23" s="12">
         <v>5</v>
@@ -5930,7 +6549,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B24" s="6" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D24" s="12">
         <v>5</v>
@@ -6081,16 +6700,16 @@
         <v>26</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D38" s="12">
         <v>5</v>
       </c>
       <c r="F38" s="22" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G38" s="22" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
@@ -6112,7 +6731,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B40" s="6" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D40" s="12">
         <v>5</v>
@@ -6126,16 +6745,16 @@
         <v>33</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D42" s="12">
         <v>10</v>
       </c>
       <c r="E42" s="19" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="F42" s="22" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G42" t="s">
         <v>114</v>
@@ -6143,10 +6762,10 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B43" s="6" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="D43" s="12">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E43" s="19" t="s">
         <v>46</v>
@@ -6155,18 +6774,18 @@
         <v>113</v>
       </c>
       <c r="H43" s="22" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B44" s="6" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D44" s="12">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E44" s="19" t="s">
-        <v>51</v>
+        <v>127</v>
       </c>
       <c r="G44" t="s">
         <v>114</v>
@@ -6174,7 +6793,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B45" s="6" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="D45" s="12">
         <v>5</v>
@@ -6188,37 +6807,57 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B46" s="6" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D46" s="12">
         <v>5</v>
       </c>
       <c r="E46" s="19" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G46" t="s">
-        <v>113</v>
+        <v>261</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B47" s="6" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D47" s="12">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F47" s="22" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="G47" t="s">
         <v>113</v>
       </c>
       <c r="H47" s="22" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B48" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="D48" s="12">
+        <v>5</v>
+      </c>
+      <c r="E48" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="F48" t="s">
+        <v>324</v>
+      </c>
+      <c r="G48" t="s">
+        <v>114</v>
+      </c>
+      <c r="H48" s="22" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B49" s="6" t="s">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B51" s="6" t="s">
         <v>105</v>
       </c>
     </row>
@@ -6231,13 +6870,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60A858D4-5BEF-44D4-8A9F-866174BC0619}">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E33" sqref="E33"/>
+      <selection pane="bottomRight" activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6379,20 +7018,20 @@
         <v>67</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="30" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="30" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -6511,26 +7150,61 @@
         <v>33</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="D32" s="30" t="s">
-        <v>312</v>
+        <v>307</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B33" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="D33" s="30" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B34" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="D34" s="30" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B37" s="6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B38" s="6" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B42" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D36" s="29" t="s">
+      <c r="D42" s="29" t="s">
         <v>75</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6539,7 +7213,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="J6" sqref="J6:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6547,7 +7221,7 @@
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="7.625" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="16" width="7.625" customWidth="1"/>
+    <col min="7" max="15" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
@@ -6627,9 +7301,6 @@
       <c r="H3">
         <v>1</v>
       </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
       <c r="M3">
         <v>1</v>
       </c>
@@ -6661,6 +7332,9 @@
       <c r="I5">
         <v>1</v>
       </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -6685,6 +7359,9 @@
       </c>
       <c r="I7">
         <v>1</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
       </c>
       <c r="M7">
         <v>2</v>
@@ -6754,5 +7431,6 @@
     <hyperlink ref="A15" r:id="rId2" xr:uid="{80C90FB2-346D-4978-A601-98A2C36DF31C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/plan/招式.xlsx
+++ b/plan/招式.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\mycode\pealpool.github.io\plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59AA3ADF-174F-456A-A8DC-C0BDC9730F32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA73E66B-BFBE-40C4-8FC6-D3231D6DA549}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{07694949-CE91-4AC6-84BF-EA7187E3619C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="403">
   <si>
     <t>派别</t>
   </si>
@@ -151,9 +151,6 @@
   </si>
   <si>
     <t>狮相门</t>
-  </si>
-  <si>
-    <t>狮相门</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -185,10 +182,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>星宿派</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>鹰爪门</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -264,10 +257,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>防御力+100，5s</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>金刚不坏身</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -325,10 +314,6 @@
   </si>
   <si>
     <t>被直接命中时，反击毒伤害10；毒防御5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>外伤防御 +30%，内伤防御 +15%，</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1348,10 +1333,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>邪鬼功</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>血犼魔掌</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1392,14 +1373,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>腐尸血掌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">三指夺阴爪 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>黄坟砂</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1416,7 +1389,247 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>当前部位流血伤害马上结算</t>
+    <t>20/s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>腐尸化血掌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前部位剩余流血伤害转化为【血毒】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>流血持续 5s，当前部位流血伤害马上结算</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞尸大傩舞</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">游魂诡步 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>坟头遁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>流血持续时间+1s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>移魂大法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>血童不死身</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>被攻击击中时，一半伤害化成流血伤害，持续5s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天魔护体</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分筋错骨手</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鬼门关</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>百鬼临身</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>连招命中后，敌方防御力-20%，5s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金砂掌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开弓手</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁担手</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>霸王腿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-15%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>推山掌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>十三太保横练</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>外伤伤害+10%，5s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>外伤防御+15%，5s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>霸王刃甲功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁鼎金身响</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>裂碑掌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以真实伤害反击对方100%内伤攻击，打断连招</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以真实伤害反击对方100%外伤攻击，打断连招</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁桥步</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>狮子奋迅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>震山步</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铜筋铁骨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>横江锁擒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>命中率+10%，5s，打断连招</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>光明狮子劲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金猊镇魔功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50%外伤攻击化成内伤攻击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁胆衣</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹反伤害+15%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>格挡能打断连招</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>斗转星移</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>反弹对方所有攻击，打断连招</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>参合指</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用对方对应顺序的招式，所有效果一样。其人之道不算重复</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>借力返施</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>卜卦</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>复国</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>命中+10%，闪避+10%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>非满点属性随机+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>博学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>复制对方被动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>柳拂衣</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>驰骋疆场</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>流云袖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重云掩日手</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓄云欲雨掌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其人之道·攻</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其人之道·守</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其人之道·闪</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1583,9 +1796,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1598,10 +1808,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1609,6 +1819,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1926,20 +2139,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{897EE391-4514-4BBB-B5AB-BFD81F1FD685}">
-  <dimension ref="A1:W87"/>
+  <dimension ref="A1:W96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="D57" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C66" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="W70" sqref="W70"/>
+      <selection pane="bottomRight" activeCell="G100" sqref="G100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" style="1" customWidth="1"/>
+    <col min="3" max="3" width="4.375" style="1" customWidth="1"/>
     <col min="4" max="6" width="4.25" style="1" customWidth="1"/>
     <col min="7" max="7" width="3.5" style="3" customWidth="1"/>
     <col min="8" max="10" width="3.5" style="1" customWidth="1"/>
@@ -1961,60 +2174,60 @@
       <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
       <c r="G1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
       <c r="K1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="31" t="s">
+      <c r="L1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="33" t="s">
+      <c r="M1" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="31" t="s">
+      <c r="N1" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="31" t="s">
+      <c r="O1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="31" t="s">
+      <c r="P1" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="R1" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="S1" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="T1" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="U1" s="33" t="s">
-        <v>292</v>
-      </c>
-      <c r="V1" s="31" t="s">
+      <c r="Q1" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="R1" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="S1" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="T1" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="U1" s="31" t="s">
+        <v>288</v>
+      </c>
+      <c r="V1" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="31" t="s">
-        <v>48</v>
+      <c r="W1" s="30" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:23" s="14" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="D2" s="14" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>9</v>
@@ -2035,22 +2248,22 @@
         <v>10</v>
       </c>
       <c r="K2" s="32"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="31"/>
-      <c r="W2" s="31"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="30"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>15</v>
@@ -2086,12 +2299,12 @@
         <v>10</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E4" s="2">
         <v>1</v>
@@ -2129,13 +2342,13 @@
       </c>
       <c r="U4" s="17"/>
       <c r="V4" s="5" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="W4" s="5"/>
     </row>
     <row r="5" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E5" s="2">
         <v>1</v>
@@ -2173,13 +2386,13 @@
       </c>
       <c r="U5" s="17"/>
       <c r="V5" s="5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="W5" s="5"/>
     </row>
     <row r="6" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E6" s="2">
         <v>1</v>
@@ -2201,7 +2414,7 @@
         <v>150</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="N6" s="2">
         <v>0.6</v>
@@ -2217,13 +2430,13 @@
       </c>
       <c r="U6" s="17"/>
       <c r="V6" s="5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="W6" s="5"/>
     </row>
     <row r="7" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E7" s="2">
         <v>1</v>
@@ -2261,13 +2474,13 @@
       </c>
       <c r="U7" s="17"/>
       <c r="V7" s="5" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="W7" s="5"/>
     </row>
     <row r="8" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E8" s="2">
         <v>1</v>
@@ -2286,7 +2499,7 @@
         <v>120</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="N8" s="2">
         <v>0.6</v>
@@ -2302,13 +2515,13 @@
       </c>
       <c r="U8" s="17"/>
       <c r="V8" s="5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="W8" s="5"/>
     </row>
     <row r="9" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F9" s="2">
         <v>1</v>
@@ -2332,7 +2545,7 @@
         <v>60</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="N9" s="2">
         <v>0.5</v>
@@ -2348,13 +2561,13 @@
       </c>
       <c r="U9" s="17"/>
       <c r="V9" s="5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="W9" s="5"/>
     </row>
     <row r="10" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E10" s="2">
         <v>1</v>
@@ -2376,7 +2589,7 @@
         <v>180</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="N10" s="2">
         <v>0.7</v>
@@ -2392,7 +2605,7 @@
       </c>
       <c r="U10" s="17"/>
       <c r="V10" s="5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="W10" s="5"/>
     </row>
@@ -2406,10 +2619,10 @@
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
@@ -2442,12 +2655,12 @@
         <v>15</v>
       </c>
       <c r="V12" s="5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E13" s="2">
         <v>1</v>
@@ -2485,13 +2698,13 @@
       </c>
       <c r="U13" s="17"/>
       <c r="V13" s="5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="W13" s="5"/>
     </row>
     <row r="14" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E14" s="2">
         <v>1</v>
@@ -2526,13 +2739,13 @@
       </c>
       <c r="U14" s="17"/>
       <c r="V14" s="5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="W14" s="5"/>
     </row>
     <row r="15" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E15" s="2">
         <v>1</v>
@@ -2556,7 +2769,7 @@
         <v>10</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="N15" s="2">
         <v>0.2</v>
@@ -2572,13 +2785,13 @@
       </c>
       <c r="U15" s="17"/>
       <c r="V15" s="5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="W15" s="5"/>
     </row>
     <row r="16" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E16" s="2">
         <v>1</v>
@@ -2613,13 +2826,13 @@
       </c>
       <c r="U16" s="17"/>
       <c r="V16" s="5" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="W16" s="5"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F17" s="1">
         <v>1</v>
@@ -2640,7 +2853,7 @@
         <v>210</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="N17" s="1">
         <v>0.6</v>
@@ -2655,12 +2868,12 @@
         <v>20</v>
       </c>
       <c r="V17" s="5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F18" s="2">
         <v>1</v>
@@ -2682,7 +2895,7 @@
         <v>20</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="N18" s="2">
         <v>0.4</v>
@@ -2698,13 +2911,13 @@
       </c>
       <c r="U18" s="17"/>
       <c r="V18" s="5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="W18" s="5"/>
     </row>
     <row r="19" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E19" s="2">
         <v>1</v>
@@ -2723,7 +2936,7 @@
         <v>100</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="N19" s="2">
         <v>0.2</v>
@@ -2739,16 +2952,16 @@
       </c>
       <c r="U19" s="17"/>
       <c r="V19" s="5" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="W19" s="5"/>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
@@ -2781,18 +2994,18 @@
         <v>10</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="U21" s="5" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="V21" s="5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -2815,7 +3028,7 @@
       </c>
       <c r="L22" s="2"/>
       <c r="M22" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="N22" s="2">
         <v>0.3</v>
@@ -2831,12 +3044,12 @@
         <v>10</v>
       </c>
       <c r="V22" s="5" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="23" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="E23" s="2">
         <v>1</v>
@@ -2870,21 +3083,21 @@
         <v>15</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="U23" s="5" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="V23" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="W23" s="5" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="24" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E24" s="2">
         <v>1</v>
@@ -2896,7 +3109,7 @@
         <v>70</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="N24" s="2">
         <v>0.3</v>
@@ -2911,16 +3124,16 @@
         <v>10</v>
       </c>
       <c r="U24" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="V24" s="5" t="s">
         <v>228</v>
-      </c>
-      <c r="V24" s="5" t="s">
-        <v>232</v>
       </c>
       <c r="W24" s="5"/>
     </row>
     <row r="25" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E25" s="2">
         <v>1</v>
@@ -2949,13 +3162,13 @@
       </c>
       <c r="U25" s="17"/>
       <c r="V25" s="5" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="W25" s="5"/>
     </row>
     <row r="26" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E26" s="2">
         <v>1</v>
@@ -2981,19 +3194,19 @@
         <v>15</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="U26" s="5" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="V26" s="5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="W26" s="5"/>
     </row>
     <row r="27" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="F27" s="2">
         <v>1</v>
@@ -3028,13 +3241,13 @@
       </c>
       <c r="U27" s="17"/>
       <c r="V27" s="5" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="W27" s="5"/>
     </row>
     <row r="28" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -3074,16 +3287,16 @@
       </c>
       <c r="U28" s="17"/>
       <c r="V28" s="5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="W28" s="5"/>
     </row>
     <row r="30" spans="1:23" ht="57" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E30" s="1">
         <v>1</v>
@@ -3098,7 +3311,7 @@
         <v>1</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="N30" s="1">
         <v>0.5</v>
@@ -3119,15 +3332,15 @@
         <v>15</v>
       </c>
       <c r="U30" s="18" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="V30" s="5" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="E31" s="1">
         <v>1</v>
@@ -3166,15 +3379,15 @@
         <v>30</v>
       </c>
       <c r="U31" s="18" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="V31" s="5" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="32" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E32" s="2">
         <v>1</v>
@@ -3212,16 +3425,16 @@
         <v>15</v>
       </c>
       <c r="U32" s="17" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="V32" s="5" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="W32" s="5"/>
     </row>
     <row r="33" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E33" s="2">
         <v>1</v>
@@ -3261,16 +3474,16 @@
         <v>20</v>
       </c>
       <c r="U33" s="17" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="V33" s="5" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="W33" s="5"/>
     </row>
     <row r="34" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="F34" s="2">
         <v>1</v>
@@ -3310,16 +3523,16 @@
         <v>15</v>
       </c>
       <c r="U34" s="17" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="V34" s="5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="W34" s="5"/>
     </row>
     <row r="35" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E35" s="2">
         <v>1</v>
@@ -3357,16 +3570,16 @@
         <v>20</v>
       </c>
       <c r="U35" s="17" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="V35" s="5" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="W35" s="5"/>
     </row>
     <row r="36" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="2" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="E36" s="2">
         <v>1</v>
@@ -3385,7 +3598,7 @@
       </c>
       <c r="K36" s="3"/>
       <c r="M36" s="4" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="N36" s="2">
         <v>0.4</v>
@@ -3403,10 +3616,10 @@
         <v>25</v>
       </c>
       <c r="U36" s="17" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="V36" s="5" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="W36" s="5"/>
     </row>
@@ -3420,10 +3633,10 @@
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -3463,19 +3676,19 @@
         <v>10</v>
       </c>
       <c r="U38" s="5" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="V38" s="5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="W38" s="5" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="39" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="6"/>
       <c r="B39" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E39" s="2">
         <v>1</v>
@@ -3515,19 +3728,19 @@
         <v>15</v>
       </c>
       <c r="U39" s="17" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="V39" s="5" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="W39" s="5" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="40" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="6"/>
       <c r="B40" s="2" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E40" s="2">
         <v>1</v>
@@ -3551,7 +3764,7 @@
         <v>40</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="N40" s="2">
         <v>0.3</v>
@@ -3569,19 +3782,19 @@
         <v>10</v>
       </c>
       <c r="U40" s="17" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="V40" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="W40" s="5" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="41" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="6"/>
       <c r="B41" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E41" s="2">
         <v>1</v>
@@ -3621,19 +3834,19 @@
         <v>15</v>
       </c>
       <c r="U41" s="17" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="V41" s="5" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="W41" s="5" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="42" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="6"/>
       <c r="B42" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E42" s="2">
         <v>1</v>
@@ -3673,19 +3886,19 @@
         <v>10</v>
       </c>
       <c r="U42" s="17" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="V42" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="W42" s="5" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="43" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="6"/>
       <c r="B43" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -3727,18 +3940,18 @@
         <v>10</v>
       </c>
       <c r="U43" s="17" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="V43" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="W43" s="5" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B44" s="2" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -3765,7 +3978,7 @@
         <v>40</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="N44" s="2">
         <v>0.3</v>
@@ -3783,18 +3996,18 @@
         <v>10</v>
       </c>
       <c r="U44" s="17" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="V44" s="5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="W44" s="5" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="45" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E45" s="2">
         <v>1</v>
@@ -3832,18 +4045,18 @@
       </c>
       <c r="U45" s="17"/>
       <c r="V45" s="5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="W45" s="5" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="47" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E47" s="2">
         <v>1</v>
@@ -3867,7 +4080,7 @@
         <v>60</v>
       </c>
       <c r="M47" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N47" s="2">
         <v>0.4</v>
@@ -3883,13 +4096,13 @@
       </c>
       <c r="U47" s="17"/>
       <c r="V47" s="5" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="W47" s="5"/>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E48" s="1">
         <v>1</v>
@@ -3925,12 +4138,12 @@
         <v>10</v>
       </c>
       <c r="V48" s="5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="49" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E49" s="2">
         <v>1</v>
@@ -3954,7 +4167,7 @@
         <v>80</v>
       </c>
       <c r="M49" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N49" s="2">
         <v>0.2</v>
@@ -3970,13 +4183,13 @@
       </c>
       <c r="U49" s="17"/>
       <c r="V49" s="5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="W49" s="5"/>
     </row>
     <row r="50" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E50" s="2">
         <v>1</v>
@@ -4014,13 +4227,13 @@
       </c>
       <c r="U50" s="17"/>
       <c r="V50" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="W50" s="5"/>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E51" s="1">
         <v>1</v>
@@ -4056,12 +4269,12 @@
         <v>10</v>
       </c>
       <c r="V51" s="5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="52" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E52" s="2">
         <v>1</v>
@@ -4085,7 +4298,7 @@
         <v>80</v>
       </c>
       <c r="M52" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="N52" s="2">
         <v>0.6</v>
@@ -4101,13 +4314,13 @@
       </c>
       <c r="U52" s="17"/>
       <c r="V52" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="W52" s="5"/>
     </row>
     <row r="53" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B53" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F53" s="2">
         <v>1</v>
@@ -4131,7 +4344,7 @@
         <v>80</v>
       </c>
       <c r="M53" s="4" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="N53" s="2">
         <v>0.6</v>
@@ -4147,13 +4360,13 @@
       </c>
       <c r="U53" s="17"/>
       <c r="V53" s="5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="W53" s="5"/>
     </row>
     <row r="54" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B54" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F54" s="2">
         <v>1</v>
@@ -4177,7 +4390,7 @@
         <v>130</v>
       </c>
       <c r="M54" s="4" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="N54" s="2">
         <v>0.6</v>
@@ -4193,7 +4406,7 @@
       </c>
       <c r="U54" s="17"/>
       <c r="V54" s="5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="W54" s="5"/>
     </row>
@@ -4202,7 +4415,7 @@
         <v>26</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E56" s="2">
         <v>1</v>
@@ -4226,7 +4439,7 @@
         <v>30</v>
       </c>
       <c r="M56" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="N56" s="2">
         <v>0.3</v>
@@ -4245,14 +4458,14 @@
       </c>
       <c r="U56" s="17"/>
       <c r="V56" s="5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="W56" s="5"/>
     </row>
     <row r="57" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="6"/>
       <c r="B57" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E57" s="2">
         <v>1</v>
@@ -4293,14 +4506,14 @@
       </c>
       <c r="U57" s="17"/>
       <c r="V57" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="W57" s="5"/>
     </row>
     <row r="58" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="6"/>
       <c r="B58" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F58" s="2">
         <v>1</v>
@@ -4322,7 +4535,7 @@
         <v>90</v>
       </c>
       <c r="M58" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="N58" s="2">
         <v>0.6</v>
@@ -4341,13 +4554,13 @@
       </c>
       <c r="U58" s="17"/>
       <c r="V58" s="5" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="W58" s="5"/>
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B59" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F59" s="1">
         <v>1</v>
@@ -4371,7 +4584,7 @@
         <v>50</v>
       </c>
       <c r="M59" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="N59" s="1">
         <v>0.6</v>
@@ -4389,13 +4602,13 @@
         <v>20</v>
       </c>
       <c r="V59" s="5" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="60" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="6"/>
       <c r="B60" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E60" s="2">
         <v>1</v>
@@ -4436,14 +4649,14 @@
       </c>
       <c r="U60" s="17"/>
       <c r="V60" s="5" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="W60" s="5"/>
     </row>
     <row r="61" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="6"/>
       <c r="B61" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E61" s="2">
         <v>1</v>
@@ -4483,17 +4696,17 @@
         <v>15</v>
       </c>
       <c r="U61" s="17" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="V61" s="5" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="W61" s="5"/>
     </row>
     <row r="62" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="6"/>
       <c r="B62" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E62" s="2">
         <v>1</v>
@@ -4534,14 +4747,14 @@
       </c>
       <c r="U62" s="17"/>
       <c r="V62" s="5" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="W62" s="5"/>
     </row>
     <row r="63" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="6"/>
       <c r="B63" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E63" s="2">
         <v>1</v>
@@ -4565,7 +4778,7 @@
         <v>60</v>
       </c>
       <c r="M63" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="N63" s="2">
         <v>0.5</v>
@@ -4583,10 +4796,10 @@
         <v>20</v>
       </c>
       <c r="U63" s="5" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="V63" s="5" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="W63" s="5"/>
     </row>
@@ -4601,10 +4814,10 @@
     </row>
     <row r="65" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="E65" s="2">
         <v>1</v>
@@ -4614,7 +4827,7 @@
       </c>
       <c r="K65" s="3"/>
       <c r="M65" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="N65" s="2">
         <v>0.4</v>
@@ -4632,17 +4845,17 @@
         <v>25</v>
       </c>
       <c r="U65" s="5" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="V65" s="5" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="W65" s="5"/>
     </row>
     <row r="66" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="6"/>
       <c r="B66" s="2" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="E66" s="2">
         <v>1</v>
@@ -4676,20 +4889,20 @@
         <v>10</v>
       </c>
       <c r="S66" s="2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="U66" s="5" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="V66" s="5" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="W66" s="5"/>
     </row>
     <row r="67" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="6"/>
       <c r="B67" s="2" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E67" s="2">
         <v>1</v>
@@ -4710,7 +4923,7 @@
         <v>30</v>
       </c>
       <c r="M67" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="N67" s="2">
         <v>0.5</v>
@@ -4725,20 +4938,20 @@
         <v>15</v>
       </c>
       <c r="S67" s="2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="U67" s="17" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="V67" s="5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="W67" s="5"/>
     </row>
     <row r="68" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="6"/>
       <c r="B68" s="2" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="E68" s="2">
         <v>1</v>
@@ -4778,17 +4991,17 @@
         <v>10</v>
       </c>
       <c r="U68" s="17" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="V68" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="W68" s="5"/>
     </row>
     <row r="69" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="6"/>
       <c r="B69" s="2" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E69" s="2">
         <v>1</v>
@@ -4828,23 +5041,23 @@
         <v>10</v>
       </c>
       <c r="S69" s="2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="T69" s="2">
         <v>20</v>
       </c>
       <c r="U69" s="5" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="V69" s="5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="W69" s="5"/>
     </row>
     <row r="70" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="6"/>
       <c r="B70" s="2" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="E70" s="2">
         <v>1</v>
@@ -4878,23 +5091,23 @@
         <v>10</v>
       </c>
       <c r="S70" s="2" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="T70" s="2">
         <v>20</v>
       </c>
       <c r="U70" s="5" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="V70" s="5" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="W70" s="5"/>
     </row>
     <row r="71" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="6"/>
       <c r="B71" s="2" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="E71" s="2">
         <v>1</v>
@@ -4918,7 +5131,7 @@
         <v>10</v>
       </c>
       <c r="M71" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="N71" s="2">
         <v>0.5</v>
@@ -4936,17 +5149,17 @@
         <v>10</v>
       </c>
       <c r="U71" s="5" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="V71" s="5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="W71" s="5"/>
     </row>
     <row r="72" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="6"/>
       <c r="B72" s="2" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="E72" s="2">
         <v>1</v>
@@ -4970,7 +5183,7 @@
         <v>20</v>
       </c>
       <c r="M72" s="4" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="N72" s="2">
         <v>0.6</v>
@@ -4988,16 +5201,16 @@
         <v>20</v>
       </c>
       <c r="S72" s="2" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="T72" s="2">
         <v>30</v>
       </c>
       <c r="U72" s="5" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="V72" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="W72" s="5"/>
     </row>
@@ -5012,10 +5225,10 @@
     </row>
     <row r="74" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="E74" s="2">
         <v>1</v>
@@ -5036,7 +5249,7 @@
         <v>10</v>
       </c>
       <c r="M74" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="N74" s="2">
         <v>0.4</v>
@@ -5054,17 +5267,17 @@
         <v>25</v>
       </c>
       <c r="U74" s="5" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="V74" s="5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="W74" s="5"/>
     </row>
     <row r="75" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="6"/>
       <c r="B75" s="2" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="E75" s="2">
         <v>1</v>
@@ -5101,17 +5314,17 @@
         <v>10</v>
       </c>
       <c r="U75" s="5" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="V75" s="5" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="W75" s="5"/>
     </row>
     <row r="76" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="6"/>
       <c r="B76" s="2" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="E76" s="2">
         <v>1</v>
@@ -5148,13 +5361,13 @@
         <v>10</v>
       </c>
       <c r="S76" s="2" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="U76" s="5" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="V76" s="5" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="W76" s="5"/>
     </row>
@@ -5197,24 +5410,21 @@
       <c r="R77" s="2">
         <v>10</v>
       </c>
-      <c r="S77" s="2" t="s">
+      <c r="T77" s="2">
+        <v>10</v>
+      </c>
+      <c r="U77" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="V77" s="5" t="s">
         <v>257</v>
-      </c>
-      <c r="T77" s="2">
-        <v>20</v>
-      </c>
-      <c r="U77" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="V77" s="5" t="s">
-        <v>261</v>
       </c>
       <c r="W77" s="5"/>
     </row>
     <row r="78" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="6"/>
       <c r="B78" s="2" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="E78" s="2">
         <v>1</v>
@@ -5235,7 +5445,7 @@
         <v>30</v>
       </c>
       <c r="M78" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="N78" s="2">
         <v>0.2</v>
@@ -5250,20 +5460,20 @@
         <v>10</v>
       </c>
       <c r="S78" s="2" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="U78" s="5" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="V78" s="5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="W78" s="5"/>
     </row>
     <row r="79" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="6"/>
       <c r="B79" s="2" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E79" s="2">
         <v>1</v>
@@ -5284,7 +5494,7 @@
         <v>20</v>
       </c>
       <c r="L79" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M79" s="4"/>
       <c r="N79" s="2">
@@ -5300,176 +5510,242 @@
         <v>10</v>
       </c>
       <c r="S79" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="T79" s="2">
-        <v>15</v>
+        <v>330</v>
       </c>
       <c r="U79" s="5" t="s">
-        <v>258</v>
+        <v>345</v>
       </c>
       <c r="V79" s="5" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="W79" s="5"/>
     </row>
-    <row r="80" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="6"/>
-      <c r="B80" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="E80" s="2">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B80" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="F80" s="1">
         <v>1</v>
       </c>
       <c r="G80" s="3">
         <v>1</v>
       </c>
-      <c r="H80" s="2">
-        <v>1</v>
-      </c>
-      <c r="I80" s="2">
-        <v>1</v>
-      </c>
-      <c r="J80" s="2">
+      <c r="H80" s="1">
+        <v>1</v>
+      </c>
+      <c r="I80" s="1">
+        <v>1</v>
+      </c>
+      <c r="J80" s="1">
         <v>1</v>
       </c>
       <c r="K80" s="3">
+        <v>80</v>
+      </c>
+      <c r="M80" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="N80" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="O80" s="1">
+        <v>1</v>
+      </c>
+      <c r="P80" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="R80" s="1">
         <v>20</v>
       </c>
-      <c r="L80" s="2">
-        <v>20</v>
-      </c>
-      <c r="M80" s="4"/>
-      <c r="N80" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="O80" s="2">
-        <v>1</v>
-      </c>
-      <c r="P80" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="R80" s="2">
-        <v>10</v>
-      </c>
-      <c r="S80" s="2" t="s">
+      <c r="T80" s="2">
+        <v>30</v>
+      </c>
+      <c r="V80" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="U80" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="V80" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="W80" s="5"/>
-    </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B81" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="F81" s="1">
+    </row>
+    <row r="81" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B81" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="F81" s="2">
         <v>1</v>
       </c>
       <c r="G81" s="3">
         <v>1</v>
       </c>
-      <c r="H81" s="1">
-        <v>1</v>
-      </c>
-      <c r="I81" s="1">
-        <v>1</v>
-      </c>
-      <c r="J81" s="1">
+      <c r="H81" s="2">
+        <v>1</v>
+      </c>
+      <c r="I81" s="2">
+        <v>1</v>
+      </c>
+      <c r="J81" s="2">
         <v>1</v>
       </c>
       <c r="K81" s="3">
         <v>80</v>
       </c>
       <c r="M81" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="N81" s="1">
+        <v>184</v>
+      </c>
+      <c r="N81" s="2">
         <v>0.6</v>
       </c>
-      <c r="O81" s="1">
-        <v>1</v>
-      </c>
-      <c r="P81" s="1">
+      <c r="O81" s="2">
+        <v>1</v>
+      </c>
+      <c r="P81" s="2">
         <v>0.5</v>
       </c>
-      <c r="R81" s="1">
+      <c r="R81" s="2">
         <v>20</v>
       </c>
-      <c r="T81" s="2">
-        <v>30</v>
-      </c>
+      <c r="S81" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="U81" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="V81" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="W81" s="5"/>
     </row>
     <row r="82" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B82" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="F82" s="2">
-        <v>1</v>
-      </c>
-      <c r="G82" s="3">
-        <v>1</v>
-      </c>
-      <c r="H82" s="2">
-        <v>1</v>
-      </c>
-      <c r="I82" s="2">
-        <v>1</v>
-      </c>
-      <c r="J82" s="2">
-        <v>1</v>
-      </c>
-      <c r="K82" s="3">
-        <v>80</v>
-      </c>
-      <c r="M82" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="N82" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="O82" s="2">
-        <v>1</v>
-      </c>
-      <c r="P82" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="R82" s="2">
-        <v>20</v>
-      </c>
-      <c r="S82" s="2" t="s">
-        <v>257</v>
-      </c>
+      <c r="G82" s="3"/>
+      <c r="K82" s="3"/>
+      <c r="M82" s="4"/>
       <c r="U82" s="17"/>
       <c r="V82" s="5"/>
       <c r="W82" s="5"/>
     </row>
-    <row r="83" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G83" s="3"/>
-      <c r="K83" s="3"/>
-      <c r="M83" s="4"/>
-      <c r="U83" s="17"/>
-      <c r="V83" s="5"/>
-      <c r="W83" s="5"/>
-    </row>
-    <row r="85" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G85" s="3"/>
-      <c r="K85" s="3"/>
-      <c r="M85" s="4"/>
-      <c r="U85" s="17"/>
-      <c r="V85" s="5"/>
-      <c r="W85" s="5"/>
+    <row r="83" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A83" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D83" s="1">
+        <v>1</v>
+      </c>
+      <c r="G83" s="3">
+        <v>1</v>
+      </c>
+      <c r="H83" s="1">
+        <v>1</v>
+      </c>
+      <c r="I83" s="1">
+        <v>1</v>
+      </c>
+      <c r="J83" s="1">
+        <v>1</v>
+      </c>
+      <c r="L83" s="1">
+        <v>30</v>
+      </c>
+      <c r="M83" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="N83" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="O83" s="1">
+        <v>2</v>
+      </c>
+      <c r="P83" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="R83" s="1">
+        <v>20</v>
+      </c>
+      <c r="U83" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="V83" s="5" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B84" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D84" s="1">
+        <v>1</v>
+      </c>
+      <c r="G84" s="3">
+        <v>1</v>
+      </c>
+      <c r="H84" s="1">
+        <v>1</v>
+      </c>
+      <c r="K84" s="3">
+        <v>80</v>
+      </c>
+      <c r="M84" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="N84" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="O84" s="1">
+        <v>1</v>
+      </c>
+      <c r="P84" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="R84" s="1">
+        <v>15</v>
+      </c>
+      <c r="V84" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B85" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="E85" s="1">
+        <v>1</v>
+      </c>
+      <c r="G85" s="3">
+        <v>1</v>
+      </c>
+      <c r="H85" s="1">
+        <v>1</v>
+      </c>
+      <c r="I85" s="1">
+        <v>1</v>
+      </c>
+      <c r="J85" s="1">
+        <v>1</v>
+      </c>
+      <c r="K85" s="3">
+        <v>70</v>
+      </c>
+      <c r="N85" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="O85" s="1">
+        <v>1</v>
+      </c>
+      <c r="P85" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="R85" s="1">
+        <v>10</v>
+      </c>
+      <c r="V85" s="5" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="86" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A86" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B86" s="6" t="s">
-        <v>58</v>
+      <c r="B86" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="E86" s="1">
+        <v>1</v>
       </c>
       <c r="G86" s="3">
         <v>1</v>
@@ -5483,36 +5759,33 @@
       <c r="J86" s="1">
         <v>1</v>
       </c>
-      <c r="L86" s="1">
-        <v>30</v>
+      <c r="K86" s="3">
+        <v>70</v>
       </c>
       <c r="M86" s="4" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="N86" s="1">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="O86" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P86" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="R86" s="1">
         <v>10</v>
       </c>
-      <c r="U86" s="17" t="s">
-        <v>77</v>
-      </c>
       <c r="V86" s="5" t="s">
-        <v>59</v>
+        <v>144</v>
       </c>
     </row>
     <row r="87" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B87" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D87" s="1">
+        <v>369</v>
+      </c>
+      <c r="E87" s="1">
         <v>1</v>
       </c>
       <c r="G87" s="3">
@@ -5521,46 +5794,381 @@
       <c r="H87" s="1">
         <v>1</v>
       </c>
+      <c r="I87" s="1">
+        <v>1</v>
+      </c>
+      <c r="J87" s="1">
+        <v>1</v>
+      </c>
       <c r="K87" s="3">
+        <v>90</v>
+      </c>
+      <c r="N87" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="O87" s="1">
+        <v>1</v>
+      </c>
+      <c r="P87" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="R87" s="2">
+        <v>10</v>
+      </c>
+      <c r="V87" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B88" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="E88" s="1">
+        <v>1</v>
+      </c>
+      <c r="G88" s="3">
+        <v>1</v>
+      </c>
+      <c r="H88" s="1">
+        <v>1</v>
+      </c>
+      <c r="I88" s="1">
+        <v>1</v>
+      </c>
+      <c r="J88" s="1">
+        <v>1</v>
+      </c>
+      <c r="K88" s="3">
+        <v>80</v>
+      </c>
+      <c r="N88" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="O88" s="2">
+        <v>1</v>
+      </c>
+      <c r="P88" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="Q88" s="2"/>
+      <c r="R88" s="2">
+        <v>10</v>
+      </c>
+      <c r="V88" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B89" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="E89" s="1">
+        <v>1</v>
+      </c>
+      <c r="G89" s="3">
+        <v>1</v>
+      </c>
+      <c r="H89" s="1">
+        <v>1</v>
+      </c>
+      <c r="I89" s="1">
+        <v>1</v>
+      </c>
+      <c r="K89" s="3">
         <v>50</v>
       </c>
-      <c r="M87" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="N87" s="1">
+      <c r="N89" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="O89" s="1">
+        <v>1</v>
+      </c>
+      <c r="P89" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="Q89" s="1">
+        <v>50</v>
+      </c>
+      <c r="R89" s="1">
+        <v>15</v>
+      </c>
+      <c r="V89" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B90" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="F90" s="1">
+        <v>1</v>
+      </c>
+      <c r="H90" s="1">
+        <v>1</v>
+      </c>
+      <c r="I90" s="1">
+        <v>1</v>
+      </c>
+      <c r="J90" s="1">
+        <v>1</v>
+      </c>
+      <c r="K90" s="3">
+        <v>120</v>
+      </c>
+      <c r="M90" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="N90" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="O90" s="2">
+        <v>1</v>
+      </c>
+      <c r="P90" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="R90" s="1">
+        <v>20</v>
+      </c>
+      <c r="V90" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="E92" s="1">
+        <v>1</v>
+      </c>
+      <c r="G92" s="3">
+        <v>1</v>
+      </c>
+      <c r="H92" s="1">
+        <v>1</v>
+      </c>
+      <c r="I92" s="1">
+        <v>1</v>
+      </c>
+      <c r="J92" s="1">
+        <v>1</v>
+      </c>
+      <c r="K92" s="3">
+        <v>30</v>
+      </c>
+      <c r="L92" s="1">
+        <v>30</v>
+      </c>
+      <c r="M92" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="N92" s="1">
         <v>0.3</v>
       </c>
-      <c r="O87" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="P87" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="R87" s="1">
+      <c r="O92" s="1">
+        <v>1</v>
+      </c>
+      <c r="P92" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="Q92" s="1">
         <v>10</v>
+      </c>
+      <c r="R92" s="1">
+        <v>10</v>
+      </c>
+      <c r="U92" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="V92" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B93" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D93" s="1">
+        <v>1</v>
+      </c>
+      <c r="E93" s="1">
+        <v>1</v>
+      </c>
+      <c r="F93" s="1">
+        <v>1</v>
+      </c>
+      <c r="G93" s="3">
+        <v>1</v>
+      </c>
+      <c r="H93" s="1">
+        <v>1</v>
+      </c>
+      <c r="I93" s="1">
+        <v>1</v>
+      </c>
+      <c r="J93" s="1">
+        <v>1</v>
+      </c>
+      <c r="U93" s="17" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B94" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="E94" s="1">
+        <v>1</v>
+      </c>
+      <c r="G94" s="3">
+        <v>1</v>
+      </c>
+      <c r="H94" s="1">
+        <v>1</v>
+      </c>
+      <c r="I94" s="1">
+        <v>1</v>
+      </c>
+      <c r="J94" s="1">
+        <v>1</v>
+      </c>
+      <c r="L94" s="1">
+        <v>40</v>
+      </c>
+      <c r="N94" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="O94" s="1">
+        <v>1</v>
+      </c>
+      <c r="P94" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="Q94" s="1">
+        <v>10</v>
+      </c>
+      <c r="R94" s="1">
+        <v>10</v>
+      </c>
+      <c r="U94" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="V94" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B95" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="E95" s="1">
+        <v>1</v>
+      </c>
+      <c r="G95" s="3">
+        <v>1</v>
+      </c>
+      <c r="H95" s="1">
+        <v>1</v>
+      </c>
+      <c r="I95" s="1">
+        <v>1</v>
+      </c>
+      <c r="J95" s="1">
+        <v>1</v>
+      </c>
+      <c r="K95" s="3">
+        <v>20</v>
+      </c>
+      <c r="L95" s="1">
+        <v>30</v>
+      </c>
+      <c r="N95" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="O95" s="1">
+        <v>1</v>
+      </c>
+      <c r="P95" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="R95" s="1">
+        <v>10</v>
+      </c>
+      <c r="U95" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="V95" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B96" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="E96" s="1">
+        <v>1</v>
+      </c>
+      <c r="G96" s="3">
+        <v>1</v>
+      </c>
+      <c r="H96" s="1">
+        <v>1</v>
+      </c>
+      <c r="I96" s="1">
+        <v>1</v>
+      </c>
+      <c r="J96" s="1">
+        <v>1</v>
+      </c>
+      <c r="K96" s="3">
+        <v>10</v>
+      </c>
+      <c r="L96" s="1">
+        <v>40</v>
+      </c>
+      <c r="N96" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="O96" s="1">
+        <v>1</v>
+      </c>
+      <c r="P96" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="R96" s="1">
+        <v>10</v>
+      </c>
+      <c r="U96" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="V96" s="5" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
     <mergeCell ref="S1:S2"/>
     <mergeCell ref="T1:T2"/>
     <mergeCell ref="U1:U2"/>
     <mergeCell ref="V1:V2"/>
     <mergeCell ref="W1:W2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="M1:M2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="K1:L1048576">
-    <cfRule type="dataBar" priority="5">
+    <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5573,8 +6181,78 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:P73 N75:P1048576">
+  <conditionalFormatting sqref="N74:P74">
+    <cfRule type="dataBar" priority="6">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7542E7B5-7E3A-4FAB-81FA-4D614C426105}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1:K1048576">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{8F39C6AF-7810-461D-803D-2301BA1F8B2C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N88:P88">
     <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A12E8DC9-8AB7-4363-AACF-448C464D1ED4}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N88:P88">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{253B4FEF-62ED-4069-B410-D3421E5BC306}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N1:P1048576">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{D95EFC06-6588-49E3-8AFB-05D9125C4D24}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N89:P1048576 N1:P73 N75:P87">
+    <cfRule type="dataBar" priority="12">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5587,22 +6265,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N74:P74">
-    <cfRule type="dataBar" priority="2">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFB628"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7542E7B5-7E3A-4FAB-81FA-4D614C426105}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N1:P1048576">
-    <cfRule type="dataBar" priority="1">
+  <conditionalFormatting sqref="N89:P1048576 N1:P87">
+    <cfRule type="dataBar" priority="16">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5632,17 +6296,6 @@
           <xm:sqref>K1:L1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{C687EA02-BCFE-4B01-86A6-E7FAF1A19516}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>N1:P73 N75:P1048576</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{7542E7B5-7E3A-4FAB-81FA-4D614C426105}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
@@ -5654,7 +6307,40 @@
           <xm:sqref>N74:P74</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{03FC7C04-3D28-4BBB-92C1-997DB4E2AA2D}">
+          <x14:cfRule type="dataBar" id="{8F39C6AF-7810-461D-803D-2301BA1F8B2C}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>K1:K1048576</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A12E8DC9-8AB7-4363-AACF-448C464D1ED4}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>N88:P88</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{253B4FEF-62ED-4069-B410-D3421E5BC306}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>N88:P88</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{D95EFC06-6588-49E3-8AFB-05D9125C4D24}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5664,6 +6350,28 @@
           </x14:cfRule>
           <xm:sqref>N1:P1048576</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{C687EA02-BCFE-4B01-86A6-E7FAF1A19516}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>N89:P1048576 N1:P73 N75:P87</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{03FC7C04-3D28-4BBB-92C1-997DB4E2AA2D}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>N89:P1048576 N1:P87</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
@@ -5672,13 +6380,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01B6F42B-4BB2-402E-8EF0-FC889EE96737}">
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:I57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomRight" activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5702,23 +6410,23 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D1" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="35"/>
+      <c r="E1" s="34"/>
       <c r="F1" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H1" s="10" t="s">
         <v>16</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -5735,10 +6443,10 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="8">
@@ -5746,30 +6454,30 @@
       </c>
       <c r="G3" s="24"/>
       <c r="H3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="8">
         <v>1</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="G4"/>
+        <v>49</v>
+      </c>
+      <c r="G4" s="22"/>
       <c r="H4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="8">
@@ -5779,16 +6487,16 @@
         <v>1</v>
       </c>
       <c r="G5" s="26" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="H5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="8">
@@ -5798,16 +6506,16 @@
         <v>1</v>
       </c>
       <c r="G6" s="26" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="H6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="8">
@@ -5817,16 +6525,16 @@
         <v>1</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="8">
@@ -5834,7 +6542,7 @@
       </c>
       <c r="G8" s="24"/>
       <c r="H8" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -5843,38 +6551,38 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D10" s="8">
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" s="8">
+        <v>1</v>
+      </c>
+      <c r="E11" s="11">
+        <v>1</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" t="s">
         <v>126</v>
-      </c>
-      <c r="D11" s="8">
-        <v>1</v>
-      </c>
-      <c r="E11" s="11">
-        <v>1</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" s="6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D12" s="8">
         <v>1</v>
@@ -5882,16 +6590,16 @@
       <c r="E12" s="11">
         <v>1</v>
       </c>
-      <c r="G12" s="27" t="s">
-        <v>131</v>
+      <c r="G12" s="35" t="s">
+        <v>127</v>
       </c>
       <c r="H12" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13" s="6" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D13" s="8">
         <v>1</v>
@@ -5899,142 +6607,142 @@
       <c r="E13" s="11">
         <v>1</v>
       </c>
-      <c r="G13" s="27" t="s">
-        <v>134</v>
+      <c r="G13" s="35" t="s">
+        <v>130</v>
       </c>
       <c r="H13" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14" s="6" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D14" s="8">
         <v>1</v>
       </c>
-      <c r="E14" s="28">
-        <v>1</v>
-      </c>
-      <c r="G14" t="s">
-        <v>116</v>
+      <c r="E14" s="27">
+        <v>1</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>112</v>
       </c>
       <c r="H14" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E15" s="28"/>
-      <c r="G15"/>
+      <c r="E15" s="27"/>
+      <c r="G15" s="22"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D16" s="8">
         <v>1</v>
       </c>
-      <c r="E16" s="28"/>
-      <c r="G16"/>
+      <c r="E16" s="27"/>
+      <c r="G16" s="22"/>
       <c r="H16" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B17" s="6" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D17" s="8">
         <v>1</v>
       </c>
-      <c r="E17" s="28">
-        <v>1</v>
-      </c>
-      <c r="G17"/>
+      <c r="E17" s="27">
+        <v>1</v>
+      </c>
+      <c r="G17" s="22"/>
       <c r="H17" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B18" s="6" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D18" s="8">
         <v>1</v>
       </c>
-      <c r="E18" s="28">
-        <v>1</v>
-      </c>
-      <c r="G18"/>
+      <c r="E18" s="27">
+        <v>1</v>
+      </c>
+      <c r="G18" s="22"/>
       <c r="H18" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E19" s="28"/>
-      <c r="G19"/>
+      <c r="E19" s="27"/>
+      <c r="G19" s="22"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D20" s="8">
         <v>1</v>
       </c>
-      <c r="E20" s="28">
-        <v>1</v>
-      </c>
-      <c r="G20"/>
+      <c r="E20" s="27">
+        <v>1</v>
+      </c>
+      <c r="G20" s="22"/>
       <c r="H20" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B21" s="6" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D21" s="8">
         <v>1</v>
       </c>
-      <c r="E21" s="28">
-        <v>1</v>
-      </c>
-      <c r="G21"/>
+      <c r="E21" s="27">
+        <v>1</v>
+      </c>
+      <c r="G21" s="22"/>
       <c r="H21" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B22" s="6" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D22" s="8">
         <v>1</v>
       </c>
-      <c r="E22" s="28">
-        <v>1</v>
-      </c>
-      <c r="G22"/>
+      <c r="E22" s="27">
+        <v>1</v>
+      </c>
+      <c r="G22" s="22"/>
       <c r="H22" s="25" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E23" s="28"/>
-      <c r="G23"/>
+      <c r="E23" s="27"/>
+      <c r="G23" s="22"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D24" s="8">
         <v>1</v>
@@ -6043,12 +6751,12 @@
         <v>1</v>
       </c>
       <c r="H24" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B25" s="6" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D25" s="8">
         <v>1</v>
@@ -6057,12 +6765,12 @@
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B26" s="6" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D26" s="8">
         <v>1</v>
@@ -6071,12 +6779,12 @@
         <v>1</v>
       </c>
       <c r="H26" s="25" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B27" s="6" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D27" s="8">
         <v>1</v>
@@ -6085,29 +6793,29 @@
         <v>1</v>
       </c>
       <c r="H27" s="25" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G28" s="27"/>
+      <c r="G28" s="35"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8">
         <v>1</v>
       </c>
       <c r="H29" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B30" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8">
         <v>1</v>
@@ -6116,12 +6824,12 @@
         <v>1</v>
       </c>
       <c r="H30" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B31" s="6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D31" s="8">
         <v>1</v>
@@ -6130,12 +6838,12 @@
         <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B32" s="6" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D32" s="8">
         <v>1</v>
@@ -6144,10 +6852,10 @@
         <v>1</v>
       </c>
       <c r="G32" s="25" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H32" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
@@ -6155,7 +6863,7 @@
         <v>26</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D35" s="8">
         <v>1</v>
@@ -6164,58 +6872,58 @@
         <v>1</v>
       </c>
       <c r="G35" s="25" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="H35" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B36" s="6" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D36" s="8">
         <v>1</v>
       </c>
-      <c r="E36" s="28">
+      <c r="E36" s="27">
         <v>1</v>
       </c>
       <c r="G36" s="25" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H36" s="25" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B37" s="6" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D37" s="8">
         <v>1</v>
       </c>
-      <c r="E37" s="28"/>
+      <c r="E37" s="27"/>
       <c r="H37" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B38" s="6" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D38" s="8">
         <v>1</v>
       </c>
-      <c r="G38" t="s">
-        <v>134</v>
+      <c r="G38" s="22" t="s">
+        <v>130</v>
       </c>
       <c r="H38" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B39" s="6" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D39" s="8">
         <v>1</v>
@@ -6224,38 +6932,233 @@
         <v>1</v>
       </c>
       <c r="G39" s="25" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="H39" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D41" s="8">
         <v>1</v>
       </c>
       <c r="G41" s="25" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H41" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B42" s="6" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D42" s="8">
         <v>1</v>
       </c>
       <c r="H42" t="s">
-        <v>114</v>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="D44" s="8">
+        <v>1</v>
+      </c>
+      <c r="E44" s="11">
+        <v>1</v>
+      </c>
+      <c r="G44" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="H44" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B45" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="D45" s="8">
+        <v>1</v>
+      </c>
+      <c r="H45" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B46" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="D46" s="8">
+        <v>1</v>
+      </c>
+      <c r="H46" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B47" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="D47" s="8">
+        <v>1</v>
+      </c>
+      <c r="E47" s="11">
+        <v>1</v>
+      </c>
+      <c r="G47" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="H47" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A49" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="D49" s="8">
+        <v>1</v>
+      </c>
+      <c r="E49" s="11">
+        <v>1</v>
+      </c>
+      <c r="G49" s="22" t="s">
+        <v>370</v>
+      </c>
+      <c r="H49" s="25" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B50" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="D50" s="8">
+        <v>1</v>
+      </c>
+      <c r="E50" s="11">
+        <v>1</v>
+      </c>
+      <c r="G50" s="25" t="s">
+        <v>366</v>
+      </c>
+      <c r="H50" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B51" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="D51" s="8">
+        <v>1</v>
+      </c>
+      <c r="E51" s="27">
+        <v>1</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G51" s="22" t="s">
+        <v>377</v>
+      </c>
+      <c r="H51" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B52" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="D52" s="8">
+        <v>1</v>
+      </c>
+      <c r="E52" s="27">
+        <v>1</v>
+      </c>
+      <c r="G52" s="22" t="s">
+        <v>371</v>
+      </c>
+      <c r="H52" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B53" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D53" s="8">
+        <v>1</v>
+      </c>
+      <c r="E53" s="27">
+        <v>1</v>
+      </c>
+      <c r="H53" s="25" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B54" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="D54" s="8">
+        <v>1</v>
+      </c>
+      <c r="E54" s="27">
+        <v>1</v>
+      </c>
+      <c r="H54" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="D56" s="8">
+        <v>1</v>
+      </c>
+      <c r="E56" s="27">
+        <v>1</v>
+      </c>
+      <c r="G56" s="22" t="s">
+        <v>385</v>
+      </c>
+      <c r="H56" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B57" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="D57" s="8">
+        <v>1</v>
+      </c>
+      <c r="E57" s="11">
+        <v>1</v>
+      </c>
+      <c r="G57" s="18" t="s">
+        <v>387</v>
       </c>
     </row>
   </sheetData>
@@ -6269,13 +7172,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54D9C67E-4237-478B-81E0-48BC15B60241}">
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:H63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F51" sqref="F51"/>
+      <selection pane="bottomRight" activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6297,22 +7200,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>16</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -6324,27 +7227,27 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="3">
         <v>5</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F3" s="24"/>
       <c r="G3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="3">
@@ -6352,44 +7255,44 @@
       </c>
       <c r="F4" s="24"/>
       <c r="G4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="3">
         <v>10</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F5" s="24"/>
       <c r="G5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="H5" s="22" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="3">
         <v>15</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F6" s="24"/>
       <c r="G6" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -6412,287 +7315,287 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D11" s="12">
         <v>20</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H11" s="22" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B12" s="6" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D12" s="12">
         <v>5</v>
       </c>
       <c r="G12" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B13" s="6" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D13" s="12">
         <v>5</v>
       </c>
       <c r="G13" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D16" s="12">
         <v>5</v>
       </c>
       <c r="G16" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B17" s="6" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D17" s="12">
         <v>5</v>
       </c>
       <c r="G17" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B18" s="6" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D18" s="12">
         <v>5</v>
       </c>
       <c r="G18" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B19" s="6" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D19" s="12">
         <v>20</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G19" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H19" s="22" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D21" s="12">
         <v>5</v>
       </c>
       <c r="G21" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B22" s="6" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D22" s="12">
         <v>5</v>
       </c>
       <c r="G22" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B23" s="6" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D23" s="12">
         <v>5</v>
       </c>
       <c r="G23" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B24" s="6" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D24" s="12">
         <v>5</v>
       </c>
       <c r="G24" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D26" s="12">
         <v>5</v>
       </c>
       <c r="G26" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B27" s="6" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D27" s="12">
         <v>5</v>
       </c>
       <c r="G27" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B28" s="6" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D28" s="12">
         <v>5</v>
       </c>
       <c r="G28" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B29" s="6" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D29" s="12">
         <v>5</v>
       </c>
       <c r="G29" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D31" s="12">
         <v>15</v>
       </c>
       <c r="F31" s="22" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G31" s="22" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="H31" s="22" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B32" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D32" s="12">
         <v>5</v>
       </c>
       <c r="E32" s="19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G32" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B33" s="6" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D33" s="12">
         <v>5</v>
       </c>
       <c r="F33" s="25" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G33" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H33" s="22" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B34" s="6" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D34" s="12">
         <v>5</v>
       </c>
       <c r="G34" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B35" s="6" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D35" s="12">
         <v>5</v>
       </c>
       <c r="G35" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B36" s="6" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D36" s="12">
         <v>5</v>
       </c>
       <c r="E36" s="19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F36" s="25" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G36" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
@@ -6700,165 +7603,323 @@
         <v>26</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D38" s="12">
         <v>5</v>
       </c>
       <c r="F38" s="22" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G38" s="22" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B39" s="6" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D39" s="12">
         <v>20</v>
       </c>
       <c r="E39" s="19" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F39" s="25" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G39" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B40" s="6" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D40" s="12">
         <v>5</v>
       </c>
       <c r="G40" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D42" s="12">
         <v>10</v>
       </c>
       <c r="E42" s="19" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F42" s="22" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="G42" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B43" s="6" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D43" s="12">
         <v>6</v>
       </c>
       <c r="E43" s="19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G43" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="H43" s="22" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B44" s="6" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D44" s="12">
         <v>8</v>
       </c>
       <c r="E44" s="19" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G44" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B45" s="6" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D45" s="12">
         <v>5</v>
       </c>
       <c r="E45" s="19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G45" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B46" s="6" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D46" s="12">
         <v>5</v>
       </c>
       <c r="E46" s="19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G46" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B47" s="6" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D47" s="12">
         <v>7</v>
       </c>
       <c r="F47" s="22" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="G47" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="H47" s="22" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B48" s="6" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D48" s="12">
         <v>5</v>
       </c>
       <c r="E48" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="F48" t="s">
-        <v>324</v>
+        <v>44</v>
+      </c>
+      <c r="F48" s="22" t="s">
+        <v>320</v>
       </c>
       <c r="G48" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H48" s="22" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="D50" s="12">
+        <v>5</v>
+      </c>
+      <c r="G50" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B51" s="6" t="s">
-        <v>105</v>
+        <v>347</v>
+      </c>
+      <c r="D51" s="12">
+        <v>5</v>
+      </c>
+      <c r="G51" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B52" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="D52" s="12">
+        <v>5</v>
+      </c>
+      <c r="E52" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="G52" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B53" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="D53" s="12">
+        <v>10</v>
+      </c>
+      <c r="E53" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="F53" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="G53" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="D55" s="12">
+        <v>5</v>
+      </c>
+      <c r="G55" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B56" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="D56" s="12">
+        <v>10</v>
+      </c>
+      <c r="E56" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="G56" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B57" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="D57" s="12">
+        <v>5</v>
+      </c>
+      <c r="G57" s="22" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D59" s="12">
+        <v>7</v>
+      </c>
+      <c r="E59" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="G59" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B60" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="D60" s="12">
+        <v>5</v>
+      </c>
+      <c r="E60" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="F60" s="22" t="s">
+        <v>385</v>
+      </c>
+      <c r="G60" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B61" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="D61" s="12">
+        <v>5</v>
+      </c>
+      <c r="E61" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="G61" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B62" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="D62" s="12">
+        <v>5</v>
+      </c>
+      <c r="F62" s="22"/>
+      <c r="G62" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B63" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="F63" s="18" t="s">
+        <v>387</v>
       </c>
     </row>
   </sheetData>
@@ -6870,13 +7931,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60A858D4-5BEF-44D4-8A9F-866174BC0619}">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D40" sqref="D40"/>
+      <selection pane="bottomRight" activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6884,7 +7945,7 @@
     <col min="1" max="1" width="9" style="6"/>
     <col min="2" max="2" width="11" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="6"/>
-    <col min="4" max="4" width="56.125" style="30" customWidth="1"/>
+    <col min="4" max="4" width="56.125" style="29" customWidth="1"/>
     <col min="5" max="5" width="30.375" style="6" customWidth="1"/>
     <col min="6" max="16384" width="9" style="6"/>
   </cols>
@@ -6897,38 +7958,38 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="20" t="s">
         <v>43</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>45</v>
       </c>
       <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>157</v>
+        <v>148</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>156</v>
+        <v>151</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>159</v>
+        <v>154</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -6936,77 +7997,77 @@
         <v>25</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="29" t="s">
-        <v>56</v>
+      <c r="D6" s="28" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="29" t="s">
-        <v>144</v>
+      <c r="D7" s="28" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="29" t="s">
-        <v>103</v>
+      <c r="D8" s="28" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>55</v>
+        <v>52</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="29"/>
+      <c r="D10" s="28"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C11" s="2"/>
-      <c r="D11" s="29" t="s">
-        <v>252</v>
+      <c r="D11" s="28" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="D12" s="29" t="s">
-        <v>254</v>
+      <c r="D12" s="28" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C13" s="2"/>
-      <c r="D13" s="29" t="s">
-        <v>52</v>
+      <c r="D13" s="28" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -7015,31 +8076,31 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C15" s="2"/>
-      <c r="D15" s="30" t="s">
-        <v>272</v>
+      <c r="D15" s="29" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C16" s="2"/>
-      <c r="D16" s="30" t="s">
-        <v>270</v>
+      <c r="D16" s="29" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B17" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>74</v>
+        <v>70</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -7048,29 +8109,29 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="D19" s="30" t="s">
-        <v>191</v>
+        <v>186</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B20" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="D20" s="30" t="s">
-        <v>204</v>
+        <v>191</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B21" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="D21" s="30" t="s">
-        <v>215</v>
+        <v>210</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -7079,32 +8140,32 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C23" s="2"/>
-      <c r="D23" s="30" t="s">
-        <v>88</v>
+      <c r="D23" s="29" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C24" s="2"/>
-      <c r="D24" s="29" t="s">
-        <v>91</v>
+      <c r="D24" s="28" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C25" s="2"/>
-      <c r="D25" s="30" t="s">
-        <v>92</v>
+      <c r="D25" s="29" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -7112,64 +8173,64 @@
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D27" s="29" t="s">
-        <v>61</v>
+        <v>57</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B28" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="D28" s="29" t="s">
-        <v>171</v>
+        <v>166</v>
+      </c>
+      <c r="D28" s="28" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B29" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="D29" s="29" t="s">
-        <v>174</v>
+        <v>168</v>
+      </c>
+      <c r="D29" s="28" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B30" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="D30" s="30" t="s">
-        <v>159</v>
+        <v>169</v>
+      </c>
+      <c r="D30" s="29" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D31" s="29"/>
+      <c r="D31" s="28"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="D32" s="30" t="s">
-        <v>307</v>
+        <v>302</v>
+      </c>
+      <c r="D32" s="29" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B33" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="D33" s="30" t="s">
-        <v>270</v>
+        <v>322</v>
+      </c>
+      <c r="D33" s="29" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B34" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="D34" s="30" t="s">
-        <v>328</v>
+        <v>323</v>
+      </c>
+      <c r="D34" s="29" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -7177,28 +8238,80 @@
         <v>29</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>329</v>
+        <v>325</v>
+      </c>
+      <c r="D36" s="29" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B37" s="6" t="s">
-        <v>331</v>
+        <v>327</v>
+      </c>
+      <c r="D37" s="29" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B38" s="6" t="s">
-        <v>332</v>
+        <v>351</v>
+      </c>
+      <c r="D38" s="28" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="D40" s="28" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B41" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="D41" s="29" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="6" t="s">
-        <v>31</v>
-      </c>
       <c r="B42" s="6" t="s">
-        <v>62</v>
+        <v>381</v>
       </c>
       <c r="D42" s="29" t="s">
-        <v>75</v>
+        <v>382</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="D44" s="29" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B45" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="D45" s="29" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B46" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="D46" s="29" t="s">
+        <v>394</v>
       </c>
     </row>
   </sheetData>
@@ -7210,10 +8323,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3FDCBA0-BE27-412B-BDDC-A4596FFA7F45}">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6:J7"/>
+      <selection activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7224,48 +8337,45 @@
     <col min="7" max="15" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
         <v>35</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" t="s">
         <v>36</v>
-      </c>
-      <c r="D1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" t="s">
-        <v>37</v>
       </c>
       <c r="H1" t="s">
         <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J1" t="s">
         <v>29</v>
       </c>
       <c r="K1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L1" t="s">
-        <v>38</v>
-      </c>
-      <c r="M1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -7285,7 +8395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -7301,11 +8411,8 @@
       <c r="H3">
         <v>1</v>
       </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -7318,11 +8425,8 @@
       <c r="L4">
         <v>1</v>
       </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -7336,7 +8440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -7350,7 +8454,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -7363,11 +8467,8 @@
       <c r="J7">
         <v>2</v>
       </c>
-      <c r="M7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -7381,7 +8482,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -7392,7 +8493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -7403,7 +8504,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -7414,14 +8515,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/plan/招式.xlsx
+++ b/plan/招式.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\mycode\pealpool.github.io\plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA73E66B-BFBE-40C4-8FC6-D3231D6DA549}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA841DFF-D198-4240-87B6-AD9BFDF32892}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{07694949-CE91-4AC6-84BF-EA7187E3619C}"/>
   </bookViews>
@@ -1805,13 +1805,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1819,9 +1822,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2145,7 +2145,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C66" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G100" sqref="G100"/>
+      <selection pane="bottomRight" activeCell="U87" sqref="U87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2174,54 +2174,54 @@
       <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
       <c r="G1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
       <c r="K1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="30" t="s">
+      <c r="L1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="31" t="s">
+      <c r="M1" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="30" t="s">
+      <c r="N1" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="30" t="s">
+      <c r="O1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="30" t="s">
+      <c r="P1" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="30" t="s">
+      <c r="Q1" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="R1" s="30" t="s">
+      <c r="R1" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="S1" s="30" t="s">
+      <c r="S1" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="T1" s="30" t="s">
+      <c r="T1" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="U1" s="31" t="s">
+      <c r="U1" s="33" t="s">
         <v>288</v>
       </c>
-      <c r="V1" s="30" t="s">
+      <c r="V1" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="30" t="s">
+      <c r="W1" s="31" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2248,18 +2248,18 @@
         <v>10</v>
       </c>
       <c r="K2" s="32"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30"/>
-      <c r="U2" s="31"/>
-      <c r="V2" s="30"/>
-      <c r="W2" s="30"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="31"/>
+      <c r="W2" s="31"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -6150,21 +6150,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="W1:W2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="K1:L1048576">
@@ -6412,10 +6412,10 @@
       <c r="C1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="34"/>
+      <c r="E1" s="35"/>
       <c r="F1" s="9" t="s">
         <v>45</v>
       </c>
@@ -6590,7 +6590,7 @@
       <c r="E12" s="11">
         <v>1</v>
       </c>
-      <c r="G12" s="35" t="s">
+      <c r="G12" s="30" t="s">
         <v>127</v>
       </c>
       <c r="H12" t="s">
@@ -6607,7 +6607,7 @@
       <c r="E13" s="11">
         <v>1</v>
       </c>
-      <c r="G13" s="35" t="s">
+      <c r="G13" s="30" t="s">
         <v>130</v>
       </c>
       <c r="H13" t="s">
@@ -6797,7 +6797,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G28" s="35"/>
+      <c r="G28" s="30"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
@@ -8326,7 +8326,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:M1048576"/>
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/plan/招式.xlsx
+++ b/plan/招式.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\mycode\pealpool.github.io\plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA841DFF-D198-4240-87B6-AD9BFDF32892}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA0DAE11-297B-48BD-A48B-255C3B39A2F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{07694949-CE91-4AC6-84BF-EA7187E3619C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="4" xr2:uid="{07694949-CE91-4AC6-84BF-EA7187E3619C}"/>
   </bookViews>
   <sheets>
     <sheet name="攻击" sheetId="2" r:id="rId1"/>
@@ -112,16 +112,10 @@
     <t>内伤</t>
   </si>
   <si>
-    <t>削耐</t>
-  </si>
-  <si>
     <t>破绽</t>
   </si>
   <si>
     <t>流血</t>
-  </si>
-  <si>
-    <t>下毒</t>
   </si>
   <si>
     <t>防御反击</t>
@@ -1630,6 +1624,14 @@
   </si>
   <si>
     <t>其人之道·闪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒伤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>削耐</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1811,10 +1813,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2141,8 +2143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{897EE391-4514-4BBB-B5AB-BFD81F1FD685}">
   <dimension ref="A1:W96"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C66" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="U87" sqref="U87"/>
@@ -2179,19 +2181,19 @@
       </c>
       <c r="E1" s="31"/>
       <c r="F1" s="31"/>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="33" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
       <c r="J1" s="31"/>
-      <c r="K1" s="32" t="s">
+      <c r="K1" s="33" t="s">
         <v>3</v>
       </c>
       <c r="L1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="33" t="s">
+      <c r="M1" s="32" t="s">
         <v>5</v>
       </c>
       <c r="N1" s="31" t="s">
@@ -2204,30 +2206,30 @@
         <v>8</v>
       </c>
       <c r="Q1" s="31" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="R1" s="31" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="S1" s="31" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="T1" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="U1" s="33" t="s">
-        <v>288</v>
+        <v>66</v>
+      </c>
+      <c r="U1" s="32" t="s">
+        <v>286</v>
       </c>
       <c r="V1" s="31" t="s">
         <v>16</v>
       </c>
       <c r="W1" s="31" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:23" s="14" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="D2" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>9</v>
@@ -2247,9 +2249,9 @@
       <c r="J2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="32"/>
+      <c r="K2" s="33"/>
       <c r="L2" s="31"/>
-      <c r="M2" s="33"/>
+      <c r="M2" s="32"/>
       <c r="N2" s="31"/>
       <c r="O2" s="31"/>
       <c r="P2" s="31"/>
@@ -2257,13 +2259,13 @@
       <c r="R2" s="31"/>
       <c r="S2" s="31"/>
       <c r="T2" s="31"/>
-      <c r="U2" s="33"/>
+      <c r="U2" s="32"/>
       <c r="V2" s="31"/>
       <c r="W2" s="31"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>15</v>
@@ -2299,12 +2301,12 @@
         <v>10</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E4" s="2">
         <v>1</v>
@@ -2342,13 +2344,13 @@
       </c>
       <c r="U4" s="17"/>
       <c r="V4" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="W4" s="5"/>
     </row>
     <row r="5" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E5" s="2">
         <v>1</v>
@@ -2386,13 +2388,13 @@
       </c>
       <c r="U5" s="17"/>
       <c r="V5" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="W5" s="5"/>
     </row>
     <row r="6" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E6" s="2">
         <v>1</v>
@@ -2414,7 +2416,7 @@
         <v>150</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="N6" s="2">
         <v>0.6</v>
@@ -2430,13 +2432,13 @@
       </c>
       <c r="U6" s="17"/>
       <c r="V6" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="W6" s="5"/>
     </row>
     <row r="7" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E7" s="2">
         <v>1</v>
@@ -2474,13 +2476,13 @@
       </c>
       <c r="U7" s="17"/>
       <c r="V7" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="W7" s="5"/>
     </row>
     <row r="8" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E8" s="2">
         <v>1</v>
@@ -2499,7 +2501,7 @@
         <v>120</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="N8" s="2">
         <v>0.6</v>
@@ -2515,13 +2517,13 @@
       </c>
       <c r="U8" s="17"/>
       <c r="V8" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="W8" s="5"/>
     </row>
     <row r="9" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F9" s="2">
         <v>1</v>
@@ -2545,7 +2547,7 @@
         <v>60</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="N9" s="2">
         <v>0.5</v>
@@ -2561,13 +2563,13 @@
       </c>
       <c r="U9" s="17"/>
       <c r="V9" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="W9" s="5"/>
     </row>
     <row r="10" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E10" s="2">
         <v>1</v>
@@ -2589,7 +2591,7 @@
         <v>180</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N10" s="2">
         <v>0.7</v>
@@ -2605,7 +2607,7 @@
       </c>
       <c r="U10" s="17"/>
       <c r="V10" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="W10" s="5"/>
     </row>
@@ -2619,10 +2621,10 @@
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
@@ -2655,12 +2657,12 @@
         <v>15</v>
       </c>
       <c r="V12" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E13" s="2">
         <v>1</v>
@@ -2698,13 +2700,13 @@
       </c>
       <c r="U13" s="17"/>
       <c r="V13" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="W13" s="5"/>
     </row>
     <row r="14" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E14" s="2">
         <v>1</v>
@@ -2739,13 +2741,13 @@
       </c>
       <c r="U14" s="17"/>
       <c r="V14" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="W14" s="5"/>
     </row>
     <row r="15" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E15" s="2">
         <v>1</v>
@@ -2769,7 +2771,7 @@
         <v>10</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N15" s="2">
         <v>0.2</v>
@@ -2785,13 +2787,13 @@
       </c>
       <c r="U15" s="17"/>
       <c r="V15" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="W15" s="5"/>
     </row>
     <row r="16" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E16" s="2">
         <v>1</v>
@@ -2826,13 +2828,13 @@
       </c>
       <c r="U16" s="17"/>
       <c r="V16" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="W16" s="5"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F17" s="1">
         <v>1</v>
@@ -2853,7 +2855,7 @@
         <v>210</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N17" s="1">
         <v>0.6</v>
@@ -2868,12 +2870,12 @@
         <v>20</v>
       </c>
       <c r="V17" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F18" s="2">
         <v>1</v>
@@ -2895,7 +2897,7 @@
         <v>20</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N18" s="2">
         <v>0.4</v>
@@ -2911,13 +2913,13 @@
       </c>
       <c r="U18" s="17"/>
       <c r="V18" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="W18" s="5"/>
     </row>
     <row r="19" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E19" s="2">
         <v>1</v>
@@ -2936,7 +2938,7 @@
         <v>100</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N19" s="2">
         <v>0.2</v>
@@ -2952,16 +2954,16 @@
       </c>
       <c r="U19" s="17"/>
       <c r="V19" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="W19" s="5"/>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
@@ -2994,18 +2996,18 @@
         <v>10</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="U21" s="5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="V21" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -3028,7 +3030,7 @@
       </c>
       <c r="L22" s="2"/>
       <c r="M22" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N22" s="2">
         <v>0.3</v>
@@ -3044,12 +3046,12 @@
         <v>10</v>
       </c>
       <c r="V22" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="23" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E23" s="2">
         <v>1</v>
@@ -3083,21 +3085,21 @@
         <v>15</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="U23" s="5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="V23" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="W23" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="24" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E24" s="2">
         <v>1</v>
@@ -3109,7 +3111,7 @@
         <v>70</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N24" s="2">
         <v>0.3</v>
@@ -3124,16 +3126,16 @@
         <v>10</v>
       </c>
       <c r="U24" s="17" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="V24" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="W24" s="5"/>
     </row>
     <row r="25" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E25" s="2">
         <v>1</v>
@@ -3162,13 +3164,13 @@
       </c>
       <c r="U25" s="17"/>
       <c r="V25" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="W25" s="5"/>
     </row>
     <row r="26" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E26" s="2">
         <v>1</v>
@@ -3194,19 +3196,19 @@
         <v>15</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="U26" s="5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="V26" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="W26" s="5"/>
     </row>
     <row r="27" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F27" s="2">
         <v>1</v>
@@ -3241,13 +3243,13 @@
       </c>
       <c r="U27" s="17"/>
       <c r="V27" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="W27" s="5"/>
     </row>
     <row r="28" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -3287,16 +3289,16 @@
       </c>
       <c r="U28" s="17"/>
       <c r="V28" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="W28" s="5"/>
     </row>
     <row r="30" spans="1:23" ht="57" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E30" s="1">
         <v>1</v>
@@ -3311,7 +3313,7 @@
         <v>1</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N30" s="1">
         <v>0.5</v>
@@ -3332,15 +3334,15 @@
         <v>15</v>
       </c>
       <c r="U30" s="18" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="V30" s="5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E31" s="1">
         <v>1</v>
@@ -3379,15 +3381,15 @@
         <v>30</v>
       </c>
       <c r="U31" s="18" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="V31" s="5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="32" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E32" s="2">
         <v>1</v>
@@ -3425,16 +3427,16 @@
         <v>15</v>
       </c>
       <c r="U32" s="17" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="V32" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="W32" s="5"/>
     </row>
     <row r="33" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E33" s="2">
         <v>1</v>
@@ -3474,16 +3476,16 @@
         <v>20</v>
       </c>
       <c r="U33" s="17" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="V33" s="5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="W33" s="5"/>
     </row>
     <row r="34" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F34" s="2">
         <v>1</v>
@@ -3523,16 +3525,16 @@
         <v>15</v>
       </c>
       <c r="U34" s="17" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="V34" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="W34" s="5"/>
     </row>
     <row r="35" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E35" s="2">
         <v>1</v>
@@ -3570,16 +3572,16 @@
         <v>20</v>
       </c>
       <c r="U35" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="V35" s="5" t="s">
         <v>255</v>
-      </c>
-      <c r="V35" s="5" t="s">
-        <v>257</v>
       </c>
       <c r="W35" s="5"/>
     </row>
     <row r="36" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E36" s="2">
         <v>1</v>
@@ -3598,7 +3600,7 @@
       </c>
       <c r="K36" s="3"/>
       <c r="M36" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N36" s="2">
         <v>0.4</v>
@@ -3616,10 +3618,10 @@
         <v>25</v>
       </c>
       <c r="U36" s="17" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="V36" s="5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="W36" s="5"/>
     </row>
@@ -3633,10 +3635,10 @@
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -3676,19 +3678,19 @@
         <v>10</v>
       </c>
       <c r="U38" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="V38" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="W38" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="39" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="6"/>
       <c r="B39" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E39" s="2">
         <v>1</v>
@@ -3728,19 +3730,19 @@
         <v>15</v>
       </c>
       <c r="U39" s="17" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="V39" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="W39" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="40" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="6"/>
       <c r="B40" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E40" s="2">
         <v>1</v>
@@ -3764,7 +3766,7 @@
         <v>40</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N40" s="2">
         <v>0.3</v>
@@ -3782,19 +3784,19 @@
         <v>10</v>
       </c>
       <c r="U40" s="17" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="V40" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="W40" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="41" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="6"/>
       <c r="B41" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E41" s="2">
         <v>1</v>
@@ -3834,19 +3836,19 @@
         <v>15</v>
       </c>
       <c r="U41" s="17" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="V41" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="W41" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="42" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="6"/>
       <c r="B42" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E42" s="2">
         <v>1</v>
@@ -3886,19 +3888,19 @@
         <v>10</v>
       </c>
       <c r="U42" s="17" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="V42" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="W42" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="43" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="6"/>
       <c r="B43" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -3940,18 +3942,18 @@
         <v>10</v>
       </c>
       <c r="U43" s="17" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="V43" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="W43" s="5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B44" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -3978,7 +3980,7 @@
         <v>40</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N44" s="2">
         <v>0.3</v>
@@ -3996,18 +3998,18 @@
         <v>10</v>
       </c>
       <c r="U44" s="17" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="V44" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="W44" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="45" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E45" s="2">
         <v>1</v>
@@ -4045,18 +4047,18 @@
       </c>
       <c r="U45" s="17"/>
       <c r="V45" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="W45" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="47" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E47" s="2">
         <v>1</v>
@@ -4080,7 +4082,7 @@
         <v>60</v>
       </c>
       <c r="M47" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N47" s="2">
         <v>0.4</v>
@@ -4096,13 +4098,13 @@
       </c>
       <c r="U47" s="17"/>
       <c r="V47" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="W47" s="5"/>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E48" s="1">
         <v>1</v>
@@ -4138,12 +4140,12 @@
         <v>10</v>
       </c>
       <c r="V48" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="49" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E49" s="2">
         <v>1</v>
@@ -4167,7 +4169,7 @@
         <v>80</v>
       </c>
       <c r="M49" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N49" s="2">
         <v>0.2</v>
@@ -4183,13 +4185,13 @@
       </c>
       <c r="U49" s="17"/>
       <c r="V49" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="W49" s="5"/>
     </row>
     <row r="50" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E50" s="2">
         <v>1</v>
@@ -4227,13 +4229,13 @@
       </c>
       <c r="U50" s="17"/>
       <c r="V50" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="W50" s="5"/>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E51" s="1">
         <v>1</v>
@@ -4269,12 +4271,12 @@
         <v>10</v>
       </c>
       <c r="V51" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="52" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E52" s="2">
         <v>1</v>
@@ -4298,7 +4300,7 @@
         <v>80</v>
       </c>
       <c r="M52" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="N52" s="2">
         <v>0.6</v>
@@ -4314,13 +4316,13 @@
       </c>
       <c r="U52" s="17"/>
       <c r="V52" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="W52" s="5"/>
     </row>
     <row r="53" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B53" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F53" s="2">
         <v>1</v>
@@ -4344,7 +4346,7 @@
         <v>80</v>
       </c>
       <c r="M53" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N53" s="2">
         <v>0.6</v>
@@ -4360,13 +4362,13 @@
       </c>
       <c r="U53" s="17"/>
       <c r="V53" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="W53" s="5"/>
     </row>
     <row r="54" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B54" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F54" s="2">
         <v>1</v>
@@ -4390,7 +4392,7 @@
         <v>130</v>
       </c>
       <c r="M54" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N54" s="2">
         <v>0.6</v>
@@ -4406,16 +4408,16 @@
       </c>
       <c r="U54" s="17"/>
       <c r="V54" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="W54" s="5"/>
     </row>
     <row r="56" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E56" s="2">
         <v>1</v>
@@ -4439,7 +4441,7 @@
         <v>30</v>
       </c>
       <c r="M56" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N56" s="2">
         <v>0.3</v>
@@ -4458,14 +4460,14 @@
       </c>
       <c r="U56" s="17"/>
       <c r="V56" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="W56" s="5"/>
     </row>
     <row r="57" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="6"/>
       <c r="B57" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E57" s="2">
         <v>1</v>
@@ -4506,14 +4508,14 @@
       </c>
       <c r="U57" s="17"/>
       <c r="V57" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="W57" s="5"/>
     </row>
     <row r="58" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="6"/>
       <c r="B58" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F58" s="2">
         <v>1</v>
@@ -4535,7 +4537,7 @@
         <v>90</v>
       </c>
       <c r="M58" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="N58" s="2">
         <v>0.6</v>
@@ -4554,13 +4556,13 @@
       </c>
       <c r="U58" s="17"/>
       <c r="V58" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="W58" s="5"/>
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B59" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F59" s="1">
         <v>1</v>
@@ -4584,7 +4586,7 @@
         <v>50</v>
       </c>
       <c r="M59" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="N59" s="1">
         <v>0.6</v>
@@ -4602,13 +4604,13 @@
         <v>20</v>
       </c>
       <c r="V59" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="60" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="6"/>
       <c r="B60" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E60" s="2">
         <v>1</v>
@@ -4649,14 +4651,14 @@
       </c>
       <c r="U60" s="17"/>
       <c r="V60" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="W60" s="5"/>
     </row>
     <row r="61" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="6"/>
       <c r="B61" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E61" s="2">
         <v>1</v>
@@ -4696,17 +4698,17 @@
         <v>15</v>
       </c>
       <c r="U61" s="17" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="V61" s="5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="W61" s="5"/>
     </row>
     <row r="62" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="6"/>
       <c r="B62" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E62" s="2">
         <v>1</v>
@@ -4747,14 +4749,14 @@
       </c>
       <c r="U62" s="17"/>
       <c r="V62" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="W62" s="5"/>
     </row>
     <row r="63" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="6"/>
       <c r="B63" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E63" s="2">
         <v>1</v>
@@ -4778,7 +4780,7 @@
         <v>60</v>
       </c>
       <c r="M63" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="N63" s="2">
         <v>0.5</v>
@@ -4796,10 +4798,10 @@
         <v>20</v>
       </c>
       <c r="U63" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="V63" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="W63" s="5"/>
     </row>
@@ -4814,10 +4816,10 @@
     </row>
     <row r="65" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E65" s="2">
         <v>1</v>
@@ -4827,7 +4829,7 @@
       </c>
       <c r="K65" s="3"/>
       <c r="M65" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="N65" s="2">
         <v>0.4</v>
@@ -4845,17 +4847,17 @@
         <v>25</v>
       </c>
       <c r="U65" s="5" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="V65" s="5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="W65" s="5"/>
     </row>
     <row r="66" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="6"/>
       <c r="B66" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E66" s="2">
         <v>1</v>
@@ -4889,20 +4891,20 @@
         <v>10</v>
       </c>
       <c r="S66" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="U66" s="5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="V66" s="5" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="W66" s="5"/>
     </row>
     <row r="67" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="6"/>
       <c r="B67" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E67" s="2">
         <v>1</v>
@@ -4923,7 +4925,7 @@
         <v>30</v>
       </c>
       <c r="M67" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N67" s="2">
         <v>0.5</v>
@@ -4938,20 +4940,20 @@
         <v>15</v>
       </c>
       <c r="S67" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="U67" s="17" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="V67" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="W67" s="5"/>
     </row>
     <row r="68" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="6"/>
       <c r="B68" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E68" s="2">
         <v>1</v>
@@ -4991,17 +4993,17 @@
         <v>10</v>
       </c>
       <c r="U68" s="17" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="V68" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="W68" s="5"/>
     </row>
     <row r="69" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="6"/>
       <c r="B69" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E69" s="2">
         <v>1</v>
@@ -5041,23 +5043,23 @@
         <v>10</v>
       </c>
       <c r="S69" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="T69" s="2">
         <v>20</v>
       </c>
       <c r="U69" s="5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="V69" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="W69" s="5"/>
     </row>
     <row r="70" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="6"/>
       <c r="B70" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E70" s="2">
         <v>1</v>
@@ -5091,23 +5093,23 @@
         <v>10</v>
       </c>
       <c r="S70" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="T70" s="2">
         <v>20</v>
       </c>
       <c r="U70" s="5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="V70" s="5" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="W70" s="5"/>
     </row>
     <row r="71" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="6"/>
       <c r="B71" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E71" s="2">
         <v>1</v>
@@ -5131,7 +5133,7 @@
         <v>10</v>
       </c>
       <c r="M71" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N71" s="2">
         <v>0.5</v>
@@ -5149,17 +5151,17 @@
         <v>10</v>
       </c>
       <c r="U71" s="5" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="V71" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="W71" s="5"/>
     </row>
     <row r="72" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="6"/>
       <c r="B72" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E72" s="2">
         <v>1</v>
@@ -5183,7 +5185,7 @@
         <v>20</v>
       </c>
       <c r="M72" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N72" s="2">
         <v>0.6</v>
@@ -5201,16 +5203,16 @@
         <v>20</v>
       </c>
       <c r="S72" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="T72" s="2">
         <v>30</v>
       </c>
       <c r="U72" s="5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="V72" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="W72" s="5"/>
     </row>
@@ -5225,10 +5227,10 @@
     </row>
     <row r="74" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E74" s="2">
         <v>1</v>
@@ -5249,7 +5251,7 @@
         <v>10</v>
       </c>
       <c r="M74" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="N74" s="2">
         <v>0.4</v>
@@ -5267,17 +5269,17 @@
         <v>25</v>
       </c>
       <c r="U74" s="5" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="V74" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="W74" s="5"/>
     </row>
     <row r="75" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="6"/>
       <c r="B75" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E75" s="2">
         <v>1</v>
@@ -5314,17 +5316,17 @@
         <v>10</v>
       </c>
       <c r="U75" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="V75" s="5" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="W75" s="5"/>
     </row>
     <row r="76" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="6"/>
       <c r="B76" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E76" s="2">
         <v>1</v>
@@ -5361,20 +5363,20 @@
         <v>10</v>
       </c>
       <c r="S76" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="U76" s="5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="V76" s="5" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="W76" s="5"/>
     </row>
     <row r="77" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="6"/>
       <c r="B77" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E77" s="2">
         <v>1</v>
@@ -5414,17 +5416,17 @@
         <v>10</v>
       </c>
       <c r="U77" s="5" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="V77" s="5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="W77" s="5"/>
     </row>
     <row r="78" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="6"/>
       <c r="B78" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E78" s="2">
         <v>1</v>
@@ -5445,7 +5447,7 @@
         <v>30</v>
       </c>
       <c r="M78" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N78" s="2">
         <v>0.2</v>
@@ -5460,20 +5462,20 @@
         <v>10</v>
       </c>
       <c r="S78" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="U78" s="5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="V78" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="W78" s="5"/>
     </row>
     <row r="79" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="6"/>
       <c r="B79" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E79" s="2">
         <v>1</v>
@@ -5510,19 +5512,19 @@
         <v>10</v>
       </c>
       <c r="S79" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="U79" s="5" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="V79" s="5" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="W79" s="5"/>
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B80" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F80" s="1">
         <v>1</v>
@@ -5543,7 +5545,7 @@
         <v>80</v>
       </c>
       <c r="M80" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N80" s="1">
         <v>0.6</v>
@@ -5561,12 +5563,12 @@
         <v>30</v>
       </c>
       <c r="V80" s="5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="81" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B81" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F81" s="2">
         <v>1</v>
@@ -5587,7 +5589,7 @@
         <v>80</v>
       </c>
       <c r="M81" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N81" s="2">
         <v>0.6</v>
@@ -5602,13 +5604,13 @@
         <v>20</v>
       </c>
       <c r="S81" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="U81" s="5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="V81" s="5" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="W81" s="5"/>
     </row>
@@ -5622,10 +5624,10 @@
     </row>
     <row r="83" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D83" s="1">
         <v>1</v>
@@ -5646,7 +5648,7 @@
         <v>30</v>
       </c>
       <c r="M83" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="N83" s="1">
         <v>0.9</v>
@@ -5661,15 +5663,15 @@
         <v>20</v>
       </c>
       <c r="U83" s="17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="V83" s="5" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="84" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B84" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D84" s="1">
         <v>1</v>
@@ -5684,7 +5686,7 @@
         <v>80</v>
       </c>
       <c r="M84" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N84" s="1">
         <v>0.4</v>
@@ -5699,12 +5701,12 @@
         <v>15</v>
       </c>
       <c r="V84" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="85" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B85" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E85" s="1">
         <v>1</v>
@@ -5737,12 +5739,12 @@
         <v>10</v>
       </c>
       <c r="V85" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="86" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B86" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E86" s="1">
         <v>1</v>
@@ -5763,7 +5765,7 @@
         <v>70</v>
       </c>
       <c r="M86" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N86" s="1">
         <v>0.3</v>
@@ -5778,12 +5780,12 @@
         <v>10</v>
       </c>
       <c r="V86" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="87" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B87" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E87" s="1">
         <v>1</v>
@@ -5816,12 +5818,12 @@
         <v>10</v>
       </c>
       <c r="V87" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="88" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B88" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E88" s="1">
         <v>1</v>
@@ -5855,12 +5857,12 @@
         <v>10</v>
       </c>
       <c r="V88" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="89" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B89" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E89" s="1">
         <v>1</v>
@@ -5893,12 +5895,12 @@
         <v>15</v>
       </c>
       <c r="V89" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="90" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B90" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F90" s="1">
         <v>1</v>
@@ -5916,7 +5918,7 @@
         <v>120</v>
       </c>
       <c r="M90" s="4" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="N90" s="2">
         <v>0.6</v>
@@ -5931,15 +5933,15 @@
         <v>20</v>
       </c>
       <c r="V90" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="92" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E92" s="1">
         <v>1</v>
@@ -5963,7 +5965,7 @@
         <v>30</v>
       </c>
       <c r="M92" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N92" s="1">
         <v>0.3</v>
@@ -5981,15 +5983,15 @@
         <v>10</v>
       </c>
       <c r="U92" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="V92" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="93" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B93" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D93" s="1">
         <v>1</v>
@@ -6013,12 +6015,12 @@
         <v>1</v>
       </c>
       <c r="U93" s="17" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="94" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B94" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E94" s="1">
         <v>1</v>
@@ -6054,15 +6056,15 @@
         <v>10</v>
       </c>
       <c r="U94" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="V94" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="95" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B95" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E95" s="1">
         <v>1</v>
@@ -6098,15 +6100,15 @@
         <v>10</v>
       </c>
       <c r="U95" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="V95" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="96" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B96" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E96" s="1">
         <v>1</v>
@@ -6142,29 +6144,29 @@
         <v>10</v>
       </c>
       <c r="U96" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="V96" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
     <mergeCell ref="S1:S2"/>
     <mergeCell ref="T1:T2"/>
     <mergeCell ref="U1:U2"/>
     <mergeCell ref="V1:V2"/>
     <mergeCell ref="W1:W2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="M1:M2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="K1:L1048576">
@@ -6383,10 +6385,10 @@
   <dimension ref="A1:I57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B65" sqref="B65"/>
+      <selection pane="bottomRight" activeCell="J51" sqref="J51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6410,23 +6412,23 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D1" s="34" t="s">
         <v>12</v>
       </c>
       <c r="E1" s="35"/>
       <c r="F1" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H1" s="10" t="s">
         <v>16</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -6443,10 +6445,10 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="8">
@@ -6454,30 +6456,30 @@
       </c>
       <c r="G3" s="24"/>
       <c r="H3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="8">
         <v>1</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G4" s="22"/>
       <c r="H4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="8">
@@ -6487,16 +6489,16 @@
         <v>1</v>
       </c>
       <c r="G5" s="26" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="8">
@@ -6506,16 +6508,16 @@
         <v>1</v>
       </c>
       <c r="G6" s="26" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="8">
@@ -6525,16 +6527,16 @@
         <v>1</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="8">
@@ -6542,7 +6544,7 @@
       </c>
       <c r="G8" s="24"/>
       <c r="H8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -6551,21 +6553,21 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D10" s="8">
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D11" s="8">
         <v>1</v>
@@ -6574,32 +6576,32 @@
         <v>1</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" s="8">
+        <v>1</v>
+      </c>
+      <c r="E12" s="11">
+        <v>1</v>
+      </c>
+      <c r="G12" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="D12" s="8">
-        <v>1</v>
-      </c>
-      <c r="E12" s="11">
-        <v>1</v>
-      </c>
-      <c r="G12" s="30" t="s">
-        <v>127</v>
-      </c>
       <c r="H12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D13" s="8">
         <v>1</v>
@@ -6608,15 +6610,15 @@
         <v>1</v>
       </c>
       <c r="G13" s="30" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D14" s="8">
         <v>1</v>
@@ -6625,10 +6627,10 @@
         <v>1</v>
       </c>
       <c r="G14" s="22" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -6637,10 +6639,10 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D16" s="8">
         <v>1</v>
@@ -6648,12 +6650,12 @@
       <c r="E16" s="27"/>
       <c r="G16" s="22"/>
       <c r="H16" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B17" s="6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D17" s="8">
         <v>1</v>
@@ -6663,12 +6665,12 @@
       </c>
       <c r="G17" s="22"/>
       <c r="H17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B18" s="6" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D18" s="8">
         <v>1</v>
@@ -6678,7 +6680,7 @@
       </c>
       <c r="G18" s="22"/>
       <c r="H18" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -6687,10 +6689,10 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D20" s="8">
         <v>1</v>
@@ -6700,12 +6702,12 @@
       </c>
       <c r="G20" s="22"/>
       <c r="H20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B21" s="6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D21" s="8">
         <v>1</v>
@@ -6715,12 +6717,12 @@
       </c>
       <c r="G21" s="22"/>
       <c r="H21" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B22" s="6" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D22" s="8">
         <v>1</v>
@@ -6730,7 +6732,7 @@
       </c>
       <c r="G22" s="22"/>
       <c r="H22" s="25" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -6739,10 +6741,10 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D24" s="8">
         <v>1</v>
@@ -6751,12 +6753,12 @@
         <v>1</v>
       </c>
       <c r="H24" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B25" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D25" s="8">
         <v>1</v>
@@ -6765,12 +6767,12 @@
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B26" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D26" s="8">
         <v>1</v>
@@ -6779,12 +6781,12 @@
         <v>1</v>
       </c>
       <c r="H26" s="25" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B27" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D27" s="8">
         <v>1</v>
@@ -6793,7 +6795,7 @@
         <v>1</v>
       </c>
       <c r="H27" s="25" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -6801,21 +6803,21 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8">
         <v>1</v>
       </c>
       <c r="H29" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B30" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8">
         <v>1</v>
@@ -6824,12 +6826,12 @@
         <v>1</v>
       </c>
       <c r="H30" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B31" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D31" s="8">
         <v>1</v>
@@ -6838,12 +6840,12 @@
         <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B32" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D32" s="8">
         <v>1</v>
@@ -6852,18 +6854,18 @@
         <v>1</v>
       </c>
       <c r="G32" s="25" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H32" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D35" s="8">
         <v>1</v>
@@ -6872,15 +6874,15 @@
         <v>1</v>
       </c>
       <c r="G35" s="25" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H35" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B36" s="6" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D36" s="8">
         <v>1</v>
@@ -6889,89 +6891,89 @@
         <v>1</v>
       </c>
       <c r="G36" s="25" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H36" s="25" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B37" s="6" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D37" s="8">
         <v>1</v>
       </c>
       <c r="E37" s="27"/>
       <c r="H37" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B38" s="6" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D38" s="8">
         <v>1</v>
       </c>
       <c r="G38" s="22" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H38" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B39" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="D39" s="8">
+        <v>1</v>
+      </c>
+      <c r="E39" s="11">
+        <v>1</v>
+      </c>
+      <c r="G39" s="25" t="s">
         <v>280</v>
       </c>
-      <c r="D39" s="8">
-        <v>1</v>
-      </c>
-      <c r="E39" s="11">
-        <v>1</v>
-      </c>
-      <c r="G39" s="25" t="s">
-        <v>282</v>
-      </c>
       <c r="H39" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D41" s="8">
         <v>1</v>
       </c>
       <c r="G41" s="25" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H41" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B42" s="6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D42" s="8">
         <v>1</v>
       </c>
       <c r="H42" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D44" s="8">
         <v>1</v>
@@ -6980,37 +6982,37 @@
         <v>1</v>
       </c>
       <c r="G44" s="25" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H44" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B45" s="6" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D45" s="8">
         <v>1</v>
       </c>
       <c r="H45" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B46" s="6" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D46" s="8">
         <v>1</v>
       </c>
       <c r="H46" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B47" s="6" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D47" s="8">
         <v>1</v>
@@ -7019,52 +7021,52 @@
         <v>1</v>
       </c>
       <c r="G47" s="22" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H47" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B49" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="D49" s="8">
+        <v>1</v>
+      </c>
+      <c r="E49" s="11">
+        <v>1</v>
+      </c>
+      <c r="G49" s="22" t="s">
         <v>368</v>
       </c>
-      <c r="D49" s="8">
-        <v>1</v>
-      </c>
-      <c r="E49" s="11">
-        <v>1</v>
-      </c>
-      <c r="G49" s="22" t="s">
-        <v>370</v>
-      </c>
       <c r="H49" s="25" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B50" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="D50" s="8">
+        <v>1</v>
+      </c>
+      <c r="E50" s="11">
+        <v>1</v>
+      </c>
+      <c r="G50" s="25" t="s">
         <v>364</v>
       </c>
-      <c r="D50" s="8">
-        <v>1</v>
-      </c>
-      <c r="E50" s="11">
-        <v>1</v>
-      </c>
-      <c r="G50" s="25" t="s">
-        <v>366</v>
-      </c>
       <c r="H50" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B51" s="6" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D51" s="8">
         <v>1</v>
@@ -7073,18 +7075,18 @@
         <v>1</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G51" s="22" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H51" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B52" s="6" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D52" s="8">
         <v>1</v>
@@ -7093,15 +7095,15 @@
         <v>1</v>
       </c>
       <c r="G52" s="22" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H52" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B53" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D53" s="8">
         <v>1</v>
@@ -7110,12 +7112,12 @@
         <v>1</v>
       </c>
       <c r="H53" s="25" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B54" s="6" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D54" s="8">
         <v>1</v>
@@ -7124,15 +7126,15 @@
         <v>1</v>
       </c>
       <c r="H54" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D56" s="8">
         <v>1</v>
@@ -7141,15 +7143,15 @@
         <v>1</v>
       </c>
       <c r="G56" s="22" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="H56" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B57" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D57" s="8">
         <v>1</v>
@@ -7158,7 +7160,7 @@
         <v>1</v>
       </c>
       <c r="G57" s="18" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
   </sheetData>
@@ -7175,10 +7177,10 @@
   <dimension ref="A1:H63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A65" sqref="A65"/>
+      <selection pane="bottomRight" activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7200,22 +7202,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>16</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -7227,27 +7229,27 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="3">
         <v>5</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F3" s="24"/>
       <c r="G3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="3">
@@ -7255,44 +7257,44 @@
       </c>
       <c r="F4" s="24"/>
       <c r="G4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="3">
         <v>10</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F5" s="24"/>
       <c r="G5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H5" s="22" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="3">
         <v>15</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F6" s="24"/>
       <c r="G6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -7315,611 +7317,611 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D11" s="12">
         <v>20</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H11" s="22" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B12" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D12" s="12">
         <v>5</v>
       </c>
       <c r="G12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B13" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D13" s="12">
         <v>5</v>
       </c>
       <c r="G13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D16" s="12">
         <v>5</v>
       </c>
       <c r="G16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B17" s="6" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D17" s="12">
         <v>5</v>
       </c>
       <c r="G17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B18" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D18" s="12">
         <v>5</v>
       </c>
       <c r="G18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B19" s="6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D19" s="12">
         <v>20</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G19" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H19" s="22" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D21" s="12">
         <v>5</v>
       </c>
       <c r="G21" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B22" s="6" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D22" s="12">
         <v>5</v>
       </c>
       <c r="G22" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B23" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D23" s="12">
         <v>5</v>
       </c>
       <c r="G23" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B24" s="6" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D24" s="12">
         <v>5</v>
       </c>
       <c r="G24" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D26" s="12">
         <v>5</v>
       </c>
       <c r="G26" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B27" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D27" s="12">
         <v>5</v>
       </c>
       <c r="G27" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B28" s="6" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D28" s="12">
         <v>5</v>
       </c>
       <c r="G28" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B29" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D29" s="12">
         <v>5</v>
       </c>
       <c r="G29" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D31" s="12">
         <v>15</v>
       </c>
       <c r="F31" s="22" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G31" s="22" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H31" s="22" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B32" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D32" s="12">
         <v>5</v>
       </c>
       <c r="E32" s="19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G32" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B33" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D33" s="12">
         <v>5</v>
       </c>
       <c r="F33" s="25" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G33" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H33" s="22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B34" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D34" s="12">
         <v>5</v>
       </c>
       <c r="G34" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B35" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D35" s="12">
         <v>5</v>
       </c>
       <c r="G35" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B36" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D36" s="12">
         <v>5</v>
       </c>
       <c r="E36" s="19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F36" s="25" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G36" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D38" s="12">
         <v>5</v>
       </c>
       <c r="F38" s="22" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G38" s="22" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B39" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D39" s="12">
         <v>20</v>
       </c>
       <c r="E39" s="19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F39" s="25" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G39" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B40" s="6" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D40" s="12">
         <v>5</v>
       </c>
       <c r="G40" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D42" s="12">
         <v>10</v>
       </c>
       <c r="E42" s="19" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F42" s="22" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G42" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B43" s="6" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D43" s="12">
         <v>6</v>
       </c>
       <c r="E43" s="19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G43" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H43" s="22" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B44" s="6" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D44" s="12">
         <v>8</v>
       </c>
       <c r="E44" s="19" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G44" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B45" s="6" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D45" s="12">
         <v>5</v>
       </c>
       <c r="E45" s="19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G45" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B46" s="6" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D46" s="12">
         <v>5</v>
       </c>
       <c r="E46" s="19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G46" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B47" s="6" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D47" s="12">
         <v>7</v>
       </c>
       <c r="F47" s="22" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G47" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H47" s="22" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B48" s="6" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D48" s="12">
         <v>5</v>
       </c>
       <c r="E48" s="19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F48" s="22" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G48" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H48" s="22" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D50" s="12">
         <v>5</v>
       </c>
       <c r="G50" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B51" s="6" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D51" s="12">
         <v>5</v>
       </c>
       <c r="G51" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B52" s="6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D52" s="12">
         <v>5</v>
       </c>
       <c r="E52" s="19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G52" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B53" s="6" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D53" s="12">
         <v>10</v>
       </c>
       <c r="E53" s="19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F53" s="25" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G53" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D55" s="12">
         <v>5</v>
       </c>
       <c r="G55" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B56" s="6" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D56" s="12">
         <v>10</v>
       </c>
       <c r="E56" s="19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G56" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B57" s="6" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D57" s="12">
         <v>5</v>
       </c>
       <c r="G57" s="22" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D59" s="12">
         <v>7</v>
       </c>
       <c r="E59" s="19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G59" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B60" s="6" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D60" s="12">
         <v>5</v>
       </c>
       <c r="E60" s="19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F60" s="22" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="G60" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B61" s="6" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D61" s="12">
         <v>5</v>
       </c>
       <c r="E61" s="19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G61" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B62" s="6" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D62" s="12">
         <v>5</v>
       </c>
       <c r="F62" s="22"/>
       <c r="G62" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B63" s="6" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F63" s="18" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
   </sheetData>
@@ -7958,116 +7960,116 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="20" t="s">
         <v>41</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>43</v>
       </c>
       <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="28" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="28" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="28" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="28"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="28" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="28" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="28" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -8076,31 +8078,31 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="29" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="29" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B17" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -8109,29 +8111,29 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B20" s="6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B21" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -8140,67 +8142,67 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="29" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="28" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="29" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B28" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B29" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="D29" s="28" t="s">
         <v>168</v>
-      </c>
-      <c r="D29" s="28" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B30" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D30" s="29" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -8208,110 +8210,110 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D32" s="29" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B33" s="6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D33" s="29" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B34" s="6" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D34" s="29" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D36" s="29" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B37" s="6" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D37" s="29" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B38" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D38" s="28" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D40" s="28" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B41" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="D41" s="29" t="s">
         <v>378</v>
-      </c>
-      <c r="D41" s="29" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B42" s="6" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D42" s="29" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B44" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="D44" s="29" t="s">
         <v>389</v>
-      </c>
-      <c r="D44" s="29" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B45" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="D45" s="29" t="s">
         <v>390</v>
-      </c>
-      <c r="D45" s="29" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B46" s="6" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D46" s="29" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
   </sheetData>
@@ -8325,8 +8327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3FDCBA0-BE27-412B-BDDC-A4596FFA7F45}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8339,40 +8341,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" t="s">
         <v>31</v>
       </c>
-      <c r="B1" t="s">
+      <c r="G1" t="s">
         <v>34</v>
       </c>
-      <c r="C1" t="s">
+      <c r="H1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
         <v>35</v>
-      </c>
-      <c r="D1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -8414,7 +8416,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>402</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -8428,7 +8430,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F5">
         <v>3</v>
@@ -8442,7 +8444,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -8456,7 +8458,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>401</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -8470,7 +8472,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -8484,7 +8486,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I9">
         <v>2</v>
@@ -8495,7 +8497,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -8506,7 +8508,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -8517,12 +8519,12 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/plan/招式.xlsx
+++ b/plan/招式.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\mycode\pealpool.github.io\plan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\pealpool.github.io\plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA0DAE11-297B-48BD-A48B-255C3B39A2F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{672AFE99-D515-48F9-91D9-57AE81944095}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="4" xr2:uid="{07694949-CE91-4AC6-84BF-EA7187E3619C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" activeTab="2" xr2:uid="{07694949-CE91-4AC6-84BF-EA7187E3619C}"/>
   </bookViews>
   <sheets>
     <sheet name="攻击" sheetId="2" r:id="rId1"/>
@@ -46,16 +46,7 @@
     <t>攻击对象部位</t>
   </si>
   <si>
-    <t>外伤伤害</t>
-  </si>
-  <si>
     <t>内伤伤害</t>
-  </si>
-  <si>
-    <t>命中修正</t>
-  </si>
-  <si>
-    <t>攻击前摇</t>
   </si>
   <si>
     <t>攻击时间</t>
@@ -109,21 +100,12 @@
     <t>外伤</t>
   </si>
   <si>
-    <t>内伤</t>
-  </si>
-  <si>
     <t>破绽</t>
   </si>
   <si>
     <t>流血</t>
   </si>
   <si>
-    <t>防御反击</t>
-  </si>
-  <si>
-    <t>闪避反击</t>
-  </si>
-  <si>
     <t>少林</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -717,10 +699,6 @@
   </si>
   <si>
     <t>摩诃迦罗附体</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>耐力伤害+5%</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1248,10 +1226,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>袖炮血天腐地</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>下次的攻击前摇-0.1s</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1632,6 +1606,38 @@
   </si>
   <si>
     <t>削耐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内伤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>防反</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪反</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>外伤伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>命中修正</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击前摇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>血天腐地炮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>耐力伤害+5%，5s</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1813,10 +1819,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2144,10 +2150,10 @@
   <dimension ref="A1:W96"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C78" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="U87" sqref="U87"/>
+      <selection pane="bottomRight" activeCell="U67" sqref="U67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2177,81 +2183,81 @@
         <v>1</v>
       </c>
       <c r="D1" s="31" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E1" s="31"/>
       <c r="F1" s="31"/>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="32" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
       <c r="J1" s="31"/>
-      <c r="K1" s="33" t="s">
+      <c r="K1" s="32" t="s">
+        <v>398</v>
+      </c>
+      <c r="L1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="31" t="s">
+      <c r="M1" s="33" t="s">
+        <v>399</v>
+      </c>
+      <c r="N1" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="O1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="32" t="s">
+      <c r="P1" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="O1" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="P1" s="31" t="s">
-        <v>8</v>
-      </c>
       <c r="Q1" s="31" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="R1" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="S1" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="T1" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="U1" s="33" t="s">
+        <v>279</v>
+      </c>
+      <c r="V1" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="W1" s="31" t="s">
         <v>38</v>
-      </c>
-      <c r="S1" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="T1" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="U1" s="32" t="s">
-        <v>286</v>
-      </c>
-      <c r="V1" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="W1" s="31" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:23" s="14" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="D2" s="14" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F2" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>13</v>
-      </c>
       <c r="J2" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="33"/>
+        <v>7</v>
+      </c>
+      <c r="K2" s="32"/>
       <c r="L2" s="31"/>
-      <c r="M2" s="32"/>
+      <c r="M2" s="33"/>
       <c r="N2" s="31"/>
       <c r="O2" s="31"/>
       <c r="P2" s="31"/>
@@ -2259,16 +2265,16 @@
       <c r="R2" s="31"/>
       <c r="S2" s="31"/>
       <c r="T2" s="31"/>
-      <c r="U2" s="32"/>
+      <c r="U2" s="33"/>
       <c r="V2" s="31"/>
       <c r="W2" s="31"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
@@ -2301,12 +2307,12 @@
         <v>10</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E4" s="2">
         <v>1</v>
@@ -2344,13 +2350,13 @@
       </c>
       <c r="U4" s="17"/>
       <c r="V4" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="W4" s="5"/>
     </row>
     <row r="5" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E5" s="2">
         <v>1</v>
@@ -2388,13 +2394,13 @@
       </c>
       <c r="U5" s="17"/>
       <c r="V5" s="5" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="W5" s="5"/>
     </row>
     <row r="6" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="E6" s="2">
         <v>1</v>
@@ -2416,7 +2422,7 @@
         <v>150</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="N6" s="2">
         <v>0.6</v>
@@ -2432,13 +2438,13 @@
       </c>
       <c r="U6" s="17"/>
       <c r="V6" s="5" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="W6" s="5"/>
     </row>
     <row r="7" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="E7" s="2">
         <v>1</v>
@@ -2476,13 +2482,13 @@
       </c>
       <c r="U7" s="17"/>
       <c r="V7" s="5" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="W7" s="5"/>
     </row>
     <row r="8" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E8" s="2">
         <v>1</v>
@@ -2501,7 +2507,7 @@
         <v>120</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="N8" s="2">
         <v>0.6</v>
@@ -2517,13 +2523,13 @@
       </c>
       <c r="U8" s="17"/>
       <c r="V8" s="5" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="W8" s="5"/>
     </row>
     <row r="9" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="F9" s="2">
         <v>1</v>
@@ -2547,7 +2553,7 @@
         <v>60</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="N9" s="2">
         <v>0.5</v>
@@ -2563,13 +2569,13 @@
       </c>
       <c r="U9" s="17"/>
       <c r="V9" s="5" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="W9" s="5"/>
     </row>
     <row r="10" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="E10" s="2">
         <v>1</v>
@@ -2591,7 +2597,7 @@
         <v>180</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="N10" s="2">
         <v>0.7</v>
@@ -2607,7 +2613,7 @@
       </c>
       <c r="U10" s="17"/>
       <c r="V10" s="5" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="W10" s="5"/>
     </row>
@@ -2621,10 +2627,10 @@
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
@@ -2657,12 +2663,12 @@
         <v>15</v>
       </c>
       <c r="V12" s="5" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E13" s="2">
         <v>1</v>
@@ -2700,13 +2706,13 @@
       </c>
       <c r="U13" s="17"/>
       <c r="V13" s="5" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="W13" s="5"/>
     </row>
     <row r="14" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E14" s="2">
         <v>1</v>
@@ -2741,13 +2747,13 @@
       </c>
       <c r="U14" s="17"/>
       <c r="V14" s="5" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="W14" s="5"/>
     </row>
     <row r="15" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E15" s="2">
         <v>1</v>
@@ -2771,7 +2777,7 @@
         <v>10</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="N15" s="2">
         <v>0.2</v>
@@ -2787,13 +2793,13 @@
       </c>
       <c r="U15" s="17"/>
       <c r="V15" s="5" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="W15" s="5"/>
     </row>
     <row r="16" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="E16" s="2">
         <v>1</v>
@@ -2828,13 +2834,13 @@
       </c>
       <c r="U16" s="17"/>
       <c r="V16" s="5" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="W16" s="5"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F17" s="1">
         <v>1</v>
@@ -2855,7 +2861,7 @@
         <v>210</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="N17" s="1">
         <v>0.6</v>
@@ -2870,12 +2876,12 @@
         <v>20</v>
       </c>
       <c r="V17" s="5" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="F18" s="2">
         <v>1</v>
@@ -2897,7 +2903,7 @@
         <v>20</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="N18" s="2">
         <v>0.4</v>
@@ -2913,13 +2919,13 @@
       </c>
       <c r="U18" s="17"/>
       <c r="V18" s="5" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="W18" s="5"/>
     </row>
     <row r="19" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="E19" s="2">
         <v>1</v>
@@ -2938,7 +2944,7 @@
         <v>100</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="N19" s="2">
         <v>0.2</v>
@@ -2954,16 +2960,16 @@
       </c>
       <c r="U19" s="17"/>
       <c r="V19" s="5" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="W19" s="5"/>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
@@ -2996,18 +3002,18 @@
         <v>10</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="U21" s="5" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="V21" s="5" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -3030,7 +3036,7 @@
       </c>
       <c r="L22" s="2"/>
       <c r="M22" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="N22" s="2">
         <v>0.3</v>
@@ -3046,12 +3052,12 @@
         <v>10</v>
       </c>
       <c r="V22" s="5" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="E23" s="2">
         <v>1</v>
@@ -3085,21 +3091,21 @@
         <v>15</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="U23" s="5" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="V23" s="5" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="W23" s="5" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="24" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="E24" s="2">
         <v>1</v>
@@ -3111,7 +3117,7 @@
         <v>70</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="N24" s="2">
         <v>0.3</v>
@@ -3126,16 +3132,16 @@
         <v>10</v>
       </c>
       <c r="U24" s="17" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="V24" s="5" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="W24" s="5"/>
     </row>
     <row r="25" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="E25" s="2">
         <v>1</v>
@@ -3164,13 +3170,13 @@
       </c>
       <c r="U25" s="17"/>
       <c r="V25" s="5" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="W25" s="5"/>
     </row>
     <row r="26" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="E26" s="2">
         <v>1</v>
@@ -3196,19 +3202,19 @@
         <v>15</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="U26" s="5" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="V26" s="5" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="W26" s="5"/>
     </row>
     <row r="27" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="F27" s="2">
         <v>1</v>
@@ -3243,13 +3249,13 @@
       </c>
       <c r="U27" s="17"/>
       <c r="V27" s="5" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="W27" s="5"/>
     </row>
     <row r="28" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -3289,16 +3295,16 @@
       </c>
       <c r="U28" s="17"/>
       <c r="V28" s="5" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="W28" s="5"/>
     </row>
     <row r="30" spans="1:23" ht="57" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E30" s="1">
         <v>1</v>
@@ -3313,7 +3319,7 @@
         <v>1</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="N30" s="1">
         <v>0.5</v>
@@ -3334,15 +3340,15 @@
         <v>15</v>
       </c>
       <c r="U30" s="18" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="V30" s="5" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="E31" s="1">
         <v>1</v>
@@ -3381,15 +3387,15 @@
         <v>30</v>
       </c>
       <c r="U31" s="18" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="V31" s="5" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
     </row>
     <row r="32" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E32" s="2">
         <v>1</v>
@@ -3427,16 +3433,16 @@
         <v>15</v>
       </c>
       <c r="U32" s="17" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="V32" s="5" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="W32" s="5"/>
     </row>
     <row r="33" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="E33" s="2">
         <v>1</v>
@@ -3476,16 +3482,16 @@
         <v>20</v>
       </c>
       <c r="U33" s="17" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="V33" s="5" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="W33" s="5"/>
     </row>
     <row r="34" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="F34" s="2">
         <v>1</v>
@@ -3525,16 +3531,16 @@
         <v>15</v>
       </c>
       <c r="U34" s="17" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="V34" s="5" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="W34" s="5"/>
     </row>
     <row r="35" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="E35" s="2">
         <v>1</v>
@@ -3572,16 +3578,16 @@
         <v>20</v>
       </c>
       <c r="U35" s="17" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="V35" s="5" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="W35" s="5"/>
     </row>
     <row r="36" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="2" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="E36" s="2">
         <v>1</v>
@@ -3600,7 +3606,7 @@
       </c>
       <c r="K36" s="3"/>
       <c r="M36" s="4" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="N36" s="2">
         <v>0.4</v>
@@ -3618,10 +3624,10 @@
         <v>25</v>
       </c>
       <c r="U36" s="17" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="V36" s="5" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="W36" s="5"/>
     </row>
@@ -3635,10 +3641,10 @@
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -3678,19 +3684,19 @@
         <v>10</v>
       </c>
       <c r="U38" s="5" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="V38" s="5" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="W38" s="5" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="39" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="6"/>
       <c r="B39" s="2" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E39" s="2">
         <v>1</v>
@@ -3730,19 +3736,19 @@
         <v>15</v>
       </c>
       <c r="U39" s="17" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="V39" s="5" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="W39" s="5" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="40" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="6"/>
       <c r="B40" s="2" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="E40" s="2">
         <v>1</v>
@@ -3766,7 +3772,7 @@
         <v>40</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="N40" s="2">
         <v>0.3</v>
@@ -3784,19 +3790,19 @@
         <v>10</v>
       </c>
       <c r="U40" s="17" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="V40" s="5" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="W40" s="5" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="41" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="6"/>
       <c r="B41" s="2" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="E41" s="2">
         <v>1</v>
@@ -3836,19 +3842,19 @@
         <v>15</v>
       </c>
       <c r="U41" s="17" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="V41" s="5" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="W41" s="5" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="42" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="6"/>
       <c r="B42" s="2" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="E42" s="2">
         <v>1</v>
@@ -3888,19 +3894,19 @@
         <v>10</v>
       </c>
       <c r="U42" s="17" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="V42" s="5" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="W42" s="5" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="43" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="6"/>
       <c r="B43" s="1" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -3942,18 +3948,18 @@
         <v>10</v>
       </c>
       <c r="U43" s="17" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="V43" s="5" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="W43" s="5" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B44" s="2" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -3980,7 +3986,7 @@
         <v>40</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="N44" s="2">
         <v>0.3</v>
@@ -3998,18 +4004,18 @@
         <v>10</v>
       </c>
       <c r="U44" s="17" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="V44" s="5" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="W44" s="5" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="45" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" s="2" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="E45" s="2">
         <v>1</v>
@@ -4047,18 +4053,18 @@
       </c>
       <c r="U45" s="17"/>
       <c r="V45" s="5" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="W45" s="5" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
     </row>
     <row r="47" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E47" s="2">
         <v>1</v>
@@ -4082,7 +4088,7 @@
         <v>60</v>
       </c>
       <c r="M47" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="N47" s="2">
         <v>0.4</v>
@@ -4098,13 +4104,13 @@
       </c>
       <c r="U47" s="17"/>
       <c r="V47" s="5" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="W47" s="5"/>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E48" s="1">
         <v>1</v>
@@ -4140,12 +4146,12 @@
         <v>10</v>
       </c>
       <c r="V48" s="5" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="49" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E49" s="2">
         <v>1</v>
@@ -4169,7 +4175,7 @@
         <v>80</v>
       </c>
       <c r="M49" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="N49" s="2">
         <v>0.2</v>
@@ -4185,13 +4191,13 @@
       </c>
       <c r="U49" s="17"/>
       <c r="V49" s="5" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="W49" s="5"/>
     </row>
     <row r="50" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E50" s="2">
         <v>1</v>
@@ -4229,13 +4235,13 @@
       </c>
       <c r="U50" s="17"/>
       <c r="V50" s="5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="W50" s="5"/>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E51" s="1">
         <v>1</v>
@@ -4271,12 +4277,12 @@
         <v>10</v>
       </c>
       <c r="V51" s="5" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="52" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E52" s="2">
         <v>1</v>
@@ -4300,7 +4306,7 @@
         <v>80</v>
       </c>
       <c r="M52" s="4" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="N52" s="2">
         <v>0.6</v>
@@ -4316,13 +4322,13 @@
       </c>
       <c r="U52" s="17"/>
       <c r="V52" s="5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="W52" s="5"/>
     </row>
     <row r="53" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B53" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F53" s="2">
         <v>1</v>
@@ -4346,7 +4352,7 @@
         <v>80</v>
       </c>
       <c r="M53" s="4" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="N53" s="2">
         <v>0.6</v>
@@ -4362,13 +4368,13 @@
       </c>
       <c r="U53" s="17"/>
       <c r="V53" s="5" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="W53" s="5"/>
     </row>
     <row r="54" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B54" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F54" s="2">
         <v>1</v>
@@ -4392,7 +4398,7 @@
         <v>130</v>
       </c>
       <c r="M54" s="4" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="N54" s="2">
         <v>0.6</v>
@@ -4408,16 +4414,16 @@
       </c>
       <c r="U54" s="17"/>
       <c r="V54" s="5" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="W54" s="5"/>
     </row>
     <row r="56" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E56" s="2">
         <v>1</v>
@@ -4441,7 +4447,7 @@
         <v>30</v>
       </c>
       <c r="M56" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="N56" s="2">
         <v>0.3</v>
@@ -4460,14 +4466,14 @@
       </c>
       <c r="U56" s="17"/>
       <c r="V56" s="5" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="W56" s="5"/>
     </row>
     <row r="57" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="6"/>
       <c r="B57" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E57" s="2">
         <v>1</v>
@@ -4508,14 +4514,14 @@
       </c>
       <c r="U57" s="17"/>
       <c r="V57" s="5" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="W57" s="5"/>
     </row>
     <row r="58" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="6"/>
       <c r="B58" s="2" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="F58" s="2">
         <v>1</v>
@@ -4537,7 +4543,7 @@
         <v>90</v>
       </c>
       <c r="M58" s="4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="N58" s="2">
         <v>0.6</v>
@@ -4556,13 +4562,13 @@
       </c>
       <c r="U58" s="17"/>
       <c r="V58" s="5" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="W58" s="5"/>
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B59" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F59" s="1">
         <v>1</v>
@@ -4586,7 +4592,7 @@
         <v>50</v>
       </c>
       <c r="M59" s="4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="N59" s="1">
         <v>0.6</v>
@@ -4604,13 +4610,13 @@
         <v>20</v>
       </c>
       <c r="V59" s="5" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="60" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="6"/>
       <c r="B60" s="2" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="E60" s="2">
         <v>1</v>
@@ -4651,14 +4657,14 @@
       </c>
       <c r="U60" s="17"/>
       <c r="V60" s="5" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="W60" s="5"/>
     </row>
     <row r="61" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="6"/>
       <c r="B61" s="2" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="E61" s="2">
         <v>1</v>
@@ -4698,17 +4704,17 @@
         <v>15</v>
       </c>
       <c r="U61" s="17" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="V61" s="5" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="W61" s="5"/>
     </row>
     <row r="62" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="6"/>
       <c r="B62" s="2" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="E62" s="2">
         <v>1</v>
@@ -4749,14 +4755,14 @@
       </c>
       <c r="U62" s="17"/>
       <c r="V62" s="5" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="W62" s="5"/>
     </row>
     <row r="63" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="6"/>
       <c r="B63" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="E63" s="2">
         <v>1</v>
@@ -4780,7 +4786,7 @@
         <v>60</v>
       </c>
       <c r="M63" s="4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="N63" s="2">
         <v>0.5</v>
@@ -4798,10 +4804,10 @@
         <v>20</v>
       </c>
       <c r="U63" s="5" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="V63" s="5" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="W63" s="5"/>
     </row>
@@ -4816,10 +4822,10 @@
     </row>
     <row r="65" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="E65" s="2">
         <v>1</v>
@@ -4829,7 +4835,7 @@
       </c>
       <c r="K65" s="3"/>
       <c r="M65" s="4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="N65" s="2">
         <v>0.4</v>
@@ -4847,17 +4853,17 @@
         <v>25</v>
       </c>
       <c r="U65" s="5" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="V65" s="5" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="W65" s="5"/>
     </row>
     <row r="66" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="6"/>
       <c r="B66" s="2" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="E66" s="2">
         <v>1</v>
@@ -4891,20 +4897,20 @@
         <v>10</v>
       </c>
       <c r="S66" s="2" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="U66" s="5" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="V66" s="5" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="W66" s="5"/>
     </row>
     <row r="67" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="6"/>
       <c r="B67" s="2" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="E67" s="2">
         <v>1</v>
@@ -4925,7 +4931,7 @@
         <v>30</v>
       </c>
       <c r="M67" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="N67" s="2">
         <v>0.5</v>
@@ -4940,20 +4946,20 @@
         <v>15</v>
       </c>
       <c r="S67" s="2" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="U67" s="17" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="V67" s="5" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="W67" s="5"/>
     </row>
     <row r="68" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="6"/>
       <c r="B68" s="2" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="E68" s="2">
         <v>1</v>
@@ -4993,17 +4999,17 @@
         <v>10</v>
       </c>
       <c r="U68" s="17" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="V68" s="5" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="W68" s="5"/>
     </row>
     <row r="69" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="6"/>
       <c r="B69" s="2" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="E69" s="2">
         <v>1</v>
@@ -5043,23 +5049,23 @@
         <v>10</v>
       </c>
       <c r="S69" s="2" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="T69" s="2">
         <v>20</v>
       </c>
       <c r="U69" s="5" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="V69" s="5" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="W69" s="5"/>
     </row>
     <row r="70" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="6"/>
       <c r="B70" s="2" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="E70" s="2">
         <v>1</v>
@@ -5093,23 +5099,23 @@
         <v>10</v>
       </c>
       <c r="S70" s="2" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="T70" s="2">
         <v>20</v>
       </c>
       <c r="U70" s="5" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="V70" s="5" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="W70" s="5"/>
     </row>
     <row r="71" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="6"/>
       <c r="B71" s="2" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="E71" s="2">
         <v>1</v>
@@ -5133,7 +5139,7 @@
         <v>10</v>
       </c>
       <c r="M71" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="N71" s="2">
         <v>0.5</v>
@@ -5151,17 +5157,17 @@
         <v>10</v>
       </c>
       <c r="U71" s="5" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="V71" s="5" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="W71" s="5"/>
     </row>
     <row r="72" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="6"/>
       <c r="B72" s="2" t="s">
-        <v>306</v>
+        <v>401</v>
       </c>
       <c r="E72" s="2">
         <v>1</v>
@@ -5185,7 +5191,7 @@
         <v>20</v>
       </c>
       <c r="M72" s="4" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="N72" s="2">
         <v>0.6</v>
@@ -5203,16 +5209,16 @@
         <v>20</v>
       </c>
       <c r="S72" s="2" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="T72" s="2">
         <v>30</v>
       </c>
       <c r="U72" s="5" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="V72" s="5" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="W72" s="5"/>
     </row>
@@ -5227,10 +5233,10 @@
     </row>
     <row r="74" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="E74" s="2">
         <v>1</v>
@@ -5251,7 +5257,7 @@
         <v>10</v>
       </c>
       <c r="M74" s="4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="N74" s="2">
         <v>0.4</v>
@@ -5269,17 +5275,17 @@
         <v>25</v>
       </c>
       <c r="U74" s="5" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="V74" s="5" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="W74" s="5"/>
     </row>
     <row r="75" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="6"/>
       <c r="B75" s="2" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="E75" s="2">
         <v>1</v>
@@ -5316,17 +5322,17 @@
         <v>10</v>
       </c>
       <c r="U75" s="5" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="V75" s="5" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="W75" s="5"/>
     </row>
     <row r="76" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="6"/>
       <c r="B76" s="2" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="E76" s="2">
         <v>1</v>
@@ -5363,20 +5369,20 @@
         <v>10</v>
       </c>
       <c r="S76" s="2" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="U76" s="5" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="V76" s="5" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="W76" s="5"/>
     </row>
     <row r="77" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="6"/>
       <c r="B77" s="2" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="E77" s="2">
         <v>1</v>
@@ -5416,17 +5422,17 @@
         <v>10</v>
       </c>
       <c r="U77" s="5" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="V77" s="5" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="W77" s="5"/>
     </row>
     <row r="78" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="6"/>
       <c r="B78" s="2" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="E78" s="2">
         <v>1</v>
@@ -5447,7 +5453,7 @@
         <v>30</v>
       </c>
       <c r="M78" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="N78" s="2">
         <v>0.2</v>
@@ -5462,20 +5468,20 @@
         <v>10</v>
       </c>
       <c r="S78" s="2" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="U78" s="5" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="V78" s="5" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="W78" s="5"/>
     </row>
     <row r="79" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="6"/>
       <c r="B79" s="2" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="E79" s="2">
         <v>1</v>
@@ -5512,19 +5518,19 @@
         <v>10</v>
       </c>
       <c r="S79" s="2" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="U79" s="5" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="V79" s="5" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="W79" s="5"/>
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B80" s="1" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="F80" s="1">
         <v>1</v>
@@ -5545,7 +5551,7 @@
         <v>80</v>
       </c>
       <c r="M80" s="4" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="N80" s="1">
         <v>0.6</v>
@@ -5563,12 +5569,12 @@
         <v>30</v>
       </c>
       <c r="V80" s="5" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
     </row>
     <row r="81" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B81" s="2" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="F81" s="2">
         <v>1</v>
@@ -5589,7 +5595,7 @@
         <v>80</v>
       </c>
       <c r="M81" s="4" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="N81" s="2">
         <v>0.6</v>
@@ -5604,13 +5610,13 @@
         <v>20</v>
       </c>
       <c r="S81" s="2" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="U81" s="5" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="V81" s="5" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="W81" s="5"/>
     </row>
@@ -5624,10 +5630,10 @@
     </row>
     <row r="83" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D83" s="1">
         <v>1</v>
@@ -5648,7 +5654,7 @@
         <v>30</v>
       </c>
       <c r="M83" s="4" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="N83" s="1">
         <v>0.9</v>
@@ -5663,15 +5669,15 @@
         <v>20</v>
       </c>
       <c r="U83" s="17" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="V83" s="5" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
     </row>
     <row r="84" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B84" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D84" s="1">
         <v>1</v>
@@ -5686,7 +5692,7 @@
         <v>80</v>
       </c>
       <c r="M84" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="N84" s="1">
         <v>0.4</v>
@@ -5701,12 +5707,12 @@
         <v>15</v>
       </c>
       <c r="V84" s="5" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="85" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B85" s="1" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="E85" s="1">
         <v>1</v>
@@ -5739,12 +5745,12 @@
         <v>10</v>
       </c>
       <c r="V85" s="5" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="86" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B86" s="1" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="E86" s="1">
         <v>1</v>
@@ -5765,7 +5771,7 @@
         <v>70</v>
       </c>
       <c r="M86" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="N86" s="1">
         <v>0.3</v>
@@ -5780,12 +5786,12 @@
         <v>10</v>
       </c>
       <c r="V86" s="5" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="87" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B87" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="E87" s="1">
         <v>1</v>
@@ -5818,12 +5824,12 @@
         <v>10</v>
       </c>
       <c r="V87" s="5" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="88" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B88" s="1" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="E88" s="1">
         <v>1</v>
@@ -5857,12 +5863,12 @@
         <v>10</v>
       </c>
       <c r="V88" s="5" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="89" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B89" s="1" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="E89" s="1">
         <v>1</v>
@@ -5895,12 +5901,12 @@
         <v>15</v>
       </c>
       <c r="V89" s="5" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="90" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B90" s="1" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="F90" s="1">
         <v>1</v>
@@ -5918,7 +5924,7 @@
         <v>120</v>
       </c>
       <c r="M90" s="4" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="N90" s="2">
         <v>0.6</v>
@@ -5933,15 +5939,15 @@
         <v>20</v>
       </c>
       <c r="V90" s="5" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="92" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="E92" s="1">
         <v>1</v>
@@ -5965,7 +5971,7 @@
         <v>30</v>
       </c>
       <c r="M92" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="N92" s="1">
         <v>0.3</v>
@@ -5983,15 +5989,15 @@
         <v>10</v>
       </c>
       <c r="U92" s="5" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="V92" s="5" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="93" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B93" s="1" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="D93" s="1">
         <v>1</v>
@@ -6015,12 +6021,12 @@
         <v>1</v>
       </c>
       <c r="U93" s="17" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="94" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B94" s="1" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="E94" s="1">
         <v>1</v>
@@ -6056,15 +6062,15 @@
         <v>10</v>
       </c>
       <c r="U94" s="5" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="V94" s="5" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="95" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B95" s="1" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="E95" s="1">
         <v>1</v>
@@ -6100,15 +6106,15 @@
         <v>10</v>
       </c>
       <c r="U95" s="5" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="V95" s="5" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="96" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B96" s="1" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="E96" s="1">
         <v>1</v>
@@ -6144,29 +6150,29 @@
         <v>10</v>
       </c>
       <c r="U96" s="5" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="V96" s="5" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="W1:W2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="K1:L1048576">
@@ -6385,10 +6391,10 @@
   <dimension ref="A1:I57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J51" sqref="J51"/>
+      <selection pane="bottomRight" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6412,23 +6418,23 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D1" s="34" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E1" s="35"/>
       <c r="F1" s="9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -6436,19 +6442,19 @@
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G2" s="23"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="8">
@@ -6456,30 +6462,30 @@
       </c>
       <c r="G3" s="24"/>
       <c r="H3" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="8">
         <v>1</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G4" s="22"/>
       <c r="H4" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="6" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="8">
@@ -6489,16 +6495,16 @@
         <v>1</v>
       </c>
       <c r="G5" s="26" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="H5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="8">
@@ -6508,16 +6514,16 @@
         <v>1</v>
       </c>
       <c r="G6" s="26" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="H6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="8">
@@ -6527,16 +6533,16 @@
         <v>1</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="H7" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="8">
@@ -6544,7 +6550,7 @@
       </c>
       <c r="G8" s="24"/>
       <c r="H8" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -6553,21 +6559,21 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D10" s="8">
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" s="6" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D11" s="8">
         <v>1</v>
@@ -6576,15 +6582,15 @@
         <v>1</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H11" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" s="6" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D12" s="8">
         <v>1</v>
@@ -6593,15 +6599,15 @@
         <v>1</v>
       </c>
       <c r="G12" s="30" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="H12" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13" s="6" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D13" s="8">
         <v>1</v>
@@ -6610,15 +6616,15 @@
         <v>1</v>
       </c>
       <c r="G13" s="30" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="H13" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14" s="6" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D14" s="8">
         <v>1</v>
@@ -6627,10 +6633,10 @@
         <v>1</v>
       </c>
       <c r="G14" s="22" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="H14" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -6639,10 +6645,10 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="D16" s="8">
         <v>1</v>
@@ -6650,12 +6656,12 @@
       <c r="E16" s="27"/>
       <c r="G16" s="22"/>
       <c r="H16" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B17" s="6" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D17" s="8">
         <v>1</v>
@@ -6665,12 +6671,12 @@
       </c>
       <c r="G17" s="22"/>
       <c r="H17" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B18" s="6" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="D18" s="8">
         <v>1</v>
@@ -6680,7 +6686,7 @@
       </c>
       <c r="G18" s="22"/>
       <c r="H18" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -6689,10 +6695,10 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="D20" s="8">
         <v>1</v>
@@ -6702,12 +6708,12 @@
       </c>
       <c r="G20" s="22"/>
       <c r="H20" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B21" s="6" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="D21" s="8">
         <v>1</v>
@@ -6717,12 +6723,12 @@
       </c>
       <c r="G21" s="22"/>
       <c r="H21" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B22" s="6" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="D22" s="8">
         <v>1</v>
@@ -6732,7 +6738,7 @@
       </c>
       <c r="G22" s="22"/>
       <c r="H22" s="25" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -6741,10 +6747,10 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D24" s="8">
         <v>1</v>
@@ -6753,12 +6759,12 @@
         <v>1</v>
       </c>
       <c r="H24" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B25" s="6" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="D25" s="8">
         <v>1</v>
@@ -6767,12 +6773,12 @@
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B26" s="6" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="D26" s="8">
         <v>1</v>
@@ -6781,12 +6787,12 @@
         <v>1</v>
       </c>
       <c r="H26" s="25" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B27" s="6" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="D27" s="8">
         <v>1</v>
@@ -6795,7 +6801,7 @@
         <v>1</v>
       </c>
       <c r="H27" s="25" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -6803,21 +6809,21 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D29" s="8">
         <v>1</v>
       </c>
       <c r="H29" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B30" s="6" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D30" s="8">
         <v>1</v>
@@ -6826,12 +6832,12 @@
         <v>1</v>
       </c>
       <c r="H30" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B31" s="6" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D31" s="8">
         <v>1</v>
@@ -6840,12 +6846,12 @@
         <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B32" s="6" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D32" s="8">
         <v>1</v>
@@ -6854,18 +6860,18 @@
         <v>1</v>
       </c>
       <c r="G32" s="25" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="H32" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D35" s="8">
         <v>1</v>
@@ -6874,15 +6880,15 @@
         <v>1</v>
       </c>
       <c r="G35" s="25" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="H35" t="s">
-        <v>173</v>
+        <v>402</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B36" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D36" s="8">
         <v>1</v>
@@ -6891,41 +6897,41 @@
         <v>1</v>
       </c>
       <c r="G36" s="25" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="H36" s="25" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B37" s="6" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="D37" s="8">
         <v>1</v>
       </c>
       <c r="E37" s="27"/>
       <c r="H37" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B38" s="6" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="D38" s="8">
         <v>1</v>
       </c>
       <c r="G38" s="22" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="H38" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B39" s="6" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="D39" s="8">
         <v>1</v>
@@ -6934,46 +6940,46 @@
         <v>1</v>
       </c>
       <c r="G39" s="25" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="H39" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="D41" s="8">
         <v>1</v>
       </c>
       <c r="G41" s="25" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="H41" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B42" s="6" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="D42" s="8">
         <v>1</v>
       </c>
       <c r="H42" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="D44" s="8">
         <v>1</v>
@@ -6982,37 +6988,37 @@
         <v>1</v>
       </c>
       <c r="G44" s="25" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="H44" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B45" s="6" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="D45" s="8">
         <v>1</v>
       </c>
       <c r="H45" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B46" s="6" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="D46" s="8">
         <v>1</v>
       </c>
       <c r="H46" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B47" s="6" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="D47" s="8">
         <v>1</v>
@@ -7021,18 +7027,18 @@
         <v>1</v>
       </c>
       <c r="G47" s="22" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="H47" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="D49" s="8">
         <v>1</v>
@@ -7041,15 +7047,15 @@
         <v>1</v>
       </c>
       <c r="G49" s="22" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="H49" s="25" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B50" s="6" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="D50" s="8">
         <v>1</v>
@@ -7058,15 +7064,15 @@
         <v>1</v>
       </c>
       <c r="G50" s="25" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="H50" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B51" s="6" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="D51" s="8">
         <v>1</v>
@@ -7075,18 +7081,18 @@
         <v>1</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G51" s="22" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="H51" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B52" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="D52" s="8">
         <v>1</v>
@@ -7095,15 +7101,15 @@
         <v>1</v>
       </c>
       <c r="G52" s="22" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="H52" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B53" s="6" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D53" s="8">
         <v>1</v>
@@ -7112,12 +7118,12 @@
         <v>1</v>
       </c>
       <c r="H53" s="25" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B54" s="6" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="D54" s="8">
         <v>1</v>
@@ -7126,15 +7132,15 @@
         <v>1</v>
       </c>
       <c r="H54" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="D56" s="8">
         <v>1</v>
@@ -7143,15 +7149,15 @@
         <v>1</v>
       </c>
       <c r="G56" s="22" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="H56" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B57" s="6" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="D57" s="8">
         <v>1</v>
@@ -7160,7 +7166,7 @@
         <v>1</v>
       </c>
       <c r="G57" s="18" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
   </sheetData>
@@ -7176,11 +7182,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54D9C67E-4237-478B-81E0-48BC15B60241}">
   <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L20" sqref="L20"/>
+      <selection pane="bottomRight" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7202,22 +7208,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -7229,27 +7235,27 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="3">
         <v>5</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F3" s="24"/>
       <c r="G3" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="3">
@@ -7257,44 +7263,44 @@
       </c>
       <c r="F4" s="24"/>
       <c r="G4" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="3">
         <v>10</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F5" s="24"/>
       <c r="G5" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="H5" s="22" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="3">
         <v>15</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="F6" s="24"/>
       <c r="G6" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -7317,611 +7323,611 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D11" s="12">
         <v>20</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="G11" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="H11" s="22" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B12" s="6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D12" s="12">
         <v>5</v>
       </c>
       <c r="G12" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B13" s="6" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D13" s="12">
         <v>5</v>
       </c>
       <c r="G13" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="D16" s="12">
         <v>5</v>
       </c>
       <c r="G16" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B17" s="6" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="D17" s="12">
         <v>5</v>
       </c>
       <c r="G17" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B18" s="6" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="D18" s="12">
         <v>5</v>
       </c>
       <c r="G18" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B19" s="6" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="D19" s="12">
         <v>20</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="G19" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="H19" s="22" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="D21" s="12">
         <v>5</v>
       </c>
       <c r="G21" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B22" s="6" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="D22" s="12">
         <v>5</v>
       </c>
       <c r="G22" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B23" s="6" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="D23" s="12">
         <v>5</v>
       </c>
       <c r="G23" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B24" s="6" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="D24" s="12">
         <v>5</v>
       </c>
       <c r="G24" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="D26" s="12">
         <v>5</v>
       </c>
       <c r="G26" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B27" s="6" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="D27" s="12">
         <v>5</v>
       </c>
       <c r="G27" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B28" s="6" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="D28" s="12">
         <v>5</v>
       </c>
       <c r="G28" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B29" s="6" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D29" s="12">
         <v>5</v>
       </c>
       <c r="G29" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D31" s="12">
         <v>15</v>
       </c>
       <c r="F31" s="22" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G31" s="22" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="H31" s="22" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B32" s="6" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D32" s="12">
         <v>5</v>
       </c>
       <c r="E32" s="19" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G32" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B33" s="6" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D33" s="12">
         <v>5</v>
       </c>
       <c r="F33" s="25" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G33" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="H33" s="22" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B34" s="6" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D34" s="12">
         <v>5</v>
       </c>
       <c r="G34" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B35" s="6" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D35" s="12">
         <v>5</v>
       </c>
       <c r="G35" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B36" s="6" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D36" s="12">
         <v>5</v>
       </c>
       <c r="E36" s="19" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F36" s="25" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="G36" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="D38" s="12">
         <v>5</v>
       </c>
       <c r="F38" s="22" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="G38" s="22" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B39" s="6" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D39" s="12">
         <v>20</v>
       </c>
       <c r="E39" s="19" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F39" s="25" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="G39" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B40" s="6" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="D40" s="12">
         <v>5</v>
       </c>
       <c r="G40" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="D42" s="12">
         <v>10</v>
       </c>
       <c r="E42" s="19" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="F42" s="22" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="G42" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B43" s="6" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="D43" s="12">
         <v>6</v>
       </c>
       <c r="E43" s="19" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G43" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="H43" s="22" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B44" s="6" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="D44" s="12">
         <v>8</v>
       </c>
       <c r="E44" s="19" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G44" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B45" s="6" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="D45" s="12">
         <v>5</v>
       </c>
       <c r="E45" s="19" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G45" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B46" s="6" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="D46" s="12">
         <v>5</v>
       </c>
       <c r="E46" s="19" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G46" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B47" s="6" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="D47" s="12">
         <v>7</v>
       </c>
       <c r="F47" s="22" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="G47" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="H47" s="22" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B48" s="6" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="D48" s="12">
         <v>5</v>
       </c>
       <c r="E48" s="19" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F48" s="22" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="G48" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="H48" s="22" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="D50" s="12">
         <v>5</v>
       </c>
       <c r="G50" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B51" s="6" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="D51" s="12">
         <v>5</v>
       </c>
       <c r="G51" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B52" s="6" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="D52" s="12">
         <v>5</v>
       </c>
       <c r="E52" s="19" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G52" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B53" s="6" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="D53" s="12">
         <v>10</v>
       </c>
       <c r="E53" s="19" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F53" s="25" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="G53" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="D55" s="12">
         <v>5</v>
       </c>
       <c r="G55" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B56" s="6" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="D56" s="12">
         <v>10</v>
       </c>
       <c r="E56" s="19" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G56" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B57" s="6" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="D57" s="12">
         <v>5</v>
       </c>
       <c r="G57" s="22" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D59" s="12">
         <v>7</v>
       </c>
       <c r="E59" s="19" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G59" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B60" s="6" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="D60" s="12">
         <v>5</v>
       </c>
       <c r="E60" s="19" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F60" s="22" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="G60" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B61" s="6" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="D61" s="12">
         <v>5</v>
       </c>
       <c r="E61" s="19" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G61" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B62" s="6" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="D62" s="12">
         <v>5</v>
       </c>
       <c r="F62" s="22"/>
       <c r="G62" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B63" s="6" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="F63" s="18" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
   </sheetData>
@@ -7960,116 +7966,116 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" s="6" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="28" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="28" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="28" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="28"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="28" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="28" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="28" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -8078,31 +8084,31 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="29" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="29" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B17" s="6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -8111,29 +8117,29 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B20" s="6" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B21" s="6" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -8142,67 +8148,67 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="29" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="28" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="29" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B28" s="6" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B29" s="6" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D29" s="28" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B30" s="6" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D30" s="29" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -8210,110 +8216,110 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="D32" s="29" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B33" s="6" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="D33" s="29" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B34" s="6" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="D34" s="29" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="D36" s="29" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B37" s="6" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="D37" s="29" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B38" s="6" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="D38" s="28" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="D40" s="28" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B41" s="6" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="D41" s="29" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B42" s="6" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="D42" s="29" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D44" s="29" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B45" s="6" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="D45" s="29" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B46" s="6" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="D46" s="29" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
     </row>
   </sheetData>
@@ -8327,8 +8333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3FDCBA0-BE27-412B-BDDC-A4596FFA7F45}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8341,45 +8347,45 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" t="s">
         <v>29</v>
-      </c>
-      <c r="B1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -8399,7 +8405,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>395</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -8416,7 +8422,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -8430,7 +8436,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F5">
         <v>3</v>
@@ -8444,7 +8450,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -8458,7 +8464,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -8472,7 +8478,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -8486,7 +8492,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I9">
         <v>2</v>
@@ -8497,7 +8503,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>396</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -8508,7 +8514,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>397</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -8519,12 +8525,12 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/plan/招式.xlsx
+++ b/plan/招式.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\pealpool.github.io\plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{672AFE99-D515-48F9-91D9-57AE81944095}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F7C6F15-D783-4D43-AC62-C3672ED921E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" activeTab="2" xr2:uid="{07694949-CE91-4AC6-84BF-EA7187E3619C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" xr2:uid="{07694949-CE91-4AC6-84BF-EA7187E3619C}"/>
   </bookViews>
   <sheets>
     <sheet name="攻击" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="408">
   <si>
     <t>派别</t>
   </si>
@@ -1126,10 +1128,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>对方内外伤防御-10%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>子午毒砂</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1329,10 +1327,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>【蜈蚣毒】格挡率-15%，防御-15%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>【青蛇毒】命中-15%，攻击增浮动率-15%，破绽发现率 -15%</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1417,10 +1411,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>连招命中后，敌方防御力-20%，5s</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>金砂掌</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1638,6 +1628,38 @@
   </si>
   <si>
     <t>耐力伤害+5%，5s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>耐力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>外伤减伤-5%，5s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>连招命中后，内伤伤害+10，5s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>【蜈蚣毒】格挡率-15%，防御-15%，反伤-15%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对方防御-20%，5s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>破挡修正</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+100%</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1819,10 +1841,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2147,13 +2169,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{897EE391-4514-4BBB-B5AB-BFD81F1FD685}">
-  <dimension ref="A1:W96"/>
+  <dimension ref="A1:X96"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C78" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="D45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="U67" sqref="U67"/>
+      <selection pane="bottomRight" activeCell="V60" sqref="V60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2166,16 +2188,16 @@
     <col min="8" max="10" width="3.5" style="1" customWidth="1"/>
     <col min="11" max="11" width="6.25" style="3" customWidth="1"/>
     <col min="12" max="12" width="6.25" style="1" customWidth="1"/>
-    <col min="13" max="13" width="6.25" style="4" customWidth="1"/>
-    <col min="14" max="18" width="6.25" style="1" customWidth="1"/>
-    <col min="19" max="20" width="6.25" style="2" customWidth="1"/>
-    <col min="21" max="21" width="52.125" style="17" customWidth="1"/>
-    <col min="22" max="22" width="31.75" style="5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="19.625" style="5" customWidth="1"/>
-    <col min="24" max="16384" width="9.125" style="1"/>
+    <col min="13" max="14" width="6.25" style="4" customWidth="1"/>
+    <col min="15" max="19" width="6.25" style="1" customWidth="1"/>
+    <col min="20" max="21" width="6.25" style="2" customWidth="1"/>
+    <col min="22" max="22" width="52.125" style="17" customWidth="1"/>
+    <col min="23" max="23" width="31.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19.625" style="5" customWidth="1"/>
+    <col min="25" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -2187,53 +2209,56 @@
       </c>
       <c r="E1" s="31"/>
       <c r="F1" s="31"/>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="33" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
       <c r="J1" s="31"/>
-      <c r="K1" s="32" t="s">
-        <v>398</v>
+      <c r="K1" s="33" t="s">
+        <v>395</v>
       </c>
       <c r="L1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="33" t="s">
-        <v>399</v>
-      </c>
-      <c r="N1" s="31" t="s">
-        <v>400</v>
+      <c r="M1" s="32" t="s">
+        <v>396</v>
+      </c>
+      <c r="N1" s="32" t="s">
+        <v>406</v>
       </c>
       <c r="O1" s="31" t="s">
+        <v>397</v>
+      </c>
+      <c r="P1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="31" t="s">
+      <c r="Q1" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="31" t="s">
+      <c r="R1" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="R1" s="31" t="s">
+      <c r="S1" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="S1" s="31" t="s">
+      <c r="T1" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="T1" s="31" t="s">
+      <c r="U1" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="U1" s="33" t="s">
-        <v>279</v>
-      </c>
-      <c r="V1" s="31" t="s">
+      <c r="V1" s="32" t="s">
+        <v>278</v>
+      </c>
+      <c r="W1" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="W1" s="31" t="s">
+      <c r="X1" s="31" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="14" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" s="14" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="D2" s="14" t="s">
         <v>52</v>
       </c>
@@ -2255,21 +2280,22 @@
       <c r="J2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="32"/>
+      <c r="K2" s="33"/>
       <c r="L2" s="31"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="31"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
       <c r="O2" s="31"/>
       <c r="P2" s="31"/>
       <c r="Q2" s="31"/>
       <c r="R2" s="31"/>
       <c r="S2" s="31"/>
       <c r="T2" s="31"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="31"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="32"/>
       <c r="W2" s="31"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X2" s="31"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -2294,23 +2320,29 @@
       <c r="L3" s="1">
         <v>90</v>
       </c>
-      <c r="N3" s="1">
+      <c r="M3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" s="1">
         <v>0.3</v>
       </c>
-      <c r="O3" s="1">
-        <v>1</v>
-      </c>
       <c r="P3" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="1">
         <v>0.4</v>
       </c>
-      <c r="R3" s="1">
+      <c r="S3" s="1">
         <v>10</v>
       </c>
-      <c r="V3" s="5" t="s">
+      <c r="W3" s="5" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="4" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>155</v>
       </c>
@@ -2335,26 +2367,29 @@
       <c r="L4" s="2">
         <v>70</v>
       </c>
-      <c r="M4" s="4"/>
-      <c r="N4" s="2">
+      <c r="M4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" s="4"/>
+      <c r="O4" s="2">
         <v>0.4</v>
       </c>
-      <c r="O4" s="2">
-        <v>1</v>
-      </c>
       <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
         <v>0.4</v>
       </c>
-      <c r="R4" s="2">
+      <c r="S4" s="2">
         <v>10</v>
       </c>
-      <c r="U4" s="17"/>
-      <c r="V4" s="5" t="s">
+      <c r="V4" s="17"/>
+      <c r="W4" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="W4" s="5"/>
-    </row>
-    <row r="5" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X4" s="5"/>
+    </row>
+    <row r="5" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>133</v>
       </c>
@@ -2380,25 +2415,26 @@
         <v>90</v>
       </c>
       <c r="M5" s="4"/>
-      <c r="N5" s="2">
+      <c r="N5" s="4"/>
+      <c r="O5" s="2">
         <v>0.4</v>
       </c>
-      <c r="O5" s="2">
-        <v>1</v>
-      </c>
       <c r="P5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="2">
         <v>0.3</v>
       </c>
-      <c r="R5" s="2">
+      <c r="S5" s="2">
         <v>10</v>
       </c>
-      <c r="U5" s="17"/>
-      <c r="V5" s="5" t="s">
+      <c r="V5" s="17"/>
+      <c r="W5" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="W5" s="5"/>
-    </row>
-    <row r="6" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X5" s="5"/>
+    </row>
+    <row r="6" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>138</v>
       </c>
@@ -2424,25 +2460,28 @@
       <c r="M6" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="N6" s="2">
+      <c r="N6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O6" s="2">
         <v>0.6</v>
       </c>
-      <c r="O6" s="2">
-        <v>1</v>
-      </c>
       <c r="P6" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="2">
         <v>0.4</v>
       </c>
-      <c r="R6" s="2">
+      <c r="S6" s="2">
         <v>17</v>
       </c>
-      <c r="U6" s="17"/>
-      <c r="V6" s="5" t="s">
+      <c r="V6" s="17"/>
+      <c r="W6" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="W6" s="5"/>
-    </row>
-    <row r="7" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X6" s="5"/>
+    </row>
+    <row r="7" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>139</v>
       </c>
@@ -2468,25 +2507,26 @@
         <v>100</v>
       </c>
       <c r="M7" s="4"/>
-      <c r="N7" s="2">
+      <c r="N7" s="4"/>
+      <c r="O7" s="2">
         <v>0.3</v>
       </c>
-      <c r="O7" s="2">
-        <v>1</v>
-      </c>
       <c r="P7" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="2">
         <v>0.4</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>10</v>
       </c>
-      <c r="U7" s="17"/>
-      <c r="V7" s="5" t="s">
+      <c r="V7" s="17"/>
+      <c r="W7" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="W7" s="5"/>
-    </row>
-    <row r="8" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X7" s="5"/>
+    </row>
+    <row r="8" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>151</v>
       </c>
@@ -2509,25 +2549,26 @@
       <c r="M8" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="N8" s="2">
+      <c r="N8" s="4"/>
+      <c r="O8" s="2">
         <v>0.6</v>
       </c>
-      <c r="O8" s="2">
-        <v>1</v>
-      </c>
       <c r="P8" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="2">
         <v>0.6</v>
       </c>
-      <c r="R8" s="2">
+      <c r="S8" s="2">
         <v>20</v>
       </c>
-      <c r="U8" s="17"/>
-      <c r="V8" s="5" t="s">
+      <c r="V8" s="17"/>
+      <c r="W8" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="W8" s="5"/>
-    </row>
-    <row r="9" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X8" s="5"/>
+    </row>
+    <row r="9" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>152</v>
       </c>
@@ -2555,25 +2596,26 @@
       <c r="M9" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="N9" s="2">
+      <c r="N9" s="4"/>
+      <c r="O9" s="2">
         <v>0.5</v>
       </c>
-      <c r="O9" s="2">
-        <v>1</v>
-      </c>
       <c r="P9" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="2">
         <v>0.4</v>
       </c>
-      <c r="R9" s="2">
+      <c r="S9" s="2">
         <v>20</v>
       </c>
-      <c r="U9" s="17"/>
-      <c r="V9" s="5" t="s">
+      <c r="V9" s="17"/>
+      <c r="W9" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="W9" s="5"/>
-    </row>
-    <row r="10" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X9" s="5"/>
+    </row>
+    <row r="10" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>156</v>
       </c>
@@ -2599,33 +2641,35 @@
       <c r="M10" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="N10" s="2">
+      <c r="N10" s="4"/>
+      <c r="O10" s="2">
         <v>0.7</v>
       </c>
-      <c r="O10" s="2">
-        <v>1</v>
-      </c>
       <c r="P10" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="2">
         <v>0.6</v>
       </c>
-      <c r="R10" s="2">
+      <c r="S10" s="2">
         <v>20</v>
       </c>
-      <c r="U10" s="17"/>
-      <c r="V10" s="5" t="s">
+      <c r="V10" s="17"/>
+      <c r="W10" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="W10" s="5"/>
-    </row>
-    <row r="11" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X10" s="5"/>
+    </row>
+    <row r="11" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G11" s="3"/>
       <c r="K11" s="3"/>
       <c r="M11" s="4"/>
-      <c r="U11" s="17"/>
-      <c r="V11" s="5"/>
+      <c r="N11" s="4"/>
+      <c r="V11" s="17"/>
       <c r="W11" s="5"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="5"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>27</v>
       </c>
@@ -2650,23 +2694,26 @@
       <c r="K12" s="3">
         <v>140</v>
       </c>
-      <c r="N12" s="1">
+      <c r="M12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="O12" s="1">
         <v>0.3</v>
       </c>
-      <c r="O12" s="1">
-        <v>1</v>
-      </c>
       <c r="P12" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="1">
         <v>0.4</v>
       </c>
-      <c r="R12" s="1">
+      <c r="S12" s="1">
         <v>15</v>
       </c>
-      <c r="V12" s="5" t="s">
+      <c r="W12" s="5" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>69</v>
       </c>
@@ -2692,25 +2739,26 @@
         <v>30</v>
       </c>
       <c r="M13" s="4"/>
-      <c r="N13" s="2">
+      <c r="N13" s="4"/>
+      <c r="O13" s="2">
         <v>0.4</v>
       </c>
-      <c r="O13" s="2">
-        <v>1</v>
-      </c>
       <c r="P13" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="2">
         <v>0.3</v>
       </c>
-      <c r="R13" s="2">
+      <c r="S13" s="2">
         <v>10</v>
       </c>
-      <c r="U13" s="17"/>
-      <c r="V13" s="5" t="s">
+      <c r="V13" s="17"/>
+      <c r="W13" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="W13" s="5"/>
-    </row>
-    <row r="14" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X13" s="5"/>
+    </row>
+    <row r="14" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>113</v>
       </c>
@@ -2733,25 +2781,26 @@
         <v>180</v>
       </c>
       <c r="M14" s="4"/>
-      <c r="N14" s="2">
+      <c r="N14" s="4"/>
+      <c r="O14" s="2">
         <v>0.4</v>
       </c>
-      <c r="O14" s="2">
-        <v>1</v>
-      </c>
       <c r="P14" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="2">
         <v>0.3</v>
       </c>
-      <c r="R14" s="2">
+      <c r="S14" s="2">
         <v>15</v>
       </c>
-      <c r="U14" s="17"/>
-      <c r="V14" s="5" t="s">
+      <c r="V14" s="17"/>
+      <c r="W14" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="W14" s="5"/>
-    </row>
-    <row r="15" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X14" s="5"/>
+    </row>
+    <row r="15" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>74</v>
       </c>
@@ -2779,25 +2828,28 @@
       <c r="M15" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="N15" s="2">
+      <c r="N15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="O15" s="2">
         <v>0.2</v>
       </c>
-      <c r="O15" s="2">
-        <v>1</v>
-      </c>
       <c r="P15" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="2">
         <v>0.3</v>
       </c>
-      <c r="R15" s="2">
+      <c r="S15" s="2">
         <v>10</v>
       </c>
-      <c r="U15" s="17"/>
-      <c r="V15" s="5" t="s">
+      <c r="V15" s="17"/>
+      <c r="W15" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="W15" s="5"/>
-    </row>
-    <row r="16" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X15" s="5"/>
+    </row>
+    <row r="16" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>120</v>
       </c>
@@ -2820,25 +2872,26 @@
         <v>120</v>
       </c>
       <c r="M16" s="4"/>
-      <c r="N16" s="2">
+      <c r="N16" s="4"/>
+      <c r="O16" s="2">
         <v>0.4</v>
       </c>
-      <c r="O16" s="2">
-        <v>1</v>
-      </c>
       <c r="P16" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="2">
         <v>0.4</v>
       </c>
-      <c r="R16" s="2">
+      <c r="S16" s="2">
         <v>15</v>
       </c>
-      <c r="U16" s="17"/>
-      <c r="V16" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="W16" s="5"/>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="V16" s="17"/>
+      <c r="W16" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="X16" s="5"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>71</v>
       </c>
@@ -2863,23 +2916,23 @@
       <c r="M17" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="N17" s="1">
+      <c r="O17" s="1">
         <v>0.6</v>
       </c>
-      <c r="O17" s="1">
-        <v>1</v>
-      </c>
       <c r="P17" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="1">
         <v>0.5</v>
       </c>
-      <c r="R17" s="1">
+      <c r="S17" s="1">
         <v>20</v>
       </c>
-      <c r="V17" s="5" t="s">
+      <c r="W17" s="5" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="18" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>198</v>
       </c>
@@ -2905,25 +2958,26 @@
       <c r="M18" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="N18" s="2">
+      <c r="N18" s="4"/>
+      <c r="O18" s="2">
         <v>0.4</v>
       </c>
-      <c r="O18" s="2">
-        <v>1</v>
-      </c>
       <c r="P18" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="2">
         <v>0.6</v>
       </c>
-      <c r="R18" s="2">
+      <c r="S18" s="2">
         <v>20</v>
       </c>
-      <c r="U18" s="17"/>
-      <c r="V18" s="5" t="s">
+      <c r="V18" s="17"/>
+      <c r="W18" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="W18" s="5"/>
-    </row>
-    <row r="19" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X18" s="5"/>
+    </row>
+    <row r="19" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>124</v>
       </c>
@@ -2946,25 +3000,26 @@
       <c r="M19" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="N19" s="2">
+      <c r="N19" s="4"/>
+      <c r="O19" s="2">
         <v>0.2</v>
       </c>
-      <c r="O19" s="2">
-        <v>1</v>
-      </c>
       <c r="P19" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="2">
         <v>0.3</v>
       </c>
-      <c r="R19" s="2">
+      <c r="S19" s="2">
         <v>10</v>
       </c>
-      <c r="U19" s="17"/>
-      <c r="V19" s="5" t="s">
+      <c r="V19" s="17"/>
+      <c r="W19" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="W19" s="5"/>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="5"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>64</v>
       </c>
@@ -2989,29 +3044,32 @@
       <c r="K21" s="3">
         <v>100</v>
       </c>
-      <c r="N21" s="1">
+      <c r="M21" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="O21" s="1">
         <v>0.3</v>
       </c>
-      <c r="O21" s="1">
-        <v>1</v>
-      </c>
       <c r="P21" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="1">
         <v>0.3</v>
       </c>
-      <c r="R21" s="1">
+      <c r="S21" s="1">
         <v>10</v>
       </c>
-      <c r="S21" s="2" t="s">
+      <c r="T21" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="U21" s="5" t="s">
+      <c r="V21" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="V21" s="5" t="s">
+      <c r="W21" s="5" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
         <v>211</v>
       </c>
@@ -3036,26 +3094,29 @@
       </c>
       <c r="L22" s="2"/>
       <c r="M22" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="N22" s="2">
+        <v>36</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O22" s="2">
         <v>0.3</v>
       </c>
-      <c r="O22" s="2">
-        <v>1</v>
-      </c>
       <c r="P22" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="2">
         <v>0.3</v>
       </c>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2">
+      <c r="R22" s="2"/>
+      <c r="S22" s="2">
         <v>10</v>
       </c>
-      <c r="V22" s="5" t="s">
+      <c r="W22" s="5" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="23" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
         <v>212</v>
       </c>
@@ -3077,33 +3138,36 @@
       <c r="K23" s="3">
         <v>100</v>
       </c>
-      <c r="M23" s="4"/>
-      <c r="N23" s="2">
+      <c r="M23" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="N23" s="4"/>
+      <c r="O23" s="2">
         <v>0.3</v>
       </c>
-      <c r="O23" s="2">
-        <v>1</v>
-      </c>
       <c r="P23" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="2">
         <v>0.3</v>
       </c>
-      <c r="R23" s="2">
+      <c r="S23" s="2">
         <v>15</v>
       </c>
-      <c r="S23" s="2" t="s">
+      <c r="T23" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="U23" s="5" t="s">
+      <c r="V23" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="V23" s="5" t="s">
+      <c r="W23" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="W23" s="5" t="s">
+      <c r="X23" s="5" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="24" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
         <v>214</v>
       </c>
@@ -3119,27 +3183,28 @@
       <c r="M24" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="N24" s="2">
+      <c r="N24" s="4"/>
+      <c r="O24" s="2">
         <v>0.3</v>
       </c>
-      <c r="O24" s="2">
-        <v>1</v>
-      </c>
       <c r="P24" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="2">
         <v>0.3</v>
       </c>
-      <c r="R24" s="2">
+      <c r="S24" s="2">
         <v>10</v>
       </c>
-      <c r="U24" s="17" t="s">
+      <c r="V24" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="V24" s="5" t="s">
+      <c r="W24" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="W24" s="5"/>
-    </row>
-    <row r="25" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X24" s="5"/>
+    </row>
+    <row r="25" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
         <v>224</v>
       </c>
@@ -3152,29 +3217,32 @@
       <c r="K25" s="3">
         <v>90</v>
       </c>
-      <c r="M25" s="4"/>
-      <c r="N25" s="2">
+      <c r="M25" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="N25" s="4"/>
+      <c r="O25" s="2">
         <v>0.3</v>
       </c>
-      <c r="O25" s="2">
-        <v>1</v>
-      </c>
       <c r="P25" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="2">
         <v>0.3</v>
       </c>
-      <c r="Q25" s="2">
+      <c r="R25" s="2">
         <v>20</v>
       </c>
-      <c r="R25" s="2">
+      <c r="S25" s="2">
         <v>10</v>
       </c>
-      <c r="U25" s="17"/>
-      <c r="V25" s="5" t="s">
+      <c r="V25" s="17"/>
+      <c r="W25" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="W25" s="5"/>
-    </row>
-    <row r="26" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X25" s="5"/>
+    </row>
+    <row r="26" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
         <v>225</v>
       </c>
@@ -3188,31 +3256,34 @@
       <c r="K26" s="3">
         <v>120</v>
       </c>
-      <c r="M26" s="4"/>
-      <c r="N26" s="2">
+      <c r="M26" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="N26" s="4"/>
+      <c r="O26" s="2">
         <v>0.4</v>
       </c>
-      <c r="O26" s="2">
-        <v>1</v>
-      </c>
       <c r="P26" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="2">
         <v>0.3</v>
       </c>
-      <c r="R26" s="2">
+      <c r="S26" s="2">
         <v>15</v>
       </c>
-      <c r="S26" s="2" t="s">
+      <c r="T26" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="U26" s="5" t="s">
+      <c r="V26" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="V26" s="5" t="s">
+      <c r="W26" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="W26" s="5"/>
-    </row>
-    <row r="27" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X26" s="5"/>
+    </row>
+    <row r="27" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
         <v>227</v>
       </c>
@@ -3235,25 +3306,26 @@
         <v>130</v>
       </c>
       <c r="M27" s="4"/>
-      <c r="N27" s="2">
+      <c r="N27" s="4"/>
+      <c r="O27" s="2">
         <v>0.4</v>
       </c>
-      <c r="O27" s="2">
-        <v>1</v>
-      </c>
       <c r="P27" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="2">
         <v>0.4</v>
       </c>
-      <c r="R27" s="2">
+      <c r="S27" s="2">
         <v>20</v>
       </c>
-      <c r="U27" s="17"/>
-      <c r="V27" s="5" t="s">
+      <c r="V27" s="17"/>
+      <c r="W27" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="W27" s="5"/>
-    </row>
-    <row r="28" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X27" s="5"/>
+    </row>
+    <row r="28" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>226</v>
       </c>
@@ -3280,26 +3352,29 @@
       </c>
       <c r="L28" s="1"/>
       <c r="M28" s="4"/>
-      <c r="N28" s="1">
+      <c r="N28" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="O28" s="1">
         <v>0.5</v>
       </c>
-      <c r="O28" s="1">
-        <v>1</v>
-      </c>
       <c r="P28" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="1">
         <v>0.4</v>
       </c>
-      <c r="Q28" s="1"/>
-      <c r="R28" s="1">
+      <c r="R28" s="1"/>
+      <c r="S28" s="1">
         <v>20</v>
       </c>
-      <c r="U28" s="17"/>
-      <c r="V28" s="5" t="s">
+      <c r="V28" s="17"/>
+      <c r="W28" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="W28" s="5"/>
-    </row>
-    <row r="30" spans="1:23" ht="57" x14ac:dyDescent="0.2">
+      <c r="X28" s="5"/>
+    </row>
+    <row r="30" spans="1:24" ht="57" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>56</v>
       </c>
@@ -3321,32 +3396,35 @@
       <c r="M30" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="N30" s="1">
+      <c r="N30" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="O30" s="1">
         <v>0.5</v>
       </c>
-      <c r="O30" s="1">
-        <v>1</v>
-      </c>
       <c r="P30" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="1">
         <v>0.4</v>
       </c>
-      <c r="Q30" s="1">
+      <c r="R30" s="1">
         <v>10</v>
       </c>
-      <c r="R30" s="1">
+      <c r="S30" s="1">
         <v>20</v>
       </c>
-      <c r="T30" s="2">
+      <c r="U30" s="2">
         <v>15</v>
       </c>
-      <c r="U30" s="18" t="s">
+      <c r="V30" s="18" t="s">
         <v>251</v>
       </c>
-      <c r="V30" s="5" t="s">
+      <c r="W30" s="5" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
         <v>254</v>
       </c>
@@ -3371,29 +3449,29 @@
       <c r="L31" s="1">
         <v>40</v>
       </c>
-      <c r="N31" s="1">
+      <c r="O31" s="1">
         <v>0.3</v>
       </c>
-      <c r="O31" s="1">
-        <v>1</v>
-      </c>
       <c r="P31" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="1">
         <v>0.3</v>
       </c>
-      <c r="R31" s="1">
+      <c r="S31" s="1">
         <v>10</v>
       </c>
-      <c r="T31" s="2">
+      <c r="U31" s="2">
         <v>30</v>
       </c>
-      <c r="U31" s="18" t="s">
+      <c r="V31" s="18" t="s">
         <v>247</v>
       </c>
-      <c r="V31" s="5" t="s">
+      <c r="W31" s="5" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="32" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
         <v>61</v>
       </c>
@@ -3416,31 +3494,34 @@
       <c r="L32" s="2">
         <v>30</v>
       </c>
-      <c r="M32" s="4"/>
-      <c r="N32" s="2">
+      <c r="M32" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N32" s="4"/>
+      <c r="O32" s="2">
         <v>0.2</v>
       </c>
-      <c r="O32" s="2">
+      <c r="P32" s="2">
         <v>0.9</v>
       </c>
-      <c r="P32" s="2">
+      <c r="Q32" s="2">
         <v>0.3</v>
       </c>
-      <c r="R32" s="2">
+      <c r="S32" s="2">
         <v>10</v>
       </c>
-      <c r="T32" s="2">
+      <c r="U32" s="2">
         <v>15</v>
       </c>
-      <c r="U32" s="17" t="s">
-        <v>326</v>
-      </c>
-      <c r="V32" s="5" t="s">
+      <c r="V32" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="W32" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="W32" s="5"/>
-    </row>
-    <row r="33" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X32" s="5"/>
+    </row>
+    <row r="33" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
         <v>223</v>
       </c>
@@ -3465,31 +3546,34 @@
       <c r="L33" s="2">
         <v>20</v>
       </c>
-      <c r="M33" s="4"/>
-      <c r="N33" s="2">
+      <c r="M33" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="N33" s="4"/>
+      <c r="O33" s="2">
         <v>0.3</v>
       </c>
-      <c r="O33" s="2">
-        <v>1</v>
-      </c>
       <c r="P33" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="2">
         <v>0.3</v>
       </c>
-      <c r="R33" s="2">
+      <c r="S33" s="2">
         <v>10</v>
       </c>
-      <c r="T33" s="2">
+      <c r="U33" s="2">
         <v>20</v>
       </c>
-      <c r="U33" s="17" t="s">
-        <v>325</v>
-      </c>
-      <c r="V33" s="5" t="s">
+      <c r="V33" s="17" t="s">
+        <v>404</v>
+      </c>
+      <c r="W33" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="W33" s="5"/>
-    </row>
-    <row r="34" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X33" s="5"/>
+    </row>
+    <row r="34" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
         <v>255</v>
       </c>
@@ -3515,30 +3599,33 @@
         <v>50</v>
       </c>
       <c r="M34" s="4"/>
-      <c r="N34" s="2">
+      <c r="N34" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O34" s="2">
         <v>0.6</v>
       </c>
-      <c r="O34" s="2">
-        <v>1</v>
-      </c>
       <c r="P34" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="2">
         <v>0.3</v>
       </c>
-      <c r="R34" s="2">
+      <c r="S34" s="2">
         <v>20</v>
       </c>
-      <c r="T34" s="2">
+      <c r="U34" s="2">
         <v>15</v>
       </c>
-      <c r="U34" s="17" t="s">
-        <v>324</v>
-      </c>
-      <c r="V34" s="5" t="s">
+      <c r="V34" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="W34" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="W34" s="5"/>
-    </row>
-    <row r="35" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X34" s="5"/>
+    </row>
+    <row r="35" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
         <v>249</v>
       </c>
@@ -3561,31 +3648,34 @@
       <c r="L35" s="2">
         <v>40</v>
       </c>
-      <c r="M35" s="4"/>
-      <c r="N35" s="2">
+      <c r="M35" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="N35" s="4"/>
+      <c r="O35" s="2">
         <v>0.3</v>
       </c>
-      <c r="O35" s="2">
-        <v>1</v>
-      </c>
       <c r="P35" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="2">
         <v>0.3</v>
       </c>
-      <c r="R35" s="2">
+      <c r="S35" s="2">
         <v>10</v>
       </c>
-      <c r="T35" s="2">
+      <c r="U35" s="2">
         <v>20</v>
       </c>
-      <c r="U35" s="17" t="s">
+      <c r="V35" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="V35" s="5" t="s">
+      <c r="W35" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="W35" s="5"/>
-    </row>
-    <row r="36" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X35" s="5"/>
+    </row>
+    <row r="36" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="2" t="s">
         <v>250</v>
       </c>
@@ -3608,38 +3698,42 @@
       <c r="M36" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="N36" s="2">
+      <c r="N36" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="O36" s="2">
         <v>0.4</v>
       </c>
-      <c r="O36" s="2">
-        <v>1</v>
-      </c>
       <c r="P36" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="2">
         <v>0.4</v>
       </c>
-      <c r="R36" s="2">
+      <c r="S36" s="2">
         <v>17</v>
       </c>
-      <c r="T36" s="2">
+      <c r="U36" s="2">
         <v>25</v>
       </c>
-      <c r="U36" s="17" t="s">
-        <v>323</v>
-      </c>
-      <c r="V36" s="5" t="s">
+      <c r="V36" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="W36" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="W36" s="5"/>
-    </row>
-    <row r="37" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X36" s="5"/>
+    </row>
+    <row r="37" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G37" s="3"/>
       <c r="K37" s="3"/>
       <c r="M37" s="4"/>
-      <c r="U37" s="17"/>
-      <c r="V37" s="5"/>
+      <c r="N37" s="4"/>
+      <c r="V37" s="17"/>
       <c r="W37" s="5"/>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X37" s="5"/>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>25</v>
       </c>
@@ -3670,30 +3764,33 @@
       <c r="L38" s="2">
         <v>30</v>
       </c>
-      <c r="N38" s="2">
+      <c r="M38" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="O38" s="2">
         <v>0.3</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>0.9</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>0.3</v>
       </c>
-      <c r="Q38" s="2"/>
-      <c r="R38" s="2">
+      <c r="R38" s="2"/>
+      <c r="S38" s="2">
         <v>10</v>
       </c>
-      <c r="U38" s="5" t="s">
+      <c r="V38" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="V38" s="5" t="s">
+      <c r="W38" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="W38" s="5" t="s">
+      <c r="X38" s="5" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="39" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="6"/>
       <c r="B39" s="2" t="s">
         <v>184</v>
@@ -3719,33 +3816,36 @@
       <c r="L39" s="2">
         <v>70</v>
       </c>
-      <c r="M39" s="4"/>
-      <c r="N39" s="2">
+      <c r="M39" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="N39" s="4"/>
+      <c r="O39" s="2">
         <v>0.4</v>
       </c>
-      <c r="O39" s="2">
-        <v>1</v>
-      </c>
       <c r="P39" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="2">
         <v>0.3</v>
-      </c>
-      <c r="Q39" s="2">
-        <v>15</v>
       </c>
       <c r="R39" s="2">
         <v>15</v>
       </c>
-      <c r="U39" s="17" t="s">
-        <v>287</v>
-      </c>
-      <c r="V39" s="5" t="s">
+      <c r="S39" s="2">
+        <v>15</v>
+      </c>
+      <c r="V39" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="W39" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="W39" s="5" t="s">
+      <c r="X39" s="5" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="40" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="6"/>
       <c r="B40" s="2" t="s">
         <v>187</v>
@@ -3774,32 +3874,35 @@
       <c r="M40" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="N40" s="2">
+      <c r="N40" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O40" s="2">
         <v>0.3</v>
       </c>
-      <c r="O40" s="2">
+      <c r="P40" s="2">
         <v>0.9</v>
       </c>
-      <c r="P40" s="2">
+      <c r="Q40" s="2">
         <v>0.3</v>
-      </c>
-      <c r="Q40" s="2">
-        <v>10</v>
       </c>
       <c r="R40" s="2">
         <v>10</v>
       </c>
-      <c r="U40" s="17" t="s">
-        <v>288</v>
-      </c>
-      <c r="V40" s="5" t="s">
+      <c r="S40" s="2">
+        <v>10</v>
+      </c>
+      <c r="V40" s="17" t="s">
+        <v>287</v>
+      </c>
+      <c r="W40" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="W40" s="5" t="s">
+      <c r="X40" s="5" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="41" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="6"/>
       <c r="B41" s="2" t="s">
         <v>186</v>
@@ -3825,33 +3928,36 @@
       <c r="L41" s="2">
         <v>20</v>
       </c>
-      <c r="M41" s="4"/>
-      <c r="N41" s="2">
+      <c r="M41" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="N41" s="4"/>
+      <c r="O41" s="2">
         <v>0.4</v>
       </c>
-      <c r="O41" s="2">
-        <v>1</v>
-      </c>
       <c r="P41" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="2">
         <v>0.3</v>
-      </c>
-      <c r="Q41" s="2">
-        <v>15</v>
       </c>
       <c r="R41" s="2">
         <v>15</v>
       </c>
-      <c r="U41" s="17" t="s">
-        <v>287</v>
-      </c>
-      <c r="V41" s="5" t="s">
+      <c r="S41" s="2">
+        <v>15</v>
+      </c>
+      <c r="V41" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="W41" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="W41" s="5" t="s">
+      <c r="X41" s="5" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="42" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="6"/>
       <c r="B42" s="2" t="s">
         <v>188</v>
@@ -3877,33 +3983,38 @@
       <c r="L42" s="2">
         <v>50</v>
       </c>
-      <c r="M42" s="4"/>
-      <c r="N42" s="2">
+      <c r="M42" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="N42" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O42" s="2">
         <v>0.3</v>
       </c>
-      <c r="O42" s="2">
-        <v>1</v>
-      </c>
       <c r="P42" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="2">
         <v>0.3</v>
       </c>
-      <c r="Q42" s="2">
+      <c r="R42" s="2">
         <v>12</v>
       </c>
-      <c r="R42" s="2">
+      <c r="S42" s="2">
         <v>10</v>
       </c>
-      <c r="U42" s="17" t="s">
-        <v>289</v>
-      </c>
-      <c r="V42" s="5" t="s">
+      <c r="V42" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="W42" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="W42" s="5" t="s">
+      <c r="X42" s="5" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="43" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="6"/>
       <c r="B43" s="1" t="s">
         <v>189</v>
@@ -3931,33 +4042,36 @@
       <c r="L43" s="1">
         <v>30</v>
       </c>
-      <c r="M43" s="4"/>
-      <c r="N43" s="1">
+      <c r="M43" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="N43" s="4"/>
+      <c r="O43" s="1">
         <v>0.2</v>
       </c>
-      <c r="O43" s="1">
+      <c r="P43" s="1">
         <v>0.8</v>
       </c>
-      <c r="P43" s="1">
+      <c r="Q43" s="1">
         <v>0.3</v>
-      </c>
-      <c r="Q43" s="1">
-        <v>10</v>
       </c>
       <c r="R43" s="1">
         <v>10</v>
       </c>
-      <c r="U43" s="17" t="s">
-        <v>290</v>
-      </c>
-      <c r="V43" s="5" t="s">
+      <c r="S43" s="1">
+        <v>10</v>
+      </c>
+      <c r="V43" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="W43" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="W43" s="5" t="s">
+      <c r="X43" s="5" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B44" s="2" t="s">
         <v>190</v>
       </c>
@@ -3986,34 +4100,37 @@
         <v>40</v>
       </c>
       <c r="M44" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N44" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="N44" s="2">
+      <c r="O44" s="2">
         <v>0.3</v>
       </c>
-      <c r="O44" s="2">
+      <c r="P44" s="2">
         <v>0.9</v>
       </c>
-      <c r="P44" s="2">
+      <c r="Q44" s="2">
         <v>0.3</v>
-      </c>
-      <c r="Q44" s="2">
-        <v>10</v>
       </c>
       <c r="R44" s="2">
         <v>10</v>
       </c>
-      <c r="U44" s="17" t="s">
-        <v>288</v>
-      </c>
-      <c r="V44" s="5" t="s">
+      <c r="S44" s="2">
+        <v>10</v>
+      </c>
+      <c r="V44" s="17" t="s">
+        <v>287</v>
+      </c>
+      <c r="W44" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="W44" s="5" t="s">
+      <c r="X44" s="5" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="45" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" s="2" t="s">
         <v>199</v>
       </c>
@@ -4038,28 +4155,31 @@
       <c r="L45" s="2">
         <v>30</v>
       </c>
-      <c r="M45" s="4"/>
-      <c r="N45" s="2">
+      <c r="M45" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N45" s="4"/>
+      <c r="O45" s="2">
         <v>0.4</v>
       </c>
-      <c r="O45" s="2">
-        <v>1</v>
-      </c>
       <c r="P45" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q45" s="2">
         <v>0.3</v>
       </c>
-      <c r="R45" s="2">
+      <c r="S45" s="2">
         <v>10</v>
       </c>
-      <c r="U45" s="17"/>
-      <c r="V45" s="5" t="s">
+      <c r="V45" s="17"/>
+      <c r="W45" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="W45" s="5" t="s">
+      <c r="X45" s="5" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>28</v>
       </c>
@@ -4090,25 +4210,26 @@
       <c r="M47" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="N47" s="2">
+      <c r="N47" s="4"/>
+      <c r="O47" s="2">
         <v>0.4</v>
       </c>
-      <c r="O47" s="2">
-        <v>1</v>
-      </c>
       <c r="P47" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q47" s="2">
         <v>0.3</v>
       </c>
-      <c r="R47" s="2">
+      <c r="S47" s="2">
         <v>15</v>
       </c>
-      <c r="U47" s="17"/>
-      <c r="V47" s="5" t="s">
+      <c r="V47" s="17"/>
+      <c r="W47" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="W47" s="5"/>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="5"/>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
         <v>86</v>
       </c>
@@ -4133,23 +4254,23 @@
       <c r="L48" s="1">
         <v>20</v>
       </c>
-      <c r="N48" s="1">
+      <c r="O48" s="1">
         <v>0.3</v>
       </c>
-      <c r="O48" s="1">
-        <v>1</v>
-      </c>
       <c r="P48" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q48" s="1">
         <v>0.3</v>
       </c>
-      <c r="R48" s="1">
+      <c r="S48" s="1">
         <v>10</v>
       </c>
-      <c r="V48" s="5" t="s">
+      <c r="W48" s="5" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="49" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="2" t="s">
         <v>81</v>
       </c>
@@ -4177,25 +4298,26 @@
       <c r="M49" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="N49" s="2">
+      <c r="N49" s="4"/>
+      <c r="O49" s="2">
         <v>0.2</v>
       </c>
-      <c r="O49" s="2">
-        <v>1</v>
-      </c>
       <c r="P49" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q49" s="2">
         <v>0.3</v>
       </c>
-      <c r="R49" s="2">
+      <c r="S49" s="2">
         <v>10</v>
       </c>
-      <c r="U49" s="17"/>
-      <c r="V49" s="5" t="s">
+      <c r="V49" s="17"/>
+      <c r="W49" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="W49" s="5"/>
-    </row>
-    <row r="50" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X49" s="5"/>
+    </row>
+    <row r="50" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="2" t="s">
         <v>84</v>
       </c>
@@ -4221,25 +4343,26 @@
         <v>80</v>
       </c>
       <c r="M50" s="4"/>
-      <c r="N50" s="2">
+      <c r="N50" s="4"/>
+      <c r="O50" s="2">
         <v>0.3</v>
       </c>
-      <c r="O50" s="2">
-        <v>1</v>
-      </c>
       <c r="P50" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q50" s="2">
         <v>0.3</v>
       </c>
-      <c r="R50" s="2">
+      <c r="S50" s="2">
         <v>15</v>
       </c>
-      <c r="U50" s="17"/>
-      <c r="V50" s="5" t="s">
+      <c r="V50" s="17"/>
+      <c r="W50" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="W50" s="5"/>
-    </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="5"/>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
         <v>85</v>
       </c>
@@ -4264,23 +4387,23 @@
       <c r="L51" s="1">
         <v>100</v>
       </c>
-      <c r="N51" s="1">
+      <c r="O51" s="1">
         <v>0.5</v>
       </c>
-      <c r="O51" s="1">
-        <v>1</v>
-      </c>
       <c r="P51" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q51" s="1">
         <v>0.4</v>
       </c>
-      <c r="R51" s="1">
+      <c r="S51" s="1">
         <v>10</v>
       </c>
-      <c r="V51" s="5" t="s">
+      <c r="W51" s="5" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="52" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" s="2" t="s">
         <v>88</v>
       </c>
@@ -4308,25 +4431,26 @@
       <c r="M52" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="N52" s="2">
+      <c r="N52" s="4"/>
+      <c r="O52" s="2">
         <v>0.6</v>
       </c>
-      <c r="O52" s="2">
-        <v>1</v>
-      </c>
       <c r="P52" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q52" s="2">
         <v>0.6</v>
       </c>
-      <c r="R52" s="2">
+      <c r="S52" s="2">
         <v>17</v>
       </c>
-      <c r="U52" s="17"/>
-      <c r="V52" s="5" t="s">
+      <c r="V52" s="17"/>
+      <c r="W52" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="W52" s="5"/>
-    </row>
-    <row r="53" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X52" s="5"/>
+    </row>
+    <row r="53" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B53" s="2" t="s">
         <v>94</v>
       </c>
@@ -4354,25 +4478,26 @@
       <c r="M53" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="N53" s="2">
+      <c r="N53" s="4"/>
+      <c r="O53" s="2">
         <v>0.6</v>
       </c>
-      <c r="O53" s="2">
-        <v>1</v>
-      </c>
       <c r="P53" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q53" s="2">
         <v>0.6</v>
       </c>
-      <c r="R53" s="2">
+      <c r="S53" s="2">
         <v>20</v>
       </c>
-      <c r="U53" s="17"/>
-      <c r="V53" s="5" t="s">
+      <c r="V53" s="17"/>
+      <c r="W53" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="W53" s="5"/>
-    </row>
-    <row r="54" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X53" s="5"/>
+    </row>
+    <row r="54" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B54" s="2" t="s">
         <v>95</v>
       </c>
@@ -4400,25 +4525,26 @@
       <c r="M54" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="N54" s="2">
+      <c r="N54" s="4"/>
+      <c r="O54" s="2">
         <v>0.6</v>
       </c>
-      <c r="O54" s="2">
-        <v>1</v>
-      </c>
       <c r="P54" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q54" s="2">
         <v>0.6</v>
       </c>
-      <c r="R54" s="2">
+      <c r="S54" s="2">
         <v>20</v>
       </c>
-      <c r="U54" s="17"/>
-      <c r="V54" s="5" t="s">
+      <c r="V54" s="17"/>
+      <c r="W54" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="W54" s="5"/>
-    </row>
-    <row r="56" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X54" s="5"/>
+    </row>
+    <row r="56" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
         <v>18</v>
       </c>
@@ -4449,28 +4575,29 @@
       <c r="M56" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="N56" s="2">
+      <c r="N56" s="4"/>
+      <c r="O56" s="2">
         <v>0.3</v>
       </c>
-      <c r="O56" s="2">
-        <v>1</v>
-      </c>
       <c r="P56" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q56" s="2">
         <v>0.3</v>
       </c>
-      <c r="Q56" s="2">
+      <c r="R56" s="2">
         <v>25</v>
       </c>
-      <c r="R56" s="2">
+      <c r="S56" s="2">
         <v>10</v>
       </c>
-      <c r="U56" s="17"/>
-      <c r="V56" s="5" t="s">
+      <c r="V56" s="17"/>
+      <c r="W56" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="W56" s="5"/>
-    </row>
-    <row r="57" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X56" s="5"/>
+    </row>
+    <row r="57" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="6"/>
       <c r="B57" s="2" t="s">
         <v>116</v>
@@ -4497,28 +4624,29 @@
         <v>60</v>
       </c>
       <c r="M57" s="4"/>
-      <c r="N57" s="2">
+      <c r="N57" s="4"/>
+      <c r="O57" s="2">
         <v>0.4</v>
       </c>
-      <c r="O57" s="2">
-        <v>1</v>
-      </c>
       <c r="P57" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q57" s="2">
         <v>0.3</v>
       </c>
-      <c r="Q57" s="2">
+      <c r="R57" s="2">
         <v>40</v>
       </c>
-      <c r="R57" s="2">
+      <c r="S57" s="2">
         <v>15</v>
       </c>
-      <c r="U57" s="17"/>
-      <c r="V57" s="5" t="s">
+      <c r="V57" s="17"/>
+      <c r="W57" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="W57" s="5"/>
-    </row>
-    <row r="58" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X57" s="5"/>
+    </row>
+    <row r="58" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="6"/>
       <c r="B58" s="2" t="s">
         <v>163</v>
@@ -4545,28 +4673,29 @@
       <c r="M58" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="N58" s="2">
+      <c r="N58" s="4"/>
+      <c r="O58" s="2">
         <v>0.6</v>
       </c>
-      <c r="O58" s="2">
-        <v>1</v>
-      </c>
       <c r="P58" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q58" s="2">
         <v>0.5</v>
       </c>
-      <c r="Q58" s="2">
+      <c r="R58" s="2">
         <v>70</v>
       </c>
-      <c r="R58" s="2">
+      <c r="S58" s="2">
         <v>20</v>
       </c>
-      <c r="U58" s="17"/>
-      <c r="V58" s="5" t="s">
+      <c r="V58" s="17"/>
+      <c r="W58" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="W58" s="5"/>
-    </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="5"/>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B59" s="1" t="s">
         <v>55</v>
       </c>
@@ -4594,26 +4723,26 @@
       <c r="M59" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="N59" s="1">
+      <c r="O59" s="1">
         <v>0.6</v>
       </c>
-      <c r="O59" s="1">
-        <v>1</v>
-      </c>
       <c r="P59" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q59" s="1">
         <v>0.5</v>
       </c>
-      <c r="Q59" s="1">
+      <c r="R59" s="1">
         <v>60</v>
       </c>
-      <c r="R59" s="1">
+      <c r="S59" s="1">
         <v>20</v>
       </c>
-      <c r="V59" s="5" t="s">
+      <c r="W59" s="5" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="60" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="6"/>
       <c r="B60" s="2" t="s">
         <v>168</v>
@@ -4640,28 +4769,29 @@
         <v>50</v>
       </c>
       <c r="M60" s="4"/>
-      <c r="N60" s="2">
+      <c r="N60" s="4"/>
+      <c r="O60" s="2">
         <v>0.3</v>
       </c>
-      <c r="O60" s="2">
-        <v>1</v>
-      </c>
       <c r="P60" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q60" s="2">
         <v>0.3</v>
       </c>
-      <c r="Q60" s="2">
+      <c r="R60" s="2">
         <v>10</v>
       </c>
-      <c r="R60" s="2">
+      <c r="S60" s="2">
         <v>15</v>
       </c>
-      <c r="U60" s="17"/>
-      <c r="V60" s="5" t="s">
+      <c r="V60" s="17"/>
+      <c r="W60" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="W60" s="5"/>
-    </row>
-    <row r="61" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X60" s="5"/>
+    </row>
+    <row r="61" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="6"/>
       <c r="B61" s="2" t="s">
         <v>173</v>
@@ -4688,30 +4818,31 @@
         <v>70</v>
       </c>
       <c r="M61" s="4"/>
-      <c r="N61" s="2">
+      <c r="N61" s="4"/>
+      <c r="O61" s="2">
         <v>0.4</v>
       </c>
-      <c r="O61" s="2">
-        <v>1</v>
-      </c>
       <c r="P61" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q61" s="2">
         <v>0.4</v>
       </c>
-      <c r="Q61" s="2">
+      <c r="R61" s="2">
         <v>40</v>
       </c>
-      <c r="R61" s="2">
+      <c r="S61" s="2">
         <v>15</v>
       </c>
-      <c r="U61" s="17" t="s">
-        <v>274</v>
-      </c>
-      <c r="V61" s="5" t="s">
+      <c r="V61" s="17" t="s">
+        <v>405</v>
+      </c>
+      <c r="W61" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="W61" s="5"/>
-    </row>
-    <row r="62" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X61" s="5"/>
+    </row>
+    <row r="62" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="6"/>
       <c r="B62" s="2" t="s">
         <v>171</v>
@@ -4738,28 +4869,29 @@
         <v>20</v>
       </c>
       <c r="M62" s="4"/>
-      <c r="N62" s="2">
+      <c r="N62" s="4"/>
+      <c r="O62" s="2">
         <v>0.4</v>
       </c>
-      <c r="O62" s="2">
-        <v>1</v>
-      </c>
       <c r="P62" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q62" s="2">
         <v>0.3</v>
       </c>
-      <c r="Q62" s="2">
+      <c r="R62" s="2">
         <v>30</v>
       </c>
-      <c r="R62" s="2">
+      <c r="S62" s="2">
         <v>15</v>
       </c>
-      <c r="U62" s="17"/>
-      <c r="V62" s="5" t="s">
+      <c r="V62" s="17"/>
+      <c r="W62" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="W62" s="5"/>
-    </row>
-    <row r="63" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X62" s="5"/>
+    </row>
+    <row r="63" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="6"/>
       <c r="B63" s="2" t="s">
         <v>172</v>
@@ -4788,44 +4920,46 @@
       <c r="M63" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="N63" s="2">
+      <c r="N63" s="4"/>
+      <c r="O63" s="2">
         <v>0.5</v>
       </c>
-      <c r="O63" s="2">
-        <v>1</v>
-      </c>
       <c r="P63" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q63" s="2">
         <v>0.5</v>
       </c>
-      <c r="Q63" s="2">
+      <c r="R63" s="2">
         <v>50</v>
       </c>
-      <c r="R63" s="2">
+      <c r="S63" s="2">
         <v>20</v>
       </c>
-      <c r="U63" s="5" t="s">
+      <c r="V63" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="V63" s="5" t="s">
+      <c r="W63" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="W63" s="5"/>
-    </row>
-    <row r="64" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X63" s="5"/>
+    </row>
+    <row r="64" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="6"/>
       <c r="G64" s="3"/>
       <c r="K64" s="3"/>
       <c r="M64" s="4"/>
-      <c r="U64" s="5"/>
+      <c r="N64" s="4"/>
       <c r="V64" s="5"/>
       <c r="W64" s="5"/>
-    </row>
-    <row r="65" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X64" s="5"/>
+    </row>
+    <row r="65" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E65" s="2">
         <v>1</v>
@@ -4837,33 +4971,34 @@
       <c r="M65" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="N65" s="2">
+      <c r="N65" s="4"/>
+      <c r="O65" s="2">
         <v>0.4</v>
       </c>
-      <c r="O65" s="2">
-        <v>1</v>
-      </c>
       <c r="P65" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q65" s="2">
         <v>0.4</v>
       </c>
-      <c r="R65" s="2">
+      <c r="S65" s="2">
         <v>10</v>
       </c>
-      <c r="T65" s="2">
+      <c r="U65" s="2">
         <v>25</v>
       </c>
-      <c r="U65" s="5" t="s">
-        <v>280</v>
-      </c>
       <c r="V65" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="W65" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="W65" s="5"/>
-    </row>
-    <row r="66" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X65" s="5"/>
+    </row>
+    <row r="66" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="6"/>
       <c r="B66" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E66" s="2">
         <v>1</v>
@@ -4884,33 +5019,34 @@
         <v>10</v>
       </c>
       <c r="M66" s="4"/>
-      <c r="N66" s="2">
+      <c r="N66" s="4"/>
+      <c r="O66" s="2">
         <v>0.2</v>
       </c>
-      <c r="O66" s="2">
+      <c r="P66" s="2">
         <v>0.9</v>
       </c>
-      <c r="P66" s="2">
+      <c r="Q66" s="2">
         <v>0.2</v>
       </c>
-      <c r="R66" s="2">
+      <c r="S66" s="2">
         <v>10</v>
       </c>
-      <c r="S66" s="2" t="s">
+      <c r="T66" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="V66" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="W66" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="U66" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="V66" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="W66" s="5"/>
-    </row>
-    <row r="67" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X66" s="5"/>
+    </row>
+    <row r="67" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="6"/>
       <c r="B67" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E67" s="2">
         <v>1</v>
@@ -4933,33 +5069,34 @@
       <c r="M67" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="N67" s="2">
+      <c r="N67" s="4"/>
+      <c r="O67" s="2">
         <v>0.5</v>
       </c>
-      <c r="O67" s="2">
-        <v>1</v>
-      </c>
       <c r="P67" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q67" s="2">
         <v>0.3</v>
       </c>
-      <c r="R67" s="2">
+      <c r="S67" s="2">
         <v>15</v>
       </c>
-      <c r="S67" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="U67" s="17" t="s">
-        <v>291</v>
-      </c>
-      <c r="V67" s="5" t="s">
+      <c r="T67" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="V67" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="W67" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="W67" s="5"/>
-    </row>
-    <row r="68" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X67" s="5"/>
+    </row>
+    <row r="68" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="6"/>
       <c r="B68" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E68" s="2">
         <v>1</v>
@@ -4983,33 +5120,34 @@
         <v>20</v>
       </c>
       <c r="M68" s="4"/>
-      <c r="N68" s="2">
+      <c r="N68" s="4"/>
+      <c r="O68" s="2">
         <v>0.3</v>
       </c>
-      <c r="O68" s="2">
+      <c r="P68" s="2">
         <v>0.8</v>
       </c>
-      <c r="P68" s="2">
+      <c r="Q68" s="2">
         <v>0.3</v>
       </c>
-      <c r="Q68" s="2">
+      <c r="R68" s="2">
         <v>20</v>
       </c>
-      <c r="R68" s="2">
+      <c r="S68" s="2">
         <v>10</v>
       </c>
-      <c r="U68" s="17" t="s">
-        <v>287</v>
-      </c>
-      <c r="V68" s="5" t="s">
+      <c r="V68" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="W68" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="W68" s="5"/>
-    </row>
-    <row r="69" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X68" s="5"/>
+    </row>
+    <row r="69" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="6"/>
       <c r="B69" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E69" s="2">
         <v>1</v>
@@ -5033,39 +5171,40 @@
         <v>30</v>
       </c>
       <c r="M69" s="4"/>
-      <c r="N69" s="2">
+      <c r="N69" s="4"/>
+      <c r="O69" s="2">
         <v>0.3</v>
       </c>
-      <c r="O69" s="2">
+      <c r="P69" s="2">
         <v>0.9</v>
       </c>
-      <c r="P69" s="2">
+      <c r="Q69" s="2">
         <v>0.3</v>
-      </c>
-      <c r="Q69" s="2">
-        <v>10</v>
       </c>
       <c r="R69" s="2">
         <v>10</v>
       </c>
-      <c r="S69" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="T69" s="2">
+      <c r="S69" s="2">
+        <v>10</v>
+      </c>
+      <c r="T69" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="U69" s="2">
         <v>20</v>
       </c>
-      <c r="U69" s="5" t="s">
+      <c r="V69" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="V69" s="5" t="s">
+      <c r="W69" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="W69" s="5"/>
-    </row>
-    <row r="70" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X69" s="5"/>
+    </row>
+    <row r="70" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="6"/>
       <c r="B70" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E70" s="2">
         <v>1</v>
@@ -5086,36 +5225,37 @@
         <v>60</v>
       </c>
       <c r="M70" s="4"/>
-      <c r="N70" s="2">
+      <c r="N70" s="4"/>
+      <c r="O70" s="2">
         <v>0.3</v>
       </c>
-      <c r="O70" s="2">
+      <c r="P70" s="2">
         <v>0.9</v>
       </c>
-      <c r="P70" s="2">
+      <c r="Q70" s="2">
         <v>0.3</v>
       </c>
-      <c r="R70" s="2">
+      <c r="S70" s="2">
         <v>10</v>
       </c>
-      <c r="S70" s="2" t="s">
+      <c r="T70" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="T70" s="2">
+      <c r="U70" s="2">
         <v>20</v>
       </c>
-      <c r="U70" s="5" t="s">
+      <c r="V70" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="V70" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="W70" s="5"/>
-    </row>
-    <row r="71" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W70" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="X70" s="5"/>
+    </row>
+    <row r="71" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="6"/>
       <c r="B71" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E71" s="2">
         <v>1</v>
@@ -5141,33 +5281,34 @@
       <c r="M71" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="N71" s="2">
+      <c r="N71" s="4"/>
+      <c r="O71" s="2">
         <v>0.5</v>
       </c>
-      <c r="O71" s="2">
-        <v>1</v>
-      </c>
       <c r="P71" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q71" s="2">
         <v>0.3</v>
-      </c>
-      <c r="Q71" s="2">
-        <v>10</v>
       </c>
       <c r="R71" s="2">
         <v>10</v>
       </c>
-      <c r="U71" s="5" t="s">
-        <v>316</v>
+      <c r="S71" s="2">
+        <v>10</v>
       </c>
       <c r="V71" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="W71" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="W71" s="5"/>
-    </row>
-    <row r="72" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X71" s="5"/>
+    </row>
+    <row r="72" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="6"/>
       <c r="B72" s="2" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="E72" s="2">
         <v>1</v>
@@ -5193,50 +5334,52 @@
       <c r="M72" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="N72" s="2">
+      <c r="N72" s="4"/>
+      <c r="O72" s="2">
         <v>0.6</v>
       </c>
-      <c r="O72" s="2">
-        <v>1</v>
-      </c>
       <c r="P72" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q72" s="2">
         <v>0.5</v>
       </c>
-      <c r="Q72" s="2">
+      <c r="R72" s="2">
         <v>10</v>
       </c>
-      <c r="R72" s="2">
+      <c r="S72" s="2">
         <v>20</v>
       </c>
-      <c r="S72" s="2" t="s">
+      <c r="T72" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="T72" s="2">
+      <c r="U72" s="2">
         <v>30</v>
       </c>
-      <c r="U72" s="5" t="s">
-        <v>298</v>
-      </c>
       <c r="V72" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="W72" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="W72" s="5"/>
-    </row>
-    <row r="73" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X72" s="5"/>
+    </row>
+    <row r="73" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="6"/>
       <c r="G73" s="3"/>
       <c r="K73" s="3"/>
       <c r="M73" s="4"/>
-      <c r="U73" s="5"/>
+      <c r="N73" s="4"/>
       <c r="V73" s="5"/>
       <c r="W73" s="5"/>
-    </row>
-    <row r="74" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X73" s="5"/>
+    </row>
+    <row r="74" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E74" s="2">
         <v>1</v>
@@ -5259,33 +5402,34 @@
       <c r="M74" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="N74" s="2">
+      <c r="N74" s="4"/>
+      <c r="O74" s="2">
         <v>0.4</v>
       </c>
-      <c r="O74" s="2">
-        <v>1</v>
-      </c>
       <c r="P74" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q74" s="2">
         <v>0.4</v>
       </c>
-      <c r="R74" s="2">
+      <c r="S74" s="2">
         <v>10</v>
       </c>
-      <c r="T74" s="2">
+      <c r="U74" s="2">
         <v>25</v>
       </c>
-      <c r="U74" s="5" t="s">
-        <v>329</v>
-      </c>
       <c r="V74" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="W74" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="W74" s="5"/>
-    </row>
-    <row r="75" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X74" s="5"/>
+    </row>
+    <row r="75" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="6"/>
       <c r="B75" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E75" s="2">
         <v>1</v>
@@ -5309,30 +5453,31 @@
         <v>30</v>
       </c>
       <c r="M75" s="4"/>
-      <c r="N75" s="2">
+      <c r="N75" s="4"/>
+      <c r="O75" s="2">
         <v>0.4</v>
       </c>
-      <c r="O75" s="2">
-        <v>1</v>
-      </c>
       <c r="P75" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q75" s="2">
         <v>0.4</v>
       </c>
-      <c r="R75" s="2">
+      <c r="S75" s="2">
         <v>10</v>
       </c>
-      <c r="U75" s="5" t="s">
-        <v>330</v>
-      </c>
       <c r="V75" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="W75" s="5"/>
-    </row>
-    <row r="76" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>328</v>
+      </c>
+      <c r="W75" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="X75" s="5"/>
+    </row>
+    <row r="76" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="6"/>
       <c r="B76" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E76" s="2">
         <v>1</v>
@@ -5356,33 +5501,34 @@
         <v>10</v>
       </c>
       <c r="M76" s="4"/>
-      <c r="N76" s="2">
+      <c r="N76" s="4"/>
+      <c r="O76" s="2">
         <v>0.3</v>
       </c>
-      <c r="O76" s="2">
-        <v>1</v>
-      </c>
       <c r="P76" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q76" s="2">
         <v>0.4</v>
       </c>
-      <c r="R76" s="2">
+      <c r="S76" s="2">
         <v>10</v>
       </c>
-      <c r="S76" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="U76" s="5" t="s">
+      <c r="T76" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="V76" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="V76" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="W76" s="5"/>
-    </row>
-    <row r="77" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W76" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="X76" s="5"/>
+    </row>
+    <row r="77" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="6"/>
       <c r="B77" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E77" s="2">
         <v>1</v>
@@ -5406,33 +5552,34 @@
         <v>20</v>
       </c>
       <c r="M77" s="4"/>
-      <c r="N77" s="2">
+      <c r="N77" s="4"/>
+      <c r="O77" s="2">
         <v>0.4</v>
       </c>
-      <c r="O77" s="2">
-        <v>1</v>
-      </c>
       <c r="P77" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q77" s="2">
         <v>0.3</v>
       </c>
-      <c r="R77" s="2">
+      <c r="S77" s="2">
         <v>10</v>
       </c>
-      <c r="T77" s="2">
+      <c r="U77" s="2">
         <v>10</v>
       </c>
-      <c r="U77" s="5" t="s">
-        <v>334</v>
-      </c>
       <c r="V77" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="W77" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="W77" s="5"/>
-    </row>
-    <row r="78" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X77" s="5"/>
+    </row>
+    <row r="78" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="6"/>
       <c r="B78" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E78" s="2">
         <v>1</v>
@@ -5455,33 +5602,34 @@
       <c r="M78" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="N78" s="2">
+      <c r="N78" s="4"/>
+      <c r="O78" s="2">
         <v>0.2</v>
       </c>
-      <c r="O78" s="2">
+      <c r="P78" s="2">
         <v>0.6</v>
       </c>
-      <c r="P78" s="2">
+      <c r="Q78" s="2">
         <v>0.2</v>
       </c>
-      <c r="R78" s="2">
+      <c r="S78" s="2">
         <v>10</v>
       </c>
-      <c r="S78" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="U78" s="5" t="s">
+      <c r="T78" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="V78" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="V78" s="5" t="s">
+      <c r="W78" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="W78" s="5"/>
-    </row>
-    <row r="79" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X78" s="5"/>
+    </row>
+    <row r="79" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="6"/>
       <c r="B79" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E79" s="2">
         <v>1</v>
@@ -5505,32 +5653,33 @@
         <v>20</v>
       </c>
       <c r="M79" s="4"/>
-      <c r="N79" s="2">
+      <c r="N79" s="4"/>
+      <c r="O79" s="2">
         <v>0.3</v>
       </c>
-      <c r="O79" s="2">
-        <v>1</v>
-      </c>
       <c r="P79" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q79" s="2">
         <v>0.3</v>
       </c>
-      <c r="R79" s="2">
+      <c r="S79" s="2">
         <v>10</v>
       </c>
-      <c r="S79" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="U79" s="5" t="s">
-        <v>335</v>
+      <c r="T79" s="2" t="s">
+        <v>319</v>
       </c>
       <c r="V79" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="W79" s="5"/>
-    </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.2">
+        <v>333</v>
+      </c>
+      <c r="W79" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="X79" s="5"/>
+    </row>
+    <row r="80" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B80" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F80" s="1">
         <v>1</v>
@@ -5553,28 +5702,28 @@
       <c r="M80" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="N80" s="1">
+      <c r="O80" s="1">
         <v>0.6</v>
       </c>
-      <c r="O80" s="1">
-        <v>1</v>
-      </c>
       <c r="P80" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q80" s="1">
         <v>0.5</v>
       </c>
-      <c r="R80" s="1">
+      <c r="S80" s="1">
         <v>20</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>30</v>
       </c>
-      <c r="V80" s="5" t="s">
+      <c r="W80" s="5" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="81" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B81" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F81" s="2">
         <v>1</v>
@@ -5597,38 +5746,40 @@
       <c r="M81" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="N81" s="2">
+      <c r="N81" s="4"/>
+      <c r="O81" s="2">
         <v>0.6</v>
       </c>
-      <c r="O81" s="2">
-        <v>1</v>
-      </c>
       <c r="P81" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q81" s="2">
         <v>0.5</v>
       </c>
-      <c r="R81" s="2">
+      <c r="S81" s="2">
         <v>20</v>
       </c>
-      <c r="S81" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="U81" s="5" t="s">
+      <c r="T81" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="V81" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="V81" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="W81" s="5"/>
-    </row>
-    <row r="82" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W81" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="X81" s="5"/>
+    </row>
+    <row r="82" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G82" s="3"/>
       <c r="K82" s="3"/>
       <c r="M82" s="4"/>
-      <c r="U82" s="17"/>
-      <c r="V82" s="5"/>
+      <c r="N82" s="4"/>
+      <c r="V82" s="17"/>
       <c r="W82" s="5"/>
-    </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="5"/>
+    </row>
+    <row r="83" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
         <v>22</v>
       </c>
@@ -5656,26 +5807,26 @@
       <c r="M83" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="N83" s="1">
+      <c r="O83" s="1">
         <v>0.9</v>
       </c>
-      <c r="O83" s="1">
+      <c r="P83" s="1">
         <v>2</v>
       </c>
-      <c r="P83" s="1">
+      <c r="Q83" s="1">
         <v>0.5</v>
       </c>
-      <c r="R83" s="1">
+      <c r="S83" s="1">
         <v>20</v>
       </c>
-      <c r="U83" s="17" t="s">
+      <c r="V83" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="V83" s="5" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W83" s="5" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="84" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B84" s="1" t="s">
         <v>53</v>
       </c>
@@ -5694,25 +5845,25 @@
       <c r="M84" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="N84" s="1">
+      <c r="O84" s="1">
         <v>0.4</v>
       </c>
-      <c r="O84" s="1">
-        <v>1</v>
-      </c>
       <c r="P84" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q84" s="1">
         <v>0.3</v>
       </c>
-      <c r="R84" s="1">
+      <c r="S84" s="1">
         <v>15</v>
       </c>
-      <c r="V84" s="5" t="s">
+      <c r="W84" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B85" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E85" s="1">
         <v>1</v>
@@ -5732,25 +5883,25 @@
       <c r="K85" s="3">
         <v>70</v>
       </c>
-      <c r="N85" s="1">
+      <c r="O85" s="1">
         <v>0.3</v>
       </c>
-      <c r="O85" s="1">
-        <v>1</v>
-      </c>
       <c r="P85" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q85" s="1">
         <v>0.3</v>
       </c>
-      <c r="R85" s="1">
+      <c r="S85" s="1">
         <v>10</v>
       </c>
-      <c r="V85" s="5" t="s">
+      <c r="W85" s="5" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B86" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E86" s="1">
         <v>1</v>
@@ -5773,25 +5924,25 @@
       <c r="M86" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="N86" s="1">
+      <c r="O86" s="1">
         <v>0.3</v>
       </c>
-      <c r="O86" s="1">
-        <v>1</v>
-      </c>
       <c r="P86" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q86" s="1">
         <v>0.3</v>
       </c>
-      <c r="R86" s="1">
+      <c r="S86" s="1">
         <v>10</v>
       </c>
-      <c r="V86" s="5" t="s">
+      <c r="W86" s="5" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B87" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E87" s="1">
         <v>1</v>
@@ -5811,25 +5962,25 @@
       <c r="K87" s="3">
         <v>90</v>
       </c>
-      <c r="N87" s="1">
+      <c r="O87" s="1">
         <v>0.4</v>
       </c>
-      <c r="O87" s="1">
-        <v>1</v>
-      </c>
       <c r="P87" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q87" s="1">
         <v>0.4</v>
       </c>
-      <c r="R87" s="2">
+      <c r="S87" s="2">
         <v>10</v>
       </c>
-      <c r="V87" s="5" t="s">
+      <c r="W87" s="5" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B88" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E88" s="1">
         <v>1</v>
@@ -5849,26 +6000,26 @@
       <c r="K88" s="3">
         <v>80</v>
       </c>
-      <c r="N88" s="2">
+      <c r="O88" s="2">
         <v>0.3</v>
       </c>
-      <c r="O88" s="2">
-        <v>1</v>
-      </c>
       <c r="P88" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q88" s="2">
         <v>0.3</v>
       </c>
-      <c r="Q88" s="2"/>
-      <c r="R88" s="2">
+      <c r="R88" s="2"/>
+      <c r="S88" s="2">
         <v>10</v>
       </c>
-      <c r="V88" s="5" t="s">
+      <c r="W88" s="5" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B89" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E89" s="1">
         <v>1</v>
@@ -5885,28 +6036,28 @@
       <c r="K89" s="3">
         <v>50</v>
       </c>
-      <c r="N89" s="1">
+      <c r="O89" s="1">
         <v>0.5</v>
       </c>
-      <c r="O89" s="1">
-        <v>1</v>
-      </c>
       <c r="P89" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q89" s="1">
         <v>0.4</v>
       </c>
-      <c r="Q89" s="1">
+      <c r="R89" s="1">
         <v>50</v>
       </c>
-      <c r="R89" s="1">
+      <c r="S89" s="1">
         <v>15</v>
       </c>
-      <c r="V89" s="5" t="s">
+      <c r="W89" s="5" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B90" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F90" s="1">
         <v>1</v>
@@ -5924,30 +6075,30 @@
         <v>120</v>
       </c>
       <c r="M90" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="N90" s="2">
+        <v>349</v>
+      </c>
+      <c r="O90" s="2">
         <v>0.6</v>
       </c>
-      <c r="O90" s="2">
-        <v>1</v>
-      </c>
       <c r="P90" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q90" s="2">
         <v>0.5</v>
       </c>
-      <c r="R90" s="1">
+      <c r="S90" s="1">
         <v>20</v>
       </c>
-      <c r="V90" s="5" t="s">
+      <c r="W90" s="5" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E92" s="1">
         <v>1</v>
@@ -5973,31 +6124,31 @@
       <c r="M92" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="N92" s="1">
+      <c r="O92" s="1">
         <v>0.3</v>
       </c>
-      <c r="O92" s="1">
-        <v>1</v>
-      </c>
       <c r="P92" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q92" s="1">
         <v>0.3</v>
-      </c>
-      <c r="Q92" s="1">
-        <v>10</v>
       </c>
       <c r="R92" s="1">
         <v>10</v>
       </c>
-      <c r="U92" s="5" t="s">
+      <c r="S92" s="1">
+        <v>10</v>
+      </c>
+      <c r="V92" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="V92" s="5" t="s">
+      <c r="W92" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B93" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D93" s="1">
         <v>1</v>
@@ -6020,13 +6171,13 @@
       <c r="J93" s="1">
         <v>1</v>
       </c>
-      <c r="U93" s="17" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="V93" s="17" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="94" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B94" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E94" s="1">
         <v>1</v>
@@ -6046,31 +6197,31 @@
       <c r="L94" s="1">
         <v>40</v>
       </c>
-      <c r="N94" s="1">
+      <c r="O94" s="1">
         <v>0.3</v>
       </c>
-      <c r="O94" s="1">
-        <v>1</v>
-      </c>
       <c r="P94" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q94" s="1">
         <v>0.4</v>
-      </c>
-      <c r="Q94" s="1">
-        <v>10</v>
       </c>
       <c r="R94" s="1">
         <v>10</v>
       </c>
-      <c r="U94" s="5" t="s">
-        <v>102</v>
+      <c r="S94" s="1">
+        <v>10</v>
       </c>
       <c r="V94" s="5" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W94" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="95" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B95" s="1" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E95" s="1">
         <v>1</v>
@@ -6093,28 +6244,28 @@
       <c r="L95" s="1">
         <v>30</v>
       </c>
-      <c r="N95" s="1">
+      <c r="O95" s="1">
         <v>0.3</v>
       </c>
-      <c r="O95" s="1">
-        <v>1</v>
-      </c>
       <c r="P95" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q95" s="1">
         <v>0.3</v>
       </c>
-      <c r="R95" s="1">
+      <c r="S95" s="1">
         <v>10</v>
-      </c>
-      <c r="U95" s="5" t="s">
-        <v>102</v>
       </c>
       <c r="V95" s="5" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W95" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="96" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B96" s="1" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E96" s="1">
         <v>1</v>
@@ -6137,42 +6288,43 @@
       <c r="L96" s="1">
         <v>40</v>
       </c>
-      <c r="N96" s="1">
+      <c r="O96" s="1">
         <v>0.3</v>
       </c>
-      <c r="O96" s="1">
-        <v>1</v>
-      </c>
       <c r="P96" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q96" s="1">
         <v>0.3</v>
       </c>
-      <c r="R96" s="1">
+      <c r="S96" s="1">
         <v>10</v>
-      </c>
-      <c r="U96" s="5" t="s">
-        <v>102</v>
       </c>
       <c r="V96" s="5" t="s">
         <v>102</v>
       </c>
+      <c r="W96" s="5" t="s">
+        <v>102</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="16">
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
     <mergeCell ref="S1:S2"/>
     <mergeCell ref="T1:T2"/>
     <mergeCell ref="U1:U2"/>
     <mergeCell ref="V1:V2"/>
     <mergeCell ref="W1:W2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="X1:X2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="K1:L1048576">
@@ -6189,7 +6341,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N74:P74">
+  <conditionalFormatting sqref="O74:Q74">
     <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="min"/>
@@ -6217,7 +6369,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N88:P88">
+  <conditionalFormatting sqref="O88:Q88">
     <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
@@ -6231,7 +6383,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N88:P88">
+  <conditionalFormatting sqref="O88:Q88">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
@@ -6245,7 +6397,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:P1048576">
+  <conditionalFormatting sqref="O1:Q1048576">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -6259,7 +6411,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N89:P1048576 N1:P73 N75:P87">
+  <conditionalFormatting sqref="O89:Q1048576 O1:Q73 O75:Q87">
     <cfRule type="dataBar" priority="12">
       <dataBar>
         <cfvo type="min"/>
@@ -6273,7 +6425,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N89:P1048576 N1:P87">
+  <conditionalFormatting sqref="O89:Q1048576 O1:Q87">
     <cfRule type="dataBar" priority="16">
       <dataBar>
         <cfvo type="min"/>
@@ -6312,7 +6464,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>N74:P74</xm:sqref>
+          <xm:sqref>O74:Q74</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{8F39C6AF-7810-461D-803D-2301BA1F8B2C}">
@@ -6334,7 +6486,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>N88:P88</xm:sqref>
+          <xm:sqref>O88:Q88</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{253B4FEF-62ED-4069-B410-D3421E5BC306}">
@@ -6345,7 +6497,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>N88:P88</xm:sqref>
+          <xm:sqref>O88:Q88</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{D95EFC06-6588-49E3-8AFB-05D9125C4D24}">
@@ -6356,7 +6508,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>N1:P1048576</xm:sqref>
+          <xm:sqref>O1:Q1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{C687EA02-BCFE-4B01-86A6-E7FAF1A19516}">
@@ -6367,7 +6519,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>N89:P1048576 N1:P73 N75:P87</xm:sqref>
+          <xm:sqref>O89:Q1048576 O1:Q73 O75:Q87</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{03FC7C04-3D28-4BBB-92C1-997DB4E2AA2D}">
@@ -6378,7 +6530,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>N89:P1048576 N1:P87</xm:sqref>
+          <xm:sqref>O89:Q1048576 O1:Q87</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -6391,10 +6543,10 @@
   <dimension ref="A1:I57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G23" sqref="G23"/>
+      <selection pane="bottomRight" activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6883,7 +7035,7 @@
         <v>272</v>
       </c>
       <c r="H35" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
@@ -6951,7 +7103,7 @@
         <v>24</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D41" s="8">
         <v>1</v>
@@ -6965,7 +7117,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B42" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D42" s="8">
         <v>1</v>
@@ -6976,10 +7128,10 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D44" s="8">
         <v>1</v>
@@ -6996,7 +7148,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B45" s="6" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D45" s="8">
         <v>1</v>
@@ -7007,7 +7159,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B46" s="6" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D46" s="8">
         <v>1</v>
@@ -7018,7 +7170,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B47" s="6" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D47" s="8">
         <v>1</v>
@@ -7038,7 +7190,7 @@
         <v>22</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D49" s="8">
         <v>1</v>
@@ -7047,7 +7199,7 @@
         <v>1</v>
       </c>
       <c r="G49" s="22" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="H49" s="25" t="s">
         <v>265</v>
@@ -7055,7 +7207,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B50" s="6" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D50" s="8">
         <v>1</v>
@@ -7064,7 +7216,7 @@
         <v>1</v>
       </c>
       <c r="G50" s="25" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="H50" t="s">
         <v>118</v>
@@ -7072,7 +7224,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B51" s="6" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D51" s="8">
         <v>1</v>
@@ -7084,7 +7236,7 @@
         <v>36</v>
       </c>
       <c r="G51" s="22" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="H51" t="s">
         <v>118</v>
@@ -7092,7 +7244,7 @@
     </row>
     <row r="52" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B52" s="6" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D52" s="8">
         <v>1</v>
@@ -7101,10 +7253,10 @@
         <v>1</v>
       </c>
       <c r="G52" s="22" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="H52" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
@@ -7123,7 +7275,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B54" s="6" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D54" s="8">
         <v>1</v>
@@ -7140,7 +7292,7 @@
         <v>29</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D56" s="8">
         <v>1</v>
@@ -7149,7 +7301,7 @@
         <v>1</v>
       </c>
       <c r="G56" s="22" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="H56" t="s">
         <v>102</v>
@@ -7157,7 +7309,7 @@
     </row>
     <row r="57" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B57" s="6" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D57" s="8">
         <v>1</v>
@@ -7166,7 +7318,7 @@
         <v>1</v>
       </c>
       <c r="G57" s="18" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
   </sheetData>
@@ -7182,11 +7334,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54D9C67E-4237-478B-81E0-48BC15B60241}">
   <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I14" sqref="I14"/>
+      <selection pane="bottomRight" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7656,16 +7808,16 @@
         <v>24</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D42" s="12">
         <v>10</v>
       </c>
       <c r="E42" s="19" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F42" s="22" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G42" t="s">
         <v>102</v>
@@ -7673,7 +7825,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B43" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D43" s="12">
         <v>6</v>
@@ -7685,12 +7837,12 @@
         <v>101</v>
       </c>
       <c r="H43" s="22" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B44" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D44" s="12">
         <v>8</v>
@@ -7704,7 +7856,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B45" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D45" s="12">
         <v>5</v>
@@ -7718,7 +7870,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B46" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D46" s="12">
         <v>5</v>
@@ -7732,24 +7884,24 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B47" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D47" s="12">
         <v>7</v>
       </c>
       <c r="F47" s="22" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G47" t="s">
         <v>101</v>
       </c>
       <c r="H47" s="22" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B48" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D48" s="12">
         <v>5</v>
@@ -7758,21 +7910,21 @@
         <v>36</v>
       </c>
       <c r="F48" s="22" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G48" t="s">
         <v>102</v>
       </c>
       <c r="H48" s="22" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D50" s="12">
         <v>5</v>
@@ -7783,7 +7935,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B51" s="6" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D51" s="12">
         <v>5</v>
@@ -7794,7 +7946,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B52" s="6" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D52" s="12">
         <v>5</v>
@@ -7808,7 +7960,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B53" s="6" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D53" s="12">
         <v>10</v>
@@ -7828,7 +7980,7 @@
         <v>22</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D55" s="12">
         <v>5</v>
@@ -7839,7 +7991,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B56" s="6" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D56" s="12">
         <v>10</v>
@@ -7853,7 +8005,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B57" s="6" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D57" s="12">
         <v>5</v>
@@ -7881,7 +8033,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B60" s="6" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D60" s="12">
         <v>5</v>
@@ -7890,7 +8042,7 @@
         <v>41</v>
       </c>
       <c r="F60" s="22" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G60" t="s">
         <v>102</v>
@@ -7898,7 +8050,7 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B61" s="6" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D61" s="12">
         <v>5</v>
@@ -7912,7 +8064,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B62" s="6" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D62" s="12">
         <v>5</v>
@@ -7924,10 +8076,10 @@
     </row>
     <row r="63" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B63" s="6" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="F63" s="18" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
   </sheetData>
@@ -7942,10 +8094,10 @@
   <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A48" sqref="A48"/>
+      <selection pane="bottomRight" activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8219,15 +8371,15 @@
         <v>24</v>
       </c>
       <c r="B32" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="D32" s="29" t="s">
         <v>293</v>
-      </c>
-      <c r="D32" s="29" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B33" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D33" s="29" t="s">
         <v>257</v>
@@ -8235,10 +8387,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B34" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="D34" s="29" t="s">
         <v>313</v>
-      </c>
-      <c r="D34" s="29" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -8246,15 +8398,15 @@
         <v>21</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D36" s="29" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B37" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D37" s="29" t="s">
         <v>257</v>
@@ -8262,10 +8414,10 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B38" s="6" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D38" s="28" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -8273,26 +8425,26 @@
         <v>22</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D40" s="28" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B41" s="6" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D41" s="29" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B42" s="6" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D42" s="29" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -8300,26 +8452,26 @@
         <v>29</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D44" s="29" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B45" s="6" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D45" s="29" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B46" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D46" s="29" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
   </sheetData>
@@ -8331,10 +8483,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3FDCBA0-BE27-412B-BDDC-A4596FFA7F45}">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8405,7 +8557,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -8422,7 +8574,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -8464,7 +8616,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -8503,7 +8655,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -8514,7 +8666,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -8531,6 +8683,26 @@
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>401</v>
       </c>
     </row>
   </sheetData>

--- a/plan/招式.xlsx
+++ b/plan/招式.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\pealpool.github.io\plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F7C6F15-D783-4D43-AC62-C3672ED921E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{574EEE59-D944-4DF1-AF13-E36FEDF68FB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" xr2:uid="{07694949-CE91-4AC6-84BF-EA7187E3619C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" activeTab="3" xr2:uid="{07694949-CE91-4AC6-84BF-EA7187E3619C}"/>
   </bookViews>
   <sheets>
     <sheet name="攻击" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="410">
   <si>
     <t>派别</t>
   </si>
@@ -1660,6 +1660,14 @@
   </si>
   <si>
     <t>+100%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+15%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+8%</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1838,10 +1846,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
@@ -2171,11 +2179,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{897EE391-4514-4BBB-B5AB-BFD81F1FD685}">
   <dimension ref="A1:X96"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="D45" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="D66" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="V60" sqref="V60"/>
+      <selection pane="bottomRight" activeCell="O98" sqref="O98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2204,57 +2212,57 @@
       <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
       <c r="G1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
       <c r="K1" s="33" t="s">
         <v>395</v>
       </c>
-      <c r="L1" s="31" t="s">
+      <c r="L1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="32" t="s">
+      <c r="M1" s="31" t="s">
         <v>396</v>
       </c>
-      <c r="N1" s="32" t="s">
+      <c r="N1" s="31" t="s">
         <v>406</v>
       </c>
-      <c r="O1" s="31" t="s">
+      <c r="O1" s="32" t="s">
         <v>397</v>
       </c>
-      <c r="P1" s="31" t="s">
+      <c r="P1" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" s="31" t="s">
+      <c r="Q1" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="R1" s="31" t="s">
+      <c r="R1" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="S1" s="31" t="s">
+      <c r="S1" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="T1" s="31" t="s">
+      <c r="T1" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="U1" s="31" t="s">
+      <c r="U1" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="V1" s="32" t="s">
+      <c r="V1" s="31" t="s">
         <v>278</v>
       </c>
-      <c r="W1" s="31" t="s">
+      <c r="W1" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="X1" s="31" t="s">
+      <c r="X1" s="32" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2281,19 +2289,19 @@
         <v>7</v>
       </c>
       <c r="K2" s="33"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="31"/>
-      <c r="V2" s="32"/>
-      <c r="W2" s="31"/>
-      <c r="X2" s="31"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="31"/>
+      <c r="W2" s="32"/>
+      <c r="X2" s="32"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -4254,6 +4262,9 @@
       <c r="L48" s="1">
         <v>20</v>
       </c>
+      <c r="N48" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="O48" s="1">
         <v>0.3</v>
       </c>
@@ -4343,7 +4354,9 @@
         <v>80</v>
       </c>
       <c r="M50" s="4"/>
-      <c r="N50" s="4"/>
+      <c r="N50" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="O50" s="2">
         <v>0.3</v>
       </c>
@@ -4575,7 +4588,9 @@
       <c r="M56" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="N56" s="4"/>
+      <c r="N56" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="O56" s="2">
         <v>0.3</v>
       </c>
@@ -4971,7 +4986,9 @@
       <c r="M65" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="N65" s="4"/>
+      <c r="N65" s="4" t="s">
+        <v>407</v>
+      </c>
       <c r="O65" s="2">
         <v>0.4</v>
       </c>
@@ -5171,7 +5188,9 @@
         <v>30</v>
       </c>
       <c r="M69" s="4"/>
-      <c r="N69" s="4"/>
+      <c r="N69" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="O69" s="2">
         <v>0.3</v>
       </c>
@@ -5225,7 +5244,9 @@
         <v>60</v>
       </c>
       <c r="M70" s="4"/>
-      <c r="N70" s="4"/>
+      <c r="N70" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="O70" s="2">
         <v>0.3</v>
       </c>
@@ -5281,7 +5302,9 @@
       <c r="M71" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="N71" s="4"/>
+      <c r="N71" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="O71" s="2">
         <v>0.5</v>
       </c>
@@ -5501,7 +5524,9 @@
         <v>10</v>
       </c>
       <c r="M76" s="4"/>
-      <c r="N76" s="4"/>
+      <c r="N76" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="O76" s="2">
         <v>0.3</v>
       </c>
@@ -5602,7 +5627,9 @@
       <c r="M78" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="N78" s="4"/>
+      <c r="N78" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="O78" s="2">
         <v>0.2</v>
       </c>
@@ -6124,6 +6151,9 @@
       <c r="M92" s="4" t="s">
         <v>41</v>
       </c>
+      <c r="N92" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="O92" s="1">
         <v>0.3</v>
       </c>
@@ -6197,6 +6227,9 @@
       <c r="L94" s="1">
         <v>40</v>
       </c>
+      <c r="M94" s="4" t="s">
+        <v>408</v>
+      </c>
       <c r="O94" s="1">
         <v>0.3</v>
       </c>
@@ -6244,6 +6277,9 @@
       <c r="L95" s="1">
         <v>30</v>
       </c>
+      <c r="N95" s="4" t="s">
+        <v>408</v>
+      </c>
       <c r="O95" s="1">
         <v>0.3</v>
       </c>
@@ -6288,6 +6324,12 @@
       <c r="L96" s="1">
         <v>40</v>
       </c>
+      <c r="M96" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="N96" s="4" t="s">
+        <v>409</v>
+      </c>
       <c r="O96" s="1">
         <v>0.3</v>
       </c>
@@ -6309,22 +6351,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="S1:S2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="M1:M2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="W1:W2"/>
-    <mergeCell ref="X1:X2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="K1:L1048576">
@@ -8093,11 +8135,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60A858D4-5BEF-44D4-8A9F-866174BC0619}">
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E34" sqref="E34"/>
+      <selection pane="bottomRight" activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8486,7 +8528,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/plan/招式.xlsx
+++ b/plan/招式.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22307"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\pealpool.github.io\plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{574EEE59-D944-4DF1-AF13-E36FEDF68FB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0B84029-B9AA-4F69-B69C-F9F76D03D6DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" activeTab="3" xr2:uid="{07694949-CE91-4AC6-84BF-EA7187E3619C}"/>
+    <workbookView xWindow="6270" yWindow="3210" windowWidth="18390" windowHeight="12165" activeTab="2" xr2:uid="{07694949-CE91-4AC6-84BF-EA7187E3619C}"/>
   </bookViews>
   <sheets>
     <sheet name="攻击" sheetId="2" r:id="rId1"/>
@@ -1846,10 +1846,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
@@ -2212,57 +2212,57 @@
       <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
       <c r="G1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
       <c r="K1" s="33" t="s">
         <v>395</v>
       </c>
-      <c r="L1" s="32" t="s">
+      <c r="L1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="31" t="s">
+      <c r="M1" s="32" t="s">
         <v>396</v>
       </c>
-      <c r="N1" s="31" t="s">
+      <c r="N1" s="32" t="s">
         <v>406</v>
       </c>
-      <c r="O1" s="32" t="s">
+      <c r="O1" s="31" t="s">
         <v>397</v>
       </c>
-      <c r="P1" s="32" t="s">
+      <c r="P1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" s="32" t="s">
+      <c r="Q1" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="R1" s="32" t="s">
+      <c r="R1" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="S1" s="32" t="s">
+      <c r="S1" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="T1" s="32" t="s">
+      <c r="T1" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="U1" s="32" t="s">
+      <c r="U1" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="V1" s="31" t="s">
+      <c r="V1" s="32" t="s">
         <v>278</v>
       </c>
-      <c r="W1" s="32" t="s">
+      <c r="W1" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="X1" s="32" t="s">
+      <c r="X1" s="31" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2289,19 +2289,19 @@
         <v>7</v>
       </c>
       <c r="K2" s="33"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="31"/>
-      <c r="W2" s="32"/>
-      <c r="X2" s="32"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="32"/>
+      <c r="W2" s="31"/>
+      <c r="X2" s="31"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -6351,22 +6351,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="W1:W2"/>
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="S1:S2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="M1:M2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="X1:X2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="K1:L1048576">
@@ -7376,11 +7376,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54D9C67E-4237-478B-81E0-48BC15B60241}">
   <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H7" sqref="H7"/>
+      <selection pane="bottomRight" activeCell="G70" sqref="G70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8135,11 +8135,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60A858D4-5BEF-44D4-8A9F-866174BC0619}">
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H26" sqref="H26"/>
+      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/plan/招式.xlsx
+++ b/plan/招式.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\pealpool.github.io\plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0B84029-B9AA-4F69-B69C-F9F76D03D6DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7F00E61-3768-4C6A-9DEF-ED2BBC634B94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6270" yWindow="3210" windowWidth="18390" windowHeight="12165" activeTab="2" xr2:uid="{07694949-CE91-4AC6-84BF-EA7187E3619C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{07694949-CE91-4AC6-84BF-EA7187E3619C}"/>
   </bookViews>
   <sheets>
     <sheet name="攻击" sheetId="2" r:id="rId1"/>
@@ -164,10 +164,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>耐力伤害</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>耐力消耗</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1668,6 +1664,10 @@
   </si>
   <si>
     <t>+8%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内力伤害</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1846,10 +1846,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
@@ -2179,11 +2179,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{897EE391-4514-4BBB-B5AB-BFD81F1FD685}">
   <dimension ref="A1:X96"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="D66" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="D45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O98" sqref="O98"/>
+      <selection pane="bottomRight" activeCell="V32" sqref="V32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2212,63 +2212,63 @@
       <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
       <c r="G1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
       <c r="K1" s="33" t="s">
+        <v>394</v>
+      </c>
+      <c r="L1" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="31" t="s">
         <v>395</v>
       </c>
-      <c r="L1" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="M1" s="32" t="s">
+      <c r="N1" s="31" t="s">
+        <v>405</v>
+      </c>
+      <c r="O1" s="32" t="s">
         <v>396</v>
       </c>
-      <c r="N1" s="32" t="s">
-        <v>406</v>
-      </c>
-      <c r="O1" s="31" t="s">
-        <v>397</v>
-      </c>
-      <c r="P1" s="31" t="s">
+      <c r="P1" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" s="31" t="s">
+      <c r="Q1" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="R1" s="31" t="s">
+      <c r="R1" s="32" t="s">
+        <v>409</v>
+      </c>
+      <c r="S1" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="S1" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="T1" s="31" t="s">
+      <c r="T1" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="U1" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="U1" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="V1" s="32" t="s">
-        <v>278</v>
-      </c>
-      <c r="W1" s="31" t="s">
+      <c r="V1" s="31" t="s">
+        <v>277</v>
+      </c>
+      <c r="W1" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="X1" s="31" t="s">
-        <v>38</v>
+      <c r="X1" s="32" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:24" s="14" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="D2" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>6</v>
@@ -2289,19 +2289,19 @@
         <v>7</v>
       </c>
       <c r="K2" s="33"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="31"/>
-      <c r="V2" s="32"/>
-      <c r="W2" s="31"/>
-      <c r="X2" s="31"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="31"/>
+      <c r="W2" s="32"/>
+      <c r="X2" s="32"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -2329,10 +2329,10 @@
         <v>90</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O3" s="1">
         <v>0.3</v>
@@ -2347,12 +2347,12 @@
         <v>10</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E4" s="2">
         <v>1</v>
@@ -2376,7 +2376,7 @@
         <v>70</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N4" s="4"/>
       <c r="O4" s="2">
@@ -2393,13 +2393,13 @@
       </c>
       <c r="V4" s="17"/>
       <c r="W4" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X4" s="5"/>
     </row>
     <row r="5" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E5" s="2">
         <v>1</v>
@@ -2438,13 +2438,13 @@
       </c>
       <c r="V5" s="17"/>
       <c r="W5" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="X5" s="5"/>
     </row>
     <row r="6" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E6" s="2">
         <v>1</v>
@@ -2466,10 +2466,10 @@
         <v>150</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O6" s="2">
         <v>0.6</v>
@@ -2485,13 +2485,13 @@
       </c>
       <c r="V6" s="17"/>
       <c r="W6" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="X6" s="5"/>
     </row>
     <row r="7" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E7" s="2">
         <v>1</v>
@@ -2530,13 +2530,13 @@
       </c>
       <c r="V7" s="17"/>
       <c r="W7" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="X7" s="5"/>
     </row>
     <row r="8" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E8" s="2">
         <v>1</v>
@@ -2555,7 +2555,7 @@
         <v>120</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N8" s="4"/>
       <c r="O8" s="2">
@@ -2572,13 +2572,13 @@
       </c>
       <c r="V8" s="17"/>
       <c r="W8" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="X8" s="5"/>
     </row>
     <row r="9" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F9" s="2">
         <v>1</v>
@@ -2602,7 +2602,7 @@
         <v>60</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N9" s="4"/>
       <c r="O9" s="2">
@@ -2619,13 +2619,13 @@
       </c>
       <c r="V9" s="17"/>
       <c r="W9" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="X9" s="5"/>
     </row>
     <row r="10" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E10" s="2">
         <v>1</v>
@@ -2647,7 +2647,7 @@
         <v>180</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N10" s="4"/>
       <c r="O10" s="2">
@@ -2664,7 +2664,7 @@
       </c>
       <c r="V10" s="17"/>
       <c r="W10" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="X10" s="5"/>
     </row>
@@ -2682,7 +2682,7 @@
         <v>27</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
@@ -2703,7 +2703,7 @@
         <v>140</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O12" s="1">
         <v>0.3</v>
@@ -2718,12 +2718,12 @@
         <v>15</v>
       </c>
       <c r="W12" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E13" s="2">
         <v>1</v>
@@ -2762,13 +2762,13 @@
       </c>
       <c r="V13" s="17"/>
       <c r="W13" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="X13" s="5"/>
     </row>
     <row r="14" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E14" s="2">
         <v>1</v>
@@ -2804,13 +2804,13 @@
       </c>
       <c r="V14" s="17"/>
       <c r="W14" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="X14" s="5"/>
     </row>
     <row r="15" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E15" s="2">
         <v>1</v>
@@ -2834,10 +2834,10 @@
         <v>10</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O15" s="2">
         <v>0.2</v>
@@ -2853,13 +2853,13 @@
       </c>
       <c r="V15" s="17"/>
       <c r="W15" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="X15" s="5"/>
     </row>
     <row r="16" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E16" s="2">
         <v>1</v>
@@ -2895,13 +2895,13 @@
       </c>
       <c r="V16" s="17"/>
       <c r="W16" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="X16" s="5"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F17" s="1">
         <v>1</v>
@@ -2922,7 +2922,7 @@
         <v>210</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O17" s="1">
         <v>0.6</v>
@@ -2937,12 +2937,12 @@
         <v>20</v>
       </c>
       <c r="W17" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F18" s="2">
         <v>1</v>
@@ -2964,7 +2964,7 @@
         <v>20</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N18" s="4"/>
       <c r="O18" s="2">
@@ -2981,13 +2981,13 @@
       </c>
       <c r="V18" s="17"/>
       <c r="W18" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="X18" s="5"/>
     </row>
     <row r="19" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E19" s="2">
         <v>1</v>
@@ -3006,7 +3006,7 @@
         <v>100</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N19" s="4"/>
       <c r="O19" s="2">
@@ -3023,16 +3023,16 @@
       </c>
       <c r="V19" s="17"/>
       <c r="W19" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="X19" s="5"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
@@ -3053,7 +3053,7 @@
         <v>100</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O21" s="1">
         <v>0.3</v>
@@ -3068,18 +3068,18 @@
         <v>10</v>
       </c>
       <c r="T21" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="V21" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="V21" s="5" t="s">
-        <v>245</v>
-      </c>
       <c r="W21" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -3102,10 +3102,10 @@
       </c>
       <c r="L22" s="2"/>
       <c r="M22" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O22" s="2">
         <v>0.3</v>
@@ -3121,12 +3121,12 @@
         <v>10</v>
       </c>
       <c r="W22" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="23" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E23" s="2">
         <v>1</v>
@@ -3147,7 +3147,7 @@
         <v>100</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N23" s="4"/>
       <c r="O23" s="2">
@@ -3163,21 +3163,21 @@
         <v>15</v>
       </c>
       <c r="T23" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="V23" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="V23" s="5" t="s">
-        <v>245</v>
-      </c>
       <c r="W23" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X23" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E24" s="2">
         <v>1</v>
@@ -3189,7 +3189,7 @@
         <v>70</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N24" s="4"/>
       <c r="O24" s="2">
@@ -3205,16 +3205,16 @@
         <v>10</v>
       </c>
       <c r="V24" s="17" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="W24" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="X24" s="5"/>
     </row>
     <row r="25" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E25" s="2">
         <v>1</v>
@@ -3226,7 +3226,7 @@
         <v>90</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N25" s="4"/>
       <c r="O25" s="2">
@@ -3246,13 +3246,13 @@
       </c>
       <c r="V25" s="17"/>
       <c r="W25" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="X25" s="5"/>
     </row>
     <row r="26" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E26" s="2">
         <v>1</v>
@@ -3265,7 +3265,7 @@
         <v>120</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N26" s="4"/>
       <c r="O26" s="2">
@@ -3281,19 +3281,19 @@
         <v>15</v>
       </c>
       <c r="T26" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="V26" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="V26" s="5" t="s">
-        <v>245</v>
-      </c>
       <c r="W26" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="X26" s="5"/>
     </row>
     <row r="27" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F27" s="2">
         <v>1</v>
@@ -3329,13 +3329,13 @@
       </c>
       <c r="V27" s="17"/>
       <c r="W27" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="X27" s="5"/>
     </row>
     <row r="28" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -3361,7 +3361,7 @@
       <c r="L28" s="1"/>
       <c r="M28" s="4"/>
       <c r="N28" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O28" s="1">
         <v>0.5</v>
@@ -3378,17 +3378,17 @@
       </c>
       <c r="V28" s="17"/>
       <c r="W28" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="X28" s="5"/>
     </row>
     <row r="30" spans="1:24" ht="57" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="E30" s="1">
         <v>1</v>
       </c>
@@ -3402,10 +3402,10 @@
         <v>1</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N30" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="O30" s="1">
         <v>0.5</v>
@@ -3426,15 +3426,15 @@
         <v>15</v>
       </c>
       <c r="V30" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="W30" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E31" s="1">
         <v>1</v>
@@ -3473,15 +3473,15 @@
         <v>30</v>
       </c>
       <c r="V31" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="W31" s="5" t="s">
         <v>247</v>
-      </c>
-      <c r="W31" s="5" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="32" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E32" s="2">
         <v>1</v>
@@ -3503,7 +3503,7 @@
         <v>30</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N32" s="4"/>
       <c r="O32" s="2">
@@ -3522,16 +3522,16 @@
         <v>15</v>
       </c>
       <c r="V32" s="17" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="W32" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="X32" s="5"/>
     </row>
     <row r="33" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E33" s="2">
         <v>1</v>
@@ -3555,7 +3555,7 @@
         <v>20</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N33" s="4"/>
       <c r="O33" s="2">
@@ -3574,16 +3574,16 @@
         <v>20</v>
       </c>
       <c r="V33" s="17" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="W33" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="X33" s="5"/>
     </row>
     <row r="34" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F34" s="2">
         <v>1</v>
@@ -3608,7 +3608,7 @@
       </c>
       <c r="M34" s="4"/>
       <c r="N34" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O34" s="2">
         <v>0.6</v>
@@ -3626,16 +3626,16 @@
         <v>15</v>
       </c>
       <c r="V34" s="17" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="W34" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="X34" s="5"/>
     </row>
     <row r="35" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E35" s="2">
         <v>1</v>
@@ -3657,7 +3657,7 @@
         <v>40</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N35" s="4"/>
       <c r="O35" s="2">
@@ -3676,16 +3676,16 @@
         <v>20</v>
       </c>
       <c r="V35" s="17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="W35" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="X35" s="5"/>
     </row>
     <row r="36" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E36" s="2">
         <v>1</v>
@@ -3704,10 +3704,10 @@
       </c>
       <c r="K36" s="3"/>
       <c r="M36" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N36" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="O36" s="2">
         <v>0.4</v>
@@ -3725,10 +3725,10 @@
         <v>25</v>
       </c>
       <c r="V36" s="17" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="W36" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="X36" s="5"/>
     </row>
@@ -3746,7 +3746,7 @@
         <v>25</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -3773,7 +3773,7 @@
         <v>30</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O38" s="2">
         <v>0.3</v>
@@ -3789,19 +3789,19 @@
         <v>10</v>
       </c>
       <c r="V38" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W38" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="X38" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="39" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="6"/>
       <c r="B39" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E39" s="2">
         <v>1</v>
@@ -3825,7 +3825,7 @@
         <v>70</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N39" s="4"/>
       <c r="O39" s="2">
@@ -3844,19 +3844,19 @@
         <v>15</v>
       </c>
       <c r="V39" s="17" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W39" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="X39" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="40" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="6"/>
       <c r="B40" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E40" s="2">
         <v>1</v>
@@ -3880,10 +3880,10 @@
         <v>40</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O40" s="2">
         <v>0.3</v>
@@ -3901,19 +3901,19 @@
         <v>10</v>
       </c>
       <c r="V40" s="17" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="W40" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="X40" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="41" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="6"/>
       <c r="B41" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E41" s="2">
         <v>1</v>
@@ -3937,7 +3937,7 @@
         <v>20</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N41" s="4"/>
       <c r="O41" s="2">
@@ -3956,19 +3956,19 @@
         <v>15</v>
       </c>
       <c r="V41" s="17" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W41" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="X41" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="42" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="6"/>
       <c r="B42" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E42" s="2">
         <v>1</v>
@@ -3992,10 +3992,10 @@
         <v>50</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N42" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O42" s="2">
         <v>0.3</v>
@@ -4013,19 +4013,19 @@
         <v>10</v>
       </c>
       <c r="V42" s="17" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="W42" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X42" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="43" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="6"/>
       <c r="B43" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -4051,7 +4051,7 @@
         <v>30</v>
       </c>
       <c r="M43" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N43" s="4"/>
       <c r="O43" s="1">
@@ -4070,18 +4070,18 @@
         <v>10</v>
       </c>
       <c r="V43" s="17" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="W43" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="X43" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B44" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -4108,10 +4108,10 @@
         <v>40</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N44" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O44" s="2">
         <v>0.3</v>
@@ -4129,18 +4129,18 @@
         <v>10</v>
       </c>
       <c r="V44" s="17" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="W44" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="X44" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="45" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E45" s="2">
         <v>1</v>
@@ -4164,7 +4164,7 @@
         <v>30</v>
       </c>
       <c r="M45" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N45" s="4"/>
       <c r="O45" s="2">
@@ -4181,10 +4181,10 @@
       </c>
       <c r="V45" s="17"/>
       <c r="W45" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="X45" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="47" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4192,7 +4192,7 @@
         <v>28</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E47" s="2">
         <v>1</v>
@@ -4216,7 +4216,7 @@
         <v>60</v>
       </c>
       <c r="M47" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N47" s="4"/>
       <c r="O47" s="2">
@@ -4233,13 +4233,13 @@
       </c>
       <c r="V47" s="17"/>
       <c r="W47" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="X47" s="5"/>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E48" s="1">
         <v>1</v>
@@ -4263,7 +4263,7 @@
         <v>20</v>
       </c>
       <c r="N48" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O48" s="1">
         <v>0.3</v>
@@ -4278,12 +4278,12 @@
         <v>10</v>
       </c>
       <c r="W48" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="49" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E49" s="2">
         <v>1</v>
@@ -4307,7 +4307,7 @@
         <v>80</v>
       </c>
       <c r="M49" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N49" s="4"/>
       <c r="O49" s="2">
@@ -4324,13 +4324,13 @@
       </c>
       <c r="V49" s="17"/>
       <c r="W49" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="X49" s="5"/>
     </row>
     <row r="50" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E50" s="2">
         <v>1</v>
@@ -4355,7 +4355,7 @@
       </c>
       <c r="M50" s="4"/>
       <c r="N50" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O50" s="2">
         <v>0.3</v>
@@ -4371,13 +4371,13 @@
       </c>
       <c r="V50" s="17"/>
       <c r="W50" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="X50" s="5"/>
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E51" s="1">
         <v>1</v>
@@ -4413,12 +4413,12 @@
         <v>10</v>
       </c>
       <c r="W51" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="52" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E52" s="2">
         <v>1</v>
@@ -4442,7 +4442,7 @@
         <v>80</v>
       </c>
       <c r="M52" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N52" s="4"/>
       <c r="O52" s="2">
@@ -4459,13 +4459,13 @@
       </c>
       <c r="V52" s="17"/>
       <c r="W52" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="X52" s="5"/>
     </row>
     <row r="53" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B53" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F53" s="2">
         <v>1</v>
@@ -4489,7 +4489,7 @@
         <v>80</v>
       </c>
       <c r="M53" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N53" s="4"/>
       <c r="O53" s="2">
@@ -4506,13 +4506,13 @@
       </c>
       <c r="V53" s="17"/>
       <c r="W53" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="X53" s="5"/>
     </row>
     <row r="54" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B54" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F54" s="2">
         <v>1</v>
@@ -4536,7 +4536,7 @@
         <v>130</v>
       </c>
       <c r="M54" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N54" s="4"/>
       <c r="O54" s="2">
@@ -4553,7 +4553,7 @@
       </c>
       <c r="V54" s="17"/>
       <c r="W54" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="X54" s="5"/>
     </row>
@@ -4562,7 +4562,7 @@
         <v>18</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E56" s="2">
         <v>1</v>
@@ -4586,10 +4586,10 @@
         <v>30</v>
       </c>
       <c r="M56" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N56" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O56" s="2">
         <v>0.3</v>
@@ -4608,14 +4608,14 @@
       </c>
       <c r="V56" s="17"/>
       <c r="W56" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="X56" s="5"/>
     </row>
     <row r="57" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="6"/>
       <c r="B57" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E57" s="2">
         <v>1</v>
@@ -4657,14 +4657,14 @@
       </c>
       <c r="V57" s="17"/>
       <c r="W57" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X57" s="5"/>
     </row>
     <row r="58" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="6"/>
       <c r="B58" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F58" s="2">
         <v>1</v>
@@ -4686,7 +4686,7 @@
         <v>90</v>
       </c>
       <c r="M58" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N58" s="4"/>
       <c r="O58" s="2">
@@ -4706,13 +4706,13 @@
       </c>
       <c r="V58" s="17"/>
       <c r="W58" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="X58" s="5"/>
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B59" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F59" s="1">
         <v>1</v>
@@ -4736,7 +4736,7 @@
         <v>50</v>
       </c>
       <c r="M59" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O59" s="1">
         <v>0.6</v>
@@ -4754,13 +4754,13 @@
         <v>20</v>
       </c>
       <c r="W59" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="60" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="6"/>
       <c r="B60" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E60" s="2">
         <v>1</v>
@@ -4802,14 +4802,14 @@
       </c>
       <c r="V60" s="17"/>
       <c r="W60" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="X60" s="5"/>
     </row>
     <row r="61" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="6"/>
       <c r="B61" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E61" s="2">
         <v>1</v>
@@ -4850,17 +4850,17 @@
         <v>15</v>
       </c>
       <c r="V61" s="17" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="W61" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="X61" s="5"/>
     </row>
     <row r="62" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="6"/>
       <c r="B62" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E62" s="2">
         <v>1</v>
@@ -4902,14 +4902,14 @@
       </c>
       <c r="V62" s="17"/>
       <c r="W62" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="X62" s="5"/>
     </row>
     <row r="63" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="6"/>
       <c r="B63" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E63" s="2">
         <v>1</v>
@@ -4933,7 +4933,7 @@
         <v>60</v>
       </c>
       <c r="M63" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N63" s="4"/>
       <c r="O63" s="2">
@@ -4952,10 +4952,10 @@
         <v>20</v>
       </c>
       <c r="V63" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W63" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="X63" s="5"/>
     </row>
@@ -4974,7 +4974,7 @@
         <v>24</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E65" s="2">
         <v>1</v>
@@ -4984,10 +4984,10 @@
       </c>
       <c r="K65" s="3"/>
       <c r="M65" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N65" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="O65" s="2">
         <v>0.4</v>
@@ -5005,17 +5005,17 @@
         <v>25</v>
       </c>
       <c r="V65" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="W65" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="X65" s="5"/>
     </row>
     <row r="66" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="6"/>
       <c r="B66" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E66" s="2">
         <v>1</v>
@@ -5050,20 +5050,20 @@
         <v>10</v>
       </c>
       <c r="T66" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="V66" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="W66" s="5" t="s">
         <v>276</v>
-      </c>
-      <c r="V66" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="W66" s="5" t="s">
-        <v>277</v>
       </c>
       <c r="X66" s="5"/>
     </row>
     <row r="67" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="6"/>
       <c r="B67" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E67" s="2">
         <v>1</v>
@@ -5084,7 +5084,7 @@
         <v>30</v>
       </c>
       <c r="M67" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N67" s="4"/>
       <c r="O67" s="2">
@@ -5100,20 +5100,20 @@
         <v>15</v>
       </c>
       <c r="T67" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="V67" s="17" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="W67" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="X67" s="5"/>
     </row>
     <row r="68" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="6"/>
       <c r="B68" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E68" s="2">
         <v>1</v>
@@ -5154,17 +5154,17 @@
         <v>10</v>
       </c>
       <c r="V68" s="17" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W68" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="X68" s="5"/>
     </row>
     <row r="69" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="6"/>
       <c r="B69" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E69" s="2">
         <v>1</v>
@@ -5189,7 +5189,7 @@
       </c>
       <c r="M69" s="4"/>
       <c r="N69" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O69" s="2">
         <v>0.3</v>
@@ -5207,23 +5207,23 @@
         <v>10</v>
       </c>
       <c r="T69" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="U69" s="2">
         <v>20</v>
       </c>
       <c r="V69" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="W69" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="X69" s="5"/>
     </row>
     <row r="70" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="6"/>
       <c r="B70" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E70" s="2">
         <v>1</v>
@@ -5245,7 +5245,7 @@
       </c>
       <c r="M70" s="4"/>
       <c r="N70" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O70" s="2">
         <v>0.3</v>
@@ -5260,23 +5260,23 @@
         <v>10</v>
       </c>
       <c r="T70" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="U70" s="2">
         <v>20</v>
       </c>
       <c r="V70" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="W70" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="X70" s="5"/>
     </row>
     <row r="71" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="6"/>
       <c r="B71" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E71" s="2">
         <v>1</v>
@@ -5300,10 +5300,10 @@
         <v>10</v>
       </c>
       <c r="M71" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N71" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O71" s="2">
         <v>0.5</v>
@@ -5321,17 +5321,17 @@
         <v>10</v>
       </c>
       <c r="V71" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="W71" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="X71" s="5"/>
     </row>
     <row r="72" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="6"/>
       <c r="B72" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E72" s="2">
         <v>1</v>
@@ -5355,7 +5355,7 @@
         <v>20</v>
       </c>
       <c r="M72" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N72" s="4"/>
       <c r="O72" s="2">
@@ -5374,16 +5374,16 @@
         <v>20</v>
       </c>
       <c r="T72" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="U72" s="2">
         <v>30</v>
       </c>
       <c r="V72" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="W72" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="X72" s="5"/>
     </row>
@@ -5399,10 +5399,10 @@
     </row>
     <row r="74" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E74" s="2">
         <v>1</v>
@@ -5423,7 +5423,7 @@
         <v>10</v>
       </c>
       <c r="M74" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N74" s="4"/>
       <c r="O74" s="2">
@@ -5442,17 +5442,17 @@
         <v>25</v>
       </c>
       <c r="V74" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="W74" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="X74" s="5"/>
     </row>
     <row r="75" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="6"/>
       <c r="B75" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E75" s="2">
         <v>1</v>
@@ -5490,17 +5490,17 @@
         <v>10</v>
       </c>
       <c r="V75" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="W75" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="X75" s="5"/>
     </row>
     <row r="76" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="6"/>
       <c r="B76" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E76" s="2">
         <v>1</v>
@@ -5525,7 +5525,7 @@
       </c>
       <c r="M76" s="4"/>
       <c r="N76" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O76" s="2">
         <v>0.3</v>
@@ -5540,20 +5540,20 @@
         <v>10</v>
       </c>
       <c r="T76" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="V76" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="W76" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="X76" s="5"/>
     </row>
     <row r="77" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="6"/>
       <c r="B77" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E77" s="2">
         <v>1</v>
@@ -5594,17 +5594,17 @@
         <v>10</v>
       </c>
       <c r="V77" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="W77" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="X77" s="5"/>
     </row>
     <row r="78" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="6"/>
       <c r="B78" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E78" s="2">
         <v>1</v>
@@ -5625,10 +5625,10 @@
         <v>30</v>
       </c>
       <c r="M78" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N78" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O78" s="2">
         <v>0.2</v>
@@ -5643,20 +5643,20 @@
         <v>10</v>
       </c>
       <c r="T78" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="V78" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="W78" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="X78" s="5"/>
     </row>
     <row r="79" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="6"/>
       <c r="B79" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E79" s="2">
         <v>1</v>
@@ -5694,19 +5694,19 @@
         <v>10</v>
       </c>
       <c r="T79" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="V79" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="W79" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="X79" s="5"/>
     </row>
     <row r="80" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B80" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F80" s="1">
         <v>1</v>
@@ -5727,7 +5727,7 @@
         <v>80</v>
       </c>
       <c r="M80" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O80" s="1">
         <v>0.6</v>
@@ -5745,12 +5745,12 @@
         <v>30</v>
       </c>
       <c r="W80" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="81" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B81" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F81" s="2">
         <v>1</v>
@@ -5771,7 +5771,7 @@
         <v>80</v>
       </c>
       <c r="M81" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N81" s="4"/>
       <c r="O81" s="2">
@@ -5787,13 +5787,13 @@
         <v>20</v>
       </c>
       <c r="T81" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="V81" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="W81" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="X81" s="5"/>
     </row>
@@ -5811,7 +5811,7 @@
         <v>22</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D83" s="1">
         <v>1</v>
@@ -5832,7 +5832,7 @@
         <v>30</v>
       </c>
       <c r="M83" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O83" s="1">
         <v>0.9</v>
@@ -5847,15 +5847,15 @@
         <v>20</v>
       </c>
       <c r="V83" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="W83" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="84" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B84" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D84" s="1">
         <v>1</v>
@@ -5870,7 +5870,7 @@
         <v>80</v>
       </c>
       <c r="M84" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O84" s="1">
         <v>0.4</v>
@@ -5885,12 +5885,12 @@
         <v>15</v>
       </c>
       <c r="W84" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="85" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B85" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E85" s="1">
         <v>1</v>
@@ -5923,12 +5923,12 @@
         <v>10</v>
       </c>
       <c r="W85" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="86" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B86" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E86" s="1">
         <v>1</v>
@@ -5949,7 +5949,7 @@
         <v>70</v>
       </c>
       <c r="M86" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O86" s="1">
         <v>0.3</v>
@@ -5964,12 +5964,12 @@
         <v>10</v>
       </c>
       <c r="W86" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="87" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B87" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E87" s="1">
         <v>1</v>
@@ -6002,12 +6002,12 @@
         <v>10</v>
       </c>
       <c r="W87" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="88" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B88" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E88" s="1">
         <v>1</v>
@@ -6041,12 +6041,12 @@
         <v>10</v>
       </c>
       <c r="W88" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="89" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B89" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E89" s="1">
         <v>1</v>
@@ -6079,12 +6079,12 @@
         <v>15</v>
       </c>
       <c r="W89" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="90" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B90" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F90" s="1">
         <v>1</v>
@@ -6102,7 +6102,7 @@
         <v>120</v>
       </c>
       <c r="M90" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="O90" s="2">
         <v>0.6</v>
@@ -6117,7 +6117,7 @@
         <v>20</v>
       </c>
       <c r="W90" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="92" spans="1:24" x14ac:dyDescent="0.2">
@@ -6125,7 +6125,7 @@
         <v>29</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E92" s="1">
         <v>1</v>
@@ -6149,10 +6149,10 @@
         <v>30</v>
       </c>
       <c r="M92" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N92" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O92" s="1">
         <v>0.3</v>
@@ -6170,15 +6170,15 @@
         <v>10</v>
       </c>
       <c r="V92" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W92" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="93" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B93" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D93" s="1">
         <v>1</v>
@@ -6202,12 +6202,12 @@
         <v>1</v>
       </c>
       <c r="V93" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="94" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B94" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E94" s="1">
         <v>1</v>
@@ -6228,7 +6228,7 @@
         <v>40</v>
       </c>
       <c r="M94" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="O94" s="1">
         <v>0.3</v>
@@ -6246,15 +6246,15 @@
         <v>10</v>
       </c>
       <c r="V94" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="W94" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="95" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B95" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E95" s="1">
         <v>1</v>
@@ -6278,7 +6278,7 @@
         <v>30</v>
       </c>
       <c r="N95" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="O95" s="1">
         <v>0.3</v>
@@ -6293,15 +6293,15 @@
         <v>10</v>
       </c>
       <c r="V95" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="W95" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="96" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B96" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E96" s="1">
         <v>1</v>
@@ -6325,10 +6325,10 @@
         <v>40</v>
       </c>
       <c r="M96" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N96" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="O96" s="1">
         <v>0.3</v>
@@ -6343,30 +6343,30 @@
         <v>10</v>
       </c>
       <c r="V96" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="W96" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="S1:S2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="M1:M2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="W1:W2"/>
-    <mergeCell ref="X1:X2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="K1:L1048576">
@@ -6585,10 +6585,10 @@
   <dimension ref="A1:I57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A12" sqref="A12:XFD12"/>
+      <selection pane="bottomRight" activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6612,23 +6612,23 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D1" s="34" t="s">
         <v>9</v>
       </c>
       <c r="E1" s="35"/>
       <c r="F1" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H1" s="10" t="s">
         <v>13</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -6648,7 +6648,7 @@
         <v>26</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="8">
@@ -6656,30 +6656,30 @@
       </c>
       <c r="G3" s="24"/>
       <c r="H3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="8">
         <v>1</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G4" s="22"/>
       <c r="H4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="8">
@@ -6689,16 +6689,16 @@
         <v>1</v>
       </c>
       <c r="G5" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="8">
@@ -6708,16 +6708,16 @@
         <v>1</v>
       </c>
       <c r="G6" s="26" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="8">
@@ -6727,16 +6727,16 @@
         <v>1</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="8">
@@ -6744,7 +6744,7 @@
       </c>
       <c r="G8" s="24"/>
       <c r="H8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -6756,18 +6756,18 @@
         <v>27</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D10" s="8">
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D11" s="8">
         <v>1</v>
@@ -6776,15 +6776,15 @@
         <v>1</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D12" s="8">
         <v>1</v>
@@ -6793,32 +6793,32 @@
         <v>1</v>
       </c>
       <c r="G12" s="30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" s="8">
+        <v>1</v>
+      </c>
+      <c r="E13" s="11">
+        <v>1</v>
+      </c>
+      <c r="G13" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="D13" s="8">
-        <v>1</v>
-      </c>
-      <c r="E13" s="11">
-        <v>1</v>
-      </c>
-      <c r="G13" s="30" t="s">
-        <v>122</v>
-      </c>
       <c r="H13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D14" s="8">
         <v>1</v>
@@ -6827,10 +6827,10 @@
         <v>1</v>
       </c>
       <c r="G14" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -6842,7 +6842,7 @@
         <v>30</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D16" s="8">
         <v>1</v>
@@ -6850,12 +6850,12 @@
       <c r="E16" s="27"/>
       <c r="G16" s="22"/>
       <c r="H16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B17" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D17" s="8">
         <v>1</v>
@@ -6865,12 +6865,12 @@
       </c>
       <c r="G17" s="22"/>
       <c r="H17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B18" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D18" s="8">
         <v>1</v>
@@ -6880,7 +6880,7 @@
       </c>
       <c r="G18" s="22"/>
       <c r="H18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -6889,10 +6889,10 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D20" s="8">
         <v>1</v>
@@ -6902,12 +6902,12 @@
       </c>
       <c r="G20" s="22"/>
       <c r="H20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B21" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D21" s="8">
         <v>1</v>
@@ -6917,12 +6917,12 @@
       </c>
       <c r="G21" s="22"/>
       <c r="H21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B22" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D22" s="8">
         <v>1</v>
@@ -6932,7 +6932,7 @@
       </c>
       <c r="G22" s="22"/>
       <c r="H22" s="25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -6944,7 +6944,7 @@
         <v>25</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D24" s="8">
         <v>1</v>
@@ -6953,12 +6953,12 @@
         <v>1</v>
       </c>
       <c r="H24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B25" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D25" s="8">
         <v>1</v>
@@ -6967,12 +6967,12 @@
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B26" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D26" s="8">
         <v>1</v>
@@ -6981,12 +6981,12 @@
         <v>1</v>
       </c>
       <c r="H26" s="25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B27" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D27" s="8">
         <v>1</v>
@@ -6995,7 +6995,7 @@
         <v>1</v>
       </c>
       <c r="H27" s="25" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -7006,18 +7006,18 @@
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D29" s="8">
         <v>1</v>
       </c>
       <c r="H29" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B30" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D30" s="8">
         <v>1</v>
@@ -7026,12 +7026,12 @@
         <v>1</v>
       </c>
       <c r="H30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B31" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D31" s="8">
         <v>1</v>
@@ -7040,24 +7040,24 @@
         <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B32" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D32" s="8">
+        <v>1</v>
+      </c>
+      <c r="E32" s="11">
+        <v>1</v>
+      </c>
+      <c r="G32" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="D32" s="8">
-        <v>1</v>
-      </c>
-      <c r="E32" s="11">
-        <v>1</v>
-      </c>
-      <c r="G32" s="25" t="s">
-        <v>110</v>
-      </c>
       <c r="H32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
@@ -7065,7 +7065,7 @@
         <v>18</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D35" s="8">
         <v>1</v>
@@ -7074,15 +7074,15 @@
         <v>1</v>
       </c>
       <c r="G35" s="25" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H35" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B36" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D36" s="8">
         <v>1</v>
@@ -7091,41 +7091,41 @@
         <v>1</v>
       </c>
       <c r="G36" s="25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H36" s="25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B37" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D37" s="8">
         <v>1</v>
       </c>
       <c r="E37" s="27"/>
       <c r="H37" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B38" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D38" s="8">
         <v>1</v>
       </c>
       <c r="G38" s="22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H38" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B39" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D39" s="8">
         <v>1</v>
@@ -7134,10 +7134,10 @@
         <v>1</v>
       </c>
       <c r="G39" s="25" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
@@ -7145,35 +7145,35 @@
         <v>24</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D41" s="8">
         <v>1</v>
       </c>
       <c r="G41" s="25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H41" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B42" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D42" s="8">
         <v>1</v>
       </c>
       <c r="H42" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D44" s="8">
         <v>1</v>
@@ -7182,37 +7182,37 @@
         <v>1</v>
       </c>
       <c r="G44" s="25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H44" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B45" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D45" s="8">
         <v>1</v>
       </c>
       <c r="H45" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B46" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D46" s="8">
         <v>1</v>
       </c>
       <c r="H46" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B47" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D47" s="8">
         <v>1</v>
@@ -7221,10 +7221,10 @@
         <v>1</v>
       </c>
       <c r="G47" s="22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H47" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
@@ -7232,7 +7232,7 @@
         <v>22</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D49" s="8">
         <v>1</v>
@@ -7241,15 +7241,15 @@
         <v>1</v>
       </c>
       <c r="G49" s="22" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H49" s="25" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B50" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D50" s="8">
         <v>1</v>
@@ -7258,35 +7258,35 @@
         <v>1</v>
       </c>
       <c r="G50" s="25" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B51" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="D51" s="8">
+        <v>1</v>
+      </c>
+      <c r="E51" s="27">
+        <v>1</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G51" s="22" t="s">
         <v>363</v>
       </c>
-      <c r="D51" s="8">
-        <v>1</v>
-      </c>
-      <c r="E51" s="27">
-        <v>1</v>
-      </c>
-      <c r="F51" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G51" s="22" t="s">
-        <v>364</v>
-      </c>
       <c r="H51" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B52" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D52" s="8">
         <v>1</v>
@@ -7295,15 +7295,15 @@
         <v>1</v>
       </c>
       <c r="G52" s="22" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H52" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B53" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D53" s="8">
         <v>1</v>
@@ -7312,12 +7312,12 @@
         <v>1</v>
       </c>
       <c r="H53" s="25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B54" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D54" s="8">
         <v>1</v>
@@ -7326,7 +7326,7 @@
         <v>1</v>
       </c>
       <c r="H54" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
@@ -7334,7 +7334,7 @@
         <v>29</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D56" s="8">
         <v>1</v>
@@ -7343,15 +7343,15 @@
         <v>1</v>
       </c>
       <c r="G56" s="22" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H56" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B57" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D57" s="8">
         <v>1</v>
@@ -7360,7 +7360,7 @@
         <v>1</v>
       </c>
       <c r="G57" s="18" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
   </sheetData>
@@ -7376,11 +7376,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54D9C67E-4237-478B-81E0-48BC15B60241}">
   <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C50" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G70" sqref="G70"/>
+      <selection pane="bottomRight" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7402,22 +7402,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>13</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -7432,24 +7432,24 @@
         <v>26</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="3">
         <v>5</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F3" s="24"/>
       <c r="G3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="3">
@@ -7457,44 +7457,44 @@
       </c>
       <c r="F4" s="24"/>
       <c r="G4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="3">
         <v>10</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F5" s="24"/>
       <c r="G5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H5" s="22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="3">
         <v>15</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F6" s="24"/>
       <c r="G6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -7520,44 +7520,44 @@
         <v>27</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D11" s="12">
         <v>20</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F11" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="G11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H11" s="22" t="s">
         <v>126</v>
-      </c>
-      <c r="G11" t="s">
-        <v>102</v>
-      </c>
-      <c r="H11" s="22" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B12" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D12" s="12">
         <v>5</v>
       </c>
       <c r="G12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B13" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D13" s="12">
         <v>5</v>
       </c>
       <c r="G13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -7565,102 +7565,102 @@
         <v>30</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D16" s="12">
         <v>5</v>
       </c>
       <c r="G16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B17" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D17" s="12">
         <v>5</v>
       </c>
       <c r="G17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B18" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D18" s="12">
         <v>5</v>
       </c>
       <c r="G18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B19" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D19" s="12">
         <v>20</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H19" s="22" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D21" s="12">
         <v>5</v>
       </c>
       <c r="G21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B22" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D22" s="12">
         <v>5</v>
       </c>
       <c r="G22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B23" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D23" s="12">
         <v>5</v>
       </c>
       <c r="G23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B24" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D24" s="12">
         <v>5</v>
       </c>
       <c r="G24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -7668,46 +7668,46 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D26" s="12">
         <v>5</v>
       </c>
       <c r="G26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B27" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D27" s="12">
         <v>5</v>
       </c>
       <c r="G27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B28" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D28" s="12">
         <v>5</v>
       </c>
       <c r="G28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B29" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D29" s="12">
         <v>5</v>
       </c>
       <c r="G29" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
@@ -7715,89 +7715,89 @@
         <v>28</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D31" s="12">
         <v>15</v>
       </c>
       <c r="F31" s="22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G31" s="22" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H31" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B32" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D32" s="12">
         <v>5</v>
       </c>
       <c r="E32" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G32" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B33" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D33" s="12">
         <v>5</v>
       </c>
       <c r="F33" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H33" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B34" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D34" s="12">
         <v>5</v>
       </c>
       <c r="G34" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B35" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D35" s="12">
         <v>5</v>
       </c>
       <c r="G35" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B36" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D36" s="12">
         <v>5</v>
       </c>
       <c r="E36" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F36" s="25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G36" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
@@ -7805,44 +7805,44 @@
         <v>18</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D38" s="12">
         <v>5</v>
       </c>
       <c r="F38" s="22" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G38" s="22" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B39" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D39" s="12">
         <v>20</v>
       </c>
       <c r="E39" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F39" s="25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G39" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B40" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D40" s="12">
         <v>5</v>
       </c>
       <c r="G40" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
@@ -7850,171 +7850,171 @@
         <v>24</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D42" s="12">
         <v>10</v>
       </c>
       <c r="E42" s="19" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F42" s="22" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G42" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B43" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D43" s="12">
         <v>6</v>
       </c>
       <c r="E43" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G43" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H43" s="22" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B44" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D44" s="12">
         <v>8</v>
       </c>
       <c r="E44" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G44" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B45" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D45" s="12">
         <v>5</v>
       </c>
       <c r="E45" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G45" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B46" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D46" s="12">
         <v>5</v>
       </c>
       <c r="E46" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G46" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B47" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D47" s="12">
         <v>7</v>
       </c>
       <c r="F47" s="22" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G47" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H47" s="22" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B48" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D48" s="12">
         <v>5</v>
       </c>
       <c r="E48" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F48" s="22" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G48" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H48" s="22" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D50" s="12">
         <v>5</v>
       </c>
       <c r="G50" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B51" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D51" s="12">
         <v>5</v>
       </c>
       <c r="G51" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B52" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D52" s="12">
         <v>5</v>
       </c>
       <c r="E52" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G52" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B53" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D53" s="12">
         <v>10</v>
       </c>
       <c r="E53" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F53" s="25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G53" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
@@ -8022,38 +8022,38 @@
         <v>22</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D55" s="12">
         <v>5</v>
       </c>
       <c r="G55" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B56" s="6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D56" s="12">
         <v>10</v>
       </c>
       <c r="E56" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G56" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B57" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D57" s="12">
         <v>5</v>
       </c>
       <c r="G57" s="22" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
@@ -8061,67 +8061,67 @@
         <v>29</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D59" s="12">
         <v>7</v>
       </c>
       <c r="E59" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G59" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B60" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D60" s="12">
         <v>5</v>
       </c>
       <c r="E60" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F60" s="22" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G60" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B61" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D61" s="12">
         <v>5</v>
       </c>
       <c r="E61" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G61" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B62" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D62" s="12">
         <v>5</v>
       </c>
       <c r="F62" s="22"/>
       <c r="G62" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B63" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F63" s="18" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
   </sheetData>
@@ -8160,10 +8160,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E1" s="10"/>
     </row>
@@ -8172,26 +8172,26 @@
         <v>26</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D3" s="29" t="s">
         <v>143</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D4" s="28" t="s">
         <v>146</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -8199,45 +8199,45 @@
         <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="29" t="s">
         <v>44</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="28"/>
@@ -8247,29 +8247,29 @@
         <v>30</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="28" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="28" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -8278,31 +8278,31 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="29" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="29" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B17" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="29" t="s">
         <v>62</v>
-      </c>
-      <c r="D17" s="29" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -8314,26 +8314,26 @@
         <v>25</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="D19" s="29" t="s">
         <v>177</v>
-      </c>
-      <c r="D19" s="29" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B20" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B21" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="D21" s="29" t="s">
         <v>201</v>
-      </c>
-      <c r="D21" s="29" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -8345,29 +8345,29 @@
         <v>28</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -8375,34 +8375,34 @@
         <v>18</v>
       </c>
       <c r="B27" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="28" t="s">
         <v>49</v>
-      </c>
-      <c r="D27" s="28" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B28" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D28" s="28" t="s">
         <v>158</v>
-      </c>
-      <c r="D28" s="28" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B29" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D29" s="28" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B30" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D30" s="29" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -8413,26 +8413,26 @@
         <v>24</v>
       </c>
       <c r="B32" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="D32" s="29" t="s">
         <v>292</v>
-      </c>
-      <c r="D32" s="29" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B33" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D33" s="29" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B34" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="D34" s="29" t="s">
         <v>312</v>
-      </c>
-      <c r="D34" s="29" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -8440,26 +8440,26 @@
         <v>21</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D36" s="29" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B37" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D37" s="29" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B38" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="D38" s="28" t="s">
         <v>339</v>
-      </c>
-      <c r="D38" s="28" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -8467,26 +8467,26 @@
         <v>22</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D40" s="28" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B41" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D41" s="29" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B42" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="D42" s="29" t="s">
         <v>368</v>
-      </c>
-      <c r="D42" s="29" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -8494,26 +8494,26 @@
         <v>29</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D44" s="29" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B45" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D45" s="29" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B46" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="D46" s="29" t="s">
         <v>380</v>
-      </c>
-      <c r="D46" s="29" t="s">
-        <v>381</v>
       </c>
     </row>
   </sheetData>
@@ -8553,7 +8553,7 @@
         <v>30</v>
       </c>
       <c r="E1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F1" t="s">
         <v>25</v>
@@ -8599,7 +8599,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -8616,7 +8616,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -8658,7 +8658,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -8697,7 +8697,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -8708,7 +8708,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -8719,17 +8719,17 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.2">
@@ -8744,7 +8744,7 @@
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>

--- a/plan/招式.xlsx
+++ b/plan/招式.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22307"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\pealpool.github.io\plan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\mycode\pealpool.github.io\plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7F00E61-3768-4C6A-9DEF-ED2BBC634B94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D2C8F70-5998-4BAC-B38E-32AF6F389438}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{07694949-CE91-4AC6-84BF-EA7187E3619C}"/>
   </bookViews>
@@ -27,9 +27,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="409">
   <si>
     <t>派别</t>
   </si>
@@ -912,9 +910,6 @@
     <t>闪避+5%，5s</t>
   </si>
   <si>
-    <t>内外伤伤害+5%，5s</t>
-  </si>
-  <si>
     <t>命中率+5%，5s</t>
   </si>
   <si>
@@ -1323,10 +1318,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>【青蛇毒】命中-15%，攻击增浮动率-15%，破绽发现率 -15%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>黄泉指</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1668,6 +1659,10 @@
   </si>
   <si>
     <t>内力伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内外伤伤害+5%，5s</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1846,10 +1841,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
@@ -2180,10 +2175,10 @@
   <dimension ref="A1:X96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="D45" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="V32" sqref="V32"/>
+      <selection pane="bottomRight" activeCell="X39" sqref="X39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2212,57 +2207,57 @@
       <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
       <c r="G1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
       <c r="K1" s="33" t="s">
+        <v>392</v>
+      </c>
+      <c r="L1" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="32" t="s">
+        <v>393</v>
+      </c>
+      <c r="N1" s="32" t="s">
+        <v>403</v>
+      </c>
+      <c r="O1" s="31" t="s">
         <v>394</v>
       </c>
-      <c r="L1" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="M1" s="31" t="s">
-        <v>395</v>
-      </c>
-      <c r="N1" s="31" t="s">
-        <v>405</v>
-      </c>
-      <c r="O1" s="32" t="s">
-        <v>396</v>
-      </c>
-      <c r="P1" s="32" t="s">
+      <c r="P1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" s="32" t="s">
+      <c r="Q1" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="R1" s="32" t="s">
-        <v>409</v>
-      </c>
-      <c r="S1" s="32" t="s">
+      <c r="R1" s="31" t="s">
+        <v>407</v>
+      </c>
+      <c r="S1" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="T1" s="32" t="s">
+      <c r="T1" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="U1" s="32" t="s">
+      <c r="U1" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="V1" s="31" t="s">
-        <v>277</v>
-      </c>
-      <c r="W1" s="32" t="s">
+      <c r="V1" s="32" t="s">
+        <v>276</v>
+      </c>
+      <c r="W1" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="X1" s="32" t="s">
+      <c r="X1" s="31" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2289,19 +2284,19 @@
         <v>7</v>
       </c>
       <c r="K2" s="33"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="31"/>
-      <c r="W2" s="32"/>
-      <c r="X2" s="32"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="32"/>
+      <c r="W2" s="31"/>
+      <c r="X2" s="31"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -2895,7 +2890,7 @@
       </c>
       <c r="V16" s="17"/>
       <c r="W16" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="X16" s="5"/>
     </row>
@@ -3068,10 +3063,10 @@
         <v>10</v>
       </c>
       <c r="T21" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="V21" s="5" t="s">
         <v>243</v>
-      </c>
-      <c r="V21" s="5" t="s">
-        <v>244</v>
       </c>
       <c r="W21" s="5" t="s">
         <v>103</v>
@@ -3163,10 +3158,10 @@
         <v>15</v>
       </c>
       <c r="T23" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="V23" s="5" t="s">
         <v>243</v>
-      </c>
-      <c r="V23" s="5" t="s">
-        <v>244</v>
       </c>
       <c r="W23" s="5" t="s">
         <v>135</v>
@@ -3214,7 +3209,7 @@
     </row>
     <row r="25" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E25" s="2">
         <v>1</v>
@@ -3252,7 +3247,7 @@
     </row>
     <row r="26" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E26" s="2">
         <v>1</v>
@@ -3281,10 +3276,10 @@
         <v>15</v>
       </c>
       <c r="T26" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="V26" s="5" t="s">
         <v>243</v>
-      </c>
-      <c r="V26" s="5" t="s">
-        <v>244</v>
       </c>
       <c r="W26" s="5" t="s">
         <v>103</v>
@@ -3293,7 +3288,7 @@
     </row>
     <row r="27" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F27" s="2">
         <v>1</v>
@@ -3335,7 +3330,7 @@
     </row>
     <row r="28" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -3405,7 +3400,7 @@
         <v>174</v>
       </c>
       <c r="N30" s="4" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="O30" s="1">
         <v>0.5</v>
@@ -3426,15 +3421,15 @@
         <v>15</v>
       </c>
       <c r="V30" s="18" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="W30" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E31" s="1">
         <v>1</v>
@@ -3473,10 +3468,10 @@
         <v>30</v>
       </c>
       <c r="V31" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="W31" s="5" t="s">
         <v>246</v>
-      </c>
-      <c r="W31" s="5" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="32" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3522,16 +3517,16 @@
         <v>15</v>
       </c>
       <c r="V32" s="17" t="s">
-        <v>323</v>
+        <v>156</v>
       </c>
       <c r="W32" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="X32" s="5"/>
     </row>
     <row r="33" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E33" s="2">
         <v>1</v>
@@ -3574,16 +3569,16 @@
         <v>20</v>
       </c>
       <c r="V33" s="17" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="W33" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="X33" s="5"/>
     </row>
     <row r="34" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F34" s="2">
         <v>1</v>
@@ -3626,7 +3621,7 @@
         <v>15</v>
       </c>
       <c r="V34" s="17" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="W34" s="5" t="s">
         <v>104</v>
@@ -3635,7 +3630,7 @@
     </row>
     <row r="35" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E35" s="2">
         <v>1</v>
@@ -3676,16 +3671,16 @@
         <v>20</v>
       </c>
       <c r="V35" s="17" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="W35" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="X35" s="5"/>
     </row>
     <row r="36" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E36" s="2">
         <v>1</v>
@@ -3707,7 +3702,7 @@
         <v>174</v>
       </c>
       <c r="N36" s="4" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="O36" s="2">
         <v>0.4</v>
@@ -3725,10 +3720,10 @@
         <v>25</v>
       </c>
       <c r="V36" s="17" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="W36" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="X36" s="5"/>
     </row>
@@ -3844,10 +3839,10 @@
         <v>15</v>
       </c>
       <c r="V39" s="17" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="W39" s="5" t="s">
-        <v>220</v>
+        <v>408</v>
       </c>
       <c r="X39" s="5" t="s">
         <v>184</v>
@@ -3901,7 +3896,7 @@
         <v>10</v>
       </c>
       <c r="V40" s="17" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W40" s="5" t="s">
         <v>101</v>
@@ -3956,7 +3951,7 @@
         <v>15</v>
       </c>
       <c r="V41" s="17" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="W41" s="5" t="s">
         <v>215</v>
@@ -4013,7 +4008,7 @@
         <v>10</v>
       </c>
       <c r="V42" s="17" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="W42" s="5" t="s">
         <v>135</v>
@@ -4070,7 +4065,7 @@
         <v>10</v>
       </c>
       <c r="V43" s="17" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="W43" s="5" t="s">
         <v>101</v>
@@ -4129,7 +4124,7 @@
         <v>10</v>
       </c>
       <c r="V44" s="17" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W44" s="5" t="s">
         <v>100</v>
@@ -4850,10 +4845,10 @@
         <v>15</v>
       </c>
       <c r="V61" s="17" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="W61" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="X61" s="5"/>
     </row>
@@ -4974,7 +4969,7 @@
         <v>24</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E65" s="2">
         <v>1</v>
@@ -4987,7 +4982,7 @@
         <v>122</v>
       </c>
       <c r="N65" s="4" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="O65" s="2">
         <v>0.4</v>
@@ -5005,17 +5000,17 @@
         <v>25</v>
       </c>
       <c r="V65" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="W65" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="X65" s="5"/>
     </row>
     <row r="66" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="6"/>
       <c r="B66" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E66" s="2">
         <v>1</v>
@@ -5050,20 +5045,20 @@
         <v>10</v>
       </c>
       <c r="T66" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="V66" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="W66" s="5" t="s">
         <v>275</v>
-      </c>
-      <c r="V66" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="W66" s="5" t="s">
-        <v>276</v>
       </c>
       <c r="X66" s="5"/>
     </row>
     <row r="67" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="6"/>
       <c r="B67" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E67" s="2">
         <v>1</v>
@@ -5100,10 +5095,10 @@
         <v>15</v>
       </c>
       <c r="T67" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="V67" s="17" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="W67" s="5" t="s">
         <v>100</v>
@@ -5113,7 +5108,7 @@
     <row r="68" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="6"/>
       <c r="B68" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E68" s="2">
         <v>1</v>
@@ -5154,7 +5149,7 @@
         <v>10</v>
       </c>
       <c r="V68" s="17" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="W68" s="5" t="s">
         <v>101</v>
@@ -5164,7 +5159,7 @@
     <row r="69" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="6"/>
       <c r="B69" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E69" s="2">
         <v>1</v>
@@ -5207,13 +5202,13 @@
         <v>10</v>
       </c>
       <c r="T69" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U69" s="2">
         <v>20</v>
       </c>
       <c r="V69" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="W69" s="5" t="s">
         <v>100</v>
@@ -5223,7 +5218,7 @@
     <row r="70" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="6"/>
       <c r="B70" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E70" s="2">
         <v>1</v>
@@ -5260,23 +5255,23 @@
         <v>10</v>
       </c>
       <c r="T70" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="U70" s="2">
         <v>20</v>
       </c>
       <c r="V70" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="W70" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="X70" s="5"/>
     </row>
     <row r="71" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="6"/>
       <c r="B71" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E71" s="2">
         <v>1</v>
@@ -5321,7 +5316,7 @@
         <v>10</v>
       </c>
       <c r="V71" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="W71" s="5" t="s">
         <v>100</v>
@@ -5331,7 +5326,7 @@
     <row r="72" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="6"/>
       <c r="B72" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E72" s="2">
         <v>1</v>
@@ -5374,13 +5369,13 @@
         <v>20</v>
       </c>
       <c r="T72" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="U72" s="2">
         <v>30</v>
       </c>
       <c r="V72" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="W72" s="5" t="s">
         <v>101</v>
@@ -5399,10 +5394,10 @@
     </row>
     <row r="74" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E74" s="2">
         <v>1</v>
@@ -5442,7 +5437,7 @@
         <v>25</v>
       </c>
       <c r="V74" s="5" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="W74" s="5" t="s">
         <v>100</v>
@@ -5452,7 +5447,7 @@
     <row r="75" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="6"/>
       <c r="B75" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E75" s="2">
         <v>1</v>
@@ -5490,17 +5485,17 @@
         <v>10</v>
       </c>
       <c r="V75" s="5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="W75" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="X75" s="5"/>
     </row>
     <row r="76" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="6"/>
       <c r="B76" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E76" s="2">
         <v>1</v>
@@ -5540,20 +5535,20 @@
         <v>10</v>
       </c>
       <c r="T76" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="V76" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="W76" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="X76" s="5"/>
     </row>
     <row r="77" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="6"/>
       <c r="B77" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E77" s="2">
         <v>1</v>
@@ -5594,17 +5589,17 @@
         <v>10</v>
       </c>
       <c r="V77" s="5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="W77" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="X77" s="5"/>
     </row>
     <row r="78" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="6"/>
       <c r="B78" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E78" s="2">
         <v>1</v>
@@ -5643,10 +5638,10 @@
         <v>10</v>
       </c>
       <c r="T78" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="V78" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="W78" s="5" t="s">
         <v>100</v>
@@ -5656,7 +5651,7 @@
     <row r="79" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="6"/>
       <c r="B79" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E79" s="2">
         <v>1</v>
@@ -5694,19 +5689,19 @@
         <v>10</v>
       </c>
       <c r="T79" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="V79" s="5" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="W79" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="X79" s="5"/>
     </row>
     <row r="80" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B80" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F80" s="1">
         <v>1</v>
@@ -5745,12 +5740,12 @@
         <v>30</v>
       </c>
       <c r="W80" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="81" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B81" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F81" s="2">
         <v>1</v>
@@ -5787,13 +5782,13 @@
         <v>20</v>
       </c>
       <c r="T81" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="V81" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="W81" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="X81" s="5"/>
     </row>
@@ -5850,7 +5845,7 @@
         <v>64</v>
       </c>
       <c r="W83" s="5" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="84" spans="1:24" x14ac:dyDescent="0.2">
@@ -5890,7 +5885,7 @@
     </row>
     <row r="85" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B85" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E85" s="1">
         <v>1</v>
@@ -5928,7 +5923,7 @@
     </row>
     <row r="86" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B86" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E86" s="1">
         <v>1</v>
@@ -5969,7 +5964,7 @@
     </row>
     <row r="87" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B87" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E87" s="1">
         <v>1</v>
@@ -6007,7 +6002,7 @@
     </row>
     <row r="88" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B88" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E88" s="1">
         <v>1</v>
@@ -6046,7 +6041,7 @@
     </row>
     <row r="89" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B89" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E89" s="1">
         <v>1</v>
@@ -6084,7 +6079,7 @@
     </row>
     <row r="90" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B90" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F90" s="1">
         <v>1</v>
@@ -6102,7 +6097,7 @@
         <v>120</v>
       </c>
       <c r="M90" s="4" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="O90" s="2">
         <v>0.6</v>
@@ -6125,7 +6120,7 @@
         <v>29</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E92" s="1">
         <v>1</v>
@@ -6178,7 +6173,7 @@
     </row>
     <row r="93" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B93" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D93" s="1">
         <v>1</v>
@@ -6202,12 +6197,12 @@
         <v>1</v>
       </c>
       <c r="V93" s="17" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="94" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B94" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E94" s="1">
         <v>1</v>
@@ -6228,7 +6223,7 @@
         <v>40</v>
       </c>
       <c r="M94" s="4" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="O94" s="1">
         <v>0.3</v>
@@ -6254,7 +6249,7 @@
     </row>
     <row r="95" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B95" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E95" s="1">
         <v>1</v>
@@ -6278,7 +6273,7 @@
         <v>30</v>
       </c>
       <c r="N95" s="4" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="O95" s="1">
         <v>0.3</v>
@@ -6301,7 +6296,7 @@
     </row>
     <row r="96" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B96" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E96" s="1">
         <v>1</v>
@@ -6325,10 +6320,10 @@
         <v>40</v>
       </c>
       <c r="M96" s="4" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="N96" s="4" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="O96" s="1">
         <v>0.3</v>
@@ -6351,22 +6346,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="W1:W2"/>
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="S1:S2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="M1:M2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="X1:X2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="K1:L1048576">
@@ -6842,7 +6837,7 @@
         <v>30</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D16" s="8">
         <v>1</v>
@@ -6855,7 +6850,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B17" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D17" s="8">
         <v>1</v>
@@ -6870,7 +6865,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B18" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D18" s="8">
         <v>1</v>
@@ -6892,7 +6887,7 @@
         <v>55</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D20" s="8">
         <v>1</v>
@@ -6907,7 +6902,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B21" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D21" s="8">
         <v>1</v>
@@ -6922,7 +6917,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B22" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D22" s="8">
         <v>1</v>
@@ -7074,15 +7069,15 @@
         <v>1</v>
       </c>
       <c r="G35" s="25" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H35" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B36" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D36" s="8">
         <v>1</v>
@@ -7099,7 +7094,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B37" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D37" s="8">
         <v>1</v>
@@ -7111,7 +7106,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B38" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D38" s="8">
         <v>1</v>
@@ -7125,7 +7120,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B39" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D39" s="8">
         <v>1</v>
@@ -7134,7 +7129,7 @@
         <v>1</v>
       </c>
       <c r="G39" s="25" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H39" t="s">
         <v>117</v>
@@ -7145,7 +7140,7 @@
         <v>24</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D41" s="8">
         <v>1</v>
@@ -7159,7 +7154,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B42" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D42" s="8">
         <v>1</v>
@@ -7170,10 +7165,10 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D44" s="8">
         <v>1</v>
@@ -7190,7 +7185,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B45" s="6" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D45" s="8">
         <v>1</v>
@@ -7201,7 +7196,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B46" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D46" s="8">
         <v>1</v>
@@ -7212,7 +7207,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B47" s="6" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D47" s="8">
         <v>1</v>
@@ -7232,33 +7227,33 @@
         <v>22</v>
       </c>
       <c r="B49" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="D49" s="8">
+        <v>1</v>
+      </c>
+      <c r="E49" s="11">
+        <v>1</v>
+      </c>
+      <c r="G49" s="22" t="s">
         <v>354</v>
       </c>
-      <c r="D49" s="8">
-        <v>1</v>
-      </c>
-      <c r="E49" s="11">
-        <v>1</v>
-      </c>
-      <c r="G49" s="22" t="s">
-        <v>356</v>
-      </c>
       <c r="H49" s="25" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B50" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="D50" s="8">
+        <v>1</v>
+      </c>
+      <c r="E50" s="11">
+        <v>1</v>
+      </c>
+      <c r="G50" s="25" t="s">
         <v>350</v>
-      </c>
-      <c r="D50" s="8">
-        <v>1</v>
-      </c>
-      <c r="E50" s="11">
-        <v>1</v>
-      </c>
-      <c r="G50" s="25" t="s">
-        <v>352</v>
       </c>
       <c r="H50" t="s">
         <v>117</v>
@@ -7266,7 +7261,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B51" s="6" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D51" s="8">
         <v>1</v>
@@ -7278,7 +7273,7 @@
         <v>35</v>
       </c>
       <c r="G51" s="22" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="H51" t="s">
         <v>117</v>
@@ -7286,7 +7281,7 @@
     </row>
     <row r="52" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B52" s="6" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D52" s="8">
         <v>1</v>
@@ -7295,10 +7290,10 @@
         <v>1</v>
       </c>
       <c r="G52" s="22" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="H52" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
@@ -7317,7 +7312,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B54" s="6" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D54" s="8">
         <v>1</v>
@@ -7334,7 +7329,7 @@
         <v>29</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D56" s="8">
         <v>1</v>
@@ -7343,7 +7338,7 @@
         <v>1</v>
       </c>
       <c r="G56" s="22" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H56" t="s">
         <v>101</v>
@@ -7351,7 +7346,7 @@
     </row>
     <row r="57" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B57" s="6" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D57" s="8">
         <v>1</v>
@@ -7360,7 +7355,7 @@
         <v>1</v>
       </c>
       <c r="G57" s="18" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
   </sheetData>
@@ -7565,7 +7560,7 @@
         <v>30</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D16" s="12">
         <v>5</v>
@@ -7576,7 +7571,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B17" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D17" s="12">
         <v>5</v>
@@ -7587,7 +7582,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B18" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D18" s="12">
         <v>5</v>
@@ -7598,7 +7593,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B19" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D19" s="12">
         <v>20</v>
@@ -7613,7 +7608,7 @@
         <v>101</v>
       </c>
       <c r="H19" s="22" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -7621,7 +7616,7 @@
         <v>55</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D21" s="12">
         <v>5</v>
@@ -7632,7 +7627,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B22" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D22" s="12">
         <v>5</v>
@@ -7643,7 +7638,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B23" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D23" s="12">
         <v>5</v>
@@ -7654,7 +7649,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B24" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D24" s="12">
         <v>5</v>
@@ -7724,7 +7719,7 @@
         <v>102</v>
       </c>
       <c r="G31" s="22" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H31" s="22" t="s">
         <v>99</v>
@@ -7780,7 +7775,7 @@
         <v>5</v>
       </c>
       <c r="G35" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
@@ -7805,16 +7800,16 @@
         <v>18</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D38" s="12">
         <v>5</v>
       </c>
       <c r="F38" s="22" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G38" s="22" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
@@ -7836,7 +7831,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B40" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D40" s="12">
         <v>5</v>
@@ -7850,16 +7845,16 @@
         <v>24</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D42" s="12">
         <v>10</v>
       </c>
       <c r="E42" s="19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F42" s="22" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G42" t="s">
         <v>101</v>
@@ -7867,7 +7862,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B43" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D43" s="12">
         <v>6</v>
@@ -7879,12 +7874,12 @@
         <v>100</v>
       </c>
       <c r="H43" s="22" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B44" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D44" s="12">
         <v>8</v>
@@ -7898,7 +7893,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B45" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D45" s="12">
         <v>5</v>
@@ -7912,7 +7907,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B46" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D46" s="12">
         <v>5</v>
@@ -7921,29 +7916,29 @@
         <v>35</v>
       </c>
       <c r="G46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B47" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D47" s="12">
         <v>7</v>
       </c>
       <c r="F47" s="22" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G47" t="s">
         <v>100</v>
       </c>
       <c r="H47" s="22" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B48" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D48" s="12">
         <v>5</v>
@@ -7952,21 +7947,21 @@
         <v>35</v>
       </c>
       <c r="F48" s="22" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G48" t="s">
         <v>101</v>
       </c>
       <c r="H48" s="22" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D50" s="12">
         <v>5</v>
@@ -7977,7 +7972,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B51" s="6" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D51" s="12">
         <v>5</v>
@@ -7988,7 +7983,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B52" s="6" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D52" s="12">
         <v>5</v>
@@ -8002,7 +7997,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B53" s="6" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D53" s="12">
         <v>10</v>
@@ -8022,7 +8017,7 @@
         <v>22</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D55" s="12">
         <v>5</v>
@@ -8033,7 +8028,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B56" s="6" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D56" s="12">
         <v>10</v>
@@ -8047,13 +8042,13 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B57" s="6" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D57" s="12">
         <v>5</v>
       </c>
       <c r="G57" s="22" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
@@ -8075,7 +8070,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B60" s="6" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D60" s="12">
         <v>5</v>
@@ -8084,7 +8079,7 @@
         <v>40</v>
       </c>
       <c r="F60" s="22" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G60" t="s">
         <v>101</v>
@@ -8092,7 +8087,7 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B61" s="6" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D61" s="12">
         <v>5</v>
@@ -8106,7 +8101,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B62" s="6" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D62" s="12">
         <v>5</v>
@@ -8118,10 +8113,10 @@
     </row>
     <row r="63" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B63" s="6" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F63" s="18" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
   </sheetData>
@@ -8247,25 +8242,25 @@
         <v>30</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="28" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="28" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="28" t="s">
@@ -8281,20 +8276,20 @@
         <v>55</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="29" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="29" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -8413,26 +8408,26 @@
         <v>24</v>
       </c>
       <c r="B32" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="D32" s="29" t="s">
         <v>291</v>
-      </c>
-      <c r="D32" s="29" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B33" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D33" s="29" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B34" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="D34" s="29" t="s">
         <v>311</v>
-      </c>
-      <c r="D34" s="29" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -8440,26 +8435,26 @@
         <v>21</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D36" s="29" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B37" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D37" s="29" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B38" s="6" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D38" s="28" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -8467,26 +8462,26 @@
         <v>22</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D40" s="28" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B41" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="D41" s="29" t="s">
         <v>364</v>
-      </c>
-      <c r="D41" s="29" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B42" s="6" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D42" s="29" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -8494,26 +8489,26 @@
         <v>29</v>
       </c>
       <c r="B44" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="D44" s="29" t="s">
         <v>375</v>
-      </c>
-      <c r="D44" s="29" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B45" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="D45" s="29" t="s">
         <v>376</v>
-      </c>
-      <c r="D45" s="29" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B46" s="6" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D46" s="29" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
   </sheetData>
@@ -8599,7 +8594,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -8616,7 +8611,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -8658,7 +8653,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -8697,7 +8692,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -8708,7 +8703,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -8729,7 +8724,7 @@
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.2">
@@ -8744,7 +8739,7 @@
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
   </sheetData>

--- a/plan/招式.xlsx
+++ b/plan/招式.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\mycode\pealpool.github.io\plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D2C8F70-5998-4BAC-B38E-32AF6F389438}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E7D94D4-74D9-40BE-98FB-F2522E6C6A08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{07694949-CE91-4AC6-84BF-EA7187E3619C}"/>
+    <workbookView xWindow="6150" yWindow="2025" windowWidth="16620" windowHeight="13575" activeTab="1" xr2:uid="{07694949-CE91-4AC6-84BF-EA7187E3619C}"/>
   </bookViews>
   <sheets>
     <sheet name="攻击" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="410">
   <si>
     <t>派别</t>
   </si>
@@ -1618,14 +1618,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>伤害</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>耐力</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>外伤减伤-5%，5s</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1663,6 +1655,18 @@
   </si>
   <si>
     <t>内外伤伤害+5%，5s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>妨碍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>速攻</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1841,10 +1845,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
@@ -2174,8 +2178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{897EE391-4514-4BBB-B5AB-BFD81F1FD685}">
   <dimension ref="A1:X96"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C32" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="X39" sqref="X39"/>
@@ -2207,57 +2211,57 @@
       <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
       <c r="G1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
       <c r="K1" s="33" t="s">
         <v>392</v>
       </c>
-      <c r="L1" s="31" t="s">
+      <c r="L1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="32" t="s">
+      <c r="M1" s="31" t="s">
         <v>393</v>
       </c>
-      <c r="N1" s="32" t="s">
-        <v>403</v>
-      </c>
-      <c r="O1" s="31" t="s">
+      <c r="N1" s="31" t="s">
+        <v>401</v>
+      </c>
+      <c r="O1" s="32" t="s">
         <v>394</v>
       </c>
-      <c r="P1" s="31" t="s">
+      <c r="P1" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" s="31" t="s">
+      <c r="Q1" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="R1" s="31" t="s">
-        <v>407</v>
-      </c>
-      <c r="S1" s="31" t="s">
+      <c r="R1" s="32" t="s">
+        <v>405</v>
+      </c>
+      <c r="S1" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="T1" s="31" t="s">
+      <c r="T1" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="U1" s="31" t="s">
+      <c r="U1" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="V1" s="32" t="s">
+      <c r="V1" s="31" t="s">
         <v>276</v>
       </c>
-      <c r="W1" s="31" t="s">
+      <c r="W1" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="X1" s="31" t="s">
+      <c r="X1" s="32" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2284,19 +2288,19 @@
         <v>7</v>
       </c>
       <c r="K2" s="33"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="31"/>
-      <c r="V2" s="32"/>
-      <c r="W2" s="31"/>
-      <c r="X2" s="31"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="31"/>
+      <c r="W2" s="32"/>
+      <c r="X2" s="32"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -2890,7 +2894,7 @@
       </c>
       <c r="V16" s="17"/>
       <c r="W16" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="X16" s="5"/>
     </row>
@@ -3400,7 +3404,7 @@
         <v>174</v>
       </c>
       <c r="N30" s="4" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="O30" s="1">
         <v>0.5</v>
@@ -3569,7 +3573,7 @@
         <v>20</v>
       </c>
       <c r="V33" s="17" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="W33" s="5" t="s">
         <v>246</v>
@@ -3702,7 +3706,7 @@
         <v>174</v>
       </c>
       <c r="N36" s="4" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="O36" s="2">
         <v>0.4</v>
@@ -3842,7 +3846,7 @@
         <v>284</v>
       </c>
       <c r="W39" s="5" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="X39" s="5" t="s">
         <v>184</v>
@@ -4845,7 +4849,7 @@
         <v>15</v>
       </c>
       <c r="V61" s="17" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="W61" s="5" t="s">
         <v>241</v>
@@ -4982,7 +4986,7 @@
         <v>122</v>
       </c>
       <c r="N65" s="4" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="O65" s="2">
         <v>0.4</v>
@@ -5845,7 +5849,7 @@
         <v>64</v>
       </c>
       <c r="W83" s="5" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="84" spans="1:24" x14ac:dyDescent="0.2">
@@ -6223,7 +6227,7 @@
         <v>40</v>
       </c>
       <c r="M94" s="4" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="O94" s="1">
         <v>0.3</v>
@@ -6273,7 +6277,7 @@
         <v>30</v>
       </c>
       <c r="N95" s="4" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="O95" s="1">
         <v>0.3</v>
@@ -6320,10 +6324,10 @@
         <v>40</v>
       </c>
       <c r="M96" s="4" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="N96" s="4" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="O96" s="1">
         <v>0.3</v>
@@ -6346,22 +6350,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="S1:S2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="M1:M2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="W1:W2"/>
-    <mergeCell ref="X1:X2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="K1:L1048576">
@@ -6579,11 +6583,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01B6F42B-4BB2-402E-8EF0-FC889EE96737}">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C29" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D59" sqref="D59"/>
+      <selection pane="bottomRight" activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6664,7 +6668,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>40</v>
+        <v>403</v>
       </c>
       <c r="G4" s="22"/>
       <c r="H4" t="s">
@@ -6736,6 +6740,9 @@
       <c r="C8" s="2"/>
       <c r="D8" s="8">
         <v>1</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="G8" s="24"/>
       <c r="H8" t="s">
@@ -8520,10 +8527,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3FDCBA0-BE27-412B-BDDC-A4596FFA7F45}">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8712,41 +8719,58 @@
         <v>2</v>
       </c>
     </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>409</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+    </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="13" t="s">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>407</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="13" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="13" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="13" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
-        <v>398</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A16" r:id="rId1" xr:uid="{ECACB06B-CC8D-4857-BAC6-0ECB1F299483}"/>
-    <hyperlink ref="A15" r:id="rId2" xr:uid="{80C90FB2-346D-4978-A601-98A2C36DF31C}"/>
+    <hyperlink ref="A32" r:id="rId1" xr:uid="{ECACB06B-CC8D-4857-BAC6-0ECB1F299483}"/>
+    <hyperlink ref="A31" r:id="rId2" xr:uid="{80C90FB2-346D-4978-A601-98A2C36DF31C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>

--- a/plan/招式.xlsx
+++ b/plan/招式.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\mycode\pealpool.github.io\plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E7D94D4-74D9-40BE-98FB-F2522E6C6A08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6984D03-88A9-4A4A-AEB6-69131157CA37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6150" yWindow="2025" windowWidth="16620" windowHeight="13575" activeTab="1" xr2:uid="{07694949-CE91-4AC6-84BF-EA7187E3619C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{07694949-CE91-4AC6-84BF-EA7187E3619C}"/>
   </bookViews>
   <sheets>
     <sheet name="攻击" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="417">
   <si>
     <t>派别</t>
   </si>
@@ -1669,12 +1669,40 @@
     <t>速攻</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>力量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>敏捷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>智力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>体魄</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>·</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>少林七十二绝技之一，爪到之处刚猛绝伦，抓树留痕，抓肉成洞</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1706,22 +1734,19 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1742,16 +1767,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1790,9 +1812,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1845,10 +1864,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
@@ -1860,11 +1879,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1" xr:uid="{18E8D347-E140-473B-8546-ACB24B7272CD}"/>
-    <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2178,11 +2202,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{897EE391-4514-4BBB-B5AB-BFD81F1FD685}">
   <dimension ref="A1:X96"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="P12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="X39" sqref="X39"/>
+      <selection pane="bottomRight" activeCell="X14" sqref="X14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2198,34 +2222,34 @@
     <col min="13" max="14" width="6.25" style="4" customWidth="1"/>
     <col min="15" max="19" width="6.25" style="1" customWidth="1"/>
     <col min="20" max="21" width="6.25" style="2" customWidth="1"/>
-    <col min="22" max="22" width="52.125" style="17" customWidth="1"/>
+    <col min="22" max="22" width="52.125" style="16" customWidth="1"/>
     <col min="23" max="23" width="31.75" style="5" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="19.625" style="5" customWidth="1"/>
     <col min="25" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:24" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="32" t="s">
+      <c r="B1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="33" t="s">
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="33" t="s">
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="32" t="s">
         <v>392</v>
       </c>
-      <c r="L1" s="32" t="s">
+      <c r="L1" s="30" t="s">
         <v>3</v>
       </c>
       <c r="M1" s="31" t="s">
@@ -2234,73 +2258,73 @@
       <c r="N1" s="31" t="s">
         <v>401</v>
       </c>
-      <c r="O1" s="32" t="s">
+      <c r="O1" s="30" t="s">
         <v>394</v>
       </c>
-      <c r="P1" s="32" t="s">
+      <c r="P1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" s="32" t="s">
+      <c r="Q1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="R1" s="32" t="s">
+      <c r="R1" s="30" t="s">
         <v>405</v>
       </c>
-      <c r="S1" s="32" t="s">
+      <c r="S1" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="T1" s="32" t="s">
+      <c r="T1" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="U1" s="32" t="s">
+      <c r="U1" s="30" t="s">
         <v>59</v>
       </c>
       <c r="V1" s="31" t="s">
         <v>276</v>
       </c>
-      <c r="W1" s="32" t="s">
+      <c r="W1" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="X1" s="32" t="s">
+      <c r="X1" s="30" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="14" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="D2" s="14" t="s">
+    <row r="2" spans="1:24" s="13" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="D2" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="33"/>
-      <c r="L2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="30"/>
       <c r="M2" s="31"/>
       <c r="N2" s="31"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
       <c r="V2" s="31"/>
-      <c r="W2" s="32"/>
-      <c r="X2" s="32"/>
+      <c r="W2" s="30"/>
+      <c r="X2" s="30"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -2390,7 +2414,7 @@
       <c r="S4" s="2">
         <v>10</v>
       </c>
-      <c r="V4" s="17"/>
+      <c r="V4" s="16"/>
       <c r="W4" s="5" t="s">
         <v>90</v>
       </c>
@@ -2435,7 +2459,7 @@
       <c r="S5" s="2">
         <v>10</v>
       </c>
-      <c r="V5" s="17"/>
+      <c r="V5" s="16"/>
       <c r="W5" s="5" t="s">
         <v>104</v>
       </c>
@@ -2482,7 +2506,7 @@
       <c r="S6" s="2">
         <v>17</v>
       </c>
-      <c r="V6" s="17"/>
+      <c r="V6" s="16"/>
       <c r="W6" s="5" t="s">
         <v>104</v>
       </c>
@@ -2527,7 +2551,7 @@
       <c r="S7" s="2">
         <v>10</v>
       </c>
-      <c r="V7" s="17"/>
+      <c r="V7" s="16"/>
       <c r="W7" s="5" t="s">
         <v>217</v>
       </c>
@@ -2569,7 +2593,7 @@
       <c r="S8" s="2">
         <v>20</v>
       </c>
-      <c r="V8" s="17"/>
+      <c r="V8" s="16"/>
       <c r="W8" s="5" t="s">
         <v>104</v>
       </c>
@@ -2616,7 +2640,7 @@
       <c r="S9" s="2">
         <v>20</v>
       </c>
-      <c r="V9" s="17"/>
+      <c r="V9" s="16"/>
       <c r="W9" s="5" t="s">
         <v>104</v>
       </c>
@@ -2661,7 +2685,7 @@
       <c r="S10" s="2">
         <v>20</v>
       </c>
-      <c r="V10" s="17"/>
+      <c r="V10" s="16"/>
       <c r="W10" s="5" t="s">
         <v>104</v>
       </c>
@@ -2672,7 +2696,7 @@
       <c r="K11" s="3"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
-      <c r="V11" s="17"/>
+      <c r="V11" s="16"/>
       <c r="W11" s="5"/>
       <c r="X11" s="5"/>
     </row>
@@ -2718,6 +2742,9 @@
       </c>
       <c r="W12" s="5" t="s">
         <v>103</v>
+      </c>
+      <c r="X12" s="5" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="13" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2759,7 +2786,7 @@
       <c r="S13" s="2">
         <v>10</v>
       </c>
-      <c r="V13" s="17"/>
+      <c r="V13" s="16"/>
       <c r="W13" s="5" t="s">
         <v>103</v>
       </c>
@@ -2801,7 +2828,7 @@
       <c r="S14" s="2">
         <v>15</v>
       </c>
-      <c r="V14" s="17"/>
+      <c r="V14" s="16"/>
       <c r="W14" s="5" t="s">
         <v>103</v>
       </c>
@@ -2850,7 +2877,7 @@
       <c r="S15" s="2">
         <v>10</v>
       </c>
-      <c r="V15" s="17"/>
+      <c r="V15" s="16"/>
       <c r="W15" s="5" t="s">
         <v>100</v>
       </c>
@@ -2892,7 +2919,7 @@
       <c r="S16" s="2">
         <v>15</v>
       </c>
-      <c r="V16" s="17"/>
+      <c r="V16" s="16"/>
       <c r="W16" s="5" t="s">
         <v>397</v>
       </c>
@@ -2978,7 +3005,7 @@
       <c r="S18" s="2">
         <v>20</v>
       </c>
-      <c r="V18" s="17"/>
+      <c r="V18" s="16"/>
       <c r="W18" s="5" t="s">
         <v>103</v>
       </c>
@@ -3020,7 +3047,7 @@
       <c r="S19" s="2">
         <v>10</v>
       </c>
-      <c r="V19" s="17"/>
+      <c r="V19" s="16"/>
       <c r="W19" s="5" t="s">
         <v>218</v>
       </c>
@@ -3203,7 +3230,7 @@
       <c r="S24" s="2">
         <v>10</v>
       </c>
-      <c r="V24" s="17" t="s">
+      <c r="V24" s="16" t="s">
         <v>214</v>
       </c>
       <c r="W24" s="5" t="s">
@@ -3243,7 +3270,7 @@
       <c r="S25" s="2">
         <v>10</v>
       </c>
-      <c r="V25" s="17"/>
+      <c r="V25" s="16"/>
       <c r="W25" s="5" t="s">
         <v>218</v>
       </c>
@@ -3326,7 +3353,7 @@
       <c r="S27" s="2">
         <v>20</v>
       </c>
-      <c r="V27" s="17"/>
+      <c r="V27" s="16"/>
       <c r="W27" s="5" t="s">
         <v>219</v>
       </c>
@@ -3375,7 +3402,7 @@
       <c r="S28" s="1">
         <v>20</v>
       </c>
-      <c r="V28" s="17"/>
+      <c r="V28" s="16"/>
       <c r="W28" s="5" t="s">
         <v>103</v>
       </c>
@@ -3424,7 +3451,7 @@
       <c r="U30" s="2">
         <v>15</v>
       </c>
-      <c r="V30" s="18" t="s">
+      <c r="V30" s="17" t="s">
         <v>249</v>
       </c>
       <c r="W30" s="5" t="s">
@@ -3471,7 +3498,7 @@
       <c r="U31" s="2">
         <v>30</v>
       </c>
-      <c r="V31" s="18" t="s">
+      <c r="V31" s="17" t="s">
         <v>245</v>
       </c>
       <c r="W31" s="5" t="s">
@@ -3520,7 +3547,7 @@
       <c r="U32" s="2">
         <v>15</v>
       </c>
-      <c r="V32" s="17" t="s">
+      <c r="V32" s="16" t="s">
         <v>156</v>
       </c>
       <c r="W32" s="5" t="s">
@@ -3572,7 +3599,7 @@
       <c r="U33" s="2">
         <v>20</v>
       </c>
-      <c r="V33" s="17" t="s">
+      <c r="V33" s="16" t="s">
         <v>399</v>
       </c>
       <c r="W33" s="5" t="s">
@@ -3624,7 +3651,7 @@
       <c r="U34" s="2">
         <v>15</v>
       </c>
-      <c r="V34" s="17" t="s">
+      <c r="V34" s="16" t="s">
         <v>321</v>
       </c>
       <c r="W34" s="5" t="s">
@@ -3674,7 +3701,7 @@
       <c r="U35" s="2">
         <v>20</v>
       </c>
-      <c r="V35" s="17" t="s">
+      <c r="V35" s="16" t="s">
         <v>244</v>
       </c>
       <c r="W35" s="5" t="s">
@@ -3723,7 +3750,7 @@
       <c r="U36" s="2">
         <v>25</v>
       </c>
-      <c r="V36" s="17" t="s">
+      <c r="V36" s="16" t="s">
         <v>320</v>
       </c>
       <c r="W36" s="5" t="s">
@@ -3736,7 +3763,7 @@
       <c r="K37" s="3"/>
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
-      <c r="V37" s="17"/>
+      <c r="V37" s="16"/>
       <c r="W37" s="5"/>
       <c r="X37" s="5"/>
     </row>
@@ -3842,7 +3869,7 @@
       <c r="S39" s="2">
         <v>15</v>
       </c>
-      <c r="V39" s="17" t="s">
+      <c r="V39" s="16" t="s">
         <v>284</v>
       </c>
       <c r="W39" s="5" t="s">
@@ -3899,7 +3926,7 @@
       <c r="S40" s="2">
         <v>10</v>
       </c>
-      <c r="V40" s="17" t="s">
+      <c r="V40" s="16" t="s">
         <v>285</v>
       </c>
       <c r="W40" s="5" t="s">
@@ -3954,7 +3981,7 @@
       <c r="S41" s="2">
         <v>15</v>
       </c>
-      <c r="V41" s="17" t="s">
+      <c r="V41" s="16" t="s">
         <v>284</v>
       </c>
       <c r="W41" s="5" t="s">
@@ -4011,7 +4038,7 @@
       <c r="S42" s="2">
         <v>10</v>
       </c>
-      <c r="V42" s="17" t="s">
+      <c r="V42" s="16" t="s">
         <v>286</v>
       </c>
       <c r="W42" s="5" t="s">
@@ -4068,7 +4095,7 @@
       <c r="S43" s="1">
         <v>10</v>
       </c>
-      <c r="V43" s="17" t="s">
+      <c r="V43" s="16" t="s">
         <v>287</v>
       </c>
       <c r="W43" s="5" t="s">
@@ -4127,7 +4154,7 @@
       <c r="S44" s="2">
         <v>10</v>
       </c>
-      <c r="V44" s="17" t="s">
+      <c r="V44" s="16" t="s">
         <v>285</v>
       </c>
       <c r="W44" s="5" t="s">
@@ -4178,7 +4205,7 @@
       <c r="S45" s="2">
         <v>10</v>
       </c>
-      <c r="V45" s="17"/>
+      <c r="V45" s="16"/>
       <c r="W45" s="5" t="s">
         <v>100</v>
       </c>
@@ -4230,7 +4257,7 @@
       <c r="S47" s="2">
         <v>15</v>
       </c>
-      <c r="V47" s="17"/>
+      <c r="V47" s="16"/>
       <c r="W47" s="5" t="s">
         <v>218</v>
       </c>
@@ -4321,7 +4348,7 @@
       <c r="S49" s="2">
         <v>10</v>
       </c>
-      <c r="V49" s="17"/>
+      <c r="V49" s="16"/>
       <c r="W49" s="5" t="s">
         <v>104</v>
       </c>
@@ -4368,7 +4395,7 @@
       <c r="S50" s="2">
         <v>15</v>
       </c>
-      <c r="V50" s="17"/>
+      <c r="V50" s="16"/>
       <c r="W50" s="5" t="s">
         <v>41</v>
       </c>
@@ -4456,7 +4483,7 @@
       <c r="S52" s="2">
         <v>17</v>
       </c>
-      <c r="V52" s="17"/>
+      <c r="V52" s="16"/>
       <c r="W52" s="5" t="s">
         <v>41</v>
       </c>
@@ -4503,7 +4530,7 @@
       <c r="S53" s="2">
         <v>20</v>
       </c>
-      <c r="V53" s="17"/>
+      <c r="V53" s="16"/>
       <c r="W53" s="5" t="s">
         <v>103</v>
       </c>
@@ -4550,7 +4577,7 @@
       <c r="S54" s="2">
         <v>20</v>
       </c>
-      <c r="V54" s="17"/>
+      <c r="V54" s="16"/>
       <c r="W54" s="5" t="s">
         <v>104</v>
       </c>
@@ -4605,7 +4632,7 @@
       <c r="S56" s="2">
         <v>10</v>
       </c>
-      <c r="V56" s="17"/>
+      <c r="V56" s="16"/>
       <c r="W56" s="5" t="s">
         <v>100</v>
       </c>
@@ -4654,7 +4681,7 @@
       <c r="S57" s="2">
         <v>15</v>
       </c>
-      <c r="V57" s="17"/>
+      <c r="V57" s="16"/>
       <c r="W57" s="5" t="s">
         <v>135</v>
       </c>
@@ -4703,7 +4730,7 @@
       <c r="S58" s="2">
         <v>20</v>
       </c>
-      <c r="V58" s="17"/>
+      <c r="V58" s="16"/>
       <c r="W58" s="5" t="s">
         <v>164</v>
       </c>
@@ -4799,7 +4826,7 @@
       <c r="S60" s="2">
         <v>15</v>
       </c>
-      <c r="V60" s="17"/>
+      <c r="V60" s="16"/>
       <c r="W60" s="5" t="s">
         <v>168</v>
       </c>
@@ -4848,7 +4875,7 @@
       <c r="S61" s="2">
         <v>15</v>
       </c>
-      <c r="V61" s="17" t="s">
+      <c r="V61" s="16" t="s">
         <v>400</v>
       </c>
       <c r="W61" s="5" t="s">
@@ -4899,7 +4926,7 @@
       <c r="S62" s="2">
         <v>15</v>
       </c>
-      <c r="V62" s="17"/>
+      <c r="V62" s="16"/>
       <c r="W62" s="5" t="s">
         <v>168</v>
       </c>
@@ -5101,7 +5128,7 @@
       <c r="T67" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="V67" s="17" t="s">
+      <c r="V67" s="16" t="s">
         <v>288</v>
       </c>
       <c r="W67" s="5" t="s">
@@ -5152,7 +5179,7 @@
       <c r="S68" s="2">
         <v>10</v>
       </c>
-      <c r="V68" s="17" t="s">
+      <c r="V68" s="16" t="s">
         <v>284</v>
       </c>
       <c r="W68" s="5" t="s">
@@ -5801,7 +5828,7 @@
       <c r="K82" s="3"/>
       <c r="M82" s="4"/>
       <c r="N82" s="4"/>
-      <c r="V82" s="17"/>
+      <c r="V82" s="16"/>
       <c r="W82" s="5"/>
       <c r="X82" s="5"/>
     </row>
@@ -5845,7 +5872,7 @@
       <c r="S83" s="1">
         <v>20</v>
       </c>
-      <c r="V83" s="17" t="s">
+      <c r="V83" s="16" t="s">
         <v>64</v>
       </c>
       <c r="W83" s="5" t="s">
@@ -6200,7 +6227,7 @@
       <c r="J93" s="1">
         <v>1</v>
       </c>
-      <c r="V93" s="17" t="s">
+      <c r="V93" s="16" t="s">
         <v>371</v>
       </c>
     </row>
@@ -6350,22 +6377,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="W1:W2"/>
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="S1:S2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="M1:M2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="X1:X2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="K1:L1048576">
@@ -6583,11 +6610,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01B6F42B-4BB2-402E-8EF0-FC889EE96737}">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H22" sqref="H22"/>
+      <selection pane="bottomRight" activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6598,7 +6625,7 @@
     <col min="4" max="4" width="5.125" style="8" customWidth="1"/>
     <col min="5" max="5" width="5.125" style="11" customWidth="1"/>
     <col min="6" max="6" width="11" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.5" style="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.5" style="24" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="30.375" customWidth="1"/>
     <col min="9" max="9" width="29" customWidth="1"/>
   </cols>
@@ -6613,14 +6640,14 @@
       <c r="C1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="35"/>
+      <c r="E1" s="34"/>
       <c r="F1" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="20" t="s">
         <v>57</v>
       </c>
       <c r="H1" s="10" t="s">
@@ -6640,7 +6667,7 @@
       <c r="E2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="23"/>
+      <c r="G2" s="22"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
@@ -6653,7 +6680,7 @@
       <c r="D3" s="8">
         <v>1</v>
       </c>
-      <c r="G3" s="24"/>
+      <c r="G3" s="23"/>
       <c r="H3" t="s">
         <v>81</v>
       </c>
@@ -6670,7 +6697,7 @@
       <c r="F4" s="9" t="s">
         <v>403</v>
       </c>
-      <c r="G4" s="22"/>
+      <c r="G4" s="21"/>
       <c r="H4" t="s">
         <v>133</v>
       </c>
@@ -6687,7 +6714,7 @@
       <c r="E5" s="11">
         <v>1</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="G5" s="25" t="s">
         <v>203</v>
       </c>
       <c r="H5" t="s">
@@ -6706,7 +6733,7 @@
       <c r="E6" s="11">
         <v>1</v>
       </c>
-      <c r="G6" s="26" t="s">
+      <c r="G6" s="25" t="s">
         <v>202</v>
       </c>
       <c r="H6" t="s">
@@ -6725,7 +6752,7 @@
       <c r="E7" s="11">
         <v>1</v>
       </c>
-      <c r="G7" s="25" t="s">
+      <c r="G7" s="24" t="s">
         <v>153</v>
       </c>
       <c r="H7" t="s">
@@ -6744,7 +6771,7 @@
       <c r="F8" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="24"/>
+      <c r="G8" s="23"/>
       <c r="H8" t="s">
         <v>90</v>
       </c>
@@ -6794,7 +6821,7 @@
       <c r="E12" s="11">
         <v>1</v>
       </c>
-      <c r="G12" s="30" t="s">
+      <c r="G12" s="29" t="s">
         <v>118</v>
       </c>
       <c r="H12" t="s">
@@ -6811,7 +6838,7 @@
       <c r="E13" s="11">
         <v>1</v>
       </c>
-      <c r="G13" s="30" t="s">
+      <c r="G13" s="29" t="s">
         <v>121</v>
       </c>
       <c r="H13" t="s">
@@ -6825,10 +6852,10 @@
       <c r="D14" s="8">
         <v>1</v>
       </c>
-      <c r="E14" s="27">
-        <v>1</v>
-      </c>
-      <c r="G14" s="22" t="s">
+      <c r="E14" s="26">
+        <v>1</v>
+      </c>
+      <c r="G14" s="21" t="s">
         <v>103</v>
       </c>
       <c r="H14" t="s">
@@ -6836,8 +6863,8 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E15" s="27"/>
-      <c r="G15" s="22"/>
+      <c r="E15" s="26"/>
+      <c r="G15" s="21"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
@@ -6849,8 +6876,8 @@
       <c r="D16" s="8">
         <v>1</v>
       </c>
-      <c r="E16" s="27"/>
-      <c r="G16" s="22"/>
+      <c r="E16" s="26"/>
+      <c r="G16" s="21"/>
       <c r="H16" t="s">
         <v>103</v>
       </c>
@@ -6862,10 +6889,10 @@
       <c r="D17" s="8">
         <v>1</v>
       </c>
-      <c r="E17" s="27">
-        <v>1</v>
-      </c>
-      <c r="G17" s="22"/>
+      <c r="E17" s="26">
+        <v>1</v>
+      </c>
+      <c r="G17" s="21"/>
       <c r="H17" t="s">
         <v>90</v>
       </c>
@@ -6877,17 +6904,17 @@
       <c r="D18" s="8">
         <v>1</v>
       </c>
-      <c r="E18" s="27">
-        <v>1</v>
-      </c>
-      <c r="G18" s="22"/>
+      <c r="E18" s="26">
+        <v>1</v>
+      </c>
+      <c r="G18" s="21"/>
       <c r="H18" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E19" s="27"/>
-      <c r="G19" s="22"/>
+      <c r="E19" s="26"/>
+      <c r="G19" s="21"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
@@ -6899,10 +6926,10 @@
       <c r="D20" s="8">
         <v>1</v>
       </c>
-      <c r="E20" s="27">
-        <v>1</v>
-      </c>
-      <c r="G20" s="22"/>
+      <c r="E20" s="26">
+        <v>1</v>
+      </c>
+      <c r="G20" s="21"/>
       <c r="H20" t="s">
         <v>90</v>
       </c>
@@ -6914,10 +6941,10 @@
       <c r="D21" s="8">
         <v>1</v>
       </c>
-      <c r="E21" s="27">
-        <v>1</v>
-      </c>
-      <c r="G21" s="22"/>
+      <c r="E21" s="26">
+        <v>1</v>
+      </c>
+      <c r="G21" s="21"/>
       <c r="H21" t="s">
         <v>117</v>
       </c>
@@ -6929,17 +6956,17 @@
       <c r="D22" s="8">
         <v>1</v>
       </c>
-      <c r="E22" s="27">
-        <v>1</v>
-      </c>
-      <c r="G22" s="22"/>
-      <c r="H22" s="25" t="s">
+      <c r="E22" s="26">
+        <v>1</v>
+      </c>
+      <c r="G22" s="21"/>
+      <c r="H22" s="24" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E23" s="27"/>
-      <c r="G23" s="22"/>
+      <c r="E23" s="26"/>
+      <c r="G23" s="21"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
@@ -6982,7 +7009,7 @@
       <c r="E26" s="11">
         <v>1</v>
       </c>
-      <c r="H26" s="25" t="s">
+      <c r="H26" s="24" t="s">
         <v>166</v>
       </c>
     </row>
@@ -6996,12 +7023,12 @@
       <c r="E27" s="11">
         <v>1</v>
       </c>
-      <c r="H27" s="25" t="s">
+      <c r="H27" s="24" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G28" s="30"/>
+      <c r="G28" s="29"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
@@ -7055,7 +7082,7 @@
       <c r="E32" s="11">
         <v>1</v>
       </c>
-      <c r="G32" s="25" t="s">
+      <c r="G32" s="24" t="s">
         <v>109</v>
       </c>
       <c r="H32" t="s">
@@ -7075,7 +7102,7 @@
       <c r="E35" s="11">
         <v>1</v>
       </c>
-      <c r="G35" s="25" t="s">
+      <c r="G35" s="24" t="s">
         <v>270</v>
       </c>
       <c r="H35" t="s">
@@ -7089,13 +7116,13 @@
       <c r="D36" s="8">
         <v>1</v>
       </c>
-      <c r="E36" s="27">
-        <v>1</v>
-      </c>
-      <c r="G36" s="25" t="s">
+      <c r="E36" s="26">
+        <v>1</v>
+      </c>
+      <c r="G36" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="H36" s="25" t="s">
+      <c r="H36" s="24" t="s">
         <v>118</v>
       </c>
     </row>
@@ -7106,7 +7133,7 @@
       <c r="D37" s="8">
         <v>1</v>
       </c>
-      <c r="E37" s="27"/>
+      <c r="E37" s="26"/>
       <c r="H37" t="s">
         <v>117</v>
       </c>
@@ -7118,7 +7145,7 @@
       <c r="D38" s="8">
         <v>1</v>
       </c>
-      <c r="G38" s="22" t="s">
+      <c r="G38" s="21" t="s">
         <v>121</v>
       </c>
       <c r="H38" t="s">
@@ -7135,7 +7162,7 @@
       <c r="E39" s="11">
         <v>1</v>
       </c>
-      <c r="G39" s="25" t="s">
+      <c r="G39" s="24" t="s">
         <v>271</v>
       </c>
       <c r="H39" t="s">
@@ -7152,7 +7179,7 @@
       <c r="D41" s="8">
         <v>1</v>
       </c>
-      <c r="G41" s="25" t="s">
+      <c r="G41" s="24" t="s">
         <v>109</v>
       </c>
       <c r="H41" t="s">
@@ -7183,7 +7210,7 @@
       <c r="E44" s="11">
         <v>1</v>
       </c>
-      <c r="G44" s="25" t="s">
+      <c r="G44" s="24" t="s">
         <v>118</v>
       </c>
       <c r="H44" t="s">
@@ -7222,7 +7249,7 @@
       <c r="E47" s="11">
         <v>1</v>
       </c>
-      <c r="G47" s="22" t="s">
+      <c r="G47" s="21" t="s">
         <v>121</v>
       </c>
       <c r="H47" t="s">
@@ -7242,10 +7269,10 @@
       <c r="E49" s="11">
         <v>1</v>
       </c>
-      <c r="G49" s="22" t="s">
+      <c r="G49" s="21" t="s">
         <v>354</v>
       </c>
-      <c r="H49" s="25" t="s">
+      <c r="H49" s="24" t="s">
         <v>263</v>
       </c>
     </row>
@@ -7259,7 +7286,7 @@
       <c r="E50" s="11">
         <v>1</v>
       </c>
-      <c r="G50" s="25" t="s">
+      <c r="G50" s="24" t="s">
         <v>350</v>
       </c>
       <c r="H50" t="s">
@@ -7273,13 +7300,13 @@
       <c r="D51" s="8">
         <v>1</v>
       </c>
-      <c r="E51" s="27">
+      <c r="E51" s="26">
         <v>1</v>
       </c>
       <c r="F51" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G51" s="22" t="s">
+      <c r="G51" s="21" t="s">
         <v>361</v>
       </c>
       <c r="H51" t="s">
@@ -7293,10 +7320,10 @@
       <c r="D52" s="8">
         <v>1</v>
       </c>
-      <c r="E52" s="27">
-        <v>1</v>
-      </c>
-      <c r="G52" s="22" t="s">
+      <c r="E52" s="26">
+        <v>1</v>
+      </c>
+      <c r="G52" s="21" t="s">
         <v>355</v>
       </c>
       <c r="H52" t="s">
@@ -7310,10 +7337,10 @@
       <c r="D53" s="8">
         <v>1</v>
       </c>
-      <c r="E53" s="27">
-        <v>1</v>
-      </c>
-      <c r="H53" s="25" t="s">
+      <c r="E53" s="26">
+        <v>1</v>
+      </c>
+      <c r="H53" s="24" t="s">
         <v>118</v>
       </c>
     </row>
@@ -7324,7 +7351,7 @@
       <c r="D54" s="8">
         <v>1</v>
       </c>
-      <c r="E54" s="27">
+      <c r="E54" s="26">
         <v>1</v>
       </c>
       <c r="H54" t="s">
@@ -7341,10 +7368,10 @@
       <c r="D56" s="8">
         <v>1</v>
       </c>
-      <c r="E56" s="27">
-        <v>1</v>
-      </c>
-      <c r="G56" s="22" t="s">
+      <c r="E56" s="26">
+        <v>1</v>
+      </c>
+      <c r="G56" s="21" t="s">
         <v>369</v>
       </c>
       <c r="H56" t="s">
@@ -7361,7 +7388,7 @@
       <c r="E57" s="11">
         <v>1</v>
       </c>
-      <c r="G57" s="18" t="s">
+      <c r="G57" s="17" t="s">
         <v>371</v>
       </c>
     </row>
@@ -7390,10 +7417,10 @@
     <col min="1" max="1" width="9" style="6"/>
     <col min="2" max="2" width="15.375" style="6" customWidth="1"/>
     <col min="4" max="4" width="9" style="12"/>
-    <col min="5" max="5" width="11" style="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29" style="25" customWidth="1"/>
+    <col min="5" max="5" width="11" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29" style="24" customWidth="1"/>
     <col min="7" max="7" width="30.375" customWidth="1"/>
-    <col min="8" max="8" width="34" style="22" customWidth="1"/>
+    <col min="8" max="8" width="34" style="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -7409,16 +7436,16 @@
       <c r="D1" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="20" t="s">
         <v>57</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="20" t="s">
         <v>37</v>
       </c>
     </row>
@@ -7427,7 +7454,7 @@
       <c r="B2" s="2"/>
       <c r="C2" s="1"/>
       <c r="D2" s="3"/>
-      <c r="F2" s="23"/>
+      <c r="F2" s="22"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
@@ -7440,10 +7467,10 @@
       <c r="D3" s="3">
         <v>5</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="24"/>
+      <c r="F3" s="23"/>
       <c r="G3" t="s">
         <v>135</v>
       </c>
@@ -7457,7 +7484,7 @@
       <c r="D4" s="3">
         <v>5</v>
       </c>
-      <c r="F4" s="24"/>
+      <c r="F4" s="23"/>
       <c r="G4" t="s">
         <v>104</v>
       </c>
@@ -7471,14 +7498,14 @@
       <c r="D5" s="3">
         <v>10</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="24"/>
+      <c r="F5" s="23"/>
       <c r="G5" t="s">
         <v>100</v>
       </c>
-      <c r="H5" s="22" t="s">
+      <c r="H5" s="21" t="s">
         <v>148</v>
       </c>
     </row>
@@ -7491,10 +7518,10 @@
       <c r="D6" s="3">
         <v>15</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="F6" s="24"/>
+      <c r="F6" s="23"/>
       <c r="G6" t="s">
         <v>101</v>
       </c>
@@ -7503,14 +7530,14 @@
       <c r="A7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="3"/>
-      <c r="F7" s="24"/>
+      <c r="F7" s="23"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="3"/>
-      <c r="F8" s="24"/>
+      <c r="F8" s="23"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B9" s="2"/>
@@ -7527,16 +7554,16 @@
       <c r="D11" s="12">
         <v>20</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F11" s="25" t="s">
+      <c r="F11" s="24" t="s">
         <v>125</v>
       </c>
       <c r="G11" t="s">
         <v>101</v>
       </c>
-      <c r="H11" s="22" t="s">
+      <c r="H11" s="21" t="s">
         <v>126</v>
       </c>
     </row>
@@ -7605,16 +7632,16 @@
       <c r="D19" s="12">
         <v>20</v>
       </c>
-      <c r="E19" s="19" t="s">
+      <c r="E19" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F19" s="25" t="s">
+      <c r="F19" s="24" t="s">
         <v>125</v>
       </c>
       <c r="G19" t="s">
         <v>101</v>
       </c>
-      <c r="H19" s="22" t="s">
+      <c r="H19" s="21" t="s">
         <v>233</v>
       </c>
     </row>
@@ -7722,13 +7749,13 @@
       <c r="D31" s="12">
         <v>15</v>
       </c>
-      <c r="F31" s="22" t="s">
+      <c r="F31" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="G31" s="22" t="s">
+      <c r="G31" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="H31" s="22" t="s">
+      <c r="H31" s="21" t="s">
         <v>99</v>
       </c>
     </row>
@@ -7739,7 +7766,7 @@
       <c r="D32" s="12">
         <v>5</v>
       </c>
-      <c r="E32" s="19" t="s">
+      <c r="E32" s="18" t="s">
         <v>40</v>
       </c>
       <c r="G32" t="s">
@@ -7753,13 +7780,13 @@
       <c r="D33" s="12">
         <v>5</v>
       </c>
-      <c r="F33" s="25" t="s">
+      <c r="F33" s="24" t="s">
         <v>98</v>
       </c>
       <c r="G33" t="s">
         <v>101</v>
       </c>
-      <c r="H33" s="22" t="s">
+      <c r="H33" s="21" t="s">
         <v>97</v>
       </c>
     </row>
@@ -7792,10 +7819,10 @@
       <c r="D36" s="12">
         <v>5</v>
       </c>
-      <c r="E36" s="19" t="s">
+      <c r="E36" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F36" s="25" t="s">
+      <c r="F36" s="24" t="s">
         <v>107</v>
       </c>
       <c r="G36" t="s">
@@ -7812,10 +7839,10 @@
       <c r="D38" s="12">
         <v>5</v>
       </c>
-      <c r="F38" s="22" t="s">
+      <c r="F38" s="21" t="s">
         <v>263</v>
       </c>
-      <c r="G38" s="22" t="s">
+      <c r="G38" s="21" t="s">
         <v>263</v>
       </c>
     </row>
@@ -7826,10 +7853,10 @@
       <c r="D39" s="12">
         <v>20</v>
       </c>
-      <c r="E39" s="19" t="s">
+      <c r="E39" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F39" s="25" t="s">
+      <c r="F39" s="24" t="s">
         <v>125</v>
       </c>
       <c r="G39" t="s">
@@ -7857,10 +7884,10 @@
       <c r="D42" s="12">
         <v>10</v>
       </c>
-      <c r="E42" s="19" t="s">
+      <c r="E42" s="18" t="s">
         <v>281</v>
       </c>
-      <c r="F42" s="22" t="s">
+      <c r="F42" s="21" t="s">
         <v>280</v>
       </c>
       <c r="G42" t="s">
@@ -7874,13 +7901,13 @@
       <c r="D43" s="12">
         <v>6</v>
       </c>
-      <c r="E43" s="19" t="s">
+      <c r="E43" s="18" t="s">
         <v>35</v>
       </c>
       <c r="G43" t="s">
         <v>100</v>
       </c>
-      <c r="H43" s="22" t="s">
+      <c r="H43" s="21" t="s">
         <v>282</v>
       </c>
     </row>
@@ -7891,7 +7918,7 @@
       <c r="D44" s="12">
         <v>8</v>
       </c>
-      <c r="E44" s="19" t="s">
+      <c r="E44" s="18" t="s">
         <v>114</v>
       </c>
       <c r="G44" t="s">
@@ -7905,7 +7932,7 @@
       <c r="D45" s="12">
         <v>5</v>
       </c>
-      <c r="E45" s="19" t="s">
+      <c r="E45" s="18" t="s">
         <v>40</v>
       </c>
       <c r="G45" t="s">
@@ -7919,7 +7946,7 @@
       <c r="D46" s="12">
         <v>5</v>
       </c>
-      <c r="E46" s="19" t="s">
+      <c r="E46" s="18" t="s">
         <v>35</v>
       </c>
       <c r="G46" t="s">
@@ -7933,13 +7960,13 @@
       <c r="D47" s="12">
         <v>7</v>
       </c>
-      <c r="F47" s="22" t="s">
+      <c r="F47" s="21" t="s">
         <v>296</v>
       </c>
       <c r="G47" t="s">
         <v>100</v>
       </c>
-      <c r="H47" s="22" t="s">
+      <c r="H47" s="21" t="s">
         <v>302</v>
       </c>
     </row>
@@ -7950,16 +7977,16 @@
       <c r="D48" s="12">
         <v>5</v>
       </c>
-      <c r="E48" s="19" t="s">
+      <c r="E48" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F48" s="22" t="s">
+      <c r="F48" s="21" t="s">
         <v>307</v>
       </c>
       <c r="G48" t="s">
         <v>101</v>
       </c>
-      <c r="H48" s="22" t="s">
+      <c r="H48" s="21" t="s">
         <v>306</v>
       </c>
     </row>
@@ -7995,7 +8022,7 @@
       <c r="D52" s="12">
         <v>5</v>
       </c>
-      <c r="E52" s="19" t="s">
+      <c r="E52" s="18" t="s">
         <v>40</v>
       </c>
       <c r="G52" t="s">
@@ -8009,10 +8036,10 @@
       <c r="D53" s="12">
         <v>10</v>
       </c>
-      <c r="E53" s="19" t="s">
+      <c r="E53" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F53" s="25" t="s">
+      <c r="F53" s="24" t="s">
         <v>125</v>
       </c>
       <c r="G53" t="s">
@@ -8040,7 +8067,7 @@
       <c r="D56" s="12">
         <v>10</v>
       </c>
-      <c r="E56" s="19" t="s">
+      <c r="E56" s="18" t="s">
         <v>35</v>
       </c>
       <c r="G56" t="s">
@@ -8054,7 +8081,7 @@
       <c r="D57" s="12">
         <v>5</v>
       </c>
-      <c r="G57" s="22" t="s">
+      <c r="G57" s="21" t="s">
         <v>263</v>
       </c>
     </row>
@@ -8068,7 +8095,7 @@
       <c r="D59" s="12">
         <v>7</v>
       </c>
-      <c r="E59" s="19" t="s">
+      <c r="E59" s="18" t="s">
         <v>35</v>
       </c>
       <c r="G59" t="s">
@@ -8082,10 +8109,10 @@
       <c r="D60" s="12">
         <v>5</v>
       </c>
-      <c r="E60" s="19" t="s">
+      <c r="E60" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F60" s="22" t="s">
+      <c r="F60" s="21" t="s">
         <v>369</v>
       </c>
       <c r="G60" t="s">
@@ -8099,7 +8126,7 @@
       <c r="D61" s="12">
         <v>5</v>
       </c>
-      <c r="E61" s="19" t="s">
+      <c r="E61" s="18" t="s">
         <v>40</v>
       </c>
       <c r="G61" t="s">
@@ -8113,7 +8140,7 @@
       <c r="D62" s="12">
         <v>5</v>
       </c>
-      <c r="F62" s="22"/>
+      <c r="F62" s="21"/>
       <c r="G62" t="s">
         <v>100</v>
       </c>
@@ -8122,7 +8149,7 @@
       <c r="B63" s="6" t="s">
         <v>386</v>
       </c>
-      <c r="F63" s="18" t="s">
+      <c r="F63" s="17" t="s">
         <v>371</v>
       </c>
     </row>
@@ -8138,7 +8165,7 @@
   <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
@@ -8149,7 +8176,7 @@
     <col min="1" max="1" width="9" style="6"/>
     <col min="2" max="2" width="11" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="6"/>
-    <col min="4" max="4" width="56.125" style="29" customWidth="1"/>
+    <col min="4" max="4" width="56.125" style="28" customWidth="1"/>
     <col min="5" max="5" width="30.375" style="6" customWidth="1"/>
     <col min="6" max="16384" width="9" style="6"/>
   </cols>
@@ -8164,7 +8191,7 @@
       <c r="C1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="19" t="s">
         <v>34</v>
       </c>
       <c r="E1" s="10"/>
@@ -8176,7 +8203,7 @@
       <c r="B2" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="28" t="s">
         <v>144</v>
       </c>
     </row>
@@ -8184,7 +8211,7 @@
       <c r="B3" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="28" t="s">
         <v>143</v>
       </c>
     </row>
@@ -8192,7 +8219,7 @@
       <c r="B4" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="27" t="s">
         <v>146</v>
       </c>
     </row>
@@ -8204,7 +8231,7 @@
         <v>42</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="27" t="s">
         <v>45</v>
       </c>
     </row>
@@ -8214,7 +8241,7 @@
         <v>129</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="27" t="s">
         <v>131</v>
       </c>
     </row>
@@ -8224,7 +8251,7 @@
         <v>130</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="27" t="s">
         <v>90</v>
       </c>
     </row>
@@ -8233,7 +8260,7 @@
       <c r="B9" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="28" t="s">
         <v>44</v>
       </c>
     </row>
@@ -8242,7 +8269,7 @@
         <v>156</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="28"/>
+      <c r="D10" s="27"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
@@ -8252,7 +8279,7 @@
         <v>236</v>
       </c>
       <c r="C11" s="2"/>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="27" t="s">
         <v>237</v>
       </c>
     </row>
@@ -8261,7 +8288,7 @@
         <v>238</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="27" t="s">
         <v>239</v>
       </c>
     </row>
@@ -8270,7 +8297,7 @@
         <v>240</v>
       </c>
       <c r="C13" s="2"/>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="27" t="s">
         <v>41</v>
       </c>
     </row>
@@ -8286,7 +8313,7 @@
         <v>254</v>
       </c>
       <c r="C15" s="2"/>
-      <c r="D15" s="29" t="s">
+      <c r="D15" s="28" t="s">
         <v>257</v>
       </c>
     </row>
@@ -8295,7 +8322,7 @@
         <v>256</v>
       </c>
       <c r="C16" s="2"/>
-      <c r="D16" s="29" t="s">
+      <c r="D16" s="28" t="s">
         <v>255</v>
       </c>
     </row>
@@ -8303,7 +8330,7 @@
       <c r="B17" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="29" t="s">
+      <c r="D17" s="28" t="s">
         <v>62</v>
       </c>
     </row>
@@ -8318,7 +8345,7 @@
       <c r="B19" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="D19" s="29" t="s">
+      <c r="D19" s="28" t="s">
         <v>177</v>
       </c>
     </row>
@@ -8326,7 +8353,7 @@
       <c r="B20" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="D20" s="29" t="s">
+      <c r="D20" s="28" t="s">
         <v>190</v>
       </c>
     </row>
@@ -8334,7 +8361,7 @@
       <c r="B21" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="D21" s="29" t="s">
+      <c r="D21" s="28" t="s">
         <v>201</v>
       </c>
     </row>
@@ -8350,7 +8377,7 @@
         <v>74</v>
       </c>
       <c r="C23" s="2"/>
-      <c r="D23" s="29" t="s">
+      <c r="D23" s="28" t="s">
         <v>75</v>
       </c>
     </row>
@@ -8359,7 +8386,7 @@
         <v>76</v>
       </c>
       <c r="C24" s="2"/>
-      <c r="D24" s="28" t="s">
+      <c r="D24" s="27" t="s">
         <v>78</v>
       </c>
     </row>
@@ -8368,7 +8395,7 @@
         <v>77</v>
       </c>
       <c r="C25" s="2"/>
-      <c r="D25" s="29" t="s">
+      <c r="D25" s="28" t="s">
         <v>79</v>
       </c>
     </row>
@@ -8379,7 +8406,7 @@
       <c r="B27" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D27" s="28" t="s">
+      <c r="D27" s="27" t="s">
         <v>49</v>
       </c>
     </row>
@@ -8387,7 +8414,7 @@
       <c r="B28" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="D28" s="28" t="s">
+      <c r="D28" s="27" t="s">
         <v>158</v>
       </c>
     </row>
@@ -8395,7 +8422,7 @@
       <c r="B29" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="D29" s="28" t="s">
+      <c r="D29" s="27" t="s">
         <v>161</v>
       </c>
     </row>
@@ -8403,12 +8430,12 @@
       <c r="B30" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="D30" s="29" t="s">
+      <c r="D30" s="28" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D31" s="28"/>
+      <c r="D31" s="27"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
@@ -8417,7 +8444,7 @@
       <c r="B32" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="D32" s="29" t="s">
+      <c r="D32" s="28" t="s">
         <v>291</v>
       </c>
     </row>
@@ -8425,7 +8452,7 @@
       <c r="B33" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="D33" s="29" t="s">
+      <c r="D33" s="28" t="s">
         <v>255</v>
       </c>
     </row>
@@ -8433,7 +8460,7 @@
       <c r="B34" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="D34" s="29" t="s">
+      <c r="D34" s="28" t="s">
         <v>311</v>
       </c>
     </row>
@@ -8444,7 +8471,7 @@
       <c r="B36" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="D36" s="29" t="s">
+      <c r="D36" s="28" t="s">
         <v>334</v>
       </c>
     </row>
@@ -8452,7 +8479,7 @@
       <c r="B37" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="D37" s="29" t="s">
+      <c r="D37" s="28" t="s">
         <v>255</v>
       </c>
     </row>
@@ -8460,7 +8487,7 @@
       <c r="B38" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="D38" s="28" t="s">
+      <c r="D38" s="27" t="s">
         <v>337</v>
       </c>
     </row>
@@ -8471,7 +8498,7 @@
       <c r="B40" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="D40" s="28" t="s">
+      <c r="D40" s="27" t="s">
         <v>367</v>
       </c>
     </row>
@@ -8479,7 +8506,7 @@
       <c r="B41" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="D41" s="29" t="s">
+      <c r="D41" s="28" t="s">
         <v>364</v>
       </c>
     </row>
@@ -8487,7 +8514,7 @@
       <c r="B42" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="D42" s="29" t="s">
+      <c r="D42" s="28" t="s">
         <v>366</v>
       </c>
     </row>
@@ -8498,7 +8525,7 @@
       <c r="B44" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="D44" s="29" t="s">
+      <c r="D44" s="28" t="s">
         <v>375</v>
       </c>
     </row>
@@ -8506,7 +8533,7 @@
       <c r="B45" s="6" t="s">
         <v>374</v>
       </c>
-      <c r="D45" s="29" t="s">
+      <c r="D45" s="28" t="s">
         <v>376</v>
       </c>
     </row>
@@ -8514,7 +8541,7 @@
       <c r="B46" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="D46" s="29" t="s">
+      <c r="D46" s="28" t="s">
         <v>378</v>
       </c>
     </row>
@@ -8527,10 +8554,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3FDCBA0-BE27-412B-BDDC-A4596FFA7F45}">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:N55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8541,7 +8568,7 @@
     <col min="7" max="15" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -8578,8 +8605,11 @@
       <c r="L1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N1" s="35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -8598,8 +8628,11 @@
       <c r="K2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N2" s="35" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>389</v>
       </c>
@@ -8616,7 +8649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>388</v>
       </c>
@@ -8630,7 +8663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -8644,7 +8677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -8658,7 +8691,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>387</v>
       </c>
@@ -8672,7 +8705,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -8686,7 +8719,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -8697,7 +8730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>390</v>
       </c>
@@ -8708,7 +8741,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>391</v>
       </c>
@@ -8719,60 +8752,968 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>409</v>
       </c>
       <c r="B14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>15</v>
+      </c>
+      <c r="D14">
+        <v>10</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="F14">
+        <v>8</v>
+      </c>
+      <c r="G14">
+        <v>12</v>
+      </c>
+      <c r="H14">
+        <v>10</v>
+      </c>
+      <c r="I14">
+        <v>5</v>
+      </c>
+      <c r="J14">
+        <v>8</v>
+      </c>
+      <c r="K14">
+        <v>10</v>
+      </c>
+      <c r="L14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>20</v>
       </c>
       <c r="B15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>8</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="G15">
+        <v>10</v>
+      </c>
+      <c r="H15">
+        <v>3</v>
+      </c>
+      <c r="I15">
+        <v>15</v>
+      </c>
+      <c r="J15">
+        <v>3</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>19</v>
       </c>
       <c r="B16">
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>11</v>
+      </c>
+      <c r="D16">
+        <v>7</v>
+      </c>
+      <c r="E16">
+        <v>5</v>
+      </c>
+      <c r="F16">
+        <v>4</v>
+      </c>
+      <c r="G16">
+        <v>6</v>
+      </c>
+      <c r="H16">
+        <v>12</v>
+      </c>
+      <c r="I16">
+        <v>4</v>
+      </c>
+      <c r="J16">
+        <v>3</v>
+      </c>
+      <c r="K16">
+        <v>15</v>
+      </c>
+      <c r="L16">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D17">
+        <v>10</v>
+      </c>
+      <c r="E17">
+        <v>12</v>
+      </c>
+      <c r="F17">
+        <v>10</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17">
+        <v>10</v>
+      </c>
+      <c r="J17">
+        <v>15</v>
+      </c>
+      <c r="L17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>407</v>
       </c>
       <c r="B18">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="13" t="s">
-        <v>46</v>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>10</v>
+      </c>
+      <c r="F18">
+        <v>10</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18">
+        <v>15</v>
+      </c>
+      <c r="I18">
+        <v>10</v>
+      </c>
+      <c r="K18">
+        <v>9</v>
+      </c>
+      <c r="L18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C21">
+        <v>43</v>
+      </c>
+      <c r="D21">
+        <v>33</v>
+      </c>
+      <c r="E21">
+        <v>30</v>
+      </c>
+      <c r="F21">
+        <v>44</v>
+      </c>
+      <c r="G21">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>409</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" t="s">
+        <v>408</v>
+      </c>
+      <c r="G22" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C23" s="36">
+        <v>3</v>
+      </c>
+      <c r="F23" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>410</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <f>C$23*$B24</f>
+        <v>15</v>
+      </c>
+      <c r="D24">
+        <f t="shared" ref="D24:G24" si="0">D$23*$B24</f>
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25">
+        <f t="shared" ref="C25:G29" si="1">C$23*$B25</f>
+        <v>12</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D30" s="36">
+        <v>3</v>
+      </c>
+      <c r="G30" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>411</v>
+      </c>
+      <c r="B31">
+        <v>5</v>
+      </c>
+      <c r="D31">
+        <f>D$30*$B31</f>
+        <v>15</v>
+      </c>
+      <c r="G31">
+        <f>G$30*$B31</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="D32">
+        <f t="shared" ref="D32:D36" si="2">D$30*$B32</f>
+        <v>12</v>
+      </c>
+      <c r="G32">
+        <f t="shared" ref="G32:G36" si="3">G$30*$B32</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C37" s="36">
+        <v>1</v>
+      </c>
+      <c r="F37" s="36">
+        <v>2</v>
+      </c>
+      <c r="G37" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>412</v>
+      </c>
+      <c r="B38">
+        <v>5</v>
+      </c>
+      <c r="C38">
+        <f>C$37*$B38</f>
+        <v>5</v>
+      </c>
+      <c r="D38">
+        <f t="shared" ref="D38:G45" si="4">D$37*$B38</f>
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B39">
+        <v>4</v>
+      </c>
+      <c r="C39">
+        <f t="shared" ref="C39:C43" si="5">C$37*$B39</f>
+        <v>4</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E44" s="36">
+        <v>3</v>
+      </c>
+      <c r="G44" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>413</v>
+      </c>
+      <c r="B45">
+        <v>5</v>
+      </c>
+      <c r="C45">
+        <f>C$44*$B45</f>
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <f>D$44*$B45</f>
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <f>E$44*$B45</f>
+        <v>15</v>
+      </c>
+      <c r="F45">
+        <f>F$44*$B45</f>
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <f>G$44*$B45</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B46">
+        <v>4</v>
+      </c>
+      <c r="C46">
+        <f>C$44*$B46</f>
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <f>D$44*$B46</f>
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <f>E$44*$B46</f>
+        <v>12</v>
+      </c>
+      <c r="F46">
+        <f>F$44*$B46</f>
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <f t="shared" ref="G46:G50" si="6">G$44*$B46</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B47">
+        <v>3</v>
+      </c>
+      <c r="C47">
+        <f>C$44*$B47</f>
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <f>D$44*$B47</f>
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <f>E$44*$B47</f>
+        <v>9</v>
+      </c>
+      <c r="F47">
+        <f>F$44*$B47</f>
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B48">
+        <v>2</v>
+      </c>
+      <c r="C48">
+        <f>C$44*$B48</f>
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <f>D$44*$B48</f>
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <f>E$44*$B48</f>
+        <v>6</v>
+      </c>
+      <c r="F48">
+        <f>F$44*$B48</f>
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <f>C$44*$B49</f>
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <f>D$44*$B49</f>
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <f>E$44*$B49</f>
+        <v>3</v>
+      </c>
+      <c r="F49">
+        <f>F$44*$B49</f>
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <f>C$44*$B50</f>
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <f>D$44*$B50</f>
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <f>E$44*$B50</f>
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <f>F$44*$B50</f>
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C51" s="36">
+        <v>1</v>
+      </c>
+      <c r="D51" s="36">
+        <v>1</v>
+      </c>
+      <c r="F51" s="36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>414</v>
+      </c>
+      <c r="B52">
+        <v>3</v>
+      </c>
+      <c r="C52">
+        <f>C$51*$B52</f>
+        <v>3</v>
+      </c>
+      <c r="D52">
+        <f t="shared" ref="D52:G52" si="7">D$51*$B52</f>
+        <v>3</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B53">
+        <v>2</v>
+      </c>
+      <c r="C53">
+        <f t="shared" ref="C53:G55" si="8">C$51*$B53</f>
+        <v>2</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A32" r:id="rId1" xr:uid="{ECACB06B-CC8D-4857-BAC6-0ECB1F299483}"/>
-    <hyperlink ref="A31" r:id="rId2" xr:uid="{80C90FB2-346D-4978-A601-98A2C36DF31C}"/>
-  </hyperlinks>
+  <conditionalFormatting sqref="C24:G29 C52:G55 C45:G50 C38:G43 C31:G36">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{603AD5BD-1C81-4B4C-8098-20FD4C8A911F}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14:L18">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{65661E14-81B0-4E71-B39E-641D05BAB434}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{603AD5BD-1C81-4B4C-8098-20FD4C8A911F}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C24:G29 C52:G55 C45:G50 C38:G43 C31:G36</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{65661E14-81B0-4E71-B39E-641D05BAB434}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B14:L18</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>